--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E05CFB-AFF9-43F8-BB4E-D23D28AE26BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42731E25-6571-4678-8AAC-4C8165608592}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="182">
   <si>
     <t>Day</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="B2" sqref="B2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -975,18 +978,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2018-12-01</v>
+        <v>2019-01-01</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2018-12-01;2018-12-01.csv</v>
+        <v>2019-01-01;2019-01-01.csv</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -997,11 +1000,11 @@
       </c>
       <c r="H2" s="5" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-12-01'; SET @perioddate=str_to_date('2018-12-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-01'; SET @perioddate=str_to_date('2019-01-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-01;2018-12-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-01;2019-01-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1009,18 +1012,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2018-12-02</v>
+        <v>2019-01-02</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2018-12-02;2018-12-02.csv</v>
+        <v>2019-01-02;2019-01-02.csv</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1031,11 +1034,11 @@
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-12-02'; SET @perioddate=str_to_date('2018-12-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-02'; SET @perioddate=str_to_date('2019-01-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-02;2018-12-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-02;2019-01-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1043,18 +1046,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-03</v>
+        <v>2019-01-03</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-03;2018-12-03.csv</v>
+        <v>2019-01-03;2019-01-03.csv</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1065,11 +1068,11 @@
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-03'; SET @perioddate=str_to_date('2018-12-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-03'; SET @perioddate=str_to_date('2019-01-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-03;2018-12-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-03;2019-01-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1077,18 +1080,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-04</v>
+        <v>2019-01-04</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-04;2018-12-04.csv</v>
+        <v>2019-01-04;2019-01-04.csv</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1099,11 +1102,11 @@
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-04'; SET @perioddate=str_to_date('2018-12-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-04'; SET @perioddate=str_to_date('2019-01-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-04;2018-12-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-04;2019-01-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,18 +1114,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-05</v>
+        <v>2019-01-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-05;2018-12-05.csv</v>
+        <v>2019-01-05;2019-01-05.csv</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1133,11 +1136,11 @@
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-05'; SET @perioddate=str_to_date('2018-12-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-05'; SET @perioddate=str_to_date('2019-01-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-05;2018-12-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-05;2019-01-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1145,18 +1148,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-06</v>
+        <v>2019-01-06</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-06;2018-12-06.csv</v>
+        <v>2019-01-06;2019-01-06.csv</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1167,11 +1170,11 @@
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-06'; SET @perioddate=str_to_date('2018-12-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-06'; SET @perioddate=str_to_date('2019-01-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-06;2018-12-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-06;2019-01-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1179,18 +1182,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-07</v>
+        <v>2019-01-07</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-07;2018-12-07.csv</v>
+        <v>2019-01-07;2019-01-07.csv</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1201,11 +1204,11 @@
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-07'; SET @perioddate=str_to_date('2018-12-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-07'; SET @perioddate=str_to_date('2019-01-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-07;2018-12-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-07;2019-01-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1213,18 +1216,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-08</v>
+        <v>2019-01-08</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-08;2018-12-08.csv</v>
+        <v>2019-01-08;2019-01-08.csv</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1235,11 +1238,11 @@
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-08'; SET @perioddate=str_to_date('2018-12-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-08'; SET @perioddate=str_to_date('2019-01-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-08;2018-12-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-08;2019-01-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1247,18 +1250,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-09</v>
+        <v>2019-01-09</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-09;2018-12-09.csv</v>
+        <v>2019-01-09;2019-01-09.csv</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1269,11 +1272,11 @@
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-09'; SET @perioddate=str_to_date('2018-12-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-09'; SET @perioddate=str_to_date('2019-01-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-09;2018-12-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-09;2019-01-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1281,18 +1284,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-10</v>
+        <v>2019-01-10</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-10;2018-12-10.csv</v>
+        <v>2019-01-10;2019-01-10.csv</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1303,11 +1306,11 @@
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-10'; SET @perioddate=str_to_date('2018-12-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-10'; SET @perioddate=str_to_date('2019-01-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-10;2018-12-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-10;2019-01-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1315,18 +1318,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-11</v>
+        <v>2019-01-11</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-11;2018-12-11.csv</v>
+        <v>2019-01-11;2019-01-11.csv</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1337,11 +1340,11 @@
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-11'; SET @perioddate=str_to_date('2018-12-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-11'; SET @perioddate=str_to_date('2019-01-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-11;2018-12-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-11;2019-01-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1349,18 +1352,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-12</v>
+        <v>2019-01-12</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-12;2018-12-12.csv</v>
+        <v>2019-01-12;2019-01-12.csv</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1371,11 +1374,11 @@
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-12'; SET @perioddate=str_to_date('2018-12-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-12'; SET @perioddate=str_to_date('2019-01-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-12;2018-12-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-12;2019-01-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,18 +1386,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-13</v>
+        <v>2019-01-13</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-13;2018-12-13.csv</v>
+        <v>2019-01-13;2019-01-13.csv</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1405,11 +1408,11 @@
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-13'; SET @perioddate=str_to_date('2018-12-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-13'; SET @perioddate=str_to_date('2019-01-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-13;2018-12-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-13;2019-01-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1417,18 +1420,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-14</v>
+        <v>2019-01-14</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-14;2018-12-14.csv</v>
+        <v>2019-01-14;2019-01-14.csv</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1439,11 +1442,11 @@
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-14'; SET @perioddate=str_to_date('2018-12-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-14'; SET @perioddate=str_to_date('2019-01-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-14;2018-12-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-14;2019-01-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1451,18 +1454,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-15</v>
+        <v>2019-01-15</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-15;2018-12-15.csv</v>
+        <v>2019-01-15;2019-01-15.csv</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1473,11 +1476,11 @@
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-15'; SET @perioddate=str_to_date('2018-12-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-15'; SET @perioddate=str_to_date('2019-01-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-15;2018-12-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-15;2019-01-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1485,18 +1488,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-16</v>
+        <v>2019-01-16</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-16;2018-12-16.csv</v>
+        <v>2019-01-16;2019-01-16.csv</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1507,11 +1510,11 @@
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-16'; SET @perioddate=str_to_date('2018-12-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-16'; SET @perioddate=str_to_date('2019-01-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-16;2018-12-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-16;2019-01-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1519,18 +1522,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-17</v>
+        <v>2019-01-17</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-17;2018-12-17.csv</v>
+        <v>2019-01-17;2019-01-17.csv</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1541,11 +1544,11 @@
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-17'; SET @perioddate=str_to_date('2018-12-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-17'; SET @perioddate=str_to_date('2019-01-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-17;2018-12-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-17;2019-01-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1553,18 +1556,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-18</v>
+        <v>2019-01-18</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-18;2018-12-18.csv</v>
+        <v>2019-01-18;2019-01-18.csv</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1575,11 +1578,11 @@
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-18'; SET @perioddate=str_to_date('2018-12-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-18'; SET @perioddate=str_to_date('2019-01-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-18;2018-12-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-18;2019-01-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1587,18 +1590,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-19</v>
+        <v>2019-01-19</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-19;2018-12-19.csv</v>
+        <v>2019-01-19;2019-01-19.csv</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1609,11 +1612,11 @@
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-19'; SET @perioddate=str_to_date('2018-12-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-19'; SET @perioddate=str_to_date('2019-01-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-19;2018-12-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-19;2019-01-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1621,18 +1624,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-20</v>
+        <v>2019-01-20</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-20;2018-12-20.csv</v>
+        <v>2019-01-20;2019-01-20.csv</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1643,11 +1646,11 @@
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-20'; SET @perioddate=str_to_date('2018-12-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-20'; SET @perioddate=str_to_date('2019-01-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-20;2018-12-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-20;2019-01-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1655,18 +1658,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-21</v>
+        <v>2019-01-21</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-21;2018-12-21.csv</v>
+        <v>2019-01-21;2019-01-21.csv</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1677,11 +1680,11 @@
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-21'; SET @perioddate=str_to_date('2018-12-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-21'; SET @perioddate=str_to_date('2019-01-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-21;2018-12-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-21;2019-01-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1689,18 +1692,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-22</v>
+        <v>2019-01-22</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-22;2018-12-22.csv</v>
+        <v>2019-01-22;2019-01-22.csv</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1711,11 +1714,11 @@
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-22'; SET @perioddate=str_to_date('2018-12-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-22'; SET @perioddate=str_to_date('2019-01-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-22;2018-12-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-22;2019-01-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1723,18 +1726,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-23</v>
+        <v>2019-01-23</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-23;2018-12-23.csv</v>
+        <v>2019-01-23;2019-01-23.csv</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1745,11 +1748,11 @@
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-23'; SET @perioddate=str_to_date('2018-12-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-23'; SET @perioddate=str_to_date('2019-01-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-23;2018-12-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-23;2019-01-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1757,18 +1760,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-24</v>
+        <v>2019-01-24</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-24;2018-12-24.csv</v>
+        <v>2019-01-24;2019-01-24.csv</v>
       </c>
       <c r="F25" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1779,11 +1782,11 @@
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-24'; SET @perioddate=str_to_date('2018-12-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-24'; SET @perioddate=str_to_date('2019-01-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-24;2018-12-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-24;2019-01-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1791,18 +1794,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-25</v>
+        <v>2019-01-25</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-25;2018-12-25.csv</v>
+        <v>2019-01-25;2019-01-25.csv</v>
       </c>
       <c r="F26" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1813,11 +1816,11 @@
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-25'; SET @perioddate=str_to_date('2018-12-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-25'; SET @perioddate=str_to_date('2019-01-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-25;2018-12-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-25;2019-01-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1825,18 +1828,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-26</v>
+        <v>2019-01-26</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-26;2018-12-26.csv</v>
+        <v>2019-01-26;2019-01-26.csv</v>
       </c>
       <c r="F27" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1847,11 +1850,11 @@
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-26'; SET @perioddate=str_to_date('2018-12-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-26'; SET @perioddate=str_to_date('2019-01-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-26;2018-12-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-26;2019-01-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1859,18 +1862,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-27</v>
+        <v>2019-01-27</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-27;2018-12-27.csv</v>
+        <v>2019-01-27;2019-01-27.csv</v>
       </c>
       <c r="F28" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1881,11 +1884,11 @@
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-27'; SET @perioddate=str_to_date('2018-12-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-27'; SET @perioddate=str_to_date('2019-01-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-27;2018-12-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-27;2019-01-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1893,18 +1896,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-28</v>
+        <v>2019-01-28</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-28;2018-12-28.csv</v>
+        <v>2019-01-28;2019-01-28.csv</v>
       </c>
       <c r="F29" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1915,11 +1918,11 @@
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-28'; SET @perioddate=str_to_date('2018-12-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-28'; SET @perioddate=str_to_date('2019-01-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-28;2018-12-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-28;2019-01-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1927,18 +1930,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-29</v>
+        <v>2019-01-29</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-29;2018-12-29.csv</v>
+        <v>2019-01-29;2019-01-29.csv</v>
       </c>
       <c r="F30" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1949,11 +1952,11 @@
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-29'; SET @perioddate=str_to_date('2018-12-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-29'; SET @perioddate=str_to_date('2019-01-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-29;2018-12-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-29;2019-01-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1961,18 +1964,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-30</v>
+        <v>2019-01-30</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-30;2018-12-30.csv</v>
+        <v>2019-01-30;2019-01-30.csv</v>
       </c>
       <c r="F31" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1983,11 +1986,11 @@
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-30'; SET @perioddate=str_to_date('2018-12-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-30'; SET @perioddate=str_to_date('2019-01-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-30;2018-12-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-30;2019-01-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1995,18 +1998,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-12-31</v>
+        <v>2019-01-31</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-12-31;2018-12-31.csv</v>
+        <v>2019-01-31;2019-01-31.csv</v>
       </c>
       <c r="F32" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2017,11 +2020,11 @@
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-12-31'; SET @perioddate=str_to_date('2018-12-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-01-31'; SET @perioddate=str_to_date('2019-01-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2018-12-31;2018-12-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-31;2019-01-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42731E25-6571-4678-8AAC-4C8165608592}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3F26C-66BB-427D-B085-DC68B35B3242}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,7 +945,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C32"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -978,18 +978,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-01-01</v>
+        <v>2019-02-01</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-01-01;2019-01-01.csv</v>
+        <v>2019-02-01;2019-02-01.csv</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="H2" s="5" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-01-01'; SET @perioddate=str_to_date('2019-01-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-01'; SET @perioddate=str_to_date('2019-02-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-01;2019-01-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-01;2019-02-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1012,18 +1012,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-01-02</v>
+        <v>2019-02-02</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-01-02;2019-01-02.csv</v>
+        <v>2019-02-02;2019-02-02.csv</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1034,11 +1034,11 @@
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-01-02'; SET @perioddate=str_to_date('2019-01-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-02'; SET @perioddate=str_to_date('2019-02-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-02;2019-01-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-02;2019-02-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1046,18 +1046,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-03</v>
+        <v>2019-02-03</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-03;2019-01-03.csv</v>
+        <v>2019-02-03;2019-02-03.csv</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1068,11 +1068,11 @@
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-03'; SET @perioddate=str_to_date('2019-01-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-03'; SET @perioddate=str_to_date('2019-02-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-03;2019-01-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-03;2019-02-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1080,18 +1080,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-04</v>
+        <v>2019-02-04</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-04;2019-01-04.csv</v>
+        <v>2019-02-04;2019-02-04.csv</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-04'; SET @perioddate=str_to_date('2019-01-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-04'; SET @perioddate=str_to_date('2019-02-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-04;2019-01-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-04;2019-02-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1114,18 +1114,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-05</v>
+        <v>2019-02-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-05;2019-01-05.csv</v>
+        <v>2019-02-05;2019-02-05.csv</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1136,11 +1136,11 @@
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-05'; SET @perioddate=str_to_date('2019-01-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-05'; SET @perioddate=str_to_date('2019-02-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-05;2019-01-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-05;2019-02-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1148,18 +1148,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-06</v>
+        <v>2019-02-06</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-06;2019-01-06.csv</v>
+        <v>2019-02-06;2019-02-06.csv</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1170,11 +1170,11 @@
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-06'; SET @perioddate=str_to_date('2019-01-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-06'; SET @perioddate=str_to_date('2019-02-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-06;2019-01-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-06;2019-02-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1182,18 +1182,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-07</v>
+        <v>2019-02-07</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-07;2019-01-07.csv</v>
+        <v>2019-02-07;2019-02-07.csv</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-07'; SET @perioddate=str_to_date('2019-01-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-07'; SET @perioddate=str_to_date('2019-02-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-07;2019-01-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-07;2019-02-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1216,18 +1216,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-08</v>
+        <v>2019-02-08</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-08;2019-01-08.csv</v>
+        <v>2019-02-08;2019-02-08.csv</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-08'; SET @perioddate=str_to_date('2019-01-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-08'; SET @perioddate=str_to_date('2019-02-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-08;2019-01-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-08;2019-02-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1250,18 +1250,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-09</v>
+        <v>2019-02-09</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-09;2019-01-09.csv</v>
+        <v>2019-02-09;2019-02-09.csv</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1272,11 +1272,11 @@
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-09'; SET @perioddate=str_to_date('2019-01-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-09'; SET @perioddate=str_to_date('2019-02-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-09;2019-01-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-09;2019-02-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1284,18 +1284,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-10</v>
+        <v>2019-02-10</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-10;2019-01-10.csv</v>
+        <v>2019-02-10;2019-02-10.csv</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1306,11 +1306,11 @@
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-10'; SET @perioddate=str_to_date('2019-01-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-10'; SET @perioddate=str_to_date('2019-02-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-10;2019-01-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-10;2019-02-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1318,18 +1318,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-11</v>
+        <v>2019-02-11</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-11;2019-01-11.csv</v>
+        <v>2019-02-11;2019-02-11.csv</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1340,11 +1340,11 @@
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-11'; SET @perioddate=str_to_date('2019-01-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-11'; SET @perioddate=str_to_date('2019-02-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-11;2019-01-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-11;2019-02-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1352,18 +1352,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-12</v>
+        <v>2019-02-12</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-12;2019-01-12.csv</v>
+        <v>2019-02-12;2019-02-12.csv</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1374,11 +1374,11 @@
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-12'; SET @perioddate=str_to_date('2019-01-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-12'; SET @perioddate=str_to_date('2019-02-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-12;2019-01-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-12;2019-02-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1386,18 +1386,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-13</v>
+        <v>2019-02-13</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-13;2019-01-13.csv</v>
+        <v>2019-02-13;2019-02-13.csv</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1408,11 +1408,11 @@
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-13'; SET @perioddate=str_to_date('2019-01-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-13'; SET @perioddate=str_to_date('2019-02-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-13;2019-01-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-13;2019-02-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1420,18 +1420,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-14</v>
+        <v>2019-02-14</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-14;2019-01-14.csv</v>
+        <v>2019-02-14;2019-02-14.csv</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1442,11 +1442,11 @@
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-14'; SET @perioddate=str_to_date('2019-01-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-14'; SET @perioddate=str_to_date('2019-02-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-14;2019-01-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-14;2019-02-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1454,18 +1454,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-15</v>
+        <v>2019-02-15</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-15;2019-01-15.csv</v>
+        <v>2019-02-15;2019-02-15.csv</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1476,11 +1476,11 @@
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-15'; SET @perioddate=str_to_date('2019-01-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-15'; SET @perioddate=str_to_date('2019-02-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-15;2019-01-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-15;2019-02-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1488,18 +1488,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-16</v>
+        <v>2019-02-16</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-16;2019-01-16.csv</v>
+        <v>2019-02-16;2019-02-16.csv</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1510,11 +1510,11 @@
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-16'; SET @perioddate=str_to_date('2019-01-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-16'; SET @perioddate=str_to_date('2019-02-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-16;2019-01-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-16;2019-02-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1522,18 +1522,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-17</v>
+        <v>2019-02-17</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-17;2019-01-17.csv</v>
+        <v>2019-02-17;2019-02-17.csv</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1544,11 +1544,11 @@
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-17'; SET @perioddate=str_to_date('2019-01-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-17'; SET @perioddate=str_to_date('2019-02-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-17;2019-01-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-17;2019-02-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1556,18 +1556,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-18</v>
+        <v>2019-02-18</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-18;2019-01-18.csv</v>
+        <v>2019-02-18;2019-02-18.csv</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1578,11 +1578,11 @@
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-18'; SET @perioddate=str_to_date('2019-01-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-18'; SET @perioddate=str_to_date('2019-02-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-18;2019-01-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-18;2019-02-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1590,18 +1590,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-19</v>
+        <v>2019-02-19</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-19;2019-01-19.csv</v>
+        <v>2019-02-19;2019-02-19.csv</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1612,11 +1612,11 @@
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-19'; SET @perioddate=str_to_date('2019-01-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-19'; SET @perioddate=str_to_date('2019-02-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-19;2019-01-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-19;2019-02-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1624,18 +1624,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-20</v>
+        <v>2019-02-20</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-20;2019-01-20.csv</v>
+        <v>2019-02-20;2019-02-20.csv</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-20'; SET @perioddate=str_to_date('2019-01-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-20'; SET @perioddate=str_to_date('2019-02-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-20;2019-01-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-20;2019-02-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1658,18 +1658,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-21</v>
+        <v>2019-02-21</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-21;2019-01-21.csv</v>
+        <v>2019-02-21;2019-02-21.csv</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1680,11 +1680,11 @@
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-21'; SET @perioddate=str_to_date('2019-01-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-21'; SET @perioddate=str_to_date('2019-02-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-21;2019-01-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-21;2019-02-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1692,18 +1692,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-22</v>
+        <v>2019-02-22</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-22;2019-01-22.csv</v>
+        <v>2019-02-22;2019-02-22.csv</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1714,11 +1714,11 @@
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-22'; SET @perioddate=str_to_date('2019-01-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-22'; SET @perioddate=str_to_date('2019-02-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-22;2019-01-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-22;2019-02-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1726,18 +1726,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-23</v>
+        <v>2019-02-23</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-23;2019-01-23.csv</v>
+        <v>2019-02-23;2019-02-23.csv</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1748,11 +1748,11 @@
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-23'; SET @perioddate=str_to_date('2019-01-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-23'; SET @perioddate=str_to_date('2019-02-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-23;2019-01-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-23;2019-02-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1760,18 +1760,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-24</v>
+        <v>2019-02-24</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-24;2019-01-24.csv</v>
+        <v>2019-02-24;2019-02-24.csv</v>
       </c>
       <c r="F25" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1782,11 +1782,11 @@
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-24'; SET @perioddate=str_to_date('2019-01-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-24'; SET @perioddate=str_to_date('2019-02-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-24;2019-01-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-24;2019-02-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1794,18 +1794,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-25</v>
+        <v>2019-02-25</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-25;2019-01-25.csv</v>
+        <v>2019-02-25;2019-02-25.csv</v>
       </c>
       <c r="F26" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1816,11 +1816,11 @@
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-25'; SET @perioddate=str_to_date('2019-01-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-25'; SET @perioddate=str_to_date('2019-02-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-25;2019-01-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-25;2019-02-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1828,18 +1828,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-26</v>
+        <v>2019-02-26</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-26;2019-01-26.csv</v>
+        <v>2019-02-26;2019-02-26.csv</v>
       </c>
       <c r="F27" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1850,11 +1850,11 @@
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-26'; SET @perioddate=str_to_date('2019-01-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-26'; SET @perioddate=str_to_date('2019-02-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-26;2019-01-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-26;2019-02-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1862,18 +1862,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-27</v>
+        <v>2019-02-27</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-27;2019-01-27.csv</v>
+        <v>2019-02-27;2019-02-27.csv</v>
       </c>
       <c r="F28" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1884,11 +1884,11 @@
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-27'; SET @perioddate=str_to_date('2019-01-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-27'; SET @perioddate=str_to_date('2019-02-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-27;2019-01-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-27;2019-02-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1896,18 +1896,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-28</v>
+        <v>2019-02-28</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-28;2019-01-28.csv</v>
+        <v>2019-02-28;2019-02-28.csv</v>
       </c>
       <c r="F29" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1918,11 +1918,11 @@
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-28'; SET @perioddate=str_to_date('2019-01-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-28'; SET @perioddate=str_to_date('2019-02-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-28;2019-01-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-28;2019-02-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1930,18 +1930,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-29</v>
+        <v>2019-02-29</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-29;2019-01-29.csv</v>
+        <v>2019-02-29;2019-02-29.csv</v>
       </c>
       <c r="F30" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1952,11 +1952,11 @@
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-29'; SET @perioddate=str_to_date('2019-01-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-29'; SET @perioddate=str_to_date('2019-02-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-29;2019-01-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-29;2019-02-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1964,18 +1964,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-30</v>
+        <v>2019-02-30</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-30;2019-01-30.csv</v>
+        <v>2019-02-30;2019-02-30.csv</v>
       </c>
       <c r="F31" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1986,11 +1986,11 @@
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-30'; SET @perioddate=str_to_date('2019-01-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-30'; SET @perioddate=str_to_date('2019-02-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-30;2019-01-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-30;2019-02-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1998,18 +1998,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2019-01-31</v>
+        <v>2019-02-31</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2019-01-31;2019-01-31.csv</v>
+        <v>2019-02-31;2019-02-31.csv</v>
       </c>
       <c r="F32" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2020,11 +2020,11 @@
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-01-31'; SET @perioddate=str_to_date('2019-01-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-02-31'; SET @perioddate=str_to_date('2019-02-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-01-31;2019-01-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-31;2019-02-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3F26C-66BB-427D-B085-DC68B35B3242}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6DB884-172E-4814-BFC9-952F4C15C09B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loading2" sheetId="3" r:id="rId1"/>
@@ -625,14 +625,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -945,1086 +943,1086 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="122" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="122" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-02-01</v>
-      </c>
-      <c r="E2" s="4" t="str">
+        <v>2019-03-01</v>
+      </c>
+      <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-02-01;2019-02-01.csv</v>
-      </c>
-      <c r="F2" s="5" t="str">
+        <v>2019-03-01;2019-03-01.csv</v>
+      </c>
+      <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="5" t="str">
+      <c r="G2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-02-01'; SET @perioddate=str_to_date('2019-02-01','%Y-%m-%d');</v>
-      </c>
-      <c r="I2" s="4" t="str">
+        <v>SET @rundate='2019-03-01'; SET @perioddate=str_to_date('2019-03-01','%Y-%m-%d');</v>
+      </c>
+      <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-01;2019-02-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-01;2019-03-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-02-02</v>
-      </c>
-      <c r="E3" s="4" t="str">
+        <v>2019-03-02</v>
+      </c>
+      <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-02-02;2019-02-02.csv</v>
-      </c>
-      <c r="F3" s="5" t="str">
+        <v>2019-03-02;2019-03-02.csv</v>
+      </c>
+      <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="5" t="str">
+      <c r="G3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-02-02'; SET @perioddate=str_to_date('2019-02-02','%Y-%m-%d');</v>
-      </c>
-      <c r="I3" s="4" t="str">
+        <v>SET @rundate='2019-03-02'; SET @perioddate=str_to_date('2019-03-02','%Y-%m-%d');</v>
+      </c>
+      <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-02;2019-02-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-02;2019-03-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-03</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-03;2019-02-03.csv</v>
-      </c>
-      <c r="F4" s="5" t="str">
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-03</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-03;2019-03-03.csv</v>
+      </c>
+      <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-03'; SET @perioddate=str_to_date('2019-02-03','%Y-%m-%d');</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-03;2019-02-03.csv'</v>
+      <c r="G4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-03'; SET @perioddate=str_to_date('2019-03-03','%Y-%m-%d');</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-03;2019-03-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-04</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-04;2019-02-04.csv</v>
-      </c>
-      <c r="F5" s="5" t="str">
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-04</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-04;2019-03-04.csv</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-04'; SET @perioddate=str_to_date('2019-02-04','%Y-%m-%d');</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-04;2019-02-04.csv'</v>
+      <c r="G5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-04'; SET @perioddate=str_to_date('2019-03-04','%Y-%m-%d');</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-04;2019-03-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-05</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-05;2019-02-05.csv</v>
-      </c>
-      <c r="F6" s="5" t="str">
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-05</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-05;2019-03-05.csv</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-05'; SET @perioddate=str_to_date('2019-02-05','%Y-%m-%d');</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-05;2019-02-05.csv'</v>
+      <c r="G6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-05'; SET @perioddate=str_to_date('2019-03-05','%Y-%m-%d');</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-05;2019-03-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-06</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-06;2019-02-06.csv</v>
-      </c>
-      <c r="F7" s="5" t="str">
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-06</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-06;2019-03-06.csv</v>
+      </c>
+      <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-06'; SET @perioddate=str_to_date('2019-02-06','%Y-%m-%d');</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-06;2019-02-06.csv'</v>
+      <c r="G7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-06'; SET @perioddate=str_to_date('2019-03-06','%Y-%m-%d');</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-06;2019-03-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-07</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-07;2019-02-07.csv</v>
-      </c>
-      <c r="F8" s="5" t="str">
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-07</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-07;2019-03-07.csv</v>
+      </c>
+      <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-07'; SET @perioddate=str_to_date('2019-02-07','%Y-%m-%d');</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-07;2019-02-07.csv'</v>
+      <c r="G8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-07'; SET @perioddate=str_to_date('2019-03-07','%Y-%m-%d');</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-07;2019-03-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-08</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-08;2019-02-08.csv</v>
-      </c>
-      <c r="F9" s="5" t="str">
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-08</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-08;2019-03-08.csv</v>
+      </c>
+      <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-08'; SET @perioddate=str_to_date('2019-02-08','%Y-%m-%d');</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-08;2019-02-08.csv'</v>
+      <c r="G9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-08'; SET @perioddate=str_to_date('2019-03-08','%Y-%m-%d');</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-08;2019-03-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-09</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-09;2019-02-09.csv</v>
-      </c>
-      <c r="F10" s="5" t="str">
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-09</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-09;2019-03-09.csv</v>
+      </c>
+      <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-09'; SET @perioddate=str_to_date('2019-02-09','%Y-%m-%d');</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-09;2019-02-09.csv'</v>
+      <c r="G10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-09'; SET @perioddate=str_to_date('2019-03-09','%Y-%m-%d');</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-09;2019-03-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-10</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-10;2019-02-10.csv</v>
-      </c>
-      <c r="F11" s="5" t="str">
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-10</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-10;2019-03-10.csv</v>
+      </c>
+      <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-10'; SET @perioddate=str_to_date('2019-02-10','%Y-%m-%d');</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-10;2019-02-10.csv'</v>
+      <c r="G11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-10'; SET @perioddate=str_to_date('2019-03-10','%Y-%m-%d');</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-10;2019-03-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-11</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-11;2019-02-11.csv</v>
-      </c>
-      <c r="F12" s="5" t="str">
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-11</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-11;2019-03-11.csv</v>
+      </c>
+      <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-11'; SET @perioddate=str_to_date('2019-02-11','%Y-%m-%d');</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-11;2019-02-11.csv'</v>
+      <c r="G12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-11'; SET @perioddate=str_to_date('2019-03-11','%Y-%m-%d');</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-11;2019-03-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-12</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-12;2019-02-12.csv</v>
-      </c>
-      <c r="F13" s="5" t="str">
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-12</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-12;2019-03-12.csv</v>
+      </c>
+      <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-12'; SET @perioddate=str_to_date('2019-02-12','%Y-%m-%d');</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-12;2019-02-12.csv'</v>
+      <c r="G13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-12'; SET @perioddate=str_to_date('2019-03-12','%Y-%m-%d');</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-12;2019-03-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-13</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-13;2019-02-13.csv</v>
-      </c>
-      <c r="F14" s="5" t="str">
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-13</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-13;2019-03-13.csv</v>
+      </c>
+      <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-13'; SET @perioddate=str_to_date('2019-02-13','%Y-%m-%d');</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-13;2019-02-13.csv'</v>
+      <c r="G14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-13'; SET @perioddate=str_to_date('2019-03-13','%Y-%m-%d');</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-13;2019-03-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-14</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-14;2019-02-14.csv</v>
-      </c>
-      <c r="F15" s="5" t="str">
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-14</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-14;2019-03-14.csv</v>
+      </c>
+      <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-14'; SET @perioddate=str_to_date('2019-02-14','%Y-%m-%d');</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-14;2019-02-14.csv'</v>
+      <c r="G15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-14'; SET @perioddate=str_to_date('2019-03-14','%Y-%m-%d');</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-14;2019-03-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-15</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-15;2019-02-15.csv</v>
-      </c>
-      <c r="F16" s="5" t="str">
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-15</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-15;2019-03-15.csv</v>
+      </c>
+      <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-15'; SET @perioddate=str_to_date('2019-02-15','%Y-%m-%d');</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-15;2019-02-15.csv'</v>
+      <c r="G16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-15'; SET @perioddate=str_to_date('2019-03-15','%Y-%m-%d');</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-15;2019-03-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-16</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-16;2019-02-16.csv</v>
-      </c>
-      <c r="F17" s="5" t="str">
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-16</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-16;2019-03-16.csv</v>
+      </c>
+      <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-16'; SET @perioddate=str_to_date('2019-02-16','%Y-%m-%d');</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-16;2019-02-16.csv'</v>
+      <c r="G17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-16'; SET @perioddate=str_to_date('2019-03-16','%Y-%m-%d');</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-16;2019-03-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-17</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-17;2019-02-17.csv</v>
-      </c>
-      <c r="F18" s="5" t="str">
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-17</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-17;2019-03-17.csv</v>
+      </c>
+      <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-17'; SET @perioddate=str_to_date('2019-02-17','%Y-%m-%d');</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-17;2019-02-17.csv'</v>
+      <c r="G18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-17'; SET @perioddate=str_to_date('2019-03-17','%Y-%m-%d');</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-17;2019-03-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-18</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-18;2019-02-18.csv</v>
-      </c>
-      <c r="F19" s="5" t="str">
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-18</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-18;2019-03-18.csv</v>
+      </c>
+      <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-18'; SET @perioddate=str_to_date('2019-02-18','%Y-%m-%d');</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-18;2019-02-18.csv'</v>
+      <c r="G19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-18'; SET @perioddate=str_to_date('2019-03-18','%Y-%m-%d');</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-18;2019-03-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-19</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-19;2019-02-19.csv</v>
-      </c>
-      <c r="F20" s="5" t="str">
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-19</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-19;2019-03-19.csv</v>
+      </c>
+      <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-19'; SET @perioddate=str_to_date('2019-02-19','%Y-%m-%d');</v>
-      </c>
-      <c r="I20" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-19;2019-02-19.csv'</v>
+      <c r="G20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-19'; SET @perioddate=str_to_date('2019-03-19','%Y-%m-%d');</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-19;2019-03-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-20</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-20;2019-02-20.csv</v>
-      </c>
-      <c r="F21" s="5" t="str">
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-20</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-20;2019-03-20.csv</v>
+      </c>
+      <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-20'; SET @perioddate=str_to_date('2019-02-20','%Y-%m-%d');</v>
-      </c>
-      <c r="I21" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-20;2019-02-20.csv'</v>
+      <c r="G21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-20'; SET @perioddate=str_to_date('2019-03-20','%Y-%m-%d');</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-20;2019-03-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-21</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-21;2019-02-21.csv</v>
-      </c>
-      <c r="F22" s="5" t="str">
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-21</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-21;2019-03-21.csv</v>
+      </c>
+      <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-21'; SET @perioddate=str_to_date('2019-02-21','%Y-%m-%d');</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-21;2019-02-21.csv'</v>
+      <c r="G22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-21'; SET @perioddate=str_to_date('2019-03-21','%Y-%m-%d');</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-21;2019-03-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-22</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-22;2019-02-22.csv</v>
-      </c>
-      <c r="F23" s="5" t="str">
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-22</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-22;2019-03-22.csv</v>
+      </c>
+      <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-22'; SET @perioddate=str_to_date('2019-02-22','%Y-%m-%d');</v>
-      </c>
-      <c r="I23" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-22;2019-02-22.csv'</v>
+      <c r="G23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-22'; SET @perioddate=str_to_date('2019-03-22','%Y-%m-%d');</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-22;2019-03-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-23</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-23;2019-02-23.csv</v>
-      </c>
-      <c r="F24" s="5" t="str">
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-23</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-23;2019-03-23.csv</v>
+      </c>
+      <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-23'; SET @perioddate=str_to_date('2019-02-23','%Y-%m-%d');</v>
-      </c>
-      <c r="I24" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-23;2019-02-23.csv'</v>
+      <c r="G24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-23'; SET @perioddate=str_to_date('2019-03-23','%Y-%m-%d');</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-23;2019-03-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-24</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-24;2019-02-24.csv</v>
-      </c>
-      <c r="F25" s="5" t="str">
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-24</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-24;2019-03-24.csv</v>
+      </c>
+      <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-24'; SET @perioddate=str_to_date('2019-02-24','%Y-%m-%d');</v>
-      </c>
-      <c r="I25" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-24;2019-02-24.csv'</v>
+      <c r="G25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-24'; SET @perioddate=str_to_date('2019-03-24','%Y-%m-%d');</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-24;2019-03-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-25</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-25;2019-02-25.csv</v>
-      </c>
-      <c r="F26" s="5" t="str">
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-25</v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-25;2019-03-25.csv</v>
+      </c>
+      <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-25'; SET @perioddate=str_to_date('2019-02-25','%Y-%m-%d');</v>
-      </c>
-      <c r="I26" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-25;2019-02-25.csv'</v>
+      <c r="G26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-25'; SET @perioddate=str_to_date('2019-03-25','%Y-%m-%d');</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-25;2019-03-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-26</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-26;2019-02-26.csv</v>
-      </c>
-      <c r="F27" s="5" t="str">
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-26</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-26;2019-03-26.csv</v>
+      </c>
+      <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-26'; SET @perioddate=str_to_date('2019-02-26','%Y-%m-%d');</v>
-      </c>
-      <c r="I27" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-26;2019-02-26.csv'</v>
+      <c r="G27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-26'; SET @perioddate=str_to_date('2019-03-26','%Y-%m-%d');</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-26;2019-03-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-27</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-27;2019-02-27.csv</v>
-      </c>
-      <c r="F28" s="5" t="str">
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-27</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-27;2019-03-27.csv</v>
+      </c>
+      <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-27'; SET @perioddate=str_to_date('2019-02-27','%Y-%m-%d');</v>
-      </c>
-      <c r="I28" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-27;2019-02-27.csv'</v>
+      <c r="G28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-27'; SET @perioddate=str_to_date('2019-03-27','%Y-%m-%d');</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-27;2019-03-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-28</v>
-      </c>
-      <c r="E29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-28;2019-02-28.csv</v>
-      </c>
-      <c r="F29" s="5" t="str">
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-28</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-28;2019-03-28.csv</v>
+      </c>
+      <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-28'; SET @perioddate=str_to_date('2019-02-28','%Y-%m-%d');</v>
-      </c>
-      <c r="I29" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-28;2019-02-28.csv'</v>
+      <c r="G29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-28'; SET @perioddate=str_to_date('2019-03-28','%Y-%m-%d');</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-28;2019-03-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-29</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-29;2019-02-29.csv</v>
-      </c>
-      <c r="F30" s="5" t="str">
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-29</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-29;2019-03-29.csv</v>
+      </c>
+      <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-29'; SET @perioddate=str_to_date('2019-02-29','%Y-%m-%d');</v>
-      </c>
-      <c r="I30" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-29;2019-02-29.csv'</v>
+      <c r="G30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-29'; SET @perioddate=str_to_date('2019-03-29','%Y-%m-%d');</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-29;2019-03-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-30</v>
-      </c>
-      <c r="E31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-30;2019-02-30.csv</v>
-      </c>
-      <c r="F31" s="5" t="str">
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-30</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-30;2019-03-30.csv</v>
+      </c>
+      <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-30'; SET @perioddate=str_to_date('2019-02-30','%Y-%m-%d');</v>
-      </c>
-      <c r="I31" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-30;2019-02-30.csv'</v>
+      <c r="G31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-30'; SET @perioddate=str_to_date('2019-03-30','%Y-%m-%d');</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-30;2019-03-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-31</v>
-      </c>
-      <c r="E32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-02-31;2019-02-31.csv</v>
-      </c>
-      <c r="F32" s="5" t="str">
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-31</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-31;2019-03-31.csv</v>
+      </c>
+      <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2019-02-31'; SET @perioddate=str_to_date('2019-02-31','%Y-%m-%d');</v>
-      </c>
-      <c r="I32" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-02-31;2019-02-31.csv'</v>
+      <c r="G32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2019-03-31'; SET @perioddate=str_to_date('2019-03-31','%Y-%m-%d');</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-31;2019-03-31.csv'</v>
       </c>
     </row>
   </sheetData>
@@ -2044,1078 +2042,1078 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="122" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="122" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
         <v>2018-11-01</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
         <v>2018-11-01;2018-11-01.csv</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C2,B2,"/")</f>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="5" t="str">
+      <c r="G2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
         <v>SET @rundate='2018-11-01'; SET @perioddate=str_to_date('2018-11-01','%Y-%m-%d');</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-01;2018-11-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
         <v>2018-11-02</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
         <v>2018-11-02;2018-11-02.csv</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C3,B3,"/")</f>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="5" t="str">
+      <c r="G3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
         <v>SET @rundate='2018-11-02'; SET @perioddate=str_to_date('2018-11-02','%Y-%m-%d');</v>
       </c>
-      <c r="I3" s="4" t="str">
+      <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-02;2018-11-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-03</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-03;2018-11-03.csv</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="5" t="str">
+      <c r="G4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-03'; SET @perioddate=str_to_date('2018-11-03','%Y-%m-%d');</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-03;2018-11-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-04</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-04;2018-11-04.csv</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="5" t="str">
+      <c r="G5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-04'; SET @perioddate=str_to_date('2018-11-04','%Y-%m-%d');</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-04;2018-11-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-05</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-05;2018-11-05.csv</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="5" t="str">
+      <c r="G6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-05'; SET @perioddate=str_to_date('2018-11-05','%Y-%m-%d');</v>
       </c>
-      <c r="I6" s="4" t="str">
+      <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-05;2018-11-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-06</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-06;2018-11-06.csv</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="5" t="str">
+      <c r="G7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-06'; SET @perioddate=str_to_date('2018-11-06','%Y-%m-%d');</v>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-06;2018-11-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-07</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-07;2018-11-07.csv</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="5" t="str">
+      <c r="G8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-07'; SET @perioddate=str_to_date('2018-11-07','%Y-%m-%d');</v>
       </c>
-      <c r="I8" s="4" t="str">
+      <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-07;2018-11-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-08</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-08;2018-11-08.csv</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="5" t="str">
+      <c r="G9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-08'; SET @perioddate=str_to_date('2018-11-08','%Y-%m-%d');</v>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-08;2018-11-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-09</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-09;2018-11-09.csv</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="5" t="str">
+      <c r="G10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-09'; SET @perioddate=str_to_date('2018-11-09','%Y-%m-%d');</v>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-09;2018-11-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-10</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-10;2018-11-10.csv</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="5" t="str">
+      <c r="G11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-10'; SET @perioddate=str_to_date('2018-11-10','%Y-%m-%d');</v>
       </c>
-      <c r="I11" s="4" t="str">
+      <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-10;2018-11-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-11</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-11;2018-11-11.csv</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="5" t="str">
+      <c r="G12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-11'; SET @perioddate=str_to_date('2018-11-11','%Y-%m-%d');</v>
       </c>
-      <c r="I12" s="4" t="str">
+      <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-11;2018-11-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-12</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-12;2018-11-12.csv</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="5" t="str">
+      <c r="G13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-12'; SET @perioddate=str_to_date('2018-11-12','%Y-%m-%d');</v>
       </c>
-      <c r="I13" s="4" t="str">
+      <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-12;2018-11-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-13</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-13;2018-11-13.csv</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="5" t="str">
+      <c r="G14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-13'; SET @perioddate=str_to_date('2018-11-13','%Y-%m-%d');</v>
       </c>
-      <c r="I14" s="4" t="str">
+      <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-13;2018-11-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-14</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-14;2018-11-14.csv</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="5" t="str">
+      <c r="G15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-14'; SET @perioddate=str_to_date('2018-11-14','%Y-%m-%d');</v>
       </c>
-      <c r="I15" s="4" t="str">
+      <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-14;2018-11-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-15</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-15;2018-11-15.csv</v>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="5" t="str">
+      <c r="G16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-15'; SET @perioddate=str_to_date('2018-11-15','%Y-%m-%d');</v>
       </c>
-      <c r="I16" s="4" t="str">
+      <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-15;2018-11-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-16</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-16;2018-11-16.csv</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="5" t="str">
+      <c r="G17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-16'; SET @perioddate=str_to_date('2018-11-16','%Y-%m-%d');</v>
       </c>
-      <c r="I17" s="4" t="str">
+      <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-16;2018-11-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-17</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-17;2018-11-17.csv</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="5" t="str">
+      <c r="G18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-17'; SET @perioddate=str_to_date('2018-11-17','%Y-%m-%d');</v>
       </c>
-      <c r="I18" s="4" t="str">
+      <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-17;2018-11-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-18</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-18;2018-11-18.csv</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="5" t="str">
+      <c r="G19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-18'; SET @perioddate=str_to_date('2018-11-18','%Y-%m-%d');</v>
       </c>
-      <c r="I19" s="4" t="str">
+      <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-18;2018-11-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-19</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-19;2018-11-19.csv</v>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="5" t="str">
+      <c r="G20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-19'; SET @perioddate=str_to_date('2018-11-19','%Y-%m-%d');</v>
       </c>
-      <c r="I20" s="4" t="str">
+      <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-19;2018-11-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-20</v>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-20;2018-11-20.csv</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="5" t="str">
+      <c r="G21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-20'; SET @perioddate=str_to_date('2018-11-20','%Y-%m-%d');</v>
       </c>
-      <c r="I21" s="4" t="str">
+      <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-20;2018-11-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-21</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-21;2018-11-21.csv</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="5" t="str">
+      <c r="G22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-21'; SET @perioddate=str_to_date('2018-11-21','%Y-%m-%d');</v>
       </c>
-      <c r="I22" s="4" t="str">
+      <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-21;2018-11-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-22</v>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-22;2018-11-22.csv</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="5" t="str">
+      <c r="G23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-22'; SET @perioddate=str_to_date('2018-11-22','%Y-%m-%d');</v>
       </c>
-      <c r="I23" s="4" t="str">
+      <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-22;2018-11-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-23</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-23;2018-11-23.csv</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="5" t="str">
+      <c r="G24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-23'; SET @perioddate=str_to_date('2018-11-23','%Y-%m-%d');</v>
       </c>
-      <c r="I24" s="4" t="str">
+      <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-23;2018-11-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-24</v>
       </c>
-      <c r="E25" s="4" t="str">
+      <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-24;2018-11-24.csv</v>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="5" t="str">
+      <c r="G25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-24'; SET @perioddate=str_to_date('2018-11-24','%Y-%m-%d');</v>
       </c>
-      <c r="I25" s="4" t="str">
+      <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-24;2018-11-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-25</v>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-25;2018-11-25.csv</v>
       </c>
-      <c r="F26" s="5" t="str">
+      <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="5" t="str">
+      <c r="G26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-25'; SET @perioddate=str_to_date('2018-11-25','%Y-%m-%d');</v>
       </c>
-      <c r="I26" s="4" t="str">
+      <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-25;2018-11-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-26</v>
       </c>
-      <c r="E27" s="4" t="str">
+      <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-26;2018-11-26.csv</v>
       </c>
-      <c r="F27" s="5" t="str">
+      <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="5" t="str">
+      <c r="G27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-26'; SET @perioddate=str_to_date('2018-11-26','%Y-%m-%d');</v>
       </c>
-      <c r="I27" s="4" t="str">
+      <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-26;2018-11-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-27</v>
       </c>
-      <c r="E28" s="4" t="str">
+      <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-27;2018-11-27.csv</v>
       </c>
-      <c r="F28" s="5" t="str">
+      <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="5" t="str">
+      <c r="G28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-27'; SET @perioddate=str_to_date('2018-11-27','%Y-%m-%d');</v>
       </c>
-      <c r="I28" s="4" t="str">
+      <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-27;2018-11-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-28</v>
       </c>
-      <c r="E29" s="4" t="str">
+      <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-28;2018-11-28.csv</v>
       </c>
-      <c r="F29" s="5" t="str">
+      <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="5" t="str">
+      <c r="G29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-28'; SET @perioddate=str_to_date('2018-11-28','%Y-%m-%d');</v>
       </c>
-      <c r="I29" s="4" t="str">
+      <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-28;2018-11-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-29</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-29;2018-11-29.csv</v>
       </c>
-      <c r="F30" s="5" t="str">
+      <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="5" t="str">
+      <c r="G30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-29'; SET @perioddate=str_to_date('2018-11-29','%Y-%m-%d');</v>
       </c>
-      <c r="I30" s="4" t="str">
+      <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-29;2018-11-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-30</v>
       </c>
-      <c r="E31" s="4" t="str">
+      <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-30;2018-11-30.csv</v>
       </c>
-      <c r="F31" s="5" t="str">
+      <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="5" t="str">
+      <c r="G31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-30'; SET @perioddate=str_to_date('2018-11-30','%Y-%m-%d');</v>
       </c>
-      <c r="I31" s="4" t="str">
+      <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-30;2018-11-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-31</v>
       </c>
-      <c r="E32" s="4" t="str">
+      <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2018-11-31;2018-11-31.csv</v>
       </c>
-      <c r="F32" s="5" t="str">
+      <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="5" t="str">
+      <c r="G32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SET @rundate='2018-11-31'; SET @perioddate=str_to_date('2018-11-31','%Y-%m-%d');</v>
       </c>
-      <c r="I32" s="4" t="str">
+      <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-31;2018-11-31.csv'</v>
       </c>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6DB884-172E-4814-BFC9-952F4C15C09B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB3D88-4392-48D8-BC6D-C57E964B5FAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -976,18 +976,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-03-01</v>
+        <v>2019-04-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-03-01;2019-03-01.csv</v>
+        <v>2019-04-01;2019-04-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -998,11 +998,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-03-01'; SET @perioddate=str_to_date('2019-03-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-01'; SET @perioddate=str_to_date('2019-04-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-01;2019-03-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-01;2019-04-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1010,18 +1010,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-03-02</v>
+        <v>2019-04-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-03-02;2019-03-02.csv</v>
+        <v>2019-04-02;2019-04-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-03-02'; SET @perioddate=str_to_date('2019-03-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-02'; SET @perioddate=str_to_date('2019-04-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-02;2019-03-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-02;2019-04-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1044,18 +1044,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-03</v>
+        <v>2019-04-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-03;2019-03-03.csv</v>
+        <v>2019-04-03;2019-04-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1066,11 +1066,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-03'; SET @perioddate=str_to_date('2019-03-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-03'; SET @perioddate=str_to_date('2019-04-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-03;2019-03-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-03;2019-04-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1078,18 +1078,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-04</v>
+        <v>2019-04-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-04;2019-03-04.csv</v>
+        <v>2019-04-04;2019-04-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-04'; SET @perioddate=str_to_date('2019-03-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-04'; SET @perioddate=str_to_date('2019-04-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-04;2019-03-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-04;2019-04-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,18 +1112,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-05</v>
+        <v>2019-04-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-05;2019-03-05.csv</v>
+        <v>2019-04-05;2019-04-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1134,11 +1134,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-05'; SET @perioddate=str_to_date('2019-03-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-05'; SET @perioddate=str_to_date('2019-04-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-05;2019-03-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-05;2019-04-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1146,18 +1146,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-06</v>
+        <v>2019-04-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-06;2019-03-06.csv</v>
+        <v>2019-04-06;2019-04-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-06'; SET @perioddate=str_to_date('2019-03-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-06'; SET @perioddate=str_to_date('2019-04-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-06;2019-03-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-06;2019-04-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,18 +1180,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-07</v>
+        <v>2019-04-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-07;2019-03-07.csv</v>
+        <v>2019-04-07;2019-04-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-07'; SET @perioddate=str_to_date('2019-03-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-07'; SET @perioddate=str_to_date('2019-04-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-07;2019-03-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-07;2019-04-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,18 +1214,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-08</v>
+        <v>2019-04-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-08;2019-03-08.csv</v>
+        <v>2019-04-08;2019-04-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-08'; SET @perioddate=str_to_date('2019-03-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-08'; SET @perioddate=str_to_date('2019-04-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-08;2019-03-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-08;2019-04-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,18 +1248,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-09</v>
+        <v>2019-04-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-09;2019-03-09.csv</v>
+        <v>2019-04-09;2019-04-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-09'; SET @perioddate=str_to_date('2019-03-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-09'; SET @perioddate=str_to_date('2019-04-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-09;2019-03-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-09;2019-04-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1282,18 +1282,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-10</v>
+        <v>2019-04-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-10;2019-03-10.csv</v>
+        <v>2019-04-10;2019-04-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-10'; SET @perioddate=str_to_date('2019-03-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-10'; SET @perioddate=str_to_date('2019-04-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-10;2019-03-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-10;2019-04-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1316,18 +1316,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-11</v>
+        <v>2019-04-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-11;2019-03-11.csv</v>
+        <v>2019-04-11;2019-04-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1338,11 +1338,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-11'; SET @perioddate=str_to_date('2019-03-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-11'; SET @perioddate=str_to_date('2019-04-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-11;2019-03-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-11;2019-04-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1350,18 +1350,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-12</v>
+        <v>2019-04-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-12;2019-03-12.csv</v>
+        <v>2019-04-12;2019-04-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-12'; SET @perioddate=str_to_date('2019-03-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-12'; SET @perioddate=str_to_date('2019-04-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-12;2019-03-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-12;2019-04-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1384,18 +1384,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-13</v>
+        <v>2019-04-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-13;2019-03-13.csv</v>
+        <v>2019-04-13;2019-04-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1406,11 +1406,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-13'; SET @perioddate=str_to_date('2019-03-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-13'; SET @perioddate=str_to_date('2019-04-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-13;2019-03-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-13;2019-04-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1418,18 +1418,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-14</v>
+        <v>2019-04-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-14;2019-03-14.csv</v>
+        <v>2019-04-14;2019-04-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-14'; SET @perioddate=str_to_date('2019-03-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-14'; SET @perioddate=str_to_date('2019-04-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-14;2019-03-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-14;2019-04-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1452,18 +1452,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-15</v>
+        <v>2019-04-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-15;2019-03-15.csv</v>
+        <v>2019-04-15;2019-04-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1474,11 +1474,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-15'; SET @perioddate=str_to_date('2019-03-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-15'; SET @perioddate=str_to_date('2019-04-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-15;2019-03-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-15;2019-04-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1486,18 +1486,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-16</v>
+        <v>2019-04-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-16;2019-03-16.csv</v>
+        <v>2019-04-16;2019-04-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-16'; SET @perioddate=str_to_date('2019-03-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-16'; SET @perioddate=str_to_date('2019-04-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-16;2019-03-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-16;2019-04-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1520,18 +1520,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-17</v>
+        <v>2019-04-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-17;2019-03-17.csv</v>
+        <v>2019-04-17;2019-04-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-17'; SET @perioddate=str_to_date('2019-03-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-17'; SET @perioddate=str_to_date('2019-04-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-17;2019-03-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-17;2019-04-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1554,18 +1554,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-18</v>
+        <v>2019-04-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-18;2019-03-18.csv</v>
+        <v>2019-04-18;2019-04-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1576,11 +1576,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-18'; SET @perioddate=str_to_date('2019-03-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-18'; SET @perioddate=str_to_date('2019-04-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-18;2019-03-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-18;2019-04-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1588,18 +1588,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-19</v>
+        <v>2019-04-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-19;2019-03-19.csv</v>
+        <v>2019-04-19;2019-04-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1610,11 +1610,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-19'; SET @perioddate=str_to_date('2019-03-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-19'; SET @perioddate=str_to_date('2019-04-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-19;2019-03-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-19;2019-04-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1622,18 +1622,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-20</v>
+        <v>2019-04-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-20;2019-03-20.csv</v>
+        <v>2019-04-20;2019-04-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1644,11 +1644,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-20'; SET @perioddate=str_to_date('2019-03-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-20'; SET @perioddate=str_to_date('2019-04-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-20;2019-03-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-20;2019-04-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1656,18 +1656,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-21</v>
+        <v>2019-04-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-21;2019-03-21.csv</v>
+        <v>2019-04-21;2019-04-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1678,11 +1678,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-21'; SET @perioddate=str_to_date('2019-03-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-21'; SET @perioddate=str_to_date('2019-04-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-21;2019-03-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-21;2019-04-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1690,18 +1690,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-22</v>
+        <v>2019-04-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-22;2019-03-22.csv</v>
+        <v>2019-04-22;2019-04-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-22'; SET @perioddate=str_to_date('2019-03-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-22'; SET @perioddate=str_to_date('2019-04-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-22;2019-03-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-22;2019-04-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1724,18 +1724,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-23</v>
+        <v>2019-04-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-23;2019-03-23.csv</v>
+        <v>2019-04-23;2019-04-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-23'; SET @perioddate=str_to_date('2019-03-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-23'; SET @perioddate=str_to_date('2019-04-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-23;2019-03-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-23;2019-04-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1758,18 +1758,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-24</v>
+        <v>2019-04-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-24;2019-03-24.csv</v>
+        <v>2019-04-24;2019-04-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1780,11 +1780,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-24'; SET @perioddate=str_to_date('2019-03-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-24'; SET @perioddate=str_to_date('2019-04-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-24;2019-03-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-24;2019-04-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1792,18 +1792,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-25</v>
+        <v>2019-04-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-25;2019-03-25.csv</v>
+        <v>2019-04-25;2019-04-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-25'; SET @perioddate=str_to_date('2019-03-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-25'; SET @perioddate=str_to_date('2019-04-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-25;2019-03-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-25;2019-04-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1826,18 +1826,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-26</v>
+        <v>2019-04-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-26;2019-03-26.csv</v>
+        <v>2019-04-26;2019-04-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-26'; SET @perioddate=str_to_date('2019-03-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-26'; SET @perioddate=str_to_date('2019-04-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-26;2019-03-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-26;2019-04-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1860,18 +1860,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-27</v>
+        <v>2019-04-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-27;2019-03-27.csv</v>
+        <v>2019-04-27;2019-04-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1882,11 +1882,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-27'; SET @perioddate=str_to_date('2019-03-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-27'; SET @perioddate=str_to_date('2019-04-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-27;2019-03-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-27;2019-04-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1894,18 +1894,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-28</v>
+        <v>2019-04-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-28;2019-03-28.csv</v>
+        <v>2019-04-28;2019-04-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-28'; SET @perioddate=str_to_date('2019-03-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-28'; SET @perioddate=str_to_date('2019-04-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-28;2019-03-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-28;2019-04-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1928,18 +1928,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-29</v>
+        <v>2019-04-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-29;2019-03-29.csv</v>
+        <v>2019-04-29;2019-04-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1950,11 +1950,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-29'; SET @perioddate=str_to_date('2019-03-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-29'; SET @perioddate=str_to_date('2019-04-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-29;2019-03-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-29;2019-04-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1962,18 +1962,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-30</v>
+        <v>2019-04-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-30;2019-03-30.csv</v>
+        <v>2019-04-30;2019-04-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1984,11 +1984,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-30'; SET @perioddate=str_to_date('2019-03-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-30'; SET @perioddate=str_to_date('2019-04-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-30;2019-03-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-30;2019-04-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1996,18 +1996,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-03-31</v>
+        <v>2019-04-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-03-31;2019-03-31.csv</v>
+        <v>2019-04-31;2019-04-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-03-31'; SET @perioddate=str_to_date('2019-03-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-04-31'; SET @perioddate=str_to_date('2019-04-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-03-31;2019-03-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-31;2019-04-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB3D88-4392-48D8-BC6D-C57E964B5FAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F00B6-99F7-45AB-9134-990DC1D9DEE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -976,18 +976,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-04-01</v>
+        <v>2019-07-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-04-01;2019-04-01.csv</v>
+        <v>2019-07-01;2019-07-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -998,11 +998,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-04-01'; SET @perioddate=str_to_date('2019-04-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-01'; SET @perioddate=str_to_date('2019-07-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-01;2019-04-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-01;2019-07-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1010,18 +1010,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-04-02</v>
+        <v>2019-07-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-04-02;2019-04-02.csv</v>
+        <v>2019-07-02;2019-07-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-04-02'; SET @perioddate=str_to_date('2019-04-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-02'; SET @perioddate=str_to_date('2019-07-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-02;2019-04-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-02;2019-07-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1044,18 +1044,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-03</v>
+        <v>2019-07-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-03;2019-04-03.csv</v>
+        <v>2019-07-03;2019-07-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1066,11 +1066,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-03'; SET @perioddate=str_to_date('2019-04-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-03'; SET @perioddate=str_to_date('2019-07-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-03;2019-04-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-03;2019-07-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1078,18 +1078,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-04</v>
+        <v>2019-07-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-04;2019-04-04.csv</v>
+        <v>2019-07-04;2019-07-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-04'; SET @perioddate=str_to_date('2019-04-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-04'; SET @perioddate=str_to_date('2019-07-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-04;2019-04-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-04;2019-07-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,18 +1112,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-05</v>
+        <v>2019-07-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-05;2019-04-05.csv</v>
+        <v>2019-07-05;2019-07-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1134,11 +1134,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-05'; SET @perioddate=str_to_date('2019-04-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-05'; SET @perioddate=str_to_date('2019-07-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-05;2019-04-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-05;2019-07-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1146,18 +1146,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-06</v>
+        <v>2019-07-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-06;2019-04-06.csv</v>
+        <v>2019-07-06;2019-07-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-06'; SET @perioddate=str_to_date('2019-04-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-06'; SET @perioddate=str_to_date('2019-07-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-06;2019-04-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-06;2019-07-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,18 +1180,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-07</v>
+        <v>2019-07-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-07;2019-04-07.csv</v>
+        <v>2019-07-07;2019-07-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-07'; SET @perioddate=str_to_date('2019-04-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-07'; SET @perioddate=str_to_date('2019-07-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-07;2019-04-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-07;2019-07-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,18 +1214,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-08</v>
+        <v>2019-07-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-08;2019-04-08.csv</v>
+        <v>2019-07-08;2019-07-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-08'; SET @perioddate=str_to_date('2019-04-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-08'; SET @perioddate=str_to_date('2019-07-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-08;2019-04-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-08;2019-07-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,18 +1248,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-09</v>
+        <v>2019-07-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-09;2019-04-09.csv</v>
+        <v>2019-07-09;2019-07-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-09'; SET @perioddate=str_to_date('2019-04-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-09'; SET @perioddate=str_to_date('2019-07-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-09;2019-04-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-09;2019-07-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1282,18 +1282,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-10</v>
+        <v>2019-07-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-10;2019-04-10.csv</v>
+        <v>2019-07-10;2019-07-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-10'; SET @perioddate=str_to_date('2019-04-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-10'; SET @perioddate=str_to_date('2019-07-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-10;2019-04-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-10;2019-07-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1316,18 +1316,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-11</v>
+        <v>2019-07-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-11;2019-04-11.csv</v>
+        <v>2019-07-11;2019-07-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1338,11 +1338,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-11'; SET @perioddate=str_to_date('2019-04-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-11'; SET @perioddate=str_to_date('2019-07-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-11;2019-04-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-11;2019-07-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1350,18 +1350,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-12</v>
+        <v>2019-07-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-12;2019-04-12.csv</v>
+        <v>2019-07-12;2019-07-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-12'; SET @perioddate=str_to_date('2019-04-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-12'; SET @perioddate=str_to_date('2019-07-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-12;2019-04-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-12;2019-07-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1384,18 +1384,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-13</v>
+        <v>2019-07-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-13;2019-04-13.csv</v>
+        <v>2019-07-13;2019-07-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1406,11 +1406,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-13'; SET @perioddate=str_to_date('2019-04-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-13'; SET @perioddate=str_to_date('2019-07-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-13;2019-04-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-13;2019-07-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1418,18 +1418,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-14</v>
+        <v>2019-07-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-14;2019-04-14.csv</v>
+        <v>2019-07-14;2019-07-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-14'; SET @perioddate=str_to_date('2019-04-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-14'; SET @perioddate=str_to_date('2019-07-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-14;2019-04-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-14;2019-07-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1452,18 +1452,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-15</v>
+        <v>2019-07-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-15;2019-04-15.csv</v>
+        <v>2019-07-15;2019-07-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1474,11 +1474,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-15'; SET @perioddate=str_to_date('2019-04-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-15'; SET @perioddate=str_to_date('2019-07-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-15;2019-04-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-15;2019-07-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1486,18 +1486,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-16</v>
+        <v>2019-07-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-16;2019-04-16.csv</v>
+        <v>2019-07-16;2019-07-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-16'; SET @perioddate=str_to_date('2019-04-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-16'; SET @perioddate=str_to_date('2019-07-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-16;2019-04-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-16;2019-07-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1520,18 +1520,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-17</v>
+        <v>2019-07-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-17;2019-04-17.csv</v>
+        <v>2019-07-17;2019-07-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-17'; SET @perioddate=str_to_date('2019-04-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-17'; SET @perioddate=str_to_date('2019-07-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-17;2019-04-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-17;2019-07-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1554,18 +1554,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-18</v>
+        <v>2019-07-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-18;2019-04-18.csv</v>
+        <v>2019-07-18;2019-07-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1576,11 +1576,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-18'; SET @perioddate=str_to_date('2019-04-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-18'; SET @perioddate=str_to_date('2019-07-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-18;2019-04-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-18;2019-07-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1588,18 +1588,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-19</v>
+        <v>2019-07-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-19;2019-04-19.csv</v>
+        <v>2019-07-19;2019-07-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1610,11 +1610,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-19'; SET @perioddate=str_to_date('2019-04-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-19'; SET @perioddate=str_to_date('2019-07-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-19;2019-04-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-19;2019-07-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1622,18 +1622,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-20</v>
+        <v>2019-07-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-20;2019-04-20.csv</v>
+        <v>2019-07-20;2019-07-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1644,11 +1644,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-20'; SET @perioddate=str_to_date('2019-04-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-20'; SET @perioddate=str_to_date('2019-07-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-20;2019-04-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-20;2019-07-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1656,18 +1656,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-21</v>
+        <v>2019-07-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-21;2019-04-21.csv</v>
+        <v>2019-07-21;2019-07-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1678,11 +1678,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-21'; SET @perioddate=str_to_date('2019-04-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-21'; SET @perioddate=str_to_date('2019-07-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-21;2019-04-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-21;2019-07-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1690,18 +1690,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-22</v>
+        <v>2019-07-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-22;2019-04-22.csv</v>
+        <v>2019-07-22;2019-07-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-22'; SET @perioddate=str_to_date('2019-04-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-22'; SET @perioddate=str_to_date('2019-07-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-22;2019-04-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-22;2019-07-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1724,18 +1724,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-23</v>
+        <v>2019-07-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-23;2019-04-23.csv</v>
+        <v>2019-07-23;2019-07-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-23'; SET @perioddate=str_to_date('2019-04-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-23'; SET @perioddate=str_to_date('2019-07-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-23;2019-04-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-23;2019-07-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1758,18 +1758,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-24</v>
+        <v>2019-07-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-24;2019-04-24.csv</v>
+        <v>2019-07-24;2019-07-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1780,11 +1780,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-24'; SET @perioddate=str_to_date('2019-04-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-24'; SET @perioddate=str_to_date('2019-07-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-24;2019-04-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-24;2019-07-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1792,18 +1792,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-25</v>
+        <v>2019-07-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-25;2019-04-25.csv</v>
+        <v>2019-07-25;2019-07-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-25'; SET @perioddate=str_to_date('2019-04-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-25'; SET @perioddate=str_to_date('2019-07-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-25;2019-04-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-25;2019-07-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1826,18 +1826,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-26</v>
+        <v>2019-07-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-26;2019-04-26.csv</v>
+        <v>2019-07-26;2019-07-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-26'; SET @perioddate=str_to_date('2019-04-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-26'; SET @perioddate=str_to_date('2019-07-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-26;2019-04-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-26;2019-07-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1860,18 +1860,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-27</v>
+        <v>2019-07-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-27;2019-04-27.csv</v>
+        <v>2019-07-27;2019-07-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1882,11 +1882,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-27'; SET @perioddate=str_to_date('2019-04-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-27'; SET @perioddate=str_to_date('2019-07-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-27;2019-04-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-27;2019-07-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1894,18 +1894,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-28</v>
+        <v>2019-07-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-28;2019-04-28.csv</v>
+        <v>2019-07-28;2019-07-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-28'; SET @perioddate=str_to_date('2019-04-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-28'; SET @perioddate=str_to_date('2019-07-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-28;2019-04-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-28;2019-07-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1928,18 +1928,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-29</v>
+        <v>2019-07-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-29;2019-04-29.csv</v>
+        <v>2019-07-29;2019-07-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1950,11 +1950,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-29'; SET @perioddate=str_to_date('2019-04-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-29'; SET @perioddate=str_to_date('2019-07-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-29;2019-04-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-29;2019-07-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1962,18 +1962,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-30</v>
+        <v>2019-07-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-30;2019-04-30.csv</v>
+        <v>2019-07-30;2019-07-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1984,11 +1984,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-30'; SET @perioddate=str_to_date('2019-04-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-30'; SET @perioddate=str_to_date('2019-07-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-30;2019-04-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-30;2019-07-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1996,18 +1996,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-04-31</v>
+        <v>2019-07-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-04-31;2019-04-31.csv</v>
+        <v>2019-07-31;2019-07-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-04-31'; SET @perioddate=str_to_date('2019-04-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-07-31'; SET @perioddate=str_to_date('2019-07-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-04-31;2019-04-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-31;2019-07-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F00B6-99F7-45AB-9134-990DC1D9DEE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C2F086-9D5F-457B-8561-F7E75FA55FE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,18 +976,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-07-01</v>
+        <v>2019-08-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-07-01;2019-07-01.csv</v>
+        <v>2019-08-01;2019-08-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -998,11 +998,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-07-01'; SET @perioddate=str_to_date('2019-07-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-01'; SET @perioddate=str_to_date('2019-08-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-01;2019-07-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-01;2019-08-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1010,18 +1010,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-07-02</v>
+        <v>2019-08-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-07-02;2019-07-02.csv</v>
+        <v>2019-08-02;2019-08-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-07-02'; SET @perioddate=str_to_date('2019-07-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-02'; SET @perioddate=str_to_date('2019-08-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-02;2019-07-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-02;2019-08-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1044,18 +1044,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-03</v>
+        <v>2019-08-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-03;2019-07-03.csv</v>
+        <v>2019-08-03;2019-08-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1066,11 +1066,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-03'; SET @perioddate=str_to_date('2019-07-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-03'; SET @perioddate=str_to_date('2019-08-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-03;2019-07-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-03;2019-08-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1078,18 +1078,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-04</v>
+        <v>2019-08-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-04;2019-07-04.csv</v>
+        <v>2019-08-04;2019-08-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-04'; SET @perioddate=str_to_date('2019-07-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-04'; SET @perioddate=str_to_date('2019-08-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-04;2019-07-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-04;2019-08-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,18 +1112,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-05</v>
+        <v>2019-08-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-05;2019-07-05.csv</v>
+        <v>2019-08-05;2019-08-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1134,11 +1134,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-05'; SET @perioddate=str_to_date('2019-07-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-05'; SET @perioddate=str_to_date('2019-08-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-05;2019-07-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-05;2019-08-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1146,18 +1146,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-06</v>
+        <v>2019-08-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-06;2019-07-06.csv</v>
+        <v>2019-08-06;2019-08-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-06'; SET @perioddate=str_to_date('2019-07-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-06'; SET @perioddate=str_to_date('2019-08-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-06;2019-07-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-06;2019-08-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,18 +1180,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-07</v>
+        <v>2019-08-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-07;2019-07-07.csv</v>
+        <v>2019-08-07;2019-08-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-07'; SET @perioddate=str_to_date('2019-07-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-07'; SET @perioddate=str_to_date('2019-08-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-07;2019-07-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-07;2019-08-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,18 +1214,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-08</v>
+        <v>2019-08-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-08;2019-07-08.csv</v>
+        <v>2019-08-08;2019-08-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-08'; SET @perioddate=str_to_date('2019-07-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-08'; SET @perioddate=str_to_date('2019-08-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-08;2019-07-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-08;2019-08-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,18 +1248,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-09</v>
+        <v>2019-08-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-09;2019-07-09.csv</v>
+        <v>2019-08-09;2019-08-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-09'; SET @perioddate=str_to_date('2019-07-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-09'; SET @perioddate=str_to_date('2019-08-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-09;2019-07-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-09;2019-08-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1282,18 +1282,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-10</v>
+        <v>2019-08-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-10;2019-07-10.csv</v>
+        <v>2019-08-10;2019-08-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-10'; SET @perioddate=str_to_date('2019-07-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-10'; SET @perioddate=str_to_date('2019-08-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-10;2019-07-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-10;2019-08-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1316,18 +1316,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-11</v>
+        <v>2019-08-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-11;2019-07-11.csv</v>
+        <v>2019-08-11;2019-08-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1338,11 +1338,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-11'; SET @perioddate=str_to_date('2019-07-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-11'; SET @perioddate=str_to_date('2019-08-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-11;2019-07-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-11;2019-08-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1350,18 +1350,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-12</v>
+        <v>2019-08-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-12;2019-07-12.csv</v>
+        <v>2019-08-12;2019-08-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-12'; SET @perioddate=str_to_date('2019-07-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-12'; SET @perioddate=str_to_date('2019-08-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-12;2019-07-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-12;2019-08-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1384,18 +1384,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-13</v>
+        <v>2019-08-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-13;2019-07-13.csv</v>
+        <v>2019-08-13;2019-08-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1406,11 +1406,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-13'; SET @perioddate=str_to_date('2019-07-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-13'; SET @perioddate=str_to_date('2019-08-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-13;2019-07-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-13;2019-08-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1418,18 +1418,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-14</v>
+        <v>2019-08-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-14;2019-07-14.csv</v>
+        <v>2019-08-14;2019-08-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-14'; SET @perioddate=str_to_date('2019-07-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-14'; SET @perioddate=str_to_date('2019-08-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-14;2019-07-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-14;2019-08-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1452,18 +1452,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-15</v>
+        <v>2019-08-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-15;2019-07-15.csv</v>
+        <v>2019-08-15;2019-08-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1474,11 +1474,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-15'; SET @perioddate=str_to_date('2019-07-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-15'; SET @perioddate=str_to_date('2019-08-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-15;2019-07-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-15;2019-08-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1486,18 +1486,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-16</v>
+        <v>2019-08-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-16;2019-07-16.csv</v>
+        <v>2019-08-16;2019-08-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-16'; SET @perioddate=str_to_date('2019-07-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-16'; SET @perioddate=str_to_date('2019-08-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-16;2019-07-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-16;2019-08-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1520,18 +1520,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-17</v>
+        <v>2019-08-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-17;2019-07-17.csv</v>
+        <v>2019-08-17;2019-08-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-17'; SET @perioddate=str_to_date('2019-07-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-17'; SET @perioddate=str_to_date('2019-08-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-17;2019-07-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-17;2019-08-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1554,18 +1554,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-18</v>
+        <v>2019-08-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-18;2019-07-18.csv</v>
+        <v>2019-08-18;2019-08-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1576,11 +1576,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-18'; SET @perioddate=str_to_date('2019-07-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-18'; SET @perioddate=str_to_date('2019-08-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-18;2019-07-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-18;2019-08-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1588,18 +1588,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-19</v>
+        <v>2019-08-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-19;2019-07-19.csv</v>
+        <v>2019-08-19;2019-08-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1610,11 +1610,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-19'; SET @perioddate=str_to_date('2019-07-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-19'; SET @perioddate=str_to_date('2019-08-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-19;2019-07-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-19;2019-08-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1622,18 +1622,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-20</v>
+        <v>2019-08-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-20;2019-07-20.csv</v>
+        <v>2019-08-20;2019-08-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1644,11 +1644,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-20'; SET @perioddate=str_to_date('2019-07-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-20'; SET @perioddate=str_to_date('2019-08-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-20;2019-07-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-20;2019-08-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1656,18 +1656,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-21</v>
+        <v>2019-08-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-21;2019-07-21.csv</v>
+        <v>2019-08-21;2019-08-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1678,11 +1678,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-21'; SET @perioddate=str_to_date('2019-07-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-21'; SET @perioddate=str_to_date('2019-08-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-21;2019-07-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-21;2019-08-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1690,18 +1690,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-22</v>
+        <v>2019-08-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-22;2019-07-22.csv</v>
+        <v>2019-08-22;2019-08-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-22'; SET @perioddate=str_to_date('2019-07-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-22'; SET @perioddate=str_to_date('2019-08-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-22;2019-07-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-22;2019-08-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1724,18 +1724,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-23</v>
+        <v>2019-08-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-23;2019-07-23.csv</v>
+        <v>2019-08-23;2019-08-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-23'; SET @perioddate=str_to_date('2019-07-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-23'; SET @perioddate=str_to_date('2019-08-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-23;2019-07-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-23;2019-08-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1758,18 +1758,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-24</v>
+        <v>2019-08-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-24;2019-07-24.csv</v>
+        <v>2019-08-24;2019-08-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1780,11 +1780,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-24'; SET @perioddate=str_to_date('2019-07-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-24'; SET @perioddate=str_to_date('2019-08-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-24;2019-07-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-24;2019-08-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1792,18 +1792,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-25</v>
+        <v>2019-08-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-25;2019-07-25.csv</v>
+        <v>2019-08-25;2019-08-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-25'; SET @perioddate=str_to_date('2019-07-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-25'; SET @perioddate=str_to_date('2019-08-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-25;2019-07-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-25;2019-08-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1826,18 +1826,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-26</v>
+        <v>2019-08-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-26;2019-07-26.csv</v>
+        <v>2019-08-26;2019-08-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-26'; SET @perioddate=str_to_date('2019-07-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-26'; SET @perioddate=str_to_date('2019-08-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-26;2019-07-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-26;2019-08-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1860,18 +1860,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-27</v>
+        <v>2019-08-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-27;2019-07-27.csv</v>
+        <v>2019-08-27;2019-08-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1882,11 +1882,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-27'; SET @perioddate=str_to_date('2019-07-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-27'; SET @perioddate=str_to_date('2019-08-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-27;2019-07-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-27;2019-08-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1894,18 +1894,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-28</v>
+        <v>2019-08-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-28;2019-07-28.csv</v>
+        <v>2019-08-28;2019-08-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-28'; SET @perioddate=str_to_date('2019-07-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-28'; SET @perioddate=str_to_date('2019-08-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-28;2019-07-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-28;2019-08-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1928,18 +1928,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-29</v>
+        <v>2019-08-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-29;2019-07-29.csv</v>
+        <v>2019-08-29;2019-08-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1950,11 +1950,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-29'; SET @perioddate=str_to_date('2019-07-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-29'; SET @perioddate=str_to_date('2019-08-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-29;2019-07-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-29;2019-08-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1962,18 +1962,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-30</v>
+        <v>2019-08-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-30;2019-07-30.csv</v>
+        <v>2019-08-30;2019-08-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1984,11 +1984,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-30'; SET @perioddate=str_to_date('2019-07-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-30'; SET @perioddate=str_to_date('2019-08-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-30;2019-07-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-30;2019-08-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1996,18 +1996,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-07-31</v>
+        <v>2019-08-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-07-31;2019-07-31.csv</v>
+        <v>2019-08-31;2019-08-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-07-31'; SET @perioddate=str_to_date('2019-07-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-08-31'; SET @perioddate=str_to_date('2019-08-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-07-31;2019-07-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-31;2019-08-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C2F086-9D5F-457B-8561-F7E75FA55FE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA41BA-05ED-4421-A14C-3AEDFEC36BCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="loading2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
+    <sheet name="loading2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="182">
   <si>
     <t>Day</t>
   </si>
@@ -939,10 +940,978 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3690D3-081F-4F48-97EB-65C38891E12D}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>CONCATENATE(C2,B2,A2)</f>
+        <v>20190801</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>CONCATENATE("CS_Transactions_",D2,".csv")</f>
+        <v>CS_Transactions_20190801.csv</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/")</f>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190801.csv'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,B3,A3)</f>
+        <v>20190802</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E32" si="1">CONCATENATE("CS_Transactions_",D3,".csv")</f>
+        <v>CS_Transactions_20190802.csv</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/")</f>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H32" si="3">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190802.csv'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190803</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190803.csv</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190803.csv'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190804</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190804.csv</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190804.csv'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190805</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190805.csv</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190805.csv'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190806</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190806.csv</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190806.csv'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190807</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190807.csv</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190807.csv'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190808</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190808.csv</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190808.csv'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190809</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190809.csv</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190809.csv'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190810</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190810.csv</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190810.csv'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190811</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190811.csv</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190811.csv'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190812</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190812.csv</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190812.csv'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190813</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190813.csv</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190813.csv'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190814</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190814.csv</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190814.csv'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190815</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190815.csv</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190815.csv'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190816</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190816.csv</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190816.csv'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190817</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190817.csv</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190817.csv'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190818</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190818.csv</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190818.csv'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190819</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190819.csv</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190819.csv'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190820</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190820.csv</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190820.csv'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190821</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190821.csv</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190821.csv'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190822</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190822.csv</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190822.csv'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190823</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190823.csv</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190823.csv'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190824</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190824.csv</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190824.csv'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190825</v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190825.csv</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190825.csv'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190826</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190826.csv</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190826.csv'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190827</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190827.csv</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190827.csv'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190828</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190828.csv</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190828.csv'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190829</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190829.csv</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190829.csv'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190830</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190830.csv</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190830.csv'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20190831</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_Transactions_20190831.csv</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190831.csv'</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
@@ -2031,7 +3000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -3124,7 +4093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA41BA-05ED-4421-A14C-3AEDFEC36BCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DBC718-F3F9-4113-9826-1C0817F38DFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3690D3-081F-4F48-97EB-65C38891E12D}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -976,18 +976,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,B2,A2)</f>
-        <v>20190801</v>
+        <v>20190901</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE("CS_Transactions_",D2,".csv")</f>
-        <v>CS_Transactions_20190801.csv</v>
+        <v>CS_Transactions_20190901.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/")</f>
@@ -998,7 +998,7 @@
       </c>
       <c r="H2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190801.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190901.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1006,18 +1006,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,B3,A3)</f>
-        <v>20190802</v>
+        <v>20190902</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE("CS_Transactions_",D3,".csv")</f>
-        <v>CS_Transactions_20190802.csv</v>
+        <v>CS_Transactions_20190902.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/")</f>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190802.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190902.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1036,18 +1036,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190803</v>
+        <v>20190903</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190803.csv</v>
+        <v>CS_Transactions_20190903.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190803.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190903.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1066,18 +1066,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190804</v>
+        <v>20190904</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190804.csv</v>
+        <v>CS_Transactions_20190904.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190804.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190904.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1096,18 +1096,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190805</v>
+        <v>20190905</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190805.csv</v>
+        <v>CS_Transactions_20190905.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190805.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190905.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1126,18 +1126,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190806</v>
+        <v>20190906</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190806.csv</v>
+        <v>CS_Transactions_20190906.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190806.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190906.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1156,18 +1156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190807</v>
+        <v>20190907</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190807.csv</v>
+        <v>CS_Transactions_20190907.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190807.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190907.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1186,18 +1186,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190808</v>
+        <v>20190908</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190808.csv</v>
+        <v>CS_Transactions_20190908.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190808.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190908.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1216,18 +1216,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190809</v>
+        <v>20190909</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190809.csv</v>
+        <v>CS_Transactions_20190909.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190809.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190909.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1246,18 +1246,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190810</v>
+        <v>20190910</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190810.csv</v>
+        <v>CS_Transactions_20190910.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190810.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190910.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1276,18 +1276,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190811</v>
+        <v>20190911</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190811.csv</v>
+        <v>CS_Transactions_20190911.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190811.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190911.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1306,18 +1306,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190812</v>
+        <v>20190912</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190812.csv</v>
+        <v>CS_Transactions_20190912.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190812.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190912.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1336,18 +1336,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190813</v>
+        <v>20190913</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190813.csv</v>
+        <v>CS_Transactions_20190913.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190813.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190913.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1366,18 +1366,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190814</v>
+        <v>20190914</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190814.csv</v>
+        <v>CS_Transactions_20190914.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190814.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190914.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,18 +1396,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190815</v>
+        <v>20190915</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190815.csv</v>
+        <v>CS_Transactions_20190915.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190815.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190915.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,18 +1426,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190816</v>
+        <v>20190916</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190816.csv</v>
+        <v>CS_Transactions_20190916.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190816.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190916.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1456,18 +1456,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190817</v>
+        <v>20190917</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190817.csv</v>
+        <v>CS_Transactions_20190917.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190817.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190917.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1486,18 +1486,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190818</v>
+        <v>20190918</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190818.csv</v>
+        <v>CS_Transactions_20190918.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190818.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190918.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1516,18 +1516,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190819</v>
+        <v>20190919</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190819.csv</v>
+        <v>CS_Transactions_20190919.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190819.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190919.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1546,18 +1546,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190820</v>
+        <v>20190920</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190820.csv</v>
+        <v>CS_Transactions_20190920.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190820.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190920.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1576,18 +1576,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190821</v>
+        <v>20190921</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190821.csv</v>
+        <v>CS_Transactions_20190921.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190821.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190921.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1606,18 +1606,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190822</v>
+        <v>20190922</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190822.csv</v>
+        <v>CS_Transactions_20190922.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190822.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190922.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1636,18 +1636,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190823</v>
+        <v>20190923</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190823.csv</v>
+        <v>CS_Transactions_20190923.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190823.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190923.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1666,18 +1666,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190824</v>
+        <v>20190924</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190824.csv</v>
+        <v>CS_Transactions_20190924.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190824.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190924.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1696,18 +1696,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190825</v>
+        <v>20190925</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190825.csv</v>
+        <v>CS_Transactions_20190925.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190825.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190925.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1726,18 +1726,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190826</v>
+        <v>20190926</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190826.csv</v>
+        <v>CS_Transactions_20190926.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190826.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190926.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1756,18 +1756,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190827</v>
+        <v>20190927</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190827.csv</v>
+        <v>CS_Transactions_20190927.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190827.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190927.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1786,18 +1786,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190828</v>
+        <v>20190928</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190828.csv</v>
+        <v>CS_Transactions_20190928.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190828.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190928.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1816,18 +1816,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190829</v>
+        <v>20190929</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190829.csv</v>
+        <v>CS_Transactions_20190929.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190829.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190929.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1846,18 +1846,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190830</v>
+        <v>20190930</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190830.csv</v>
+        <v>CS_Transactions_20190930.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190830.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190930.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1876,18 +1876,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20190831</v>
+        <v>20190931</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>CS_Transactions_20190831.csv</v>
+        <v>CS_Transactions_20190931.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190831.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/CyberSource/CS_Transactions_20190931.csv'</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
@@ -1945,18 +1945,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-08-01</v>
+        <v>2019-09-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-08-01;2019-08-01.csv</v>
+        <v>2019-09-01;2019-09-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-08-01'; SET @perioddate=str_to_date('2019-08-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-01'; SET @perioddate=str_to_date('2019-09-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-01;2019-08-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-01;2019-09-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1979,18 +1979,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-08-02</v>
+        <v>2019-09-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-08-02;2019-08-02.csv</v>
+        <v>2019-09-02;2019-09-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-08-02'; SET @perioddate=str_to_date('2019-08-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-02'; SET @perioddate=str_to_date('2019-09-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-02;2019-08-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-02;2019-09-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2013,18 +2013,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-03</v>
+        <v>2019-09-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-03;2019-08-03.csv</v>
+        <v>2019-09-03;2019-09-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2035,11 +2035,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-03'; SET @perioddate=str_to_date('2019-08-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-03'; SET @perioddate=str_to_date('2019-09-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-03;2019-08-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-03;2019-09-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2047,18 +2047,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-04</v>
+        <v>2019-09-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-04;2019-08-04.csv</v>
+        <v>2019-09-04;2019-09-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-04'; SET @perioddate=str_to_date('2019-08-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-04'; SET @perioddate=str_to_date('2019-09-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-04;2019-08-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-04;2019-09-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2081,18 +2081,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-05</v>
+        <v>2019-09-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-05;2019-08-05.csv</v>
+        <v>2019-09-05;2019-09-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-05'; SET @perioddate=str_to_date('2019-08-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-05'; SET @perioddate=str_to_date('2019-09-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-05;2019-08-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-05;2019-09-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2115,18 +2115,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-06</v>
+        <v>2019-09-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-06;2019-08-06.csv</v>
+        <v>2019-09-06;2019-09-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-06'; SET @perioddate=str_to_date('2019-08-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-06'; SET @perioddate=str_to_date('2019-09-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-06;2019-08-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-06;2019-09-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2149,18 +2149,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-07</v>
+        <v>2019-09-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-07;2019-08-07.csv</v>
+        <v>2019-09-07;2019-09-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-07'; SET @perioddate=str_to_date('2019-08-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-07'; SET @perioddate=str_to_date('2019-09-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-07;2019-08-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-07;2019-09-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2183,18 +2183,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-08</v>
+        <v>2019-09-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-08;2019-08-08.csv</v>
+        <v>2019-09-08;2019-09-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2205,11 +2205,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-08'; SET @perioddate=str_to_date('2019-08-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-08'; SET @perioddate=str_to_date('2019-09-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-08;2019-08-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-08;2019-09-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2217,18 +2217,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-09</v>
+        <v>2019-09-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-09;2019-08-09.csv</v>
+        <v>2019-09-09;2019-09-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2239,11 +2239,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-09'; SET @perioddate=str_to_date('2019-08-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-09'; SET @perioddate=str_to_date('2019-09-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-09;2019-08-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-09;2019-09-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2251,18 +2251,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-10</v>
+        <v>2019-09-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-10;2019-08-10.csv</v>
+        <v>2019-09-10;2019-09-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-10'; SET @perioddate=str_to_date('2019-08-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-10'; SET @perioddate=str_to_date('2019-09-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-10;2019-08-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-10;2019-09-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,18 +2285,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-11</v>
+        <v>2019-09-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-11;2019-08-11.csv</v>
+        <v>2019-09-11;2019-09-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2307,11 +2307,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-11'; SET @perioddate=str_to_date('2019-08-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-11'; SET @perioddate=str_to_date('2019-09-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-11;2019-08-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-11;2019-09-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2319,18 +2319,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-12</v>
+        <v>2019-09-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-12;2019-08-12.csv</v>
+        <v>2019-09-12;2019-09-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2341,11 +2341,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-12'; SET @perioddate=str_to_date('2019-08-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-12'; SET @perioddate=str_to_date('2019-09-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-12;2019-08-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-12;2019-09-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2353,18 +2353,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-13</v>
+        <v>2019-09-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-13;2019-08-13.csv</v>
+        <v>2019-09-13;2019-09-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2375,11 +2375,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-13'; SET @perioddate=str_to_date('2019-08-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-13'; SET @perioddate=str_to_date('2019-09-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-13;2019-08-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-13;2019-09-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2387,18 +2387,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-14</v>
+        <v>2019-09-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-14;2019-08-14.csv</v>
+        <v>2019-09-14;2019-09-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-14'; SET @perioddate=str_to_date('2019-08-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-14'; SET @perioddate=str_to_date('2019-09-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-14;2019-08-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-14;2019-09-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2421,18 +2421,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-15</v>
+        <v>2019-09-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-15;2019-08-15.csv</v>
+        <v>2019-09-15;2019-09-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2443,11 +2443,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-15'; SET @perioddate=str_to_date('2019-08-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-15'; SET @perioddate=str_to_date('2019-09-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-15;2019-08-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-15;2019-09-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2455,18 +2455,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-16</v>
+        <v>2019-09-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-16;2019-08-16.csv</v>
+        <v>2019-09-16;2019-09-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-16'; SET @perioddate=str_to_date('2019-08-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-16'; SET @perioddate=str_to_date('2019-09-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-16;2019-08-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-16;2019-09-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,18 +2489,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-17</v>
+        <v>2019-09-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-17;2019-08-17.csv</v>
+        <v>2019-09-17;2019-09-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2511,11 +2511,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-17'; SET @perioddate=str_to_date('2019-08-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-17'; SET @perioddate=str_to_date('2019-09-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-17;2019-08-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-17;2019-09-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2523,18 +2523,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-18</v>
+        <v>2019-09-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-18;2019-08-18.csv</v>
+        <v>2019-09-18;2019-09-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2545,11 +2545,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-18'; SET @perioddate=str_to_date('2019-08-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-18'; SET @perioddate=str_to_date('2019-09-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-18;2019-08-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-18;2019-09-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2557,18 +2557,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-19</v>
+        <v>2019-09-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-19;2019-08-19.csv</v>
+        <v>2019-09-19;2019-09-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-19'; SET @perioddate=str_to_date('2019-08-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-19'; SET @perioddate=str_to_date('2019-09-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-19;2019-08-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-19;2019-09-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2591,18 +2591,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-20</v>
+        <v>2019-09-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-20;2019-08-20.csv</v>
+        <v>2019-09-20;2019-09-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-20'; SET @perioddate=str_to_date('2019-08-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-20'; SET @perioddate=str_to_date('2019-09-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-20;2019-08-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-20;2019-09-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2625,18 +2625,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-21</v>
+        <v>2019-09-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-21;2019-08-21.csv</v>
+        <v>2019-09-21;2019-09-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2647,11 +2647,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-21'; SET @perioddate=str_to_date('2019-08-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-21'; SET @perioddate=str_to_date('2019-09-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-21;2019-08-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-21;2019-09-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2659,18 +2659,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-22</v>
+        <v>2019-09-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-22;2019-08-22.csv</v>
+        <v>2019-09-22;2019-09-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-22'; SET @perioddate=str_to_date('2019-08-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-22'; SET @perioddate=str_to_date('2019-09-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-22;2019-08-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-22;2019-09-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2693,18 +2693,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-23</v>
+        <v>2019-09-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-23;2019-08-23.csv</v>
+        <v>2019-09-23;2019-09-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2715,11 +2715,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-23'; SET @perioddate=str_to_date('2019-08-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-23'; SET @perioddate=str_to_date('2019-09-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-23;2019-08-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-23;2019-09-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2727,18 +2727,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-24</v>
+        <v>2019-09-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-24;2019-08-24.csv</v>
+        <v>2019-09-24;2019-09-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2749,11 +2749,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-24'; SET @perioddate=str_to_date('2019-08-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-24'; SET @perioddate=str_to_date('2019-09-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-24;2019-08-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-24;2019-09-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2761,18 +2761,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-25</v>
+        <v>2019-09-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-25;2019-08-25.csv</v>
+        <v>2019-09-25;2019-09-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-25'; SET @perioddate=str_to_date('2019-08-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-25'; SET @perioddate=str_to_date('2019-09-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-25;2019-08-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-25;2019-09-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2795,18 +2795,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-26</v>
+        <v>2019-09-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-26;2019-08-26.csv</v>
+        <v>2019-09-26;2019-09-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-26'; SET @perioddate=str_to_date('2019-08-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-26'; SET @perioddate=str_to_date('2019-09-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-26;2019-08-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-26;2019-09-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2829,18 +2829,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-27</v>
+        <v>2019-09-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-27;2019-08-27.csv</v>
+        <v>2019-09-27;2019-09-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-27'; SET @perioddate=str_to_date('2019-08-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-27'; SET @perioddate=str_to_date('2019-09-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-27;2019-08-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-27;2019-09-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,18 +2863,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-28</v>
+        <v>2019-09-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-28;2019-08-28.csv</v>
+        <v>2019-09-28;2019-09-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-28'; SET @perioddate=str_to_date('2019-08-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-28'; SET @perioddate=str_to_date('2019-09-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-28;2019-08-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-28;2019-09-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,18 +2897,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-29</v>
+        <v>2019-09-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-29;2019-08-29.csv</v>
+        <v>2019-09-29;2019-09-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2919,11 +2919,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-29'; SET @perioddate=str_to_date('2019-08-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-29'; SET @perioddate=str_to_date('2019-09-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-29;2019-08-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-29;2019-09-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2931,18 +2931,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-30</v>
+        <v>2019-09-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-30;2019-08-30.csv</v>
+        <v>2019-09-30;2019-09-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-30'; SET @perioddate=str_to_date('2019-08-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-30'; SET @perioddate=str_to_date('2019-09-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-30;2019-08-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-30;2019-09-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2965,18 +2965,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-08-31</v>
+        <v>2019-09-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-08-31;2019-08-31.csv</v>
+        <v>2019-09-31;2019-09-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-08-31'; SET @perioddate=str_to_date('2019-08-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-09-31'; SET @perioddate=str_to_date('2019-09-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-08-31;2019-08-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-31;2019-09-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DBC718-F3F9-4113-9826-1C0817F38DFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34299140-3EE9-4998-B7F8-3CC02ED3F09A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1945,18 +1945,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-09-01</v>
+        <v>2019-11-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-09-01;2019-09-01.csv</v>
+        <v>2019-11-01;2019-11-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-09-01'; SET @perioddate=str_to_date('2019-09-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-01'; SET @perioddate=str_to_date('2019-11-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-01;2019-09-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-01;2019-11-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1979,18 +1979,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-09-02</v>
+        <v>2019-11-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-09-02;2019-09-02.csv</v>
+        <v>2019-11-02;2019-11-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-09-02'; SET @perioddate=str_to_date('2019-09-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-02'; SET @perioddate=str_to_date('2019-11-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-02;2019-09-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-02;2019-11-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2013,18 +2013,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-03</v>
+        <v>2019-11-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-03;2019-09-03.csv</v>
+        <v>2019-11-03;2019-11-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2035,11 +2035,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-03'; SET @perioddate=str_to_date('2019-09-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-03'; SET @perioddate=str_to_date('2019-11-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-03;2019-09-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-03;2019-11-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2047,18 +2047,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-04</v>
+        <v>2019-11-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-04;2019-09-04.csv</v>
+        <v>2019-11-04;2019-11-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-04'; SET @perioddate=str_to_date('2019-09-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-04'; SET @perioddate=str_to_date('2019-11-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-04;2019-09-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-04;2019-11-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2081,18 +2081,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-05</v>
+        <v>2019-11-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-05;2019-09-05.csv</v>
+        <v>2019-11-05;2019-11-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-05'; SET @perioddate=str_to_date('2019-09-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-05'; SET @perioddate=str_to_date('2019-11-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-05;2019-09-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-05;2019-11-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2115,18 +2115,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-06</v>
+        <v>2019-11-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-06;2019-09-06.csv</v>
+        <v>2019-11-06;2019-11-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-06'; SET @perioddate=str_to_date('2019-09-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-06'; SET @perioddate=str_to_date('2019-11-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-06;2019-09-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-06;2019-11-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2149,18 +2149,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-07</v>
+        <v>2019-11-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-07;2019-09-07.csv</v>
+        <v>2019-11-07;2019-11-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-07'; SET @perioddate=str_to_date('2019-09-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-07'; SET @perioddate=str_to_date('2019-11-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-07;2019-09-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-07;2019-11-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2183,18 +2183,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-08</v>
+        <v>2019-11-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-08;2019-09-08.csv</v>
+        <v>2019-11-08;2019-11-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2205,11 +2205,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-08'; SET @perioddate=str_to_date('2019-09-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-08'; SET @perioddate=str_to_date('2019-11-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-08;2019-09-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-08;2019-11-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2217,18 +2217,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-09</v>
+        <v>2019-11-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-09;2019-09-09.csv</v>
+        <v>2019-11-09;2019-11-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2239,11 +2239,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-09'; SET @perioddate=str_to_date('2019-09-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-09'; SET @perioddate=str_to_date('2019-11-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-09;2019-09-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-09;2019-11-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2251,18 +2251,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-10</v>
+        <v>2019-11-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-10;2019-09-10.csv</v>
+        <v>2019-11-10;2019-11-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-10'; SET @perioddate=str_to_date('2019-09-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-10'; SET @perioddate=str_to_date('2019-11-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-10;2019-09-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-10;2019-11-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,18 +2285,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-11</v>
+        <v>2019-11-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-11;2019-09-11.csv</v>
+        <v>2019-11-11;2019-11-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2307,11 +2307,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-11'; SET @perioddate=str_to_date('2019-09-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-11'; SET @perioddate=str_to_date('2019-11-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-11;2019-09-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-11;2019-11-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2319,18 +2319,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-12</v>
+        <v>2019-11-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-12;2019-09-12.csv</v>
+        <v>2019-11-12;2019-11-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2341,11 +2341,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-12'; SET @perioddate=str_to_date('2019-09-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-12'; SET @perioddate=str_to_date('2019-11-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-12;2019-09-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-12;2019-11-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2353,18 +2353,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-13</v>
+        <v>2019-11-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-13;2019-09-13.csv</v>
+        <v>2019-11-13;2019-11-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2375,11 +2375,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-13'; SET @perioddate=str_to_date('2019-09-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-13'; SET @perioddate=str_to_date('2019-11-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-13;2019-09-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-13;2019-11-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2387,18 +2387,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-14</v>
+        <v>2019-11-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-14;2019-09-14.csv</v>
+        <v>2019-11-14;2019-11-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-14'; SET @perioddate=str_to_date('2019-09-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-14'; SET @perioddate=str_to_date('2019-11-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-14;2019-09-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-14;2019-11-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2421,18 +2421,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-15</v>
+        <v>2019-11-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-15;2019-09-15.csv</v>
+        <v>2019-11-15;2019-11-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2443,11 +2443,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-15'; SET @perioddate=str_to_date('2019-09-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-15'; SET @perioddate=str_to_date('2019-11-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-15;2019-09-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-15;2019-11-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2455,18 +2455,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-16</v>
+        <v>2019-11-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-16;2019-09-16.csv</v>
+        <v>2019-11-16;2019-11-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-16'; SET @perioddate=str_to_date('2019-09-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-16'; SET @perioddate=str_to_date('2019-11-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-16;2019-09-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-16;2019-11-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,18 +2489,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-17</v>
+        <v>2019-11-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-17;2019-09-17.csv</v>
+        <v>2019-11-17;2019-11-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2511,11 +2511,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-17'; SET @perioddate=str_to_date('2019-09-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-17'; SET @perioddate=str_to_date('2019-11-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-17;2019-09-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-17;2019-11-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2523,18 +2523,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-18</v>
+        <v>2019-11-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-18;2019-09-18.csv</v>
+        <v>2019-11-18;2019-11-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2545,11 +2545,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-18'; SET @perioddate=str_to_date('2019-09-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-18'; SET @perioddate=str_to_date('2019-11-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-18;2019-09-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-18;2019-11-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2557,18 +2557,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-19</v>
+        <v>2019-11-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-19;2019-09-19.csv</v>
+        <v>2019-11-19;2019-11-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-19'; SET @perioddate=str_to_date('2019-09-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-19'; SET @perioddate=str_to_date('2019-11-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-19;2019-09-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-19;2019-11-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2591,18 +2591,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-20</v>
+        <v>2019-11-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-20;2019-09-20.csv</v>
+        <v>2019-11-20;2019-11-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-20'; SET @perioddate=str_to_date('2019-09-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-20'; SET @perioddate=str_to_date('2019-11-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-20;2019-09-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-20;2019-11-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2625,18 +2625,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-21</v>
+        <v>2019-11-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-21;2019-09-21.csv</v>
+        <v>2019-11-21;2019-11-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2647,11 +2647,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-21'; SET @perioddate=str_to_date('2019-09-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-21'; SET @perioddate=str_to_date('2019-11-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-21;2019-09-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-21;2019-11-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2659,18 +2659,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-22</v>
+        <v>2019-11-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-22;2019-09-22.csv</v>
+        <v>2019-11-22;2019-11-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-22'; SET @perioddate=str_to_date('2019-09-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-22'; SET @perioddate=str_to_date('2019-11-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-22;2019-09-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-22;2019-11-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2693,18 +2693,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-23</v>
+        <v>2019-11-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-23;2019-09-23.csv</v>
+        <v>2019-11-23;2019-11-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2715,11 +2715,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-23'; SET @perioddate=str_to_date('2019-09-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-23'; SET @perioddate=str_to_date('2019-11-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-23;2019-09-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-23;2019-11-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2727,18 +2727,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-24</v>
+        <v>2019-11-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-24;2019-09-24.csv</v>
+        <v>2019-11-24;2019-11-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2749,11 +2749,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-24'; SET @perioddate=str_to_date('2019-09-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-24'; SET @perioddate=str_to_date('2019-11-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-24;2019-09-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-24;2019-11-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2761,18 +2761,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-25</v>
+        <v>2019-11-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-25;2019-09-25.csv</v>
+        <v>2019-11-25;2019-11-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-25'; SET @perioddate=str_to_date('2019-09-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-25'; SET @perioddate=str_to_date('2019-11-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-25;2019-09-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-25;2019-11-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2795,18 +2795,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-26</v>
+        <v>2019-11-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-26;2019-09-26.csv</v>
+        <v>2019-11-26;2019-11-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-26'; SET @perioddate=str_to_date('2019-09-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-26'; SET @perioddate=str_to_date('2019-11-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-26;2019-09-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-26;2019-11-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2829,18 +2829,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-27</v>
+        <v>2019-11-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-27;2019-09-27.csv</v>
+        <v>2019-11-27;2019-11-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-27'; SET @perioddate=str_to_date('2019-09-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-27'; SET @perioddate=str_to_date('2019-11-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-27;2019-09-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-27;2019-11-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,18 +2863,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-28</v>
+        <v>2019-11-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-28;2019-09-28.csv</v>
+        <v>2019-11-28;2019-11-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-28'; SET @perioddate=str_to_date('2019-09-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-28'; SET @perioddate=str_to_date('2019-11-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-28;2019-09-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-28;2019-11-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,18 +2897,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-29</v>
+        <v>2019-11-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-29;2019-09-29.csv</v>
+        <v>2019-11-29;2019-11-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2919,11 +2919,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-29'; SET @perioddate=str_to_date('2019-09-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-29'; SET @perioddate=str_to_date('2019-11-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-29;2019-09-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-29;2019-11-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2931,18 +2931,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-30</v>
+        <v>2019-11-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-30;2019-09-30.csv</v>
+        <v>2019-11-30;2019-11-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-30'; SET @perioddate=str_to_date('2019-09-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-30'; SET @perioddate=str_to_date('2019-11-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-30;2019-09-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-30;2019-11-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2965,18 +2965,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-09-31</v>
+        <v>2019-11-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-09-31;2019-09-31.csv</v>
+        <v>2019-11-31;2019-11-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-09-31'; SET @perioddate=str_to_date('2019-09-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-11-31'; SET @perioddate=str_to_date('2019-11-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-09-31;2019-09-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-31;2019-11-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34299140-3EE9-4998-B7F8-3CC02ED3F09A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F1BA03-4A28-401D-A253-41CF7EBC18BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1911,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1945,18 +1945,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-11-01</v>
+        <v>2019-12-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-11-01;2019-11-01.csv</v>
+        <v>2019-12-01;2019-12-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-11-01'; SET @perioddate=str_to_date('2019-11-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-01'; SET @perioddate=str_to_date('2019-12-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-01;2019-11-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-01;2019-12-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1979,18 +1979,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-11-02</v>
+        <v>2019-12-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-11-02;2019-11-02.csv</v>
+        <v>2019-12-02;2019-12-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-11-02'; SET @perioddate=str_to_date('2019-11-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-02'; SET @perioddate=str_to_date('2019-12-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-02;2019-11-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-02;2019-12-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2013,18 +2013,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-03</v>
+        <v>2019-12-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-03;2019-11-03.csv</v>
+        <v>2019-12-03;2019-12-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2035,11 +2035,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-03'; SET @perioddate=str_to_date('2019-11-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-03'; SET @perioddate=str_to_date('2019-12-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-03;2019-11-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-03;2019-12-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2047,18 +2047,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-04</v>
+        <v>2019-12-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-04;2019-11-04.csv</v>
+        <v>2019-12-04;2019-12-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-04'; SET @perioddate=str_to_date('2019-11-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-04'; SET @perioddate=str_to_date('2019-12-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-04;2019-11-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-04;2019-12-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2081,18 +2081,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-05</v>
+        <v>2019-12-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-05;2019-11-05.csv</v>
+        <v>2019-12-05;2019-12-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-05'; SET @perioddate=str_to_date('2019-11-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-05'; SET @perioddate=str_to_date('2019-12-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-05;2019-11-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-05;2019-12-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2115,18 +2115,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-06</v>
+        <v>2019-12-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-06;2019-11-06.csv</v>
+        <v>2019-12-06;2019-12-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-06'; SET @perioddate=str_to_date('2019-11-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-06'; SET @perioddate=str_to_date('2019-12-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-06;2019-11-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-06;2019-12-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2149,18 +2149,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-07</v>
+        <v>2019-12-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-07;2019-11-07.csv</v>
+        <v>2019-12-07;2019-12-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-07'; SET @perioddate=str_to_date('2019-11-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-07'; SET @perioddate=str_to_date('2019-12-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-07;2019-11-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-07;2019-12-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2183,18 +2183,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-08</v>
+        <v>2019-12-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-08;2019-11-08.csv</v>
+        <v>2019-12-08;2019-12-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2205,11 +2205,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-08'; SET @perioddate=str_to_date('2019-11-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-08'; SET @perioddate=str_to_date('2019-12-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-08;2019-11-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-08;2019-12-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2217,18 +2217,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-09</v>
+        <v>2019-12-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-09;2019-11-09.csv</v>
+        <v>2019-12-09;2019-12-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2239,11 +2239,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-09'; SET @perioddate=str_to_date('2019-11-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-09'; SET @perioddate=str_to_date('2019-12-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-09;2019-11-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-09;2019-12-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2251,18 +2251,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-10</v>
+        <v>2019-12-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-10;2019-11-10.csv</v>
+        <v>2019-12-10;2019-12-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-10'; SET @perioddate=str_to_date('2019-11-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-10'; SET @perioddate=str_to_date('2019-12-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-10;2019-11-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-10;2019-12-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,18 +2285,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-11</v>
+        <v>2019-12-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-11;2019-11-11.csv</v>
+        <v>2019-12-11;2019-12-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2307,11 +2307,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-11'; SET @perioddate=str_to_date('2019-11-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-11'; SET @perioddate=str_to_date('2019-12-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-11;2019-11-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-11;2019-12-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2319,18 +2319,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-12</v>
+        <v>2019-12-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-12;2019-11-12.csv</v>
+        <v>2019-12-12;2019-12-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2341,11 +2341,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-12'; SET @perioddate=str_to_date('2019-11-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-12'; SET @perioddate=str_to_date('2019-12-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-12;2019-11-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-12;2019-12-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2353,18 +2353,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-13</v>
+        <v>2019-12-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-13;2019-11-13.csv</v>
+        <v>2019-12-13;2019-12-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2375,11 +2375,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-13'; SET @perioddate=str_to_date('2019-11-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-13'; SET @perioddate=str_to_date('2019-12-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-13;2019-11-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-13;2019-12-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2387,18 +2387,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-14</v>
+        <v>2019-12-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-14;2019-11-14.csv</v>
+        <v>2019-12-14;2019-12-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-14'; SET @perioddate=str_to_date('2019-11-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-14'; SET @perioddate=str_to_date('2019-12-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-14;2019-11-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-14;2019-12-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2421,18 +2421,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-15</v>
+        <v>2019-12-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-15;2019-11-15.csv</v>
+        <v>2019-12-15;2019-12-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2443,11 +2443,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-15'; SET @perioddate=str_to_date('2019-11-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-15'; SET @perioddate=str_to_date('2019-12-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-15;2019-11-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-15;2019-12-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2455,18 +2455,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-16</v>
+        <v>2019-12-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-16;2019-11-16.csv</v>
+        <v>2019-12-16;2019-12-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-16'; SET @perioddate=str_to_date('2019-11-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-16'; SET @perioddate=str_to_date('2019-12-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-16;2019-11-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-16;2019-12-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,18 +2489,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-17</v>
+        <v>2019-12-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-17;2019-11-17.csv</v>
+        <v>2019-12-17;2019-12-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2511,11 +2511,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-17'; SET @perioddate=str_to_date('2019-11-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-17'; SET @perioddate=str_to_date('2019-12-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-17;2019-11-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-17;2019-12-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2523,18 +2523,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-18</v>
+        <v>2019-12-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-18;2019-11-18.csv</v>
+        <v>2019-12-18;2019-12-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2545,11 +2545,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-18'; SET @perioddate=str_to_date('2019-11-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-18'; SET @perioddate=str_to_date('2019-12-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-18;2019-11-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-18;2019-12-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2557,18 +2557,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-19</v>
+        <v>2019-12-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-19;2019-11-19.csv</v>
+        <v>2019-12-19;2019-12-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-19'; SET @perioddate=str_to_date('2019-11-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-19'; SET @perioddate=str_to_date('2019-12-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-19;2019-11-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-19;2019-12-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2591,18 +2591,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-20</v>
+        <v>2019-12-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-20;2019-11-20.csv</v>
+        <v>2019-12-20;2019-12-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-20'; SET @perioddate=str_to_date('2019-11-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-20'; SET @perioddate=str_to_date('2019-12-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-20;2019-11-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-20;2019-12-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2625,18 +2625,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-21</v>
+        <v>2019-12-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-21;2019-11-21.csv</v>
+        <v>2019-12-21;2019-12-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2647,11 +2647,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-21'; SET @perioddate=str_to_date('2019-11-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-21'; SET @perioddate=str_to_date('2019-12-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-21;2019-11-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-21;2019-12-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2659,18 +2659,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-22</v>
+        <v>2019-12-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-22;2019-11-22.csv</v>
+        <v>2019-12-22;2019-12-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-22'; SET @perioddate=str_to_date('2019-11-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-22'; SET @perioddate=str_to_date('2019-12-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-22;2019-11-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-22;2019-12-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2693,18 +2693,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-23</v>
+        <v>2019-12-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-23;2019-11-23.csv</v>
+        <v>2019-12-23;2019-12-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2715,11 +2715,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-23'; SET @perioddate=str_to_date('2019-11-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-23'; SET @perioddate=str_to_date('2019-12-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-23;2019-11-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-23;2019-12-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2727,18 +2727,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-24</v>
+        <v>2019-12-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-24;2019-11-24.csv</v>
+        <v>2019-12-24;2019-12-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2749,11 +2749,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-24'; SET @perioddate=str_to_date('2019-11-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-24'; SET @perioddate=str_to_date('2019-12-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-24;2019-11-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-24;2019-12-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2761,18 +2761,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-25</v>
+        <v>2019-12-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-25;2019-11-25.csv</v>
+        <v>2019-12-25;2019-12-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-25'; SET @perioddate=str_to_date('2019-11-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-25'; SET @perioddate=str_to_date('2019-12-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-25;2019-11-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-25;2019-12-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2795,18 +2795,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-26</v>
+        <v>2019-12-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-26;2019-11-26.csv</v>
+        <v>2019-12-26;2019-12-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-26'; SET @perioddate=str_to_date('2019-11-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-26'; SET @perioddate=str_to_date('2019-12-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-26;2019-11-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-26;2019-12-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2829,18 +2829,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-27</v>
+        <v>2019-12-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-27;2019-11-27.csv</v>
+        <v>2019-12-27;2019-12-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-27'; SET @perioddate=str_to_date('2019-11-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-27'; SET @perioddate=str_to_date('2019-12-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-27;2019-11-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-27;2019-12-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,18 +2863,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-28</v>
+        <v>2019-12-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-28;2019-11-28.csv</v>
+        <v>2019-12-28;2019-12-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-28'; SET @perioddate=str_to_date('2019-11-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-28'; SET @perioddate=str_to_date('2019-12-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-28;2019-11-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-28;2019-12-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,18 +2897,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-29</v>
+        <v>2019-12-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-29;2019-11-29.csv</v>
+        <v>2019-12-29;2019-12-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2919,11 +2919,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-29'; SET @perioddate=str_to_date('2019-11-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-29'; SET @perioddate=str_to_date('2019-12-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-29;2019-11-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-29;2019-12-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2931,18 +2931,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-30</v>
+        <v>2019-12-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-30;2019-11-30.csv</v>
+        <v>2019-12-30;2019-12-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-30'; SET @perioddate=str_to_date('2019-11-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-30'; SET @perioddate=str_to_date('2019-12-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-30;2019-11-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-30;2019-12-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2965,18 +2965,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-11-31</v>
+        <v>2019-12-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-11-31;2019-11-31.csv</v>
+        <v>2019-12-31;2019-12-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-11-31'; SET @perioddate=str_to_date('2019-11-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2019-12-31'; SET @perioddate=str_to_date('2019-12-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-11-31;2019-11-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-31;2019-12-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F1BA03-4A28-401D-A253-41CF7EBC18BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B998FA-4292-4967-8E96-24A53B1DA1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="183">
   <si>
     <t>Day</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -1945,18 +1948,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2019-12-01</v>
+        <v>2020-01-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2019-12-01;2019-12-01.csv</v>
+        <v>2020-01-01;2020-01-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1967,11 +1970,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-12-01'; SET @perioddate=str_to_date('2019-12-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-01'; SET @perioddate=str_to_date('2020-01-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-01;2019-12-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-01;2020-01-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1979,18 +1982,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2019-12-02</v>
+        <v>2020-01-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2019-12-02;2019-12-02.csv</v>
+        <v>2020-01-02;2020-01-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2001,11 +2004,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2019-12-02'; SET @perioddate=str_to_date('2019-12-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-02'; SET @perioddate=str_to_date('2020-01-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-02;2019-12-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-02;2020-01-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2013,18 +2016,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-03</v>
+        <v>2020-01-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-03;2019-12-03.csv</v>
+        <v>2020-01-03;2020-01-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2035,11 +2038,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-03'; SET @perioddate=str_to_date('2019-12-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-03'; SET @perioddate=str_to_date('2020-01-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-03;2019-12-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-03;2020-01-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2047,18 +2050,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-04</v>
+        <v>2020-01-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-04;2019-12-04.csv</v>
+        <v>2020-01-04;2020-01-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2069,11 +2072,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-04'; SET @perioddate=str_to_date('2019-12-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-04'; SET @perioddate=str_to_date('2020-01-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-04;2019-12-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-04;2020-01-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2081,18 +2084,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-05</v>
+        <v>2020-01-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-05;2019-12-05.csv</v>
+        <v>2020-01-05;2020-01-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2103,11 +2106,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-05'; SET @perioddate=str_to_date('2019-12-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-05'; SET @perioddate=str_to_date('2020-01-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-05;2019-12-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-05;2020-01-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2115,18 +2118,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-06</v>
+        <v>2020-01-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-06;2019-12-06.csv</v>
+        <v>2020-01-06;2020-01-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2137,11 +2140,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-06'; SET @perioddate=str_to_date('2019-12-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-06'; SET @perioddate=str_to_date('2020-01-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-06;2019-12-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-06;2020-01-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2149,18 +2152,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-07</v>
+        <v>2020-01-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-07;2019-12-07.csv</v>
+        <v>2020-01-07;2020-01-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2171,11 +2174,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-07'; SET @perioddate=str_to_date('2019-12-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-07'; SET @perioddate=str_to_date('2020-01-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-07;2019-12-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-07;2020-01-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2183,18 +2186,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-08</v>
+        <v>2020-01-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-08;2019-12-08.csv</v>
+        <v>2020-01-08;2020-01-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2205,11 +2208,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-08'; SET @perioddate=str_to_date('2019-12-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-08'; SET @perioddate=str_to_date('2020-01-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-08;2019-12-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-08;2020-01-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2217,18 +2220,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-09</v>
+        <v>2020-01-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-09;2019-12-09.csv</v>
+        <v>2020-01-09;2020-01-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2239,11 +2242,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-09'; SET @perioddate=str_to_date('2019-12-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-09'; SET @perioddate=str_to_date('2020-01-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-09;2019-12-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-09;2020-01-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2251,18 +2254,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-10</v>
+        <v>2020-01-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-10;2019-12-10.csv</v>
+        <v>2020-01-10;2020-01-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2273,11 +2276,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-10'; SET @perioddate=str_to_date('2019-12-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-10'; SET @perioddate=str_to_date('2020-01-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-10;2019-12-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-10;2020-01-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,18 +2288,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-11</v>
+        <v>2020-01-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-11;2019-12-11.csv</v>
+        <v>2020-01-11;2020-01-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2307,11 +2310,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-11'; SET @perioddate=str_to_date('2019-12-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-11'; SET @perioddate=str_to_date('2020-01-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-11;2019-12-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-11;2020-01-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2319,18 +2322,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-12</v>
+        <v>2020-01-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-12;2019-12-12.csv</v>
+        <v>2020-01-12;2020-01-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2341,11 +2344,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-12'; SET @perioddate=str_to_date('2019-12-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-12'; SET @perioddate=str_to_date('2020-01-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-12;2019-12-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-12;2020-01-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2353,18 +2356,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-13</v>
+        <v>2020-01-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-13;2019-12-13.csv</v>
+        <v>2020-01-13;2020-01-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2375,11 +2378,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-13'; SET @perioddate=str_to_date('2019-12-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-13'; SET @perioddate=str_to_date('2020-01-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-13;2019-12-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-13;2020-01-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2387,18 +2390,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-14</v>
+        <v>2020-01-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-14;2019-12-14.csv</v>
+        <v>2020-01-14;2020-01-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2409,11 +2412,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-14'; SET @perioddate=str_to_date('2019-12-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-14'; SET @perioddate=str_to_date('2020-01-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-14;2019-12-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-14;2020-01-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2421,18 +2424,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-15</v>
+        <v>2020-01-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-15;2019-12-15.csv</v>
+        <v>2020-01-15;2020-01-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2443,11 +2446,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-15'; SET @perioddate=str_to_date('2019-12-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-15'; SET @perioddate=str_to_date('2020-01-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-15;2019-12-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-15;2020-01-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2455,18 +2458,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-16</v>
+        <v>2020-01-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-16;2019-12-16.csv</v>
+        <v>2020-01-16;2020-01-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2477,11 +2480,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-16'; SET @perioddate=str_to_date('2019-12-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-16'; SET @perioddate=str_to_date('2020-01-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-16;2019-12-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-16;2020-01-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,18 +2492,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-17</v>
+        <v>2020-01-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-17;2019-12-17.csv</v>
+        <v>2020-01-17;2020-01-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2511,11 +2514,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-17'; SET @perioddate=str_to_date('2019-12-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-17'; SET @perioddate=str_to_date('2020-01-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-17;2019-12-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-17;2020-01-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2523,18 +2526,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-18</v>
+        <v>2020-01-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-18;2019-12-18.csv</v>
+        <v>2020-01-18;2020-01-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2545,11 +2548,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-18'; SET @perioddate=str_to_date('2019-12-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-18'; SET @perioddate=str_to_date('2020-01-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-18;2019-12-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-18;2020-01-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2557,18 +2560,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-19</v>
+        <v>2020-01-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-19;2019-12-19.csv</v>
+        <v>2020-01-19;2020-01-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2579,11 +2582,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-19'; SET @perioddate=str_to_date('2019-12-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-19'; SET @perioddate=str_to_date('2020-01-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-19;2019-12-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-19;2020-01-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2591,18 +2594,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-20</v>
+        <v>2020-01-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-20;2019-12-20.csv</v>
+        <v>2020-01-20;2020-01-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2613,11 +2616,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-20'; SET @perioddate=str_to_date('2019-12-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-20'; SET @perioddate=str_to_date('2020-01-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-20;2019-12-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-20;2020-01-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2625,18 +2628,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-21</v>
+        <v>2020-01-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-21;2019-12-21.csv</v>
+        <v>2020-01-21;2020-01-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2647,11 +2650,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-21'; SET @perioddate=str_to_date('2019-12-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-21'; SET @perioddate=str_to_date('2020-01-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-21;2019-12-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-21;2020-01-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2659,18 +2662,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-22</v>
+        <v>2020-01-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-22;2019-12-22.csv</v>
+        <v>2020-01-22;2020-01-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-22'; SET @perioddate=str_to_date('2019-12-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-22'; SET @perioddate=str_to_date('2020-01-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-22;2019-12-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-22;2020-01-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2693,18 +2696,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-23</v>
+        <v>2020-01-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-23;2019-12-23.csv</v>
+        <v>2020-01-23;2020-01-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2715,11 +2718,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-23'; SET @perioddate=str_to_date('2019-12-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-23'; SET @perioddate=str_to_date('2020-01-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-23;2019-12-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-23;2020-01-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2727,18 +2730,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-24</v>
+        <v>2020-01-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-24;2019-12-24.csv</v>
+        <v>2020-01-24;2020-01-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2749,11 +2752,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-24'; SET @perioddate=str_to_date('2019-12-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-24'; SET @perioddate=str_to_date('2020-01-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-24;2019-12-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-24;2020-01-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2761,18 +2764,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-25</v>
+        <v>2020-01-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-25;2019-12-25.csv</v>
+        <v>2020-01-25;2020-01-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2783,11 +2786,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-25'; SET @perioddate=str_to_date('2019-12-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-25'; SET @perioddate=str_to_date('2020-01-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-25;2019-12-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-25;2020-01-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2795,18 +2798,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-26</v>
+        <v>2020-01-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-26;2019-12-26.csv</v>
+        <v>2020-01-26;2020-01-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2817,11 +2820,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-26'; SET @perioddate=str_to_date('2019-12-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-26'; SET @perioddate=str_to_date('2020-01-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-26;2019-12-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-26;2020-01-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2829,18 +2832,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-27</v>
+        <v>2020-01-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-27;2019-12-27.csv</v>
+        <v>2020-01-27;2020-01-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2851,11 +2854,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-27'; SET @perioddate=str_to_date('2019-12-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-27'; SET @perioddate=str_to_date('2020-01-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-27;2019-12-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-27;2020-01-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,18 +2866,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-28</v>
+        <v>2020-01-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-28;2019-12-28.csv</v>
+        <v>2020-01-28;2020-01-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2885,11 +2888,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-28'; SET @perioddate=str_to_date('2019-12-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-28'; SET @perioddate=str_to_date('2020-01-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-28;2019-12-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-28;2020-01-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,18 +2900,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-29</v>
+        <v>2020-01-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-29;2019-12-29.csv</v>
+        <v>2020-01-29;2020-01-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2919,11 +2922,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-29'; SET @perioddate=str_to_date('2019-12-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-29'; SET @perioddate=str_to_date('2020-01-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-29;2019-12-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-29;2020-01-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2931,18 +2934,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-30</v>
+        <v>2020-01-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-30;2019-12-30.csv</v>
+        <v>2020-01-30;2020-01-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2953,11 +2956,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-30'; SET @perioddate=str_to_date('2019-12-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-30'; SET @perioddate=str_to_date('2020-01-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-30;2019-12-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-30;2020-01-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2965,18 +2968,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2019-12-31</v>
+        <v>2020-01-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2019-12-31;2019-12-31.csv</v>
+        <v>2020-01-31;2020-01-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2987,11 +2990,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2019-12-31'; SET @perioddate=str_to_date('2019-12-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-01-31'; SET @perioddate=str_to_date('2020-01-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2019-12-31;2019-12-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-31;2020-01-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B998FA-4292-4967-8E96-24A53B1DA1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49297031-871E-47C1-B7FF-200B7F2F75ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1915,7 +1917,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1948,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-01-01</v>
+        <v>2020-02-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-01-01;2020-01-01.csv</v>
+        <v>2020-02-01;2020-02-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1970,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-01-01'; SET @perioddate=str_to_date('2020-01-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-01'; SET @perioddate=str_to_date('2020-02-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-01;2020-01-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-01;2020-02-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1982,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-01-02</v>
+        <v>2020-02-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-01-02;2020-01-02.csv</v>
+        <v>2020-02-02;2020-02-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2004,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-01-02'; SET @perioddate=str_to_date('2020-01-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-02'; SET @perioddate=str_to_date('2020-02-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-02;2020-01-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-02;2020-02-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2016,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-03</v>
+        <v>2020-02-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-03;2020-01-03.csv</v>
+        <v>2020-02-03;2020-02-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2038,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-03'; SET @perioddate=str_to_date('2020-01-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-03'; SET @perioddate=str_to_date('2020-02-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-03;2020-01-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-03;2020-02-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2050,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-04</v>
+        <v>2020-02-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-04;2020-01-04.csv</v>
+        <v>2020-02-04;2020-02-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2072,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-04'; SET @perioddate=str_to_date('2020-01-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-04'; SET @perioddate=str_to_date('2020-02-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-04;2020-01-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-04;2020-02-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2084,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-05</v>
+        <v>2020-02-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-05;2020-01-05.csv</v>
+        <v>2020-02-05;2020-02-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2106,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-05'; SET @perioddate=str_to_date('2020-01-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-05'; SET @perioddate=str_to_date('2020-02-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-05;2020-01-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-05;2020-02-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2118,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-06</v>
+        <v>2020-02-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-06;2020-01-06.csv</v>
+        <v>2020-02-06;2020-02-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2140,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-06'; SET @perioddate=str_to_date('2020-01-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-06'; SET @perioddate=str_to_date('2020-02-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-06;2020-01-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-06;2020-02-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2152,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-07</v>
+        <v>2020-02-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-07;2020-01-07.csv</v>
+        <v>2020-02-07;2020-02-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2174,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-07'; SET @perioddate=str_to_date('2020-01-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-07'; SET @perioddate=str_to_date('2020-02-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-07;2020-01-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-07;2020-02-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2186,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-08</v>
+        <v>2020-02-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-08;2020-01-08.csv</v>
+        <v>2020-02-08;2020-02-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2208,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-08'; SET @perioddate=str_to_date('2020-01-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-08'; SET @perioddate=str_to_date('2020-02-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-08;2020-01-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-08;2020-02-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2220,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-09</v>
+        <v>2020-02-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-09;2020-01-09.csv</v>
+        <v>2020-02-09;2020-02-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2242,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-09'; SET @perioddate=str_to_date('2020-01-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-09'; SET @perioddate=str_to_date('2020-02-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-09;2020-01-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-09;2020-02-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2254,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-10</v>
+        <v>2020-02-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-10;2020-01-10.csv</v>
+        <v>2020-02-10;2020-02-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2276,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-10'; SET @perioddate=str_to_date('2020-01-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-10'; SET @perioddate=str_to_date('2020-02-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-10;2020-01-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-10;2020-02-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2288,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-11</v>
+        <v>2020-02-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-11;2020-01-11.csv</v>
+        <v>2020-02-11;2020-02-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2310,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-11'; SET @perioddate=str_to_date('2020-01-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-11'; SET @perioddate=str_to_date('2020-02-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-11;2020-01-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-11;2020-02-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2322,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-12</v>
+        <v>2020-02-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-12;2020-01-12.csv</v>
+        <v>2020-02-12;2020-02-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2344,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-12'; SET @perioddate=str_to_date('2020-01-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-12'; SET @perioddate=str_to_date('2020-02-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-12;2020-01-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-12;2020-02-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2356,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-13</v>
+        <v>2020-02-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-13;2020-01-13.csv</v>
+        <v>2020-02-13;2020-02-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2378,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-13'; SET @perioddate=str_to_date('2020-01-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-13'; SET @perioddate=str_to_date('2020-02-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-13;2020-01-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-13;2020-02-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2390,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-14</v>
+        <v>2020-02-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-14;2020-01-14.csv</v>
+        <v>2020-02-14;2020-02-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2412,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-14'; SET @perioddate=str_to_date('2020-01-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-14'; SET @perioddate=str_to_date('2020-02-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-14;2020-01-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-14;2020-02-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2424,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-15</v>
+        <v>2020-02-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-15;2020-01-15.csv</v>
+        <v>2020-02-15;2020-02-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2446,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-15'; SET @perioddate=str_to_date('2020-01-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-15'; SET @perioddate=str_to_date('2020-02-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-15;2020-01-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-15;2020-02-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2458,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-16</v>
+        <v>2020-02-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-16;2020-01-16.csv</v>
+        <v>2020-02-16;2020-02-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2480,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-16'; SET @perioddate=str_to_date('2020-01-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-16'; SET @perioddate=str_to_date('2020-02-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-16;2020-01-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-16;2020-02-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2492,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-17</v>
+        <v>2020-02-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-17;2020-01-17.csv</v>
+        <v>2020-02-17;2020-02-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2514,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-17'; SET @perioddate=str_to_date('2020-01-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-17'; SET @perioddate=str_to_date('2020-02-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-17;2020-01-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-17;2020-02-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2526,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-18</v>
+        <v>2020-02-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-18;2020-01-18.csv</v>
+        <v>2020-02-18;2020-02-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2548,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-18'; SET @perioddate=str_to_date('2020-01-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-18'; SET @perioddate=str_to_date('2020-02-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-18;2020-01-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-18;2020-02-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2560,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-19</v>
+        <v>2020-02-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-19;2020-01-19.csv</v>
+        <v>2020-02-19;2020-02-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2582,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-19'; SET @perioddate=str_to_date('2020-01-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-19'; SET @perioddate=str_to_date('2020-02-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-19;2020-01-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-19;2020-02-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2594,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-20</v>
+        <v>2020-02-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-20;2020-01-20.csv</v>
+        <v>2020-02-20;2020-02-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2616,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-20'; SET @perioddate=str_to_date('2020-01-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-20'; SET @perioddate=str_to_date('2020-02-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-20;2020-01-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-20;2020-02-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2628,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-21</v>
+        <v>2020-02-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-21;2020-01-21.csv</v>
+        <v>2020-02-21;2020-02-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2650,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-21'; SET @perioddate=str_to_date('2020-01-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-21'; SET @perioddate=str_to_date('2020-02-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-21;2020-01-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-21;2020-02-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2662,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-22</v>
+        <v>2020-02-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-22;2020-01-22.csv</v>
+        <v>2020-02-22;2020-02-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2684,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-22'; SET @perioddate=str_to_date('2020-01-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-22'; SET @perioddate=str_to_date('2020-02-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-22;2020-01-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-22;2020-02-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2696,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-23</v>
+        <v>2020-02-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-23;2020-01-23.csv</v>
+        <v>2020-02-23;2020-02-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2718,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-23'; SET @perioddate=str_to_date('2020-01-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-23'; SET @perioddate=str_to_date('2020-02-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-23;2020-01-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-23;2020-02-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2730,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-24</v>
+        <v>2020-02-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-24;2020-01-24.csv</v>
+        <v>2020-02-24;2020-02-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2752,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-24'; SET @perioddate=str_to_date('2020-01-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-24'; SET @perioddate=str_to_date('2020-02-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-24;2020-01-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-24;2020-02-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2764,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-25</v>
+        <v>2020-02-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-25;2020-01-25.csv</v>
+        <v>2020-02-25;2020-02-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2786,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-25'; SET @perioddate=str_to_date('2020-01-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-25'; SET @perioddate=str_to_date('2020-02-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-25;2020-01-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-25;2020-02-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2798,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-26</v>
+        <v>2020-02-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-26;2020-01-26.csv</v>
+        <v>2020-02-26;2020-02-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2820,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-26'; SET @perioddate=str_to_date('2020-01-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-26'; SET @perioddate=str_to_date('2020-02-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-26;2020-01-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-26;2020-02-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2832,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-27</v>
+        <v>2020-02-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-27;2020-01-27.csv</v>
+        <v>2020-02-27;2020-02-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2854,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-27'; SET @perioddate=str_to_date('2020-01-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-27'; SET @perioddate=str_to_date('2020-02-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-27;2020-01-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-27;2020-02-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2866,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-28</v>
+        <v>2020-02-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-28;2020-01-28.csv</v>
+        <v>2020-02-28;2020-02-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2888,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-28'; SET @perioddate=str_to_date('2020-01-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-28'; SET @perioddate=str_to_date('2020-02-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-28;2020-01-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-28;2020-02-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2900,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-29</v>
+        <v>2020-02-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-29;2020-01-29.csv</v>
+        <v>2020-02-29;2020-02-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2922,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-29'; SET @perioddate=str_to_date('2020-01-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-29'; SET @perioddate=str_to_date('2020-02-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-29;2020-01-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-29;2020-02-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2934,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-30</v>
+        <v>2020-02-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-30;2020-01-30.csv</v>
+        <v>2020-02-30;2020-02-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2956,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-30'; SET @perioddate=str_to_date('2020-01-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-30'; SET @perioddate=str_to_date('2020-02-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-30;2020-01-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-30;2020-02-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2968,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-01-31</v>
+        <v>2020-02-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-01-31;2020-01-31.csv</v>
+        <v>2020-02-31;2020-02-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2990,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-01-31'; SET @perioddate=str_to_date('2020-01-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-02-31'; SET @perioddate=str_to_date('2020-02-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-01-31;2020-01-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-31;2020-02-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49297031-871E-47C1-B7FF-200B7F2F75ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA69F68-D34B-4896-B39A-577AC8291235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-02-01</v>
+        <v>2020-03-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-02-01;2020-02-01.csv</v>
+        <v>2020-03-01;2020-03-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-02-01'; SET @perioddate=str_to_date('2020-02-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-01'; SET @perioddate=str_to_date('2020-03-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-01;2020-02-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-01;2020-03-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-02-02</v>
+        <v>2020-03-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-02-02;2020-02-02.csv</v>
+        <v>2020-03-02;2020-03-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-02-02'; SET @perioddate=str_to_date('2020-02-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-02'; SET @perioddate=str_to_date('2020-03-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-02;2020-02-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-02;2020-03-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-03</v>
+        <v>2020-03-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-03;2020-02-03.csv</v>
+        <v>2020-03-03;2020-03-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-03'; SET @perioddate=str_to_date('2020-02-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-03'; SET @perioddate=str_to_date('2020-03-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-03;2020-02-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-03;2020-03-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-04</v>
+        <v>2020-03-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-04;2020-02-04.csv</v>
+        <v>2020-03-04;2020-03-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-04'; SET @perioddate=str_to_date('2020-02-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-04'; SET @perioddate=str_to_date('2020-03-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-04;2020-02-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-04;2020-03-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-05</v>
+        <v>2020-03-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-05;2020-02-05.csv</v>
+        <v>2020-03-05;2020-03-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-05'; SET @perioddate=str_to_date('2020-02-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-05'; SET @perioddate=str_to_date('2020-03-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-05;2020-02-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-05;2020-03-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-06</v>
+        <v>2020-03-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-06;2020-02-06.csv</v>
+        <v>2020-03-06;2020-03-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-06'; SET @perioddate=str_to_date('2020-02-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-06'; SET @perioddate=str_to_date('2020-03-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-06;2020-02-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-06;2020-03-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-07</v>
+        <v>2020-03-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-07;2020-02-07.csv</v>
+        <v>2020-03-07;2020-03-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-07'; SET @perioddate=str_to_date('2020-02-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-07'; SET @perioddate=str_to_date('2020-03-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-07;2020-02-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-07;2020-03-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-08</v>
+        <v>2020-03-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-08;2020-02-08.csv</v>
+        <v>2020-03-08;2020-03-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-08'; SET @perioddate=str_to_date('2020-02-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-08'; SET @perioddate=str_to_date('2020-03-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-08;2020-02-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-08;2020-03-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-09</v>
+        <v>2020-03-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-09;2020-02-09.csv</v>
+        <v>2020-03-09;2020-03-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-09'; SET @perioddate=str_to_date('2020-02-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-09'; SET @perioddate=str_to_date('2020-03-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-09;2020-02-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-09;2020-03-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-10</v>
+        <v>2020-03-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-10;2020-02-10.csv</v>
+        <v>2020-03-10;2020-03-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-10'; SET @perioddate=str_to_date('2020-02-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-10'; SET @perioddate=str_to_date('2020-03-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-10;2020-02-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-10;2020-03-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-11</v>
+        <v>2020-03-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-11;2020-02-11.csv</v>
+        <v>2020-03-11;2020-03-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-11'; SET @perioddate=str_to_date('2020-02-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-11'; SET @perioddate=str_to_date('2020-03-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-11;2020-02-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-11;2020-03-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-12</v>
+        <v>2020-03-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-12;2020-02-12.csv</v>
+        <v>2020-03-12;2020-03-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-12'; SET @perioddate=str_to_date('2020-02-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-12'; SET @perioddate=str_to_date('2020-03-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-12;2020-02-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-12;2020-03-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-13</v>
+        <v>2020-03-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-13;2020-02-13.csv</v>
+        <v>2020-03-13;2020-03-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-13'; SET @perioddate=str_to_date('2020-02-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-13'; SET @perioddate=str_to_date('2020-03-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-13;2020-02-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-13;2020-03-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-14</v>
+        <v>2020-03-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-14;2020-02-14.csv</v>
+        <v>2020-03-14;2020-03-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-14'; SET @perioddate=str_to_date('2020-02-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-14'; SET @perioddate=str_to_date('2020-03-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-14;2020-02-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-14;2020-03-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-15</v>
+        <v>2020-03-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-15;2020-02-15.csv</v>
+        <v>2020-03-15;2020-03-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-15'; SET @perioddate=str_to_date('2020-02-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-15'; SET @perioddate=str_to_date('2020-03-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-15;2020-02-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-15;2020-03-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-16</v>
+        <v>2020-03-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-16;2020-02-16.csv</v>
+        <v>2020-03-16;2020-03-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-16'; SET @perioddate=str_to_date('2020-02-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-16'; SET @perioddate=str_to_date('2020-03-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-16;2020-02-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-16;2020-03-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-17</v>
+        <v>2020-03-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-17;2020-02-17.csv</v>
+        <v>2020-03-17;2020-03-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-17'; SET @perioddate=str_to_date('2020-02-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-17'; SET @perioddate=str_to_date('2020-03-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-17;2020-02-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-17;2020-03-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-18</v>
+        <v>2020-03-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-18;2020-02-18.csv</v>
+        <v>2020-03-18;2020-03-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-18'; SET @perioddate=str_to_date('2020-02-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-18'; SET @perioddate=str_to_date('2020-03-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-18;2020-02-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-18;2020-03-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-19</v>
+        <v>2020-03-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-19;2020-02-19.csv</v>
+        <v>2020-03-19;2020-03-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-19'; SET @perioddate=str_to_date('2020-02-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-19'; SET @perioddate=str_to_date('2020-03-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-19;2020-02-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-19;2020-03-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-20</v>
+        <v>2020-03-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-20;2020-02-20.csv</v>
+        <v>2020-03-20;2020-03-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-20'; SET @perioddate=str_to_date('2020-02-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-20'; SET @perioddate=str_to_date('2020-03-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-20;2020-02-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-20;2020-03-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-21</v>
+        <v>2020-03-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-21;2020-02-21.csv</v>
+        <v>2020-03-21;2020-03-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-21'; SET @perioddate=str_to_date('2020-02-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-21'; SET @perioddate=str_to_date('2020-03-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-21;2020-02-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-21;2020-03-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-22</v>
+        <v>2020-03-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-22;2020-02-22.csv</v>
+        <v>2020-03-22;2020-03-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-22'; SET @perioddate=str_to_date('2020-02-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-22'; SET @perioddate=str_to_date('2020-03-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-22;2020-02-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-22;2020-03-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-23</v>
+        <v>2020-03-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-23;2020-02-23.csv</v>
+        <v>2020-03-23;2020-03-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-23'; SET @perioddate=str_to_date('2020-02-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-23'; SET @perioddate=str_to_date('2020-03-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-23;2020-02-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-23;2020-03-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-24</v>
+        <v>2020-03-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-24;2020-02-24.csv</v>
+        <v>2020-03-24;2020-03-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-24'; SET @perioddate=str_to_date('2020-02-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-24'; SET @perioddate=str_to_date('2020-03-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-24;2020-02-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-24;2020-03-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-25</v>
+        <v>2020-03-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-25;2020-02-25.csv</v>
+        <v>2020-03-25;2020-03-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-25'; SET @perioddate=str_to_date('2020-02-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-25'; SET @perioddate=str_to_date('2020-03-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-25;2020-02-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-25;2020-03-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-26</v>
+        <v>2020-03-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-26;2020-02-26.csv</v>
+        <v>2020-03-26;2020-03-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-26'; SET @perioddate=str_to_date('2020-02-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-26'; SET @perioddate=str_to_date('2020-03-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-26;2020-02-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-26;2020-03-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-27</v>
+        <v>2020-03-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-27;2020-02-27.csv</v>
+        <v>2020-03-27;2020-03-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-27'; SET @perioddate=str_to_date('2020-02-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-27'; SET @perioddate=str_to_date('2020-03-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-27;2020-02-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-27;2020-03-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-28</v>
+        <v>2020-03-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-28;2020-02-28.csv</v>
+        <v>2020-03-28;2020-03-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-28'; SET @perioddate=str_to_date('2020-02-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-28'; SET @perioddate=str_to_date('2020-03-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-28;2020-02-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-28;2020-03-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-29</v>
+        <v>2020-03-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-29;2020-02-29.csv</v>
+        <v>2020-03-29;2020-03-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-29'; SET @perioddate=str_to_date('2020-02-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-29'; SET @perioddate=str_to_date('2020-03-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-29;2020-02-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-29;2020-03-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-30</v>
+        <v>2020-03-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-30;2020-02-30.csv</v>
+        <v>2020-03-30;2020-03-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-30'; SET @perioddate=str_to_date('2020-02-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-30'; SET @perioddate=str_to_date('2020-03-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-30;2020-02-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-30;2020-03-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02-31</v>
+        <v>2020-03-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-02-31;2020-02-31.csv</v>
+        <v>2020-03-31;2020-03-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-02-31'; SET @perioddate=str_to_date('2020-02-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-03-31'; SET @perioddate=str_to_date('2020-03-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-02-31;2020-02-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-31;2020-03-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA69F68-D34B-4896-B39A-577AC8291235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7DF21-B3B3-46D6-8215-C50B365F615F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-03-01</v>
+        <v>2020-04-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-03-01;2020-03-01.csv</v>
+        <v>2020-04-01;2020-04-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-03-01'; SET @perioddate=str_to_date('2020-03-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-01'; SET @perioddate=str_to_date('2020-04-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-01;2020-03-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-01;2020-04-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-03-02</v>
+        <v>2020-04-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-03-02;2020-03-02.csv</v>
+        <v>2020-04-02;2020-04-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-03-02'; SET @perioddate=str_to_date('2020-03-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-02'; SET @perioddate=str_to_date('2020-04-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-02;2020-03-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-02;2020-04-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-03</v>
+        <v>2020-04-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-03;2020-03-03.csv</v>
+        <v>2020-04-03;2020-04-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-03'; SET @perioddate=str_to_date('2020-03-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-03'; SET @perioddate=str_to_date('2020-04-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-03;2020-03-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-03;2020-04-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-04</v>
+        <v>2020-04-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-04;2020-03-04.csv</v>
+        <v>2020-04-04;2020-04-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-04'; SET @perioddate=str_to_date('2020-03-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-04'; SET @perioddate=str_to_date('2020-04-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-04;2020-03-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-04;2020-04-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-05</v>
+        <v>2020-04-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-05;2020-03-05.csv</v>
+        <v>2020-04-05;2020-04-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-05'; SET @perioddate=str_to_date('2020-03-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-05'; SET @perioddate=str_to_date('2020-04-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-05;2020-03-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-05;2020-04-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-06</v>
+        <v>2020-04-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-06;2020-03-06.csv</v>
+        <v>2020-04-06;2020-04-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-06'; SET @perioddate=str_to_date('2020-03-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-06'; SET @perioddate=str_to_date('2020-04-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-06;2020-03-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-06;2020-04-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-07</v>
+        <v>2020-04-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-07;2020-03-07.csv</v>
+        <v>2020-04-07;2020-04-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-07'; SET @perioddate=str_to_date('2020-03-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-07'; SET @perioddate=str_to_date('2020-04-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-07;2020-03-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-07;2020-04-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-08</v>
+        <v>2020-04-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-08;2020-03-08.csv</v>
+        <v>2020-04-08;2020-04-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-08'; SET @perioddate=str_to_date('2020-03-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-08'; SET @perioddate=str_to_date('2020-04-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-08;2020-03-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-08;2020-04-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-09</v>
+        <v>2020-04-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-09;2020-03-09.csv</v>
+        <v>2020-04-09;2020-04-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-09'; SET @perioddate=str_to_date('2020-03-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-09'; SET @perioddate=str_to_date('2020-04-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-09;2020-03-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-09;2020-04-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-10</v>
+        <v>2020-04-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-10;2020-03-10.csv</v>
+        <v>2020-04-10;2020-04-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-10'; SET @perioddate=str_to_date('2020-03-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-10'; SET @perioddate=str_to_date('2020-04-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-10;2020-03-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-10;2020-04-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-11</v>
+        <v>2020-04-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-11;2020-03-11.csv</v>
+        <v>2020-04-11;2020-04-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-11'; SET @perioddate=str_to_date('2020-03-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-11'; SET @perioddate=str_to_date('2020-04-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-11;2020-03-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-11;2020-04-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-12</v>
+        <v>2020-04-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-12;2020-03-12.csv</v>
+        <v>2020-04-12;2020-04-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-12'; SET @perioddate=str_to_date('2020-03-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-12'; SET @perioddate=str_to_date('2020-04-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-12;2020-03-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-12;2020-04-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-13</v>
+        <v>2020-04-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-13;2020-03-13.csv</v>
+        <v>2020-04-13;2020-04-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-13'; SET @perioddate=str_to_date('2020-03-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-13'; SET @perioddate=str_to_date('2020-04-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-13;2020-03-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-13;2020-04-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-14</v>
+        <v>2020-04-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-14;2020-03-14.csv</v>
+        <v>2020-04-14;2020-04-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-14'; SET @perioddate=str_to_date('2020-03-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-14'; SET @perioddate=str_to_date('2020-04-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-14;2020-03-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-14;2020-04-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-15</v>
+        <v>2020-04-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-15;2020-03-15.csv</v>
+        <v>2020-04-15;2020-04-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-15'; SET @perioddate=str_to_date('2020-03-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-15'; SET @perioddate=str_to_date('2020-04-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-15;2020-03-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-15;2020-04-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-16</v>
+        <v>2020-04-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-16;2020-03-16.csv</v>
+        <v>2020-04-16;2020-04-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-16'; SET @perioddate=str_to_date('2020-03-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-16'; SET @perioddate=str_to_date('2020-04-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-16;2020-03-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-16;2020-04-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-17</v>
+        <v>2020-04-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-17;2020-03-17.csv</v>
+        <v>2020-04-17;2020-04-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-17'; SET @perioddate=str_to_date('2020-03-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-17'; SET @perioddate=str_to_date('2020-04-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-17;2020-03-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-17;2020-04-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-18</v>
+        <v>2020-04-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-18;2020-03-18.csv</v>
+        <v>2020-04-18;2020-04-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-18'; SET @perioddate=str_to_date('2020-03-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-18'; SET @perioddate=str_to_date('2020-04-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-18;2020-03-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-18;2020-04-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-19</v>
+        <v>2020-04-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-19;2020-03-19.csv</v>
+        <v>2020-04-19;2020-04-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-19'; SET @perioddate=str_to_date('2020-03-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-19'; SET @perioddate=str_to_date('2020-04-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-19;2020-03-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-19;2020-04-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-20</v>
+        <v>2020-04-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-20;2020-03-20.csv</v>
+        <v>2020-04-20;2020-04-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-20'; SET @perioddate=str_to_date('2020-03-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-20'; SET @perioddate=str_to_date('2020-04-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-20;2020-03-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-20;2020-04-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-21</v>
+        <v>2020-04-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-21;2020-03-21.csv</v>
+        <v>2020-04-21;2020-04-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-21'; SET @perioddate=str_to_date('2020-03-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-21'; SET @perioddate=str_to_date('2020-04-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-21;2020-03-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-21;2020-04-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-22</v>
+        <v>2020-04-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-22;2020-03-22.csv</v>
+        <v>2020-04-22;2020-04-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-22'; SET @perioddate=str_to_date('2020-03-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-22'; SET @perioddate=str_to_date('2020-04-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-22;2020-03-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-22;2020-04-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-23</v>
+        <v>2020-04-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-23;2020-03-23.csv</v>
+        <v>2020-04-23;2020-04-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-23'; SET @perioddate=str_to_date('2020-03-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-23'; SET @perioddate=str_to_date('2020-04-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-23;2020-03-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-23;2020-04-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-24</v>
+        <v>2020-04-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-24;2020-03-24.csv</v>
+        <v>2020-04-24;2020-04-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-24'; SET @perioddate=str_to_date('2020-03-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-24'; SET @perioddate=str_to_date('2020-04-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-24;2020-03-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-24;2020-04-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-25</v>
+        <v>2020-04-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-25;2020-03-25.csv</v>
+        <v>2020-04-25;2020-04-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-25'; SET @perioddate=str_to_date('2020-03-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-25'; SET @perioddate=str_to_date('2020-04-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-25;2020-03-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-25;2020-04-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-26</v>
+        <v>2020-04-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-26;2020-03-26.csv</v>
+        <v>2020-04-26;2020-04-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-26'; SET @perioddate=str_to_date('2020-03-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-26'; SET @perioddate=str_to_date('2020-04-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-26;2020-03-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-26;2020-04-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-27</v>
+        <v>2020-04-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-27;2020-03-27.csv</v>
+        <v>2020-04-27;2020-04-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-27'; SET @perioddate=str_to_date('2020-03-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-27'; SET @perioddate=str_to_date('2020-04-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-27;2020-03-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-27;2020-04-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-28</v>
+        <v>2020-04-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-28;2020-03-28.csv</v>
+        <v>2020-04-28;2020-04-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-28'; SET @perioddate=str_to_date('2020-03-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-28'; SET @perioddate=str_to_date('2020-04-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-28;2020-03-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-28;2020-04-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-29</v>
+        <v>2020-04-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-29;2020-03-29.csv</v>
+        <v>2020-04-29;2020-04-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-29'; SET @perioddate=str_to_date('2020-03-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-29'; SET @perioddate=str_to_date('2020-04-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-29;2020-03-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-29;2020-04-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-30</v>
+        <v>2020-04-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-30;2020-03-30.csv</v>
+        <v>2020-04-30;2020-04-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-30'; SET @perioddate=str_to_date('2020-03-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-30'; SET @perioddate=str_to_date('2020-04-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-30;2020-03-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-30;2020-04-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-31</v>
+        <v>2020-04-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-03-31;2020-03-31.csv</v>
+        <v>2020-04-31;2020-04-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-03-31'; SET @perioddate=str_to_date('2020-03-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-04-31'; SET @perioddate=str_to_date('2020-04-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-03-31;2020-03-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-31;2020-04-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7DF21-B3B3-46D6-8215-C50B365F615F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2968E0D-8975-497F-BE33-15B58FCB0F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-04-01</v>
+        <v>2020-05-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-04-01;2020-04-01.csv</v>
+        <v>2020-05-01;2020-05-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-04-01'; SET @perioddate=str_to_date('2020-04-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-01'; SET @perioddate=str_to_date('2020-05-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-01;2020-04-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-01;2020-05-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-04-02</v>
+        <v>2020-05-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-04-02;2020-04-02.csv</v>
+        <v>2020-05-02;2020-05-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-04-02'; SET @perioddate=str_to_date('2020-04-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-02'; SET @perioddate=str_to_date('2020-05-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-02;2020-04-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-02;2020-05-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-03</v>
+        <v>2020-05-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-03;2020-04-03.csv</v>
+        <v>2020-05-03;2020-05-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-03'; SET @perioddate=str_to_date('2020-04-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-03'; SET @perioddate=str_to_date('2020-05-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-03;2020-04-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-03;2020-05-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-04</v>
+        <v>2020-05-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-04;2020-04-04.csv</v>
+        <v>2020-05-04;2020-05-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-04'; SET @perioddate=str_to_date('2020-04-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-04'; SET @perioddate=str_to_date('2020-05-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-04;2020-04-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-04;2020-05-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-05</v>
+        <v>2020-05-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-05;2020-04-05.csv</v>
+        <v>2020-05-05;2020-05-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-05'; SET @perioddate=str_to_date('2020-04-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-05'; SET @perioddate=str_to_date('2020-05-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-05;2020-04-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-05;2020-05-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-06</v>
+        <v>2020-05-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-06;2020-04-06.csv</v>
+        <v>2020-05-06;2020-05-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-06'; SET @perioddate=str_to_date('2020-04-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-06'; SET @perioddate=str_to_date('2020-05-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-06;2020-04-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-06;2020-05-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-07</v>
+        <v>2020-05-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-07;2020-04-07.csv</v>
+        <v>2020-05-07;2020-05-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-07'; SET @perioddate=str_to_date('2020-04-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-07'; SET @perioddate=str_to_date('2020-05-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-07;2020-04-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-07;2020-05-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-08</v>
+        <v>2020-05-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-08;2020-04-08.csv</v>
+        <v>2020-05-08;2020-05-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-08'; SET @perioddate=str_to_date('2020-04-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-08'; SET @perioddate=str_to_date('2020-05-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-08;2020-04-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-08;2020-05-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-09</v>
+        <v>2020-05-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-09;2020-04-09.csv</v>
+        <v>2020-05-09;2020-05-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-09'; SET @perioddate=str_to_date('2020-04-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-09'; SET @perioddate=str_to_date('2020-05-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-09;2020-04-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-09;2020-05-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-10</v>
+        <v>2020-05-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-10;2020-04-10.csv</v>
+        <v>2020-05-10;2020-05-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-10'; SET @perioddate=str_to_date('2020-04-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-10'; SET @perioddate=str_to_date('2020-05-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-10;2020-04-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-10;2020-05-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-11</v>
+        <v>2020-05-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-11;2020-04-11.csv</v>
+        <v>2020-05-11;2020-05-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-11'; SET @perioddate=str_to_date('2020-04-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-11'; SET @perioddate=str_to_date('2020-05-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-11;2020-04-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-11;2020-05-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-12</v>
+        <v>2020-05-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-12;2020-04-12.csv</v>
+        <v>2020-05-12;2020-05-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-12'; SET @perioddate=str_to_date('2020-04-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-12'; SET @perioddate=str_to_date('2020-05-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-12;2020-04-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-12;2020-05-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-13</v>
+        <v>2020-05-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-13;2020-04-13.csv</v>
+        <v>2020-05-13;2020-05-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-13'; SET @perioddate=str_to_date('2020-04-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-13'; SET @perioddate=str_to_date('2020-05-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-13;2020-04-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-13;2020-05-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-14</v>
+        <v>2020-05-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-14;2020-04-14.csv</v>
+        <v>2020-05-14;2020-05-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-14'; SET @perioddate=str_to_date('2020-04-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-14'; SET @perioddate=str_to_date('2020-05-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-14;2020-04-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-14;2020-05-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-15</v>
+        <v>2020-05-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-15;2020-04-15.csv</v>
+        <v>2020-05-15;2020-05-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-15'; SET @perioddate=str_to_date('2020-04-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-15'; SET @perioddate=str_to_date('2020-05-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-15;2020-04-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-15;2020-05-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-16</v>
+        <v>2020-05-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-16;2020-04-16.csv</v>
+        <v>2020-05-16;2020-05-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-16'; SET @perioddate=str_to_date('2020-04-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-16'; SET @perioddate=str_to_date('2020-05-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-16;2020-04-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-16;2020-05-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-17</v>
+        <v>2020-05-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-17;2020-04-17.csv</v>
+        <v>2020-05-17;2020-05-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-17'; SET @perioddate=str_to_date('2020-04-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-17'; SET @perioddate=str_to_date('2020-05-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-17;2020-04-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-17;2020-05-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-18</v>
+        <v>2020-05-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-18;2020-04-18.csv</v>
+        <v>2020-05-18;2020-05-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-18'; SET @perioddate=str_to_date('2020-04-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-18'; SET @perioddate=str_to_date('2020-05-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-18;2020-04-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-18;2020-05-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-19</v>
+        <v>2020-05-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-19;2020-04-19.csv</v>
+        <v>2020-05-19;2020-05-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-19'; SET @perioddate=str_to_date('2020-04-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-19'; SET @perioddate=str_to_date('2020-05-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-19;2020-04-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-19;2020-05-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-20</v>
+        <v>2020-05-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-20;2020-04-20.csv</v>
+        <v>2020-05-20;2020-05-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-20'; SET @perioddate=str_to_date('2020-04-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-20'; SET @perioddate=str_to_date('2020-05-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-20;2020-04-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-20;2020-05-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-21</v>
+        <v>2020-05-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-21;2020-04-21.csv</v>
+        <v>2020-05-21;2020-05-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-21'; SET @perioddate=str_to_date('2020-04-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-21'; SET @perioddate=str_to_date('2020-05-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-21;2020-04-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-21;2020-05-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-22</v>
+        <v>2020-05-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-22;2020-04-22.csv</v>
+        <v>2020-05-22;2020-05-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-22'; SET @perioddate=str_to_date('2020-04-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-22'; SET @perioddate=str_to_date('2020-05-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-22;2020-04-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-22;2020-05-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-23</v>
+        <v>2020-05-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-23;2020-04-23.csv</v>
+        <v>2020-05-23;2020-05-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-23'; SET @perioddate=str_to_date('2020-04-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-23'; SET @perioddate=str_to_date('2020-05-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-23;2020-04-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-23;2020-05-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-24</v>
+        <v>2020-05-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-24;2020-04-24.csv</v>
+        <v>2020-05-24;2020-05-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-24'; SET @perioddate=str_to_date('2020-04-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-24'; SET @perioddate=str_to_date('2020-05-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-24;2020-04-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-24;2020-05-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-25</v>
+        <v>2020-05-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-25;2020-04-25.csv</v>
+        <v>2020-05-25;2020-05-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-25'; SET @perioddate=str_to_date('2020-04-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-25'; SET @perioddate=str_to_date('2020-05-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-25;2020-04-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-25;2020-05-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-26</v>
+        <v>2020-05-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-26;2020-04-26.csv</v>
+        <v>2020-05-26;2020-05-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-26'; SET @perioddate=str_to_date('2020-04-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-26'; SET @perioddate=str_to_date('2020-05-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-26;2020-04-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-26;2020-05-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-27</v>
+        <v>2020-05-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-27;2020-04-27.csv</v>
+        <v>2020-05-27;2020-05-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-27'; SET @perioddate=str_to_date('2020-04-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-27'; SET @perioddate=str_to_date('2020-05-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-27;2020-04-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-27;2020-05-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-28</v>
+        <v>2020-05-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-28;2020-04-28.csv</v>
+        <v>2020-05-28;2020-05-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-28'; SET @perioddate=str_to_date('2020-04-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-28'; SET @perioddate=str_to_date('2020-05-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-28;2020-04-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-28;2020-05-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-29</v>
+        <v>2020-05-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-29;2020-04-29.csv</v>
+        <v>2020-05-29;2020-05-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-29'; SET @perioddate=str_to_date('2020-04-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-29'; SET @perioddate=str_to_date('2020-05-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-29;2020-04-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-29;2020-05-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-30</v>
+        <v>2020-05-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-30;2020-04-30.csv</v>
+        <v>2020-05-30;2020-05-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-30'; SET @perioddate=str_to_date('2020-04-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-30'; SET @perioddate=str_to_date('2020-05-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-30;2020-04-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-30;2020-05-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-31</v>
+        <v>2020-05-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-04-31;2020-04-31.csv</v>
+        <v>2020-05-31;2020-05-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-04-31'; SET @perioddate=str_to_date('2020-04-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-05-31'; SET @perioddate=str_to_date('2020-05-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-04-31;2020-04-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-31;2020-05-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2968E0D-8975-497F-BE33-15B58FCB0F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EA9F2-A503-4A93-AF57-F6EB257B38E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="6030" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-05-01</v>
+        <v>2020-06-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-05-01;2020-05-01.csv</v>
+        <v>2020-06-01;2020-06-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-05-01'; SET @perioddate=str_to_date('2020-05-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-01'; SET @perioddate=str_to_date('2020-06-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-01;2020-05-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-01;2020-06-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-05-02</v>
+        <v>2020-06-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-05-02;2020-05-02.csv</v>
+        <v>2020-06-02;2020-06-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-05-02'; SET @perioddate=str_to_date('2020-05-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-02'; SET @perioddate=str_to_date('2020-06-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-02;2020-05-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-02;2020-06-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-03</v>
+        <v>2020-06-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-03;2020-05-03.csv</v>
+        <v>2020-06-03;2020-06-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-03'; SET @perioddate=str_to_date('2020-05-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-03'; SET @perioddate=str_to_date('2020-06-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-03;2020-05-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-03;2020-06-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-04</v>
+        <v>2020-06-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-04;2020-05-04.csv</v>
+        <v>2020-06-04;2020-06-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-04'; SET @perioddate=str_to_date('2020-05-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-04'; SET @perioddate=str_to_date('2020-06-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-04;2020-05-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-04;2020-06-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-05</v>
+        <v>2020-06-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-05;2020-05-05.csv</v>
+        <v>2020-06-05;2020-06-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-05'; SET @perioddate=str_to_date('2020-05-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-05'; SET @perioddate=str_to_date('2020-06-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-05;2020-05-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-05;2020-06-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-06</v>
+        <v>2020-06-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-06;2020-05-06.csv</v>
+        <v>2020-06-06;2020-06-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-06'; SET @perioddate=str_to_date('2020-05-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-06'; SET @perioddate=str_to_date('2020-06-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-06;2020-05-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-06;2020-06-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-07</v>
+        <v>2020-06-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-07;2020-05-07.csv</v>
+        <v>2020-06-07;2020-06-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-07'; SET @perioddate=str_to_date('2020-05-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-07'; SET @perioddate=str_to_date('2020-06-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-07;2020-05-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-07;2020-06-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-08</v>
+        <v>2020-06-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-08;2020-05-08.csv</v>
+        <v>2020-06-08;2020-06-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-08'; SET @perioddate=str_to_date('2020-05-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-08'; SET @perioddate=str_to_date('2020-06-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-08;2020-05-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-08;2020-06-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-09</v>
+        <v>2020-06-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-09;2020-05-09.csv</v>
+        <v>2020-06-09;2020-06-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-09'; SET @perioddate=str_to_date('2020-05-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-09'; SET @perioddate=str_to_date('2020-06-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-09;2020-05-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-09;2020-06-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-10</v>
+        <v>2020-06-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-10;2020-05-10.csv</v>
+        <v>2020-06-10;2020-06-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-10'; SET @perioddate=str_to_date('2020-05-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-10'; SET @perioddate=str_to_date('2020-06-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-10;2020-05-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-10;2020-06-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-11</v>
+        <v>2020-06-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-11;2020-05-11.csv</v>
+        <v>2020-06-11;2020-06-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-11'; SET @perioddate=str_to_date('2020-05-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-11'; SET @perioddate=str_to_date('2020-06-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-11;2020-05-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-11;2020-06-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-12</v>
+        <v>2020-06-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-12;2020-05-12.csv</v>
+        <v>2020-06-12;2020-06-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-12'; SET @perioddate=str_to_date('2020-05-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-12'; SET @perioddate=str_to_date('2020-06-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-12;2020-05-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-12;2020-06-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-13</v>
+        <v>2020-06-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-13;2020-05-13.csv</v>
+        <v>2020-06-13;2020-06-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-13'; SET @perioddate=str_to_date('2020-05-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-13'; SET @perioddate=str_to_date('2020-06-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-13;2020-05-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-13;2020-06-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-14</v>
+        <v>2020-06-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-14;2020-05-14.csv</v>
+        <v>2020-06-14;2020-06-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-14'; SET @perioddate=str_to_date('2020-05-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-14'; SET @perioddate=str_to_date('2020-06-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-14;2020-05-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-14;2020-06-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-15</v>
+        <v>2020-06-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-15;2020-05-15.csv</v>
+        <v>2020-06-15;2020-06-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-15'; SET @perioddate=str_to_date('2020-05-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-15'; SET @perioddate=str_to_date('2020-06-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-15;2020-05-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-15;2020-06-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-16</v>
+        <v>2020-06-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-16;2020-05-16.csv</v>
+        <v>2020-06-16;2020-06-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-16'; SET @perioddate=str_to_date('2020-05-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-16'; SET @perioddate=str_to_date('2020-06-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-16;2020-05-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-16;2020-06-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-17</v>
+        <v>2020-06-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-17;2020-05-17.csv</v>
+        <v>2020-06-17;2020-06-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-17'; SET @perioddate=str_to_date('2020-05-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-17'; SET @perioddate=str_to_date('2020-06-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-17;2020-05-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-17;2020-06-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-18</v>
+        <v>2020-06-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-18;2020-05-18.csv</v>
+        <v>2020-06-18;2020-06-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-18'; SET @perioddate=str_to_date('2020-05-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-18'; SET @perioddate=str_to_date('2020-06-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-18;2020-05-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-18;2020-06-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-19</v>
+        <v>2020-06-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-19;2020-05-19.csv</v>
+        <v>2020-06-19;2020-06-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-19'; SET @perioddate=str_to_date('2020-05-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-19'; SET @perioddate=str_to_date('2020-06-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-19;2020-05-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-19;2020-06-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-20</v>
+        <v>2020-06-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-20;2020-05-20.csv</v>
+        <v>2020-06-20;2020-06-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-20'; SET @perioddate=str_to_date('2020-05-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-20'; SET @perioddate=str_to_date('2020-06-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-20;2020-05-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-20;2020-06-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-21</v>
+        <v>2020-06-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-21;2020-05-21.csv</v>
+        <v>2020-06-21;2020-06-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-21'; SET @perioddate=str_to_date('2020-05-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-21'; SET @perioddate=str_to_date('2020-06-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-21;2020-05-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-21;2020-06-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-22</v>
+        <v>2020-06-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-22;2020-05-22.csv</v>
+        <v>2020-06-22;2020-06-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-22'; SET @perioddate=str_to_date('2020-05-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-22'; SET @perioddate=str_to_date('2020-06-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-22;2020-05-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-22;2020-06-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-23</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-23;2020-05-23.csv</v>
+        <v>2020-06-23;2020-06-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-23'; SET @perioddate=str_to_date('2020-05-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-23'; SET @perioddate=str_to_date('2020-06-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-23;2020-05-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-23;2020-06-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-24</v>
+        <v>2020-06-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-24;2020-05-24.csv</v>
+        <v>2020-06-24;2020-06-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-24'; SET @perioddate=str_to_date('2020-05-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-24'; SET @perioddate=str_to_date('2020-06-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-24;2020-05-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-24;2020-06-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-25</v>
+        <v>2020-06-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-25;2020-05-25.csv</v>
+        <v>2020-06-25;2020-06-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-25'; SET @perioddate=str_to_date('2020-05-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-25'; SET @perioddate=str_to_date('2020-06-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-25;2020-05-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-25;2020-06-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-26</v>
+        <v>2020-06-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-26;2020-05-26.csv</v>
+        <v>2020-06-26;2020-06-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-26'; SET @perioddate=str_to_date('2020-05-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-26'; SET @perioddate=str_to_date('2020-06-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-26;2020-05-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-26;2020-06-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-27</v>
+        <v>2020-06-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-27;2020-05-27.csv</v>
+        <v>2020-06-27;2020-06-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-27'; SET @perioddate=str_to_date('2020-05-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-27'; SET @perioddate=str_to_date('2020-06-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-27;2020-05-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-27;2020-06-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-28</v>
+        <v>2020-06-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-28;2020-05-28.csv</v>
+        <v>2020-06-28;2020-06-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-28'; SET @perioddate=str_to_date('2020-05-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-28'; SET @perioddate=str_to_date('2020-06-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-28;2020-05-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-28;2020-06-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-29</v>
+        <v>2020-06-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-29;2020-05-29.csv</v>
+        <v>2020-06-29;2020-06-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-29'; SET @perioddate=str_to_date('2020-05-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-29'; SET @perioddate=str_to_date('2020-06-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-29;2020-05-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-29;2020-06-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-30</v>
+        <v>2020-06-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-30;2020-05-30.csv</v>
+        <v>2020-06-30;2020-06-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-30'; SET @perioddate=str_to_date('2020-05-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-30'; SET @perioddate=str_to_date('2020-06-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-30;2020-05-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-30;2020-06-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-31</v>
+        <v>2020-06-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-05-31;2020-05-31.csv</v>
+        <v>2020-06-31;2020-06-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-05-31'; SET @perioddate=str_to_date('2020-05-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-06-31'; SET @perioddate=str_to_date('2020-06-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-05-31;2020-05-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-31;2020-06-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EA9F2-A503-4A93-AF57-F6EB257B38E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12CD56-A6A2-45F6-83C2-CEAFCC0D5811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="6030" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-06-01</v>
+        <v>2020-07-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-06-01;2020-06-01.csv</v>
+        <v>2020-07-01;2020-07-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-06-01'; SET @perioddate=str_to_date('2020-06-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-01'; SET @perioddate=str_to_date('2020-07-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-01;2020-06-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-01;2020-07-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-06-02</v>
+        <v>2020-07-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-06-02;2020-06-02.csv</v>
+        <v>2020-07-02;2020-07-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-06-02'; SET @perioddate=str_to_date('2020-06-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-02'; SET @perioddate=str_to_date('2020-07-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-02;2020-06-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-02;2020-07-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-03</v>
+        <v>2020-07-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-03;2020-06-03.csv</v>
+        <v>2020-07-03;2020-07-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-03'; SET @perioddate=str_to_date('2020-06-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-03'; SET @perioddate=str_to_date('2020-07-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-03;2020-06-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-03;2020-07-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-04</v>
+        <v>2020-07-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-04;2020-06-04.csv</v>
+        <v>2020-07-04;2020-07-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-04'; SET @perioddate=str_to_date('2020-06-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-04'; SET @perioddate=str_to_date('2020-07-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-04;2020-06-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-04;2020-07-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-05</v>
+        <v>2020-07-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-05;2020-06-05.csv</v>
+        <v>2020-07-05;2020-07-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-05'; SET @perioddate=str_to_date('2020-06-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-05'; SET @perioddate=str_to_date('2020-07-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-05;2020-06-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-05;2020-07-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-06</v>
+        <v>2020-07-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-06;2020-06-06.csv</v>
+        <v>2020-07-06;2020-07-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-06'; SET @perioddate=str_to_date('2020-06-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-06'; SET @perioddate=str_to_date('2020-07-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-06;2020-06-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-06;2020-07-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-07</v>
+        <v>2020-07-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-07;2020-06-07.csv</v>
+        <v>2020-07-07;2020-07-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-07'; SET @perioddate=str_to_date('2020-06-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-07'; SET @perioddate=str_to_date('2020-07-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-07;2020-06-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-07;2020-07-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-08</v>
+        <v>2020-07-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-08;2020-06-08.csv</v>
+        <v>2020-07-08;2020-07-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-08'; SET @perioddate=str_to_date('2020-06-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-08'; SET @perioddate=str_to_date('2020-07-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-08;2020-06-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-08;2020-07-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-09</v>
+        <v>2020-07-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-09;2020-06-09.csv</v>
+        <v>2020-07-09;2020-07-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-09'; SET @perioddate=str_to_date('2020-06-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-09'; SET @perioddate=str_to_date('2020-07-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-09;2020-06-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-09;2020-07-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-10</v>
+        <v>2020-07-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-10;2020-06-10.csv</v>
+        <v>2020-07-10;2020-07-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-10'; SET @perioddate=str_to_date('2020-06-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-10'; SET @perioddate=str_to_date('2020-07-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-10;2020-06-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-10;2020-07-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-11</v>
+        <v>2020-07-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-11;2020-06-11.csv</v>
+        <v>2020-07-11;2020-07-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-11'; SET @perioddate=str_to_date('2020-06-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-11'; SET @perioddate=str_to_date('2020-07-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-11;2020-06-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-11;2020-07-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-12</v>
+        <v>2020-07-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-12;2020-06-12.csv</v>
+        <v>2020-07-12;2020-07-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-12'; SET @perioddate=str_to_date('2020-06-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-12'; SET @perioddate=str_to_date('2020-07-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-12;2020-06-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-12;2020-07-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-13</v>
+        <v>2020-07-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-13;2020-06-13.csv</v>
+        <v>2020-07-13;2020-07-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-13'; SET @perioddate=str_to_date('2020-06-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-13'; SET @perioddate=str_to_date('2020-07-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-13;2020-06-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-13;2020-07-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-14</v>
+        <v>2020-07-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-14;2020-06-14.csv</v>
+        <v>2020-07-14;2020-07-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-14'; SET @perioddate=str_to_date('2020-06-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-14'; SET @perioddate=str_to_date('2020-07-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-14;2020-06-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-14;2020-07-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-15</v>
+        <v>2020-07-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-15;2020-06-15.csv</v>
+        <v>2020-07-15;2020-07-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-15'; SET @perioddate=str_to_date('2020-06-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-15'; SET @perioddate=str_to_date('2020-07-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-15;2020-06-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-15;2020-07-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-16</v>
+        <v>2020-07-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-16;2020-06-16.csv</v>
+        <v>2020-07-16;2020-07-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-16'; SET @perioddate=str_to_date('2020-06-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-16'; SET @perioddate=str_to_date('2020-07-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-16;2020-06-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-16;2020-07-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-17</v>
+        <v>2020-07-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-17;2020-06-17.csv</v>
+        <v>2020-07-17;2020-07-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-17'; SET @perioddate=str_to_date('2020-06-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-17'; SET @perioddate=str_to_date('2020-07-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-17;2020-06-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-17;2020-07-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-18</v>
+        <v>2020-07-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-18;2020-06-18.csv</v>
+        <v>2020-07-18;2020-07-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-18'; SET @perioddate=str_to_date('2020-06-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-18'; SET @perioddate=str_to_date('2020-07-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-18;2020-06-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-18;2020-07-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-19</v>
+        <v>2020-07-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-19;2020-06-19.csv</v>
+        <v>2020-07-19;2020-07-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-19'; SET @perioddate=str_to_date('2020-06-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-19'; SET @perioddate=str_to_date('2020-07-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-19;2020-06-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-19;2020-07-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-20</v>
+        <v>2020-07-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-20;2020-06-20.csv</v>
+        <v>2020-07-20;2020-07-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-20'; SET @perioddate=str_to_date('2020-06-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-20'; SET @perioddate=str_to_date('2020-07-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-20;2020-06-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-20;2020-07-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-21</v>
+        <v>2020-07-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-21;2020-06-21.csv</v>
+        <v>2020-07-21;2020-07-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-21'; SET @perioddate=str_to_date('2020-06-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-21'; SET @perioddate=str_to_date('2020-07-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-21;2020-06-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-21;2020-07-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-22</v>
+        <v>2020-07-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-22;2020-06-22.csv</v>
+        <v>2020-07-22;2020-07-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-22'; SET @perioddate=str_to_date('2020-06-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-22'; SET @perioddate=str_to_date('2020-07-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-22;2020-06-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-22;2020-07-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-23</v>
+        <v>2020-07-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-23;2020-06-23.csv</v>
+        <v>2020-07-23;2020-07-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-23'; SET @perioddate=str_to_date('2020-06-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-23'; SET @perioddate=str_to_date('2020-07-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-23;2020-06-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-23;2020-07-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-24</v>
+        <v>2020-07-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-24;2020-06-24.csv</v>
+        <v>2020-07-24;2020-07-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-24'; SET @perioddate=str_to_date('2020-06-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-24'; SET @perioddate=str_to_date('2020-07-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-24;2020-06-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-24;2020-07-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-25</v>
+        <v>2020-07-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-25;2020-06-25.csv</v>
+        <v>2020-07-25;2020-07-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-25'; SET @perioddate=str_to_date('2020-06-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-25'; SET @perioddate=str_to_date('2020-07-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-25;2020-06-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-25;2020-07-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-26</v>
+        <v>2020-07-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-26;2020-06-26.csv</v>
+        <v>2020-07-26;2020-07-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-26'; SET @perioddate=str_to_date('2020-06-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-26'; SET @perioddate=str_to_date('2020-07-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-26;2020-06-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-26;2020-07-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-27</v>
+        <v>2020-07-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-27;2020-06-27.csv</v>
+        <v>2020-07-27;2020-07-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-27'; SET @perioddate=str_to_date('2020-06-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-27'; SET @perioddate=str_to_date('2020-07-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-27;2020-06-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-27;2020-07-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-28</v>
+        <v>2020-07-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-28;2020-06-28.csv</v>
+        <v>2020-07-28;2020-07-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-28'; SET @perioddate=str_to_date('2020-06-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-28'; SET @perioddate=str_to_date('2020-07-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-28;2020-06-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-28;2020-07-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-29</v>
+        <v>2020-07-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-29;2020-06-29.csv</v>
+        <v>2020-07-29;2020-07-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-29'; SET @perioddate=str_to_date('2020-06-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-29'; SET @perioddate=str_to_date('2020-07-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-29;2020-06-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-29;2020-07-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-30</v>
+        <v>2020-07-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-30;2020-06-30.csv</v>
+        <v>2020-07-30;2020-07-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-30'; SET @perioddate=str_to_date('2020-06-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-30'; SET @perioddate=str_to_date('2020-07-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-30;2020-06-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-30;2020-07-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-06-31</v>
+        <v>2020-07-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-06-31;2020-06-31.csv</v>
+        <v>2020-07-31;2020-07-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-06-31'; SET @perioddate=str_to_date('2020-06-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-07-31'; SET @perioddate=str_to_date('2020-07-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-06-31;2020-06-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-31;2020-07-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12CD56-A6A2-45F6-83C2-CEAFCC0D5811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D346B51-E46C-472D-9F37-7713C8087AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-07-01</v>
+        <v>2020-08-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-07-01;2020-07-01.csv</v>
+        <v>2020-08-01;2020-08-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-07-01'; SET @perioddate=str_to_date('2020-07-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-01'; SET @perioddate=str_to_date('2020-08-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-01;2020-07-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-01;2020-08-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-07-02</v>
+        <v>2020-08-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-07-02;2020-07-02.csv</v>
+        <v>2020-08-02;2020-08-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-07-02'; SET @perioddate=str_to_date('2020-07-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-02'; SET @perioddate=str_to_date('2020-08-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-02;2020-07-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-02;2020-08-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-03</v>
+        <v>2020-08-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-03;2020-07-03.csv</v>
+        <v>2020-08-03;2020-08-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-03'; SET @perioddate=str_to_date('2020-07-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-03'; SET @perioddate=str_to_date('2020-08-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-03;2020-07-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-03;2020-08-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-04</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-04;2020-07-04.csv</v>
+        <v>2020-08-04;2020-08-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-04'; SET @perioddate=str_to_date('2020-07-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-04'; SET @perioddate=str_to_date('2020-08-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-04;2020-07-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-04;2020-08-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-05</v>
+        <v>2020-08-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-05;2020-07-05.csv</v>
+        <v>2020-08-05;2020-08-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-05'; SET @perioddate=str_to_date('2020-07-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-05'; SET @perioddate=str_to_date('2020-08-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-05;2020-07-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-05;2020-08-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-06</v>
+        <v>2020-08-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-06;2020-07-06.csv</v>
+        <v>2020-08-06;2020-08-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-06'; SET @perioddate=str_to_date('2020-07-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-06'; SET @perioddate=str_to_date('2020-08-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-06;2020-07-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-06;2020-08-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-07</v>
+        <v>2020-08-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-07;2020-07-07.csv</v>
+        <v>2020-08-07;2020-08-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-07'; SET @perioddate=str_to_date('2020-07-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-07'; SET @perioddate=str_to_date('2020-08-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-07;2020-07-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-07;2020-08-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-08</v>
+        <v>2020-08-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-08;2020-07-08.csv</v>
+        <v>2020-08-08;2020-08-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-08'; SET @perioddate=str_to_date('2020-07-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-08'; SET @perioddate=str_to_date('2020-08-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-08;2020-07-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-08;2020-08-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-09</v>
+        <v>2020-08-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-09;2020-07-09.csv</v>
+        <v>2020-08-09;2020-08-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-09'; SET @perioddate=str_to_date('2020-07-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-09'; SET @perioddate=str_to_date('2020-08-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-09;2020-07-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-09;2020-08-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-10</v>
+        <v>2020-08-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-10;2020-07-10.csv</v>
+        <v>2020-08-10;2020-08-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-10'; SET @perioddate=str_to_date('2020-07-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-10'; SET @perioddate=str_to_date('2020-08-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-10;2020-07-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-10;2020-08-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-11</v>
+        <v>2020-08-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-11;2020-07-11.csv</v>
+        <v>2020-08-11;2020-08-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-11'; SET @perioddate=str_to_date('2020-07-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-11'; SET @perioddate=str_to_date('2020-08-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-11;2020-07-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-11;2020-08-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-12</v>
+        <v>2020-08-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-12;2020-07-12.csv</v>
+        <v>2020-08-12;2020-08-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-12'; SET @perioddate=str_to_date('2020-07-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-12'; SET @perioddate=str_to_date('2020-08-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-12;2020-07-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-12;2020-08-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-13</v>
+        <v>2020-08-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-13;2020-07-13.csv</v>
+        <v>2020-08-13;2020-08-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-13'; SET @perioddate=str_to_date('2020-07-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-13'; SET @perioddate=str_to_date('2020-08-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-13;2020-07-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-13;2020-08-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-14</v>
+        <v>2020-08-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-14;2020-07-14.csv</v>
+        <v>2020-08-14;2020-08-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-14'; SET @perioddate=str_to_date('2020-07-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-14'; SET @perioddate=str_to_date('2020-08-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-14;2020-07-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-14;2020-08-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-15</v>
+        <v>2020-08-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-15;2020-07-15.csv</v>
+        <v>2020-08-15;2020-08-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-15'; SET @perioddate=str_to_date('2020-07-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-15'; SET @perioddate=str_to_date('2020-08-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-15;2020-07-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-15;2020-08-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-16</v>
+        <v>2020-08-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-16;2020-07-16.csv</v>
+        <v>2020-08-16;2020-08-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-16'; SET @perioddate=str_to_date('2020-07-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-16'; SET @perioddate=str_to_date('2020-08-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-16;2020-07-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-16;2020-08-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-17</v>
+        <v>2020-08-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-17;2020-07-17.csv</v>
+        <v>2020-08-17;2020-08-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-17'; SET @perioddate=str_to_date('2020-07-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-17'; SET @perioddate=str_to_date('2020-08-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-17;2020-07-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-17;2020-08-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-18</v>
+        <v>2020-08-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-18;2020-07-18.csv</v>
+        <v>2020-08-18;2020-08-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-18'; SET @perioddate=str_to_date('2020-07-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-18'; SET @perioddate=str_to_date('2020-08-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-18;2020-07-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-18;2020-08-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-19</v>
+        <v>2020-08-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-19;2020-07-19.csv</v>
+        <v>2020-08-19;2020-08-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-19'; SET @perioddate=str_to_date('2020-07-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-19'; SET @perioddate=str_to_date('2020-08-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-19;2020-07-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-19;2020-08-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-20</v>
+        <v>2020-08-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-20;2020-07-20.csv</v>
+        <v>2020-08-20;2020-08-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-20'; SET @perioddate=str_to_date('2020-07-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-20'; SET @perioddate=str_to_date('2020-08-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-20;2020-07-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-20;2020-08-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-21</v>
+        <v>2020-08-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-21;2020-07-21.csv</v>
+        <v>2020-08-21;2020-08-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-21'; SET @perioddate=str_to_date('2020-07-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-21'; SET @perioddate=str_to_date('2020-08-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-21;2020-07-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-21;2020-08-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-22</v>
+        <v>2020-08-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-22;2020-07-22.csv</v>
+        <v>2020-08-22;2020-08-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-22'; SET @perioddate=str_to_date('2020-07-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-22'; SET @perioddate=str_to_date('2020-08-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-22;2020-07-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-22;2020-08-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-23</v>
+        <v>2020-08-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-23;2020-07-23.csv</v>
+        <v>2020-08-23;2020-08-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-23'; SET @perioddate=str_to_date('2020-07-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-23'; SET @perioddate=str_to_date('2020-08-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-23;2020-07-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-23;2020-08-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-24</v>
+        <v>2020-08-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-24;2020-07-24.csv</v>
+        <v>2020-08-24;2020-08-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-24'; SET @perioddate=str_to_date('2020-07-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-24'; SET @perioddate=str_to_date('2020-08-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-24;2020-07-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-24;2020-08-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-25</v>
+        <v>2020-08-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-25;2020-07-25.csv</v>
+        <v>2020-08-25;2020-08-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-25'; SET @perioddate=str_to_date('2020-07-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-25'; SET @perioddate=str_to_date('2020-08-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-25;2020-07-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-25;2020-08-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-26</v>
+        <v>2020-08-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-26;2020-07-26.csv</v>
+        <v>2020-08-26;2020-08-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-26'; SET @perioddate=str_to_date('2020-07-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-26'; SET @perioddate=str_to_date('2020-08-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-26;2020-07-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-26;2020-08-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-27</v>
+        <v>2020-08-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-27;2020-07-27.csv</v>
+        <v>2020-08-27;2020-08-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-27'; SET @perioddate=str_to_date('2020-07-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-27'; SET @perioddate=str_to_date('2020-08-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-27;2020-07-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-27;2020-08-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-28</v>
+        <v>2020-08-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-28;2020-07-28.csv</v>
+        <v>2020-08-28;2020-08-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-28'; SET @perioddate=str_to_date('2020-07-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-28'; SET @perioddate=str_to_date('2020-08-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-28;2020-07-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-28;2020-08-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-29</v>
+        <v>2020-08-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-29;2020-07-29.csv</v>
+        <v>2020-08-29;2020-08-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-29'; SET @perioddate=str_to_date('2020-07-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-29'; SET @perioddate=str_to_date('2020-08-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-29;2020-07-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-29;2020-08-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-30</v>
+        <v>2020-08-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-30;2020-07-30.csv</v>
+        <v>2020-08-30;2020-08-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-30'; SET @perioddate=str_to_date('2020-07-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-30'; SET @perioddate=str_to_date('2020-08-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-30;2020-07-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-30;2020-08-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-07-31</v>
+        <v>2020-08-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-07-31;2020-07-31.csv</v>
+        <v>2020-08-31;2020-08-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-07-31'; SET @perioddate=str_to_date('2020-07-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-08-31'; SET @perioddate=str_to_date('2020-08-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-07-31;2020-07-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-31;2020-08-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D346B51-E46C-472D-9F37-7713C8087AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE51F3B-5CE9-45C6-A50C-C3AEF53435C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-08-01</v>
+        <v>2020-09-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-08-01;2020-08-01.csv</v>
+        <v>2020-09-01;2020-09-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-08-01'; SET @perioddate=str_to_date('2020-08-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-01'; SET @perioddate=str_to_date('2020-09-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-01;2020-08-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-01;2020-09-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-08-02</v>
+        <v>2020-09-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-08-02;2020-08-02.csv</v>
+        <v>2020-09-02;2020-09-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-08-02'; SET @perioddate=str_to_date('2020-08-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-02'; SET @perioddate=str_to_date('2020-09-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-02;2020-08-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-02;2020-09-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-03</v>
+        <v>2020-09-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-03;2020-08-03.csv</v>
+        <v>2020-09-03;2020-09-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-03'; SET @perioddate=str_to_date('2020-08-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-03'; SET @perioddate=str_to_date('2020-09-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-03;2020-08-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-03;2020-09-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-04</v>
+        <v>2020-09-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-04;2020-08-04.csv</v>
+        <v>2020-09-04;2020-09-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-04'; SET @perioddate=str_to_date('2020-08-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-04'; SET @perioddate=str_to_date('2020-09-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-04;2020-08-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-04;2020-09-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-05</v>
+        <v>2020-09-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-05;2020-08-05.csv</v>
+        <v>2020-09-05;2020-09-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-05'; SET @perioddate=str_to_date('2020-08-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-05'; SET @perioddate=str_to_date('2020-09-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-05;2020-08-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-05;2020-09-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-06</v>
+        <v>2020-09-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-06;2020-08-06.csv</v>
+        <v>2020-09-06;2020-09-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-06'; SET @perioddate=str_to_date('2020-08-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-06'; SET @perioddate=str_to_date('2020-09-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-06;2020-08-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-06;2020-09-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-07</v>
+        <v>2020-09-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-07;2020-08-07.csv</v>
+        <v>2020-09-07;2020-09-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-07'; SET @perioddate=str_to_date('2020-08-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-07'; SET @perioddate=str_to_date('2020-09-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-07;2020-08-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-07;2020-09-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-08</v>
+        <v>2020-09-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-08;2020-08-08.csv</v>
+        <v>2020-09-08;2020-09-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-08'; SET @perioddate=str_to_date('2020-08-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-08'; SET @perioddate=str_to_date('2020-09-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-08;2020-08-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-08;2020-09-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-09</v>
+        <v>2020-09-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-09;2020-08-09.csv</v>
+        <v>2020-09-09;2020-09-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-09'; SET @perioddate=str_to_date('2020-08-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-09'; SET @perioddate=str_to_date('2020-09-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-09;2020-08-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-09;2020-09-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-10</v>
+        <v>2020-09-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-10;2020-08-10.csv</v>
+        <v>2020-09-10;2020-09-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-10'; SET @perioddate=str_to_date('2020-08-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-10'; SET @perioddate=str_to_date('2020-09-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-10;2020-08-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-10;2020-09-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-11</v>
+        <v>2020-09-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-11;2020-08-11.csv</v>
+        <v>2020-09-11;2020-09-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-11'; SET @perioddate=str_to_date('2020-08-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-11'; SET @perioddate=str_to_date('2020-09-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-11;2020-08-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-11;2020-09-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-12</v>
+        <v>2020-09-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-12;2020-08-12.csv</v>
+        <v>2020-09-12;2020-09-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-12'; SET @perioddate=str_to_date('2020-08-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-12'; SET @perioddate=str_to_date('2020-09-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-12;2020-08-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-12;2020-09-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-13</v>
+        <v>2020-09-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-13;2020-08-13.csv</v>
+        <v>2020-09-13;2020-09-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-13'; SET @perioddate=str_to_date('2020-08-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-13'; SET @perioddate=str_to_date('2020-09-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-13;2020-08-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-13;2020-09-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-14</v>
+        <v>2020-09-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-14;2020-08-14.csv</v>
+        <v>2020-09-14;2020-09-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-14'; SET @perioddate=str_to_date('2020-08-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-14'; SET @perioddate=str_to_date('2020-09-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-14;2020-08-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-14;2020-09-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-15</v>
+        <v>2020-09-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-15;2020-08-15.csv</v>
+        <v>2020-09-15;2020-09-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-15'; SET @perioddate=str_to_date('2020-08-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-15'; SET @perioddate=str_to_date('2020-09-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-15;2020-08-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-15;2020-09-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-16</v>
+        <v>2020-09-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-16;2020-08-16.csv</v>
+        <v>2020-09-16;2020-09-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-16'; SET @perioddate=str_to_date('2020-08-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-16'; SET @perioddate=str_to_date('2020-09-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-16;2020-08-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-16;2020-09-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-17</v>
+        <v>2020-09-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-17;2020-08-17.csv</v>
+        <v>2020-09-17;2020-09-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-17'; SET @perioddate=str_to_date('2020-08-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-17'; SET @perioddate=str_to_date('2020-09-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-17;2020-08-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-17;2020-09-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-18</v>
+        <v>2020-09-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-18;2020-08-18.csv</v>
+        <v>2020-09-18;2020-09-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-18'; SET @perioddate=str_to_date('2020-08-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-18'; SET @perioddate=str_to_date('2020-09-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-18;2020-08-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-18;2020-09-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-19</v>
+        <v>2020-09-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-19;2020-08-19.csv</v>
+        <v>2020-09-19;2020-09-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-19'; SET @perioddate=str_to_date('2020-08-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-19'; SET @perioddate=str_to_date('2020-09-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-19;2020-08-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-19;2020-09-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-20</v>
+        <v>2020-09-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-20;2020-08-20.csv</v>
+        <v>2020-09-20;2020-09-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-20'; SET @perioddate=str_to_date('2020-08-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-20'; SET @perioddate=str_to_date('2020-09-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-20;2020-08-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-20;2020-09-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-21</v>
+        <v>2020-09-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-21;2020-08-21.csv</v>
+        <v>2020-09-21;2020-09-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-21'; SET @perioddate=str_to_date('2020-08-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-21'; SET @perioddate=str_to_date('2020-09-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-21;2020-08-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-21;2020-09-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-22</v>
+        <v>2020-09-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-22;2020-08-22.csv</v>
+        <v>2020-09-22;2020-09-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-22'; SET @perioddate=str_to_date('2020-08-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-22'; SET @perioddate=str_to_date('2020-09-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-22;2020-08-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-22;2020-09-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-23</v>
+        <v>2020-09-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-23;2020-08-23.csv</v>
+        <v>2020-09-23;2020-09-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-23'; SET @perioddate=str_to_date('2020-08-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-23'; SET @perioddate=str_to_date('2020-09-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-23;2020-08-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-23;2020-09-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-24</v>
+        <v>2020-09-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-24;2020-08-24.csv</v>
+        <v>2020-09-24;2020-09-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-24'; SET @perioddate=str_to_date('2020-08-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-24'; SET @perioddate=str_to_date('2020-09-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-24;2020-08-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-24;2020-09-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-25</v>
+        <v>2020-09-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-25;2020-08-25.csv</v>
+        <v>2020-09-25;2020-09-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-25'; SET @perioddate=str_to_date('2020-08-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-25'; SET @perioddate=str_to_date('2020-09-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-25;2020-08-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-25;2020-09-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-26</v>
+        <v>2020-09-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-26;2020-08-26.csv</v>
+        <v>2020-09-26;2020-09-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-26'; SET @perioddate=str_to_date('2020-08-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-26'; SET @perioddate=str_to_date('2020-09-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-26;2020-08-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-26;2020-09-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-27</v>
+        <v>2020-09-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-27;2020-08-27.csv</v>
+        <v>2020-09-27;2020-09-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-27'; SET @perioddate=str_to_date('2020-08-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-27'; SET @perioddate=str_to_date('2020-09-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-27;2020-08-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-27;2020-09-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-28</v>
+        <v>2020-09-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-28;2020-08-28.csv</v>
+        <v>2020-09-28;2020-09-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-28'; SET @perioddate=str_to_date('2020-08-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-28'; SET @perioddate=str_to_date('2020-09-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-28;2020-08-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-28;2020-09-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-29</v>
+        <v>2020-09-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-29;2020-08-29.csv</v>
+        <v>2020-09-29;2020-09-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-29'; SET @perioddate=str_to_date('2020-08-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-29'; SET @perioddate=str_to_date('2020-09-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-29;2020-08-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-29;2020-09-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-30</v>
+        <v>2020-09-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-30;2020-08-30.csv</v>
+        <v>2020-09-30;2020-09-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-30'; SET @perioddate=str_to_date('2020-08-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-30'; SET @perioddate=str_to_date('2020-09-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-30;2020-08-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-30;2020-09-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-08-31</v>
+        <v>2020-09-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-08-31;2020-08-31.csv</v>
+        <v>2020-09-31;2020-09-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-08-31'; SET @perioddate=str_to_date('2020-08-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-09-31'; SET @perioddate=str_to_date('2020-09-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-08-31;2020-08-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-31;2020-09-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE51F3B-5CE9-45C6-A50C-C3AEF53435C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0C5D6D-80B4-4771-8B6A-DA8D7ABB9137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-09-01</v>
+        <v>2020-10-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-09-01;2020-09-01.csv</v>
+        <v>2020-10-01;2020-10-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-09-01'; SET @perioddate=str_to_date('2020-09-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-01'; SET @perioddate=str_to_date('2020-10-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-01;2020-09-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-01;2020-10-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-09-02</v>
+        <v>2020-10-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-09-02;2020-09-02.csv</v>
+        <v>2020-10-02;2020-10-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-09-02'; SET @perioddate=str_to_date('2020-09-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-02'; SET @perioddate=str_to_date('2020-10-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-02;2020-09-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-02;2020-10-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-03</v>
+        <v>2020-10-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-03;2020-09-03.csv</v>
+        <v>2020-10-03;2020-10-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-03'; SET @perioddate=str_to_date('2020-09-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-03'; SET @perioddate=str_to_date('2020-10-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-03;2020-09-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-03;2020-10-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-04</v>
+        <v>2020-10-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-04;2020-09-04.csv</v>
+        <v>2020-10-04;2020-10-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-04'; SET @perioddate=str_to_date('2020-09-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-04'; SET @perioddate=str_to_date('2020-10-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-04;2020-09-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-04;2020-10-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-05</v>
+        <v>2020-10-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-05;2020-09-05.csv</v>
+        <v>2020-10-05;2020-10-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-05'; SET @perioddate=str_to_date('2020-09-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-05'; SET @perioddate=str_to_date('2020-10-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-05;2020-09-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-05;2020-10-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-06</v>
+        <v>2020-10-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-06;2020-09-06.csv</v>
+        <v>2020-10-06;2020-10-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-06'; SET @perioddate=str_to_date('2020-09-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-06'; SET @perioddate=str_to_date('2020-10-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-06;2020-09-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-06;2020-10-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-07</v>
+        <v>2020-10-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-07;2020-09-07.csv</v>
+        <v>2020-10-07;2020-10-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-07'; SET @perioddate=str_to_date('2020-09-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-07'; SET @perioddate=str_to_date('2020-10-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-07;2020-09-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-07;2020-10-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-08</v>
+        <v>2020-10-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-08;2020-09-08.csv</v>
+        <v>2020-10-08;2020-10-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-08'; SET @perioddate=str_to_date('2020-09-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-08'; SET @perioddate=str_to_date('2020-10-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-08;2020-09-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-08;2020-10-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-09</v>
+        <v>2020-10-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-09;2020-09-09.csv</v>
+        <v>2020-10-09;2020-10-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-09'; SET @perioddate=str_to_date('2020-09-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-09'; SET @perioddate=str_to_date('2020-10-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-09;2020-09-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-09;2020-10-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-10</v>
+        <v>2020-10-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-10;2020-09-10.csv</v>
+        <v>2020-10-10;2020-10-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-10'; SET @perioddate=str_to_date('2020-09-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-10'; SET @perioddate=str_to_date('2020-10-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-10;2020-09-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-10;2020-10-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-11</v>
+        <v>2020-10-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-11;2020-09-11.csv</v>
+        <v>2020-10-11;2020-10-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-11'; SET @perioddate=str_to_date('2020-09-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-11'; SET @perioddate=str_to_date('2020-10-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-11;2020-09-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-11;2020-10-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-12</v>
+        <v>2020-10-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-12;2020-09-12.csv</v>
+        <v>2020-10-12;2020-10-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-12'; SET @perioddate=str_to_date('2020-09-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-12'; SET @perioddate=str_to_date('2020-10-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-12;2020-09-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-12;2020-10-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-13</v>
+        <v>2020-10-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-13;2020-09-13.csv</v>
+        <v>2020-10-13;2020-10-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-13'; SET @perioddate=str_to_date('2020-09-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-13'; SET @perioddate=str_to_date('2020-10-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-13;2020-09-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-13;2020-10-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-14</v>
+        <v>2020-10-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-14;2020-09-14.csv</v>
+        <v>2020-10-14;2020-10-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-14'; SET @perioddate=str_to_date('2020-09-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-14'; SET @perioddate=str_to_date('2020-10-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-14;2020-09-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-14;2020-10-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-15</v>
+        <v>2020-10-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-15;2020-09-15.csv</v>
+        <v>2020-10-15;2020-10-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-15'; SET @perioddate=str_to_date('2020-09-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-15'; SET @perioddate=str_to_date('2020-10-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-15;2020-09-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-15;2020-10-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-16</v>
+        <v>2020-10-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-16;2020-09-16.csv</v>
+        <v>2020-10-16;2020-10-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-16'; SET @perioddate=str_to_date('2020-09-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-16'; SET @perioddate=str_to_date('2020-10-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-16;2020-09-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-16;2020-10-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-17</v>
+        <v>2020-10-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-17;2020-09-17.csv</v>
+        <v>2020-10-17;2020-10-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-17'; SET @perioddate=str_to_date('2020-09-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-17'; SET @perioddate=str_to_date('2020-10-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-17;2020-09-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-17;2020-10-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
+        <v>2020-10-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-18;2020-09-18.csv</v>
+        <v>2020-10-18;2020-10-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-18'; SET @perioddate=str_to_date('2020-09-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-18'; SET @perioddate=str_to_date('2020-10-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-18;2020-09-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-18;2020-10-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
+        <v>2020-10-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-19;2020-09-19.csv</v>
+        <v>2020-10-19;2020-10-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-19'; SET @perioddate=str_to_date('2020-09-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-19'; SET @perioddate=str_to_date('2020-10-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-19;2020-09-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-19;2020-10-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
+        <v>2020-10-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-20;2020-09-20.csv</v>
+        <v>2020-10-20;2020-10-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-20'; SET @perioddate=str_to_date('2020-09-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-20'; SET @perioddate=str_to_date('2020-10-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-20;2020-09-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-20;2020-10-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
+        <v>2020-10-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-21;2020-09-21.csv</v>
+        <v>2020-10-21;2020-10-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-21'; SET @perioddate=str_to_date('2020-09-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-21'; SET @perioddate=str_to_date('2020-10-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-21;2020-09-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-21;2020-10-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
+        <v>2020-10-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-22;2020-09-22.csv</v>
+        <v>2020-10-22;2020-10-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-22'; SET @perioddate=str_to_date('2020-09-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-22'; SET @perioddate=str_to_date('2020-10-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-22;2020-09-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-22;2020-10-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
+        <v>2020-10-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-23;2020-09-23.csv</v>
+        <v>2020-10-23;2020-10-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-23'; SET @perioddate=str_to_date('2020-09-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-23'; SET @perioddate=str_to_date('2020-10-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-23;2020-09-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-23;2020-10-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
+        <v>2020-10-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-24;2020-09-24.csv</v>
+        <v>2020-10-24;2020-10-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-24'; SET @perioddate=str_to_date('2020-09-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-24'; SET @perioddate=str_to_date('2020-10-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-24;2020-09-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-24;2020-10-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-25;2020-09-25.csv</v>
+        <v>2020-10-25;2020-10-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-25'; SET @perioddate=str_to_date('2020-09-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-25'; SET @perioddate=str_to_date('2020-10-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-25;2020-09-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-25;2020-10-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-26;2020-09-26.csv</v>
+        <v>2020-10-26;2020-10-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-26'; SET @perioddate=str_to_date('2020-09-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-26'; SET @perioddate=str_to_date('2020-10-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-26;2020-09-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-26;2020-10-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-27;2020-09-27.csv</v>
+        <v>2020-10-27;2020-10-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-27'; SET @perioddate=str_to_date('2020-09-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-27'; SET @perioddate=str_to_date('2020-10-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-27;2020-09-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-27;2020-10-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-28;2020-09-28.csv</v>
+        <v>2020-10-28;2020-10-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-28'; SET @perioddate=str_to_date('2020-09-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-28'; SET @perioddate=str_to_date('2020-10-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-28;2020-09-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-28;2020-10-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-29</v>
+        <v>2020-10-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-29;2020-09-29.csv</v>
+        <v>2020-10-29;2020-10-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-29'; SET @perioddate=str_to_date('2020-09-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-29'; SET @perioddate=str_to_date('2020-10-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-29;2020-09-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-29;2020-10-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-30</v>
+        <v>2020-10-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-30;2020-09-30.csv</v>
+        <v>2020-10-30;2020-10-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-30'; SET @perioddate=str_to_date('2020-09-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-30'; SET @perioddate=str_to_date('2020-10-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-30;2020-09-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-30;2020-10-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-31</v>
+        <v>2020-10-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-09-31;2020-09-31.csv</v>
+        <v>2020-10-31;2020-10-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-09-31'; SET @perioddate=str_to_date('2020-09-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-10-31'; SET @perioddate=str_to_date('2020-10-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-09-31;2020-09-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-31;2020-10-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0C5D6D-80B4-4771-8B6A-DA8D7ABB9137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60DFBA-A5E7-4321-8940-81C439F618B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-10-01</v>
+        <v>2020-11-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-10-01;2020-10-01.csv</v>
+        <v>2020-11-01;2020-11-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-10-01'; SET @perioddate=str_to_date('2020-10-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-01'; SET @perioddate=str_to_date('2020-11-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-01;2020-10-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-01;2020-11-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-10-02</v>
+        <v>2020-11-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-10-02;2020-10-02.csv</v>
+        <v>2020-11-02;2020-11-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-10-02'; SET @perioddate=str_to_date('2020-10-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-02'; SET @perioddate=str_to_date('2020-11-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-02;2020-10-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-02;2020-11-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-03</v>
+        <v>2020-11-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-03;2020-10-03.csv</v>
+        <v>2020-11-03;2020-11-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-03'; SET @perioddate=str_to_date('2020-10-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-03'; SET @perioddate=str_to_date('2020-11-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-03;2020-10-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-03;2020-11-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-04;2020-10-04.csv</v>
+        <v>2020-11-04;2020-11-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-04'; SET @perioddate=str_to_date('2020-10-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-04'; SET @perioddate=str_to_date('2020-11-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-04;2020-10-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-04;2020-11-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-05</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-05;2020-10-05.csv</v>
+        <v>2020-11-05;2020-11-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-05'; SET @perioddate=str_to_date('2020-10-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-05'; SET @perioddate=str_to_date('2020-11-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-05;2020-10-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-05;2020-11-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-06</v>
+        <v>2020-11-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-06;2020-10-06.csv</v>
+        <v>2020-11-06;2020-11-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-06'; SET @perioddate=str_to_date('2020-10-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-06'; SET @perioddate=str_to_date('2020-11-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-06;2020-10-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-06;2020-11-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-07</v>
+        <v>2020-11-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-07;2020-10-07.csv</v>
+        <v>2020-11-07;2020-11-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-07'; SET @perioddate=str_to_date('2020-10-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-07'; SET @perioddate=str_to_date('2020-11-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-07;2020-10-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-07;2020-11-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-08</v>
+        <v>2020-11-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-08;2020-10-08.csv</v>
+        <v>2020-11-08;2020-11-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-08'; SET @perioddate=str_to_date('2020-10-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-08'; SET @perioddate=str_to_date('2020-11-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-08;2020-10-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-08;2020-11-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-09</v>
+        <v>2020-11-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-09;2020-10-09.csv</v>
+        <v>2020-11-09;2020-11-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-09'; SET @perioddate=str_to_date('2020-10-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-09'; SET @perioddate=str_to_date('2020-11-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-09;2020-10-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-09;2020-11-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-10</v>
+        <v>2020-11-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-10;2020-10-10.csv</v>
+        <v>2020-11-10;2020-11-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-10'; SET @perioddate=str_to_date('2020-10-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-10'; SET @perioddate=str_to_date('2020-11-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-10;2020-10-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-10;2020-11-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-11</v>
+        <v>2020-11-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-11;2020-10-11.csv</v>
+        <v>2020-11-11;2020-11-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-11'; SET @perioddate=str_to_date('2020-10-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-11'; SET @perioddate=str_to_date('2020-11-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-11;2020-10-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-11;2020-11-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-12</v>
+        <v>2020-11-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-12;2020-10-12.csv</v>
+        <v>2020-11-12;2020-11-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-12'; SET @perioddate=str_to_date('2020-10-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-12'; SET @perioddate=str_to_date('2020-11-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-12;2020-10-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-12;2020-11-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-13</v>
+        <v>2020-11-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-13;2020-10-13.csv</v>
+        <v>2020-11-13;2020-11-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-13'; SET @perioddate=str_to_date('2020-10-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-13'; SET @perioddate=str_to_date('2020-11-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-13;2020-10-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-13;2020-11-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-14</v>
+        <v>2020-11-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-14;2020-10-14.csv</v>
+        <v>2020-11-14;2020-11-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-14'; SET @perioddate=str_to_date('2020-10-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-14'; SET @perioddate=str_to_date('2020-11-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-14;2020-10-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-14;2020-11-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-15</v>
+        <v>2020-11-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-15;2020-10-15.csv</v>
+        <v>2020-11-15;2020-11-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-15'; SET @perioddate=str_to_date('2020-10-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-15'; SET @perioddate=str_to_date('2020-11-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-15;2020-10-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-15;2020-11-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-16</v>
+        <v>2020-11-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-16;2020-10-16.csv</v>
+        <v>2020-11-16;2020-11-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-16'; SET @perioddate=str_to_date('2020-10-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-16'; SET @perioddate=str_to_date('2020-11-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-16;2020-10-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-16;2020-11-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-17</v>
+        <v>2020-11-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-17;2020-10-17.csv</v>
+        <v>2020-11-17;2020-11-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-17'; SET @perioddate=str_to_date('2020-10-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-17'; SET @perioddate=str_to_date('2020-11-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-17;2020-10-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-17;2020-11-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-18</v>
+        <v>2020-11-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-18;2020-10-18.csv</v>
+        <v>2020-11-18;2020-11-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-18'; SET @perioddate=str_to_date('2020-10-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-18'; SET @perioddate=str_to_date('2020-11-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-18;2020-10-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-18;2020-11-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-19</v>
+        <v>2020-11-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-19;2020-10-19.csv</v>
+        <v>2020-11-19;2020-11-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-19'; SET @perioddate=str_to_date('2020-10-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-19'; SET @perioddate=str_to_date('2020-11-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-19;2020-10-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-19;2020-11-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-20</v>
+        <v>2020-11-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-20;2020-10-20.csv</v>
+        <v>2020-11-20;2020-11-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-20'; SET @perioddate=str_to_date('2020-10-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-20'; SET @perioddate=str_to_date('2020-11-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-20;2020-10-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-20;2020-11-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-21</v>
+        <v>2020-11-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-21;2020-10-21.csv</v>
+        <v>2020-11-21;2020-11-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-21'; SET @perioddate=str_to_date('2020-10-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-21'; SET @perioddate=str_to_date('2020-11-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-21;2020-10-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-21;2020-11-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-22</v>
+        <v>2020-11-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-22;2020-10-22.csv</v>
+        <v>2020-11-22;2020-11-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-22'; SET @perioddate=str_to_date('2020-10-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-22'; SET @perioddate=str_to_date('2020-11-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-22;2020-10-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-22;2020-11-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-23</v>
+        <v>2020-11-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-23;2020-10-23.csv</v>
+        <v>2020-11-23;2020-11-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-23'; SET @perioddate=str_to_date('2020-10-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-23'; SET @perioddate=str_to_date('2020-11-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-23;2020-10-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-23;2020-11-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-24</v>
+        <v>2020-11-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-24;2020-10-24.csv</v>
+        <v>2020-11-24;2020-11-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-24'; SET @perioddate=str_to_date('2020-10-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-24'; SET @perioddate=str_to_date('2020-11-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-24;2020-10-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-24;2020-11-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-25</v>
+        <v>2020-11-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-25;2020-10-25.csv</v>
+        <v>2020-11-25;2020-11-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-25'; SET @perioddate=str_to_date('2020-10-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-25'; SET @perioddate=str_to_date('2020-11-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-25;2020-10-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-25;2020-11-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-26</v>
+        <v>2020-11-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-26;2020-10-26.csv</v>
+        <v>2020-11-26;2020-11-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-26'; SET @perioddate=str_to_date('2020-10-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-26'; SET @perioddate=str_to_date('2020-11-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-26;2020-10-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-26;2020-11-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-27</v>
+        <v>2020-11-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-27;2020-10-27.csv</v>
+        <v>2020-11-27;2020-11-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-27'; SET @perioddate=str_to_date('2020-10-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-27'; SET @perioddate=str_to_date('2020-11-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-27;2020-10-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-27;2020-11-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-28</v>
+        <v>2020-11-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-28;2020-10-28.csv</v>
+        <v>2020-11-28;2020-11-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-28'; SET @perioddate=str_to_date('2020-10-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-28'; SET @perioddate=str_to_date('2020-11-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-28;2020-10-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-28;2020-11-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-29</v>
+        <v>2020-11-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-29;2020-10-29.csv</v>
+        <v>2020-11-29;2020-11-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-29'; SET @perioddate=str_to_date('2020-10-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-29'; SET @perioddate=str_to_date('2020-11-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-29;2020-10-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-29;2020-11-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-30</v>
+        <v>2020-11-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-30;2020-10-30.csv</v>
+        <v>2020-11-30;2020-11-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-30'; SET @perioddate=str_to_date('2020-10-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-30'; SET @perioddate=str_to_date('2020-11-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-30;2020-10-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-30;2020-11-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-10-31</v>
+        <v>2020-11-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-10-31;2020-10-31.csv</v>
+        <v>2020-11-31;2020-11-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-10-31'; SET @perioddate=str_to_date('2020-10-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-11-31'; SET @perioddate=str_to_date('2020-11-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-10-31;2020-10-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-31;2020-11-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60DFBA-A5E7-4321-8940-81C439F618B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96DD105-F70B-4452-9570-04AAF80CCFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-11-01</v>
+        <v>2020-12-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-11-01;2020-11-01.csv</v>
+        <v>2020-12-01;2020-12-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-11-01'; SET @perioddate=str_to_date('2020-11-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-01'; SET @perioddate=str_to_date('2020-12-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-01;2020-11-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-01;2020-12-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-11-02</v>
+        <v>2020-12-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-11-02;2020-11-02.csv</v>
+        <v>2020-12-02;2020-12-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-11-02'; SET @perioddate=str_to_date('2020-11-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-02'; SET @perioddate=str_to_date('2020-12-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-02;2020-11-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-02;2020-12-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-03</v>
+        <v>2020-12-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-03;2020-11-03.csv</v>
+        <v>2020-12-03;2020-12-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-03'; SET @perioddate=str_to_date('2020-11-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-03'; SET @perioddate=str_to_date('2020-12-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-03;2020-11-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-03;2020-12-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-04</v>
+        <v>2020-12-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-04;2020-11-04.csv</v>
+        <v>2020-12-04;2020-12-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-04'; SET @perioddate=str_to_date('2020-11-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-04'; SET @perioddate=str_to_date('2020-12-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-04;2020-11-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-04;2020-12-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-05</v>
+        <v>2020-12-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-05;2020-11-05.csv</v>
+        <v>2020-12-05;2020-12-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-05'; SET @perioddate=str_to_date('2020-11-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-05'; SET @perioddate=str_to_date('2020-12-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-05;2020-11-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-05;2020-12-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-06</v>
+        <v>2020-12-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-06;2020-11-06.csv</v>
+        <v>2020-12-06;2020-12-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-06'; SET @perioddate=str_to_date('2020-11-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-06'; SET @perioddate=str_to_date('2020-12-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-06;2020-11-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-06;2020-12-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-07</v>
+        <v>2020-12-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-07;2020-11-07.csv</v>
+        <v>2020-12-07;2020-12-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-07'; SET @perioddate=str_to_date('2020-11-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-07'; SET @perioddate=str_to_date('2020-12-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-07;2020-11-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-07;2020-12-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-08</v>
+        <v>2020-12-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-08;2020-11-08.csv</v>
+        <v>2020-12-08;2020-12-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-08'; SET @perioddate=str_to_date('2020-11-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-08'; SET @perioddate=str_to_date('2020-12-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-08;2020-11-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-08;2020-12-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-09</v>
+        <v>2020-12-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-09;2020-11-09.csv</v>
+        <v>2020-12-09;2020-12-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-09'; SET @perioddate=str_to_date('2020-11-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-09'; SET @perioddate=str_to_date('2020-12-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-09;2020-11-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-09;2020-12-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-10</v>
+        <v>2020-12-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-10;2020-11-10.csv</v>
+        <v>2020-12-10;2020-12-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-10'; SET @perioddate=str_to_date('2020-11-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-10'; SET @perioddate=str_to_date('2020-12-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-10;2020-11-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-10;2020-12-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-11</v>
+        <v>2020-12-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-11;2020-11-11.csv</v>
+        <v>2020-12-11;2020-12-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-11'; SET @perioddate=str_to_date('2020-11-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-11'; SET @perioddate=str_to_date('2020-12-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-11;2020-11-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-11;2020-12-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-12</v>
+        <v>2020-12-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-12;2020-11-12.csv</v>
+        <v>2020-12-12;2020-12-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-12'; SET @perioddate=str_to_date('2020-11-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-12'; SET @perioddate=str_to_date('2020-12-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-12;2020-11-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-12;2020-12-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-13</v>
+        <v>2020-12-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-13;2020-11-13.csv</v>
+        <v>2020-12-13;2020-12-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-13'; SET @perioddate=str_to_date('2020-11-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-13'; SET @perioddate=str_to_date('2020-12-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-13;2020-11-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-13;2020-12-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-14</v>
+        <v>2020-12-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-14;2020-11-14.csv</v>
+        <v>2020-12-14;2020-12-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-14'; SET @perioddate=str_to_date('2020-11-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-14'; SET @perioddate=str_to_date('2020-12-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-14;2020-11-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-14;2020-12-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-15</v>
+        <v>2020-12-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-15;2020-11-15.csv</v>
+        <v>2020-12-15;2020-12-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-15'; SET @perioddate=str_to_date('2020-11-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-15'; SET @perioddate=str_to_date('2020-12-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-15;2020-11-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-15;2020-12-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-16</v>
+        <v>2020-12-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-16;2020-11-16.csv</v>
+        <v>2020-12-16;2020-12-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-16'; SET @perioddate=str_to_date('2020-11-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-16'; SET @perioddate=str_to_date('2020-12-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-16;2020-11-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-16;2020-12-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-17</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-17;2020-11-17.csv</v>
+        <v>2020-12-17;2020-12-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-17'; SET @perioddate=str_to_date('2020-11-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-17'; SET @perioddate=str_to_date('2020-12-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-17;2020-11-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-17;2020-12-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-18</v>
+        <v>2020-12-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-18;2020-11-18.csv</v>
+        <v>2020-12-18;2020-12-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-18'; SET @perioddate=str_to_date('2020-11-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-18'; SET @perioddate=str_to_date('2020-12-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-18;2020-11-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-18;2020-12-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-19</v>
+        <v>2020-12-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-19;2020-11-19.csv</v>
+        <v>2020-12-19;2020-12-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-19'; SET @perioddate=str_to_date('2020-11-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-19'; SET @perioddate=str_to_date('2020-12-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-19;2020-11-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-19;2020-12-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-20</v>
+        <v>2020-12-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-20;2020-11-20.csv</v>
+        <v>2020-12-20;2020-12-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-20'; SET @perioddate=str_to_date('2020-11-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-20'; SET @perioddate=str_to_date('2020-12-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-20;2020-11-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-20;2020-12-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-21</v>
+        <v>2020-12-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-21;2020-11-21.csv</v>
+        <v>2020-12-21;2020-12-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-21'; SET @perioddate=str_to_date('2020-11-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-21'; SET @perioddate=str_to_date('2020-12-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-21;2020-11-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-21;2020-12-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-22</v>
+        <v>2020-12-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-22;2020-11-22.csv</v>
+        <v>2020-12-22;2020-12-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-22'; SET @perioddate=str_to_date('2020-11-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-22'; SET @perioddate=str_to_date('2020-12-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-22;2020-11-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-22;2020-12-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-23</v>
+        <v>2020-12-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-23;2020-11-23.csv</v>
+        <v>2020-12-23;2020-12-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-23'; SET @perioddate=str_to_date('2020-11-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-23'; SET @perioddate=str_to_date('2020-12-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-23;2020-11-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-23;2020-12-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-24</v>
+        <v>2020-12-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-24;2020-11-24.csv</v>
+        <v>2020-12-24;2020-12-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-24'; SET @perioddate=str_to_date('2020-11-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-24'; SET @perioddate=str_to_date('2020-12-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-24;2020-11-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-24;2020-12-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-25</v>
+        <v>2020-12-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-25;2020-11-25.csv</v>
+        <v>2020-12-25;2020-12-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-25'; SET @perioddate=str_to_date('2020-11-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-25'; SET @perioddate=str_to_date('2020-12-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-25;2020-11-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-25;2020-12-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-26</v>
+        <v>2020-12-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-26;2020-11-26.csv</v>
+        <v>2020-12-26;2020-12-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-26'; SET @perioddate=str_to_date('2020-11-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-26'; SET @perioddate=str_to_date('2020-12-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-26;2020-11-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-26;2020-12-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-27</v>
+        <v>2020-12-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-27;2020-11-27.csv</v>
+        <v>2020-12-27;2020-12-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-27'; SET @perioddate=str_to_date('2020-11-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-27'; SET @perioddate=str_to_date('2020-12-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-27;2020-11-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-27;2020-12-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-28</v>
+        <v>2020-12-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-28;2020-11-28.csv</v>
+        <v>2020-12-28;2020-12-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-28'; SET @perioddate=str_to_date('2020-11-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-28'; SET @perioddate=str_to_date('2020-12-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-28;2020-11-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-28;2020-12-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-29</v>
+        <v>2020-12-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-29;2020-11-29.csv</v>
+        <v>2020-12-29;2020-12-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-29'; SET @perioddate=str_to_date('2020-11-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-29'; SET @perioddate=str_to_date('2020-12-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-29;2020-11-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-29;2020-12-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-30</v>
+        <v>2020-12-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-30;2020-11-30.csv</v>
+        <v>2020-12-30;2020-12-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-30'; SET @perioddate=str_to_date('2020-11-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-30'; SET @perioddate=str_to_date('2020-12-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-30;2020-11-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-30;2020-12-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-11-31</v>
+        <v>2020-12-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-11-31;2020-11-31.csv</v>
+        <v>2020-12-31;2020-12-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-11-31'; SET @perioddate=str_to_date('2020-11-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2020-12-31'; SET @perioddate=str_to_date('2020-12-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-11-31;2020-11-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-31;2020-12-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96DD105-F70B-4452-9570-04AAF80CCFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A39BE5E-FD2D-4D29-A03B-D81BD100E82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
     <t>2019</t>
   </si>
   <si>
-    <t>2020</t>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I32"/>
+      <selection activeCell="B2" sqref="B2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1950,18 +1950,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2020-12-01</v>
+        <v>2021-01-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2020-12-01;2020-12-01.csv</v>
+        <v>2021-01-01;2021-01-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-12-01'; SET @perioddate=str_to_date('2020-12-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-01'; SET @perioddate=str_to_date('2021-01-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-01;2020-12-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-01;2021-01-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1984,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2020-12-02</v>
+        <v>2021-01-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2020-12-02;2020-12-02.csv</v>
+        <v>2021-01-02;2021-01-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2020-12-02'; SET @perioddate=str_to_date('2020-12-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-02'; SET @perioddate=str_to_date('2021-01-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-02;2020-12-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-02;2021-01-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2018,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-03</v>
+        <v>2021-01-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-03;2020-12-03.csv</v>
+        <v>2021-01-03;2021-01-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-03'; SET @perioddate=str_to_date('2020-12-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-03'; SET @perioddate=str_to_date('2021-01-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-03;2020-12-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-03;2021-01-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2052,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-04</v>
+        <v>2021-01-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-04;2020-12-04.csv</v>
+        <v>2021-01-04;2021-01-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2074,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-04'; SET @perioddate=str_to_date('2020-12-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-04'; SET @perioddate=str_to_date('2021-01-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-04;2020-12-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-04;2021-01-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2086,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-05</v>
+        <v>2021-01-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-05;2020-12-05.csv</v>
+        <v>2021-01-05;2021-01-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-05'; SET @perioddate=str_to_date('2020-12-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-05'; SET @perioddate=str_to_date('2021-01-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-05;2020-12-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-05;2021-01-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2120,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-06</v>
+        <v>2021-01-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-06;2020-12-06.csv</v>
+        <v>2021-01-06;2021-01-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-06'; SET @perioddate=str_to_date('2020-12-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-06'; SET @perioddate=str_to_date('2021-01-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-06;2020-12-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-06;2021-01-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2154,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-07</v>
+        <v>2021-01-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-07;2020-12-07.csv</v>
+        <v>2021-01-07;2021-01-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-07'; SET @perioddate=str_to_date('2020-12-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-07'; SET @perioddate=str_to_date('2021-01-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-07;2020-12-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-07;2021-01-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2188,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-08</v>
+        <v>2021-01-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-08;2020-12-08.csv</v>
+        <v>2021-01-08;2021-01-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-08'; SET @perioddate=str_to_date('2020-12-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-08'; SET @perioddate=str_to_date('2021-01-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-08;2020-12-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-08;2021-01-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2222,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-09</v>
+        <v>2021-01-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-09;2020-12-09.csv</v>
+        <v>2021-01-09;2021-01-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-09'; SET @perioddate=str_to_date('2020-12-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-09'; SET @perioddate=str_to_date('2021-01-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-09;2020-12-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-09;2021-01-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-10</v>
+        <v>2021-01-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-10;2020-12-10.csv</v>
+        <v>2021-01-10;2021-01-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-10'; SET @perioddate=str_to_date('2020-12-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-10'; SET @perioddate=str_to_date('2021-01-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-10;2020-12-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-10;2021-01-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2290,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-11</v>
+        <v>2021-01-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-11;2020-12-11.csv</v>
+        <v>2021-01-11;2021-01-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-11'; SET @perioddate=str_to_date('2020-12-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-11'; SET @perioddate=str_to_date('2021-01-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-11;2020-12-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-11;2021-01-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2324,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-12</v>
+        <v>2021-01-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-12;2020-12-12.csv</v>
+        <v>2021-01-12;2021-01-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-12'; SET @perioddate=str_to_date('2020-12-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-12'; SET @perioddate=str_to_date('2021-01-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-12;2020-12-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-12;2021-01-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-13</v>
+        <v>2021-01-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-13;2020-12-13.csv</v>
+        <v>2021-01-13;2021-01-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-13'; SET @perioddate=str_to_date('2020-12-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-13'; SET @perioddate=str_to_date('2021-01-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-13;2020-12-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-13;2021-01-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2392,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-14</v>
+        <v>2021-01-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-14;2020-12-14.csv</v>
+        <v>2021-01-14;2021-01-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-14'; SET @perioddate=str_to_date('2020-12-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-14'; SET @perioddate=str_to_date('2021-01-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-14;2020-12-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-14;2021-01-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2426,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-15</v>
+        <v>2021-01-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-15;2020-12-15.csv</v>
+        <v>2021-01-15;2021-01-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-15'; SET @perioddate=str_to_date('2020-12-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-15'; SET @perioddate=str_to_date('2021-01-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-15;2020-12-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-15;2021-01-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2460,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-16</v>
+        <v>2021-01-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-16;2020-12-16.csv</v>
+        <v>2021-01-16;2021-01-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-16'; SET @perioddate=str_to_date('2020-12-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-16'; SET @perioddate=str_to_date('2021-01-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-16;2020-12-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-16;2021-01-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2494,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-17</v>
+        <v>2021-01-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-17;2020-12-17.csv</v>
+        <v>2021-01-17;2021-01-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-17'; SET @perioddate=str_to_date('2020-12-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-17'; SET @perioddate=str_to_date('2021-01-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-17;2020-12-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-17;2021-01-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2528,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-18</v>
+        <v>2021-01-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-18;2020-12-18.csv</v>
+        <v>2021-01-18;2021-01-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-18'; SET @perioddate=str_to_date('2020-12-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-18'; SET @perioddate=str_to_date('2021-01-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-18;2020-12-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-18;2021-01-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2562,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-19</v>
+        <v>2021-01-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-19;2020-12-19.csv</v>
+        <v>2021-01-19;2021-01-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-19'; SET @perioddate=str_to_date('2020-12-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-19'; SET @perioddate=str_to_date('2021-01-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-19;2020-12-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-19;2021-01-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2596,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-20</v>
+        <v>2021-01-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-20;2020-12-20.csv</v>
+        <v>2021-01-20;2021-01-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-20'; SET @perioddate=str_to_date('2020-12-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-20'; SET @perioddate=str_to_date('2021-01-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-20;2020-12-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-20;2021-01-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2630,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-21</v>
+        <v>2021-01-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-21;2020-12-21.csv</v>
+        <v>2021-01-21;2021-01-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-21'; SET @perioddate=str_to_date('2020-12-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-21'; SET @perioddate=str_to_date('2021-01-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-21;2020-12-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-21;2021-01-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-22</v>
+        <v>2021-01-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-22;2020-12-22.csv</v>
+        <v>2021-01-22;2021-01-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-22'; SET @perioddate=str_to_date('2020-12-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-22'; SET @perioddate=str_to_date('2021-01-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-22;2020-12-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-22;2021-01-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2698,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-23</v>
+        <v>2021-01-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-23;2020-12-23.csv</v>
+        <v>2021-01-23;2021-01-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-23'; SET @perioddate=str_to_date('2020-12-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-23'; SET @perioddate=str_to_date('2021-01-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-23;2020-12-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-23;2021-01-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2732,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-24</v>
+        <v>2021-01-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-24;2020-12-24.csv</v>
+        <v>2021-01-24;2021-01-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-24'; SET @perioddate=str_to_date('2020-12-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-24'; SET @perioddate=str_to_date('2021-01-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-24;2020-12-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-24;2021-01-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2766,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-25</v>
+        <v>2021-01-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-25;2020-12-25.csv</v>
+        <v>2021-01-25;2021-01-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-25'; SET @perioddate=str_to_date('2020-12-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-25'; SET @perioddate=str_to_date('2021-01-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-25;2020-12-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-25;2021-01-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2800,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-26</v>
+        <v>2021-01-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-26;2020-12-26.csv</v>
+        <v>2021-01-26;2021-01-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-26'; SET @perioddate=str_to_date('2020-12-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-26'; SET @perioddate=str_to_date('2021-01-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-26;2020-12-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-26;2021-01-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2834,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-27</v>
+        <v>2021-01-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-27;2020-12-27.csv</v>
+        <v>2021-01-27;2021-01-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-27'; SET @perioddate=str_to_date('2020-12-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-27'; SET @perioddate=str_to_date('2021-01-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-27;2020-12-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-27;2021-01-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2868,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-28</v>
+        <v>2021-01-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-28;2020-12-28.csv</v>
+        <v>2021-01-28;2021-01-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-28'; SET @perioddate=str_to_date('2020-12-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-28'; SET @perioddate=str_to_date('2021-01-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-28;2020-12-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-28;2021-01-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2902,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-29</v>
+        <v>2021-01-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-29;2020-12-29.csv</v>
+        <v>2021-01-29;2021-01-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-29'; SET @perioddate=str_to_date('2020-12-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-29'; SET @perioddate=str_to_date('2021-01-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-29;2020-12-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-29;2021-01-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2936,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-30</v>
+        <v>2021-01-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-30;2020-12-30.csv</v>
+        <v>2021-01-30;2021-01-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-30'; SET @perioddate=str_to_date('2020-12-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-30'; SET @perioddate=str_to_date('2021-01-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-30;2020-12-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-30;2021-01-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2970,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2020-12-31</v>
+        <v>2021-01-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2020-12-31;2020-12-31.csv</v>
+        <v>2021-01-31;2021-01-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2020-12-31'; SET @perioddate=str_to_date('2020-12-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-01-31'; SET @perioddate=str_to_date('2021-01-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2020-12-31;2020-12-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-31;2021-01-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A39BE5E-FD2D-4D29-A03B-D81BD100E82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F9E41-72FD-443A-A19C-12A9BBDC1433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -631,12 +631,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1914,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1950,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-01-01</v>
+        <v>2021-02-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-01-01;2021-01-01.csv</v>
+        <v>2021-02-01;2021-02-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1972,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-01-01'; SET @perioddate=str_to_date('2021-01-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-01'; SET @perioddate=str_to_date('2021-02-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-01;2021-01-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-01;2021-02-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-01-02</v>
+        <v>2021-02-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-01-02;2021-01-02.csv</v>
+        <v>2021-02-02;2021-02-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2006,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-01-02'; SET @perioddate=str_to_date('2021-01-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-02'; SET @perioddate=str_to_date('2021-02-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-02;2021-01-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-02;2021-02-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-03</v>
+        <v>2021-02-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-03;2021-01-03.csv</v>
+        <v>2021-02-03;2021-02-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2040,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-03'; SET @perioddate=str_to_date('2021-01-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-03'; SET @perioddate=str_to_date('2021-02-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-03;2021-01-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-03;2021-02-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-04</v>
+        <v>2021-02-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-04;2021-01-04.csv</v>
+        <v>2021-02-04;2021-02-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2074,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-04'; SET @perioddate=str_to_date('2021-01-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-04'; SET @perioddate=str_to_date('2021-02-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-04;2021-01-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-04;2021-02-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-05</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-05;2021-01-05.csv</v>
+        <v>2021-02-05;2021-02-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2108,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-05'; SET @perioddate=str_to_date('2021-01-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-05'; SET @perioddate=str_to_date('2021-02-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-05;2021-01-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-05;2021-02-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-06</v>
+        <v>2021-02-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-06;2021-01-06.csv</v>
+        <v>2021-02-06;2021-02-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2142,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-06'; SET @perioddate=str_to_date('2021-01-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-06'; SET @perioddate=str_to_date('2021-02-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-06;2021-01-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-06;2021-02-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-07</v>
+        <v>2021-02-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-07;2021-01-07.csv</v>
+        <v>2021-02-07;2021-02-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2176,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-07'; SET @perioddate=str_to_date('2021-01-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-07'; SET @perioddate=str_to_date('2021-02-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-07;2021-01-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-07;2021-02-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-08;2021-01-08.csv</v>
+        <v>2021-02-08;2021-02-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2210,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-08'; SET @perioddate=str_to_date('2021-01-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-08'; SET @perioddate=str_to_date('2021-02-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-08;2021-01-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-08;2021-02-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-09</v>
+        <v>2021-02-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-09;2021-01-09.csv</v>
+        <v>2021-02-09;2021-02-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2244,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-09'; SET @perioddate=str_to_date('2021-01-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-09'; SET @perioddate=str_to_date('2021-02-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-09;2021-01-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-09;2021-02-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-10</v>
+        <v>2021-02-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-10;2021-01-10.csv</v>
+        <v>2021-02-10;2021-02-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2278,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-10'; SET @perioddate=str_to_date('2021-01-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-10'; SET @perioddate=str_to_date('2021-02-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-10;2021-01-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-10;2021-02-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-11</v>
+        <v>2021-02-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-11;2021-01-11.csv</v>
+        <v>2021-02-11;2021-02-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2312,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-11'; SET @perioddate=str_to_date('2021-01-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-11'; SET @perioddate=str_to_date('2021-02-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-11;2021-01-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-11;2021-02-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2324,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-12</v>
+        <v>2021-02-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-12;2021-01-12.csv</v>
+        <v>2021-02-12;2021-02-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2346,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-12'; SET @perioddate=str_to_date('2021-01-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-12'; SET @perioddate=str_to_date('2021-02-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-12;2021-01-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-12;2021-02-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-13</v>
+        <v>2021-02-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-13;2021-01-13.csv</v>
+        <v>2021-02-13;2021-02-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2380,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-13'; SET @perioddate=str_to_date('2021-01-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-13'; SET @perioddate=str_to_date('2021-02-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-13;2021-01-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-13;2021-02-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-14</v>
+        <v>2021-02-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-14;2021-01-14.csv</v>
+        <v>2021-02-14;2021-02-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2414,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-14'; SET @perioddate=str_to_date('2021-01-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-14'; SET @perioddate=str_to_date('2021-02-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-14;2021-01-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-14;2021-02-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-15</v>
+        <v>2021-02-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-15;2021-01-15.csv</v>
+        <v>2021-02-15;2021-02-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2448,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-15'; SET @perioddate=str_to_date('2021-01-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-15'; SET @perioddate=str_to_date('2021-02-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-15;2021-01-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-15;2021-02-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-16</v>
+        <v>2021-02-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-16;2021-01-16.csv</v>
+        <v>2021-02-16;2021-02-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2482,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-16'; SET @perioddate=str_to_date('2021-01-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-16'; SET @perioddate=str_to_date('2021-02-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-16;2021-01-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-16;2021-02-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2494,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-17</v>
+        <v>2021-02-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-17;2021-01-17.csv</v>
+        <v>2021-02-17;2021-02-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2516,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-17'; SET @perioddate=str_to_date('2021-01-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-17'; SET @perioddate=str_to_date('2021-02-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-17;2021-01-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-17;2021-02-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-18</v>
+        <v>2021-02-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-18;2021-01-18.csv</v>
+        <v>2021-02-18;2021-02-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2550,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-18'; SET @perioddate=str_to_date('2021-01-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-18'; SET @perioddate=str_to_date('2021-02-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-18;2021-01-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-18;2021-02-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-19</v>
+        <v>2021-02-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-19;2021-01-19.csv</v>
+        <v>2021-02-19;2021-02-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2584,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-19'; SET @perioddate=str_to_date('2021-01-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-19'; SET @perioddate=str_to_date('2021-02-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-19;2021-01-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-19;2021-02-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-20</v>
+        <v>2021-02-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-20;2021-01-20.csv</v>
+        <v>2021-02-20;2021-02-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2618,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-20'; SET @perioddate=str_to_date('2021-01-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-20'; SET @perioddate=str_to_date('2021-02-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-20;2021-01-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-20;2021-02-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-21</v>
+        <v>2021-02-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-21;2021-01-21.csv</v>
+        <v>2021-02-21;2021-02-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2652,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-21'; SET @perioddate=str_to_date('2021-01-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-21'; SET @perioddate=str_to_date('2021-02-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-21;2021-01-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-21;2021-02-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-22</v>
+        <v>2021-02-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-22;2021-01-22.csv</v>
+        <v>2021-02-22;2021-02-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2686,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-22'; SET @perioddate=str_to_date('2021-01-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-22'; SET @perioddate=str_to_date('2021-02-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-22;2021-01-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-22;2021-02-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2698,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-23</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-23;2021-01-23.csv</v>
+        <v>2021-02-23;2021-02-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-23'; SET @perioddate=str_to_date('2021-01-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-23'; SET @perioddate=str_to_date('2021-02-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-23;2021-01-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-23;2021-02-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-24</v>
+        <v>2021-02-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-24;2021-01-24.csv</v>
+        <v>2021-02-24;2021-02-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2754,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-24'; SET @perioddate=str_to_date('2021-01-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-24'; SET @perioddate=str_to_date('2021-02-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-24;2021-01-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-24;2021-02-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-25</v>
+        <v>2021-02-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-25;2021-01-25.csv</v>
+        <v>2021-02-25;2021-02-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2788,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-25'; SET @perioddate=str_to_date('2021-01-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-25'; SET @perioddate=str_to_date('2021-02-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-25;2021-01-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-25;2021-02-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-26</v>
+        <v>2021-02-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-26;2021-01-26.csv</v>
+        <v>2021-02-26;2021-02-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2822,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-26'; SET @perioddate=str_to_date('2021-01-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-26'; SET @perioddate=str_to_date('2021-02-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-26;2021-01-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-26;2021-02-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-27</v>
+        <v>2021-02-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-27;2021-01-27.csv</v>
+        <v>2021-02-27;2021-02-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2856,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-27'; SET @perioddate=str_to_date('2021-01-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-27'; SET @perioddate=str_to_date('2021-02-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-27;2021-01-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-27;2021-02-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-28</v>
+        <v>2021-02-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-28;2021-01-28.csv</v>
+        <v>2021-02-28;2021-02-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2890,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-28'; SET @perioddate=str_to_date('2021-01-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-28'; SET @perioddate=str_to_date('2021-02-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-28;2021-01-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-28;2021-02-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-29</v>
+        <v>2021-02-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-29;2021-01-29.csv</v>
+        <v>2021-02-29;2021-02-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2924,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-29'; SET @perioddate=str_to_date('2021-01-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-29'; SET @perioddate=str_to_date('2021-02-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-29;2021-01-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-29;2021-02-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-30</v>
+        <v>2021-02-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-30;2021-01-30.csv</v>
+        <v>2021-02-30;2021-02-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2958,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-30'; SET @perioddate=str_to_date('2021-01-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-30'; SET @perioddate=str_to_date('2021-02-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-30;2021-01-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-30;2021-02-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2970,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-01-31</v>
+        <v>2021-02-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-01-31;2021-01-31.csv</v>
+        <v>2021-02-31;2021-02-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2992,12 +2994,18 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-01-31'; SET @perioddate=str_to_date('2021-01-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-02-31'; SET @perioddate=str_to_date('2021-02-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-01-31;2021-01-31.csv'</v>
-      </c>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-31;2021-02-31.csv'</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F9E41-72FD-443A-A19C-12A9BBDC1433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C6D6BA-6517-4ECE-90D4-1D964B77E53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59:I61"/>
+      <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-02-01</v>
+        <v>2021-03-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-02-01;2021-02-01.csv</v>
+        <v>2021-03-01;2021-03-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-02-01'; SET @perioddate=str_to_date('2021-02-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-01'; SET @perioddate=str_to_date('2021-03-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-01;2021-02-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-01;2021-03-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-02-02</v>
+        <v>2021-03-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-02-02;2021-02-02.csv</v>
+        <v>2021-03-02;2021-03-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-02-02'; SET @perioddate=str_to_date('2021-02-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-02'; SET @perioddate=str_to_date('2021-03-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-02;2021-02-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-02;2021-03-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-03</v>
+        <v>2021-03-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-03;2021-02-03.csv</v>
+        <v>2021-03-03;2021-03-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-03'; SET @perioddate=str_to_date('2021-02-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-03'; SET @perioddate=str_to_date('2021-03-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-03;2021-02-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-03;2021-03-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-04</v>
+        <v>2021-03-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-04;2021-02-04.csv</v>
+        <v>2021-03-04;2021-03-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-04'; SET @perioddate=str_to_date('2021-02-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-04'; SET @perioddate=str_to_date('2021-03-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-04;2021-02-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-04;2021-03-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-05</v>
+        <v>2021-03-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-05;2021-02-05.csv</v>
+        <v>2021-03-05;2021-03-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-05'; SET @perioddate=str_to_date('2021-02-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-05'; SET @perioddate=str_to_date('2021-03-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-05;2021-02-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-05;2021-03-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-06</v>
+        <v>2021-03-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-06;2021-02-06.csv</v>
+        <v>2021-03-06;2021-03-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-06'; SET @perioddate=str_to_date('2021-02-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-06'; SET @perioddate=str_to_date('2021-03-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-06;2021-02-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-06;2021-03-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-07</v>
+        <v>2021-03-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-07;2021-02-07.csv</v>
+        <v>2021-03-07;2021-03-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-07'; SET @perioddate=str_to_date('2021-02-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-07'; SET @perioddate=str_to_date('2021-03-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-07;2021-02-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-07;2021-03-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-08</v>
+        <v>2021-03-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-08;2021-02-08.csv</v>
+        <v>2021-03-08;2021-03-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-08'; SET @perioddate=str_to_date('2021-02-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-08'; SET @perioddate=str_to_date('2021-03-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-08;2021-02-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-08;2021-03-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-09</v>
+        <v>2021-03-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-09;2021-02-09.csv</v>
+        <v>2021-03-09;2021-03-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-09'; SET @perioddate=str_to_date('2021-02-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-09'; SET @perioddate=str_to_date('2021-03-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-09;2021-02-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-09;2021-03-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-10</v>
+        <v>2021-03-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-10;2021-02-10.csv</v>
+        <v>2021-03-10;2021-03-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-10'; SET @perioddate=str_to_date('2021-02-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-10'; SET @perioddate=str_to_date('2021-03-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-10;2021-02-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-10;2021-03-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-11</v>
+        <v>2021-03-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-11;2021-02-11.csv</v>
+        <v>2021-03-11;2021-03-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-11'; SET @perioddate=str_to_date('2021-02-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-11'; SET @perioddate=str_to_date('2021-03-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-11;2021-02-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-11;2021-03-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-12</v>
+        <v>2021-03-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-12;2021-02-12.csv</v>
+        <v>2021-03-12;2021-03-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-12'; SET @perioddate=str_to_date('2021-02-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-12'; SET @perioddate=str_to_date('2021-03-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-12;2021-02-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-12;2021-03-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-13</v>
+        <v>2021-03-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-13;2021-02-13.csv</v>
+        <v>2021-03-13;2021-03-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-13'; SET @perioddate=str_to_date('2021-02-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-13'; SET @perioddate=str_to_date('2021-03-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-13;2021-02-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-13;2021-03-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-14</v>
+        <v>2021-03-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-14;2021-02-14.csv</v>
+        <v>2021-03-14;2021-03-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-14'; SET @perioddate=str_to_date('2021-02-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-14'; SET @perioddate=str_to_date('2021-03-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-14;2021-02-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-14;2021-03-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-15</v>
+        <v>2021-03-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-15;2021-02-15.csv</v>
+        <v>2021-03-15;2021-03-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-15'; SET @perioddate=str_to_date('2021-02-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-15'; SET @perioddate=str_to_date('2021-03-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-15;2021-02-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-15;2021-03-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-16</v>
+        <v>2021-03-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-16;2021-02-16.csv</v>
+        <v>2021-03-16;2021-03-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-16'; SET @perioddate=str_to_date('2021-02-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-16'; SET @perioddate=str_to_date('2021-03-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-16;2021-02-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-16;2021-03-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-17</v>
+        <v>2021-03-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-17;2021-02-17.csv</v>
+        <v>2021-03-17;2021-03-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-17'; SET @perioddate=str_to_date('2021-02-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-17'; SET @perioddate=str_to_date('2021-03-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-17;2021-02-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-17;2021-03-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-18</v>
+        <v>2021-03-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-18;2021-02-18.csv</v>
+        <v>2021-03-18;2021-03-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-18'; SET @perioddate=str_to_date('2021-02-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-18'; SET @perioddate=str_to_date('2021-03-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-18;2021-02-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-18;2021-03-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-19</v>
+        <v>2021-03-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-19;2021-02-19.csv</v>
+        <v>2021-03-19;2021-03-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-19'; SET @perioddate=str_to_date('2021-02-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-19'; SET @perioddate=str_to_date('2021-03-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-19;2021-02-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-19;2021-03-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-20</v>
+        <v>2021-03-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-20;2021-02-20.csv</v>
+        <v>2021-03-20;2021-03-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-20'; SET @perioddate=str_to_date('2021-02-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-20'; SET @perioddate=str_to_date('2021-03-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-20;2021-02-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-20;2021-03-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-21</v>
+        <v>2021-03-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-21;2021-02-21.csv</v>
+        <v>2021-03-21;2021-03-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-21'; SET @perioddate=str_to_date('2021-02-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-21'; SET @perioddate=str_to_date('2021-03-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-21;2021-02-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-21;2021-03-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-22</v>
+        <v>2021-03-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-22;2021-02-22.csv</v>
+        <v>2021-03-22;2021-03-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-22'; SET @perioddate=str_to_date('2021-02-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-22'; SET @perioddate=str_to_date('2021-03-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-22;2021-02-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-22;2021-03-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-23</v>
+        <v>2021-03-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-23;2021-02-23.csv</v>
+        <v>2021-03-23;2021-03-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-23'; SET @perioddate=str_to_date('2021-02-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-23'; SET @perioddate=str_to_date('2021-03-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-23;2021-02-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-23;2021-03-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-24</v>
+        <v>2021-03-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-24;2021-02-24.csv</v>
+        <v>2021-03-24;2021-03-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-24'; SET @perioddate=str_to_date('2021-02-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-24'; SET @perioddate=str_to_date('2021-03-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-24;2021-02-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-24;2021-03-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-25</v>
+        <v>2021-03-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-25;2021-02-25.csv</v>
+        <v>2021-03-25;2021-03-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-25'; SET @perioddate=str_to_date('2021-02-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-25'; SET @perioddate=str_to_date('2021-03-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-25;2021-02-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-25;2021-03-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-26</v>
+        <v>2021-03-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-26;2021-02-26.csv</v>
+        <v>2021-03-26;2021-03-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-26'; SET @perioddate=str_to_date('2021-02-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-26'; SET @perioddate=str_to_date('2021-03-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-26;2021-02-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-26;2021-03-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-27</v>
+        <v>2021-03-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-27;2021-02-27.csv</v>
+        <v>2021-03-27;2021-03-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-27'; SET @perioddate=str_to_date('2021-02-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-27'; SET @perioddate=str_to_date('2021-03-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-27;2021-02-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-27;2021-03-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-28</v>
+        <v>2021-03-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-28;2021-02-28.csv</v>
+        <v>2021-03-28;2021-03-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-28'; SET @perioddate=str_to_date('2021-02-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-28'; SET @perioddate=str_to_date('2021-03-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-28;2021-02-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-28;2021-03-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-29</v>
+        <v>2021-03-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-29;2021-02-29.csv</v>
+        <v>2021-03-29;2021-03-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-29'; SET @perioddate=str_to_date('2021-02-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-29'; SET @perioddate=str_to_date('2021-03-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-29;2021-02-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-29;2021-03-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-30</v>
+        <v>2021-03-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-30;2021-02-30.csv</v>
+        <v>2021-03-30;2021-03-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-30'; SET @perioddate=str_to_date('2021-02-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-30'; SET @perioddate=str_to_date('2021-03-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-30;2021-02-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-30;2021-03-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-02-31</v>
+        <v>2021-03-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-02-31;2021-02-31.csv</v>
+        <v>2021-03-31;2021-03-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-02-31'; SET @perioddate=str_to_date('2021-02-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-03-31'; SET @perioddate=str_to_date('2021-03-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-02-31;2021-02-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-31;2021-03-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C6D6BA-6517-4ECE-90D4-1D964B77E53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289645B-F2AA-4BCB-8393-C229E204AC92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-03-01</v>
+        <v>2021-04-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-03-01;2021-03-01.csv</v>
+        <v>2021-04-01;2021-04-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-03-01'; SET @perioddate=str_to_date('2021-03-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-01'; SET @perioddate=str_to_date('2021-04-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-01;2021-03-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-01;2021-04-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-03-02</v>
+        <v>2021-04-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-03-02;2021-03-02.csv</v>
+        <v>2021-04-02;2021-04-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-03-02'; SET @perioddate=str_to_date('2021-03-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-02'; SET @perioddate=str_to_date('2021-04-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-02;2021-03-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-02;2021-04-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-03</v>
+        <v>2021-04-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-03;2021-03-03.csv</v>
+        <v>2021-04-03;2021-04-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-03'; SET @perioddate=str_to_date('2021-03-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-03'; SET @perioddate=str_to_date('2021-04-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-03;2021-03-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-03;2021-04-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-04</v>
+        <v>2021-04-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-04;2021-03-04.csv</v>
+        <v>2021-04-04;2021-04-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-04'; SET @perioddate=str_to_date('2021-03-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-04'; SET @perioddate=str_to_date('2021-04-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-04;2021-03-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-04;2021-04-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-05</v>
+        <v>2021-04-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-05;2021-03-05.csv</v>
+        <v>2021-04-05;2021-04-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-05'; SET @perioddate=str_to_date('2021-03-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-05'; SET @perioddate=str_to_date('2021-04-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-05;2021-03-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-05;2021-04-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-06</v>
+        <v>2021-04-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-06;2021-03-06.csv</v>
+        <v>2021-04-06;2021-04-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-06'; SET @perioddate=str_to_date('2021-03-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-06'; SET @perioddate=str_to_date('2021-04-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-06;2021-03-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-06;2021-04-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-07</v>
+        <v>2021-04-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-07;2021-03-07.csv</v>
+        <v>2021-04-07;2021-04-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-07'; SET @perioddate=str_to_date('2021-03-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-07'; SET @perioddate=str_to_date('2021-04-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-07;2021-03-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-07;2021-04-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-08</v>
+        <v>2021-04-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-08;2021-03-08.csv</v>
+        <v>2021-04-08;2021-04-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-08'; SET @perioddate=str_to_date('2021-03-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-08'; SET @perioddate=str_to_date('2021-04-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-08;2021-03-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-08;2021-04-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-09</v>
+        <v>2021-04-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-09;2021-03-09.csv</v>
+        <v>2021-04-09;2021-04-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-09'; SET @perioddate=str_to_date('2021-03-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-09'; SET @perioddate=str_to_date('2021-04-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-09;2021-03-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-09;2021-04-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-10</v>
+        <v>2021-04-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-10;2021-03-10.csv</v>
+        <v>2021-04-10;2021-04-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-10'; SET @perioddate=str_to_date('2021-03-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-10'; SET @perioddate=str_to_date('2021-04-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-10;2021-03-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-10;2021-04-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-11</v>
+        <v>2021-04-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-11;2021-03-11.csv</v>
+        <v>2021-04-11;2021-04-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-11'; SET @perioddate=str_to_date('2021-03-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-11'; SET @perioddate=str_to_date('2021-04-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-11;2021-03-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-11;2021-04-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-12</v>
+        <v>2021-04-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-12;2021-03-12.csv</v>
+        <v>2021-04-12;2021-04-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-12'; SET @perioddate=str_to_date('2021-03-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-12'; SET @perioddate=str_to_date('2021-04-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-12;2021-03-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-12;2021-04-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-13</v>
+        <v>2021-04-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-13;2021-03-13.csv</v>
+        <v>2021-04-13;2021-04-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-13'; SET @perioddate=str_to_date('2021-03-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-13'; SET @perioddate=str_to_date('2021-04-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-13;2021-03-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-13;2021-04-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-14</v>
+        <v>2021-04-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-14;2021-03-14.csv</v>
+        <v>2021-04-14;2021-04-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-14'; SET @perioddate=str_to_date('2021-03-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-14'; SET @perioddate=str_to_date('2021-04-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-14;2021-03-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-14;2021-04-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-15</v>
+        <v>2021-04-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-15;2021-03-15.csv</v>
+        <v>2021-04-15;2021-04-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-15'; SET @perioddate=str_to_date('2021-03-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-15'; SET @perioddate=str_to_date('2021-04-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-15;2021-03-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-15;2021-04-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-16</v>
+        <v>2021-04-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-16;2021-03-16.csv</v>
+        <v>2021-04-16;2021-04-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-16'; SET @perioddate=str_to_date('2021-03-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-16'; SET @perioddate=str_to_date('2021-04-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-16;2021-03-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-16;2021-04-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-17</v>
+        <v>2021-04-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-17;2021-03-17.csv</v>
+        <v>2021-04-17;2021-04-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-17'; SET @perioddate=str_to_date('2021-03-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-17'; SET @perioddate=str_to_date('2021-04-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-17;2021-03-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-17;2021-04-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-18</v>
+        <v>2021-04-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-18;2021-03-18.csv</v>
+        <v>2021-04-18;2021-04-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-18'; SET @perioddate=str_to_date('2021-03-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-18'; SET @perioddate=str_to_date('2021-04-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-18;2021-03-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-18;2021-04-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-19</v>
+        <v>2021-04-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-19;2021-03-19.csv</v>
+        <v>2021-04-19;2021-04-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-19'; SET @perioddate=str_to_date('2021-03-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-19'; SET @perioddate=str_to_date('2021-04-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-19;2021-03-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-19;2021-04-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-20</v>
+        <v>2021-04-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-20;2021-03-20.csv</v>
+        <v>2021-04-20;2021-04-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-20'; SET @perioddate=str_to_date('2021-03-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-20'; SET @perioddate=str_to_date('2021-04-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-20;2021-03-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-20;2021-04-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-21</v>
+        <v>2021-04-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-21;2021-03-21.csv</v>
+        <v>2021-04-21;2021-04-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-21'; SET @perioddate=str_to_date('2021-03-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-21'; SET @perioddate=str_to_date('2021-04-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-21;2021-03-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-21;2021-04-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-22</v>
+        <v>2021-04-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-22;2021-03-22.csv</v>
+        <v>2021-04-22;2021-04-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-22'; SET @perioddate=str_to_date('2021-03-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-22'; SET @perioddate=str_to_date('2021-04-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-22;2021-03-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-22;2021-04-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-23</v>
+        <v>2021-04-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-23;2021-03-23.csv</v>
+        <v>2021-04-23;2021-04-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-23'; SET @perioddate=str_to_date('2021-03-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-23'; SET @perioddate=str_to_date('2021-04-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-23;2021-03-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-23;2021-04-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-24</v>
+        <v>2021-04-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-24;2021-03-24.csv</v>
+        <v>2021-04-24;2021-04-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-24'; SET @perioddate=str_to_date('2021-03-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-24'; SET @perioddate=str_to_date('2021-04-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-24;2021-03-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-24;2021-04-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-25</v>
+        <v>2021-04-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-25;2021-03-25.csv</v>
+        <v>2021-04-25;2021-04-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-25'; SET @perioddate=str_to_date('2021-03-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-25'; SET @perioddate=str_to_date('2021-04-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-25;2021-03-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-25;2021-04-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-26</v>
+        <v>2021-04-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-26;2021-03-26.csv</v>
+        <v>2021-04-26;2021-04-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-26'; SET @perioddate=str_to_date('2021-03-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-26'; SET @perioddate=str_to_date('2021-04-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-26;2021-03-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-26;2021-04-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-27</v>
+        <v>2021-04-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-27;2021-03-27.csv</v>
+        <v>2021-04-27;2021-04-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-27'; SET @perioddate=str_to_date('2021-03-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-27'; SET @perioddate=str_to_date('2021-04-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-27;2021-03-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-27;2021-04-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-28</v>
+        <v>2021-04-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-28;2021-03-28.csv</v>
+        <v>2021-04-28;2021-04-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-28'; SET @perioddate=str_to_date('2021-03-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-28'; SET @perioddate=str_to_date('2021-04-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-28;2021-03-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-28;2021-04-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-29</v>
+        <v>2021-04-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-29;2021-03-29.csv</v>
+        <v>2021-04-29;2021-04-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-29'; SET @perioddate=str_to_date('2021-03-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-29'; SET @perioddate=str_to_date('2021-04-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-29;2021-03-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-29;2021-04-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-30</v>
+        <v>2021-04-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-30;2021-03-30.csv</v>
+        <v>2021-04-30;2021-04-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-30'; SET @perioddate=str_to_date('2021-03-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-30'; SET @perioddate=str_to_date('2021-04-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-30;2021-03-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-30;2021-04-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-03-31</v>
+        <v>2021-04-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-03-31;2021-03-31.csv</v>
+        <v>2021-04-31;2021-04-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-03-31'; SET @perioddate=str_to_date('2021-03-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-04-31'; SET @perioddate=str_to_date('2021-04-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-03-31;2021-03-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-31;2021-04-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289645B-F2AA-4BCB-8393-C229E204AC92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26DB0D7-303F-40C6-87C3-21FB3D2BF234}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-04-01</v>
+        <v>2021-05-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-04-01;2021-04-01.csv</v>
+        <v>2021-05-01;2021-05-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-04-01'; SET @perioddate=str_to_date('2021-04-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-01'; SET @perioddate=str_to_date('2021-05-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-01;2021-04-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-01;2021-05-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-04-02</v>
+        <v>2021-05-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-04-02;2021-04-02.csv</v>
+        <v>2021-05-02;2021-05-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-04-02'; SET @perioddate=str_to_date('2021-04-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-02'; SET @perioddate=str_to_date('2021-05-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-02;2021-04-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-02;2021-05-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-03</v>
+        <v>2021-05-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-03;2021-04-03.csv</v>
+        <v>2021-05-03;2021-05-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-03'; SET @perioddate=str_to_date('2021-04-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-03'; SET @perioddate=str_to_date('2021-05-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-03;2021-04-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-03;2021-05-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-04</v>
+        <v>2021-05-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-04;2021-04-04.csv</v>
+        <v>2021-05-04;2021-05-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-04'; SET @perioddate=str_to_date('2021-04-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-04'; SET @perioddate=str_to_date('2021-05-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-04;2021-04-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-04;2021-05-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-05</v>
+        <v>2021-05-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-05;2021-04-05.csv</v>
+        <v>2021-05-05;2021-05-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-05'; SET @perioddate=str_to_date('2021-04-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-05'; SET @perioddate=str_to_date('2021-05-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-05;2021-04-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-05;2021-05-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-06</v>
+        <v>2021-05-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-06;2021-04-06.csv</v>
+        <v>2021-05-06;2021-05-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-06'; SET @perioddate=str_to_date('2021-04-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-06'; SET @perioddate=str_to_date('2021-05-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-06;2021-04-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-06;2021-05-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-07</v>
+        <v>2021-05-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-07;2021-04-07.csv</v>
+        <v>2021-05-07;2021-05-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-07'; SET @perioddate=str_to_date('2021-04-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-07'; SET @perioddate=str_to_date('2021-05-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-07;2021-04-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-07;2021-05-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-08</v>
+        <v>2021-05-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-08;2021-04-08.csv</v>
+        <v>2021-05-08;2021-05-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-08'; SET @perioddate=str_to_date('2021-04-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-08'; SET @perioddate=str_to_date('2021-05-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-08;2021-04-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-08;2021-05-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-09</v>
+        <v>2021-05-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-09;2021-04-09.csv</v>
+        <v>2021-05-09;2021-05-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-09'; SET @perioddate=str_to_date('2021-04-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-09'; SET @perioddate=str_to_date('2021-05-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-09;2021-04-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-09;2021-05-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-10</v>
+        <v>2021-05-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-10;2021-04-10.csv</v>
+        <v>2021-05-10;2021-05-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-10'; SET @perioddate=str_to_date('2021-04-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-10'; SET @perioddate=str_to_date('2021-05-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-10;2021-04-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-10;2021-05-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-11</v>
+        <v>2021-05-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-11;2021-04-11.csv</v>
+        <v>2021-05-11;2021-05-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-11'; SET @perioddate=str_to_date('2021-04-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-11'; SET @perioddate=str_to_date('2021-05-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-11;2021-04-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-11;2021-05-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-12</v>
+        <v>2021-05-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-12;2021-04-12.csv</v>
+        <v>2021-05-12;2021-05-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-12'; SET @perioddate=str_to_date('2021-04-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-12'; SET @perioddate=str_to_date('2021-05-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-12;2021-04-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-12;2021-05-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-13</v>
+        <v>2021-05-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-13;2021-04-13.csv</v>
+        <v>2021-05-13;2021-05-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-13'; SET @perioddate=str_to_date('2021-04-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-13'; SET @perioddate=str_to_date('2021-05-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-13;2021-04-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-13;2021-05-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-14</v>
+        <v>2021-05-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-14;2021-04-14.csv</v>
+        <v>2021-05-14;2021-05-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-14'; SET @perioddate=str_to_date('2021-04-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-14'; SET @perioddate=str_to_date('2021-05-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-14;2021-04-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-14;2021-05-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-15</v>
+        <v>2021-05-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-15;2021-04-15.csv</v>
+        <v>2021-05-15;2021-05-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-15'; SET @perioddate=str_to_date('2021-04-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-15'; SET @perioddate=str_to_date('2021-05-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-15;2021-04-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-15;2021-05-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-16</v>
+        <v>2021-05-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-16;2021-04-16.csv</v>
+        <v>2021-05-16;2021-05-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-16'; SET @perioddate=str_to_date('2021-04-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-16'; SET @perioddate=str_to_date('2021-05-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-16;2021-04-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-16;2021-05-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-17</v>
+        <v>2021-05-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-17;2021-04-17.csv</v>
+        <v>2021-05-17;2021-05-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-17'; SET @perioddate=str_to_date('2021-04-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-17'; SET @perioddate=str_to_date('2021-05-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-17;2021-04-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-17;2021-05-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-18</v>
+        <v>2021-05-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-18;2021-04-18.csv</v>
+        <v>2021-05-18;2021-05-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-18'; SET @perioddate=str_to_date('2021-04-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-18'; SET @perioddate=str_to_date('2021-05-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-18;2021-04-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-18;2021-05-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-19</v>
+        <v>2021-05-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-19;2021-04-19.csv</v>
+        <v>2021-05-19;2021-05-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-19'; SET @perioddate=str_to_date('2021-04-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-19'; SET @perioddate=str_to_date('2021-05-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-19;2021-04-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-19;2021-05-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-20</v>
+        <v>2021-05-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-20;2021-04-20.csv</v>
+        <v>2021-05-20;2021-05-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-20'; SET @perioddate=str_to_date('2021-04-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-20'; SET @perioddate=str_to_date('2021-05-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-20;2021-04-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-20;2021-05-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-21</v>
+        <v>2021-05-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-21;2021-04-21.csv</v>
+        <v>2021-05-21;2021-05-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-21'; SET @perioddate=str_to_date('2021-04-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-21'; SET @perioddate=str_to_date('2021-05-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-21;2021-04-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-21;2021-05-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-22</v>
+        <v>2021-05-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-22;2021-04-22.csv</v>
+        <v>2021-05-22;2021-05-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-22'; SET @perioddate=str_to_date('2021-04-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-22'; SET @perioddate=str_to_date('2021-05-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-22;2021-04-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-22;2021-05-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-23</v>
+        <v>2021-05-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-23;2021-04-23.csv</v>
+        <v>2021-05-23;2021-05-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-23'; SET @perioddate=str_to_date('2021-04-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-23'; SET @perioddate=str_to_date('2021-05-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-23;2021-04-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-23;2021-05-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-24</v>
+        <v>2021-05-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-24;2021-04-24.csv</v>
+        <v>2021-05-24;2021-05-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-24'; SET @perioddate=str_to_date('2021-04-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-24'; SET @perioddate=str_to_date('2021-05-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-24;2021-04-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-24;2021-05-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-25</v>
+        <v>2021-05-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-25;2021-04-25.csv</v>
+        <v>2021-05-25;2021-05-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-25'; SET @perioddate=str_to_date('2021-04-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-25'; SET @perioddate=str_to_date('2021-05-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-25;2021-04-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-25;2021-05-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-26</v>
+        <v>2021-05-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-26;2021-04-26.csv</v>
+        <v>2021-05-26;2021-05-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-26'; SET @perioddate=str_to_date('2021-04-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-26'; SET @perioddate=str_to_date('2021-05-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-26;2021-04-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-26;2021-05-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-27</v>
+        <v>2021-05-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-27;2021-04-27.csv</v>
+        <v>2021-05-27;2021-05-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-27'; SET @perioddate=str_to_date('2021-04-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-27'; SET @perioddate=str_to_date('2021-05-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-27;2021-04-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-27;2021-05-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-28</v>
+        <v>2021-05-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-28;2021-04-28.csv</v>
+        <v>2021-05-28;2021-05-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-28'; SET @perioddate=str_to_date('2021-04-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-28'; SET @perioddate=str_to_date('2021-05-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-28;2021-04-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-28;2021-05-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-29</v>
+        <v>2021-05-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-29;2021-04-29.csv</v>
+        <v>2021-05-29;2021-05-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-29'; SET @perioddate=str_to_date('2021-04-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-29'; SET @perioddate=str_to_date('2021-05-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-29;2021-04-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-29;2021-05-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-30</v>
+        <v>2021-05-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-30;2021-04-30.csv</v>
+        <v>2021-05-30;2021-05-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-30'; SET @perioddate=str_to_date('2021-04-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-30'; SET @perioddate=str_to_date('2021-05-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-30;2021-04-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-30;2021-05-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-04-31</v>
+        <v>2021-05-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-04-31;2021-04-31.csv</v>
+        <v>2021-05-31;2021-05-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-04-31'; SET @perioddate=str_to_date('2021-04-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-05-31'; SET @perioddate=str_to_date('2021-05-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-04-31;2021-04-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-31;2021-05-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26DB0D7-303F-40C6-87C3-21FB3D2BF234}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892593B1-823E-4AE7-B6DA-0E8FA93D30DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-05-01</v>
+        <v>2021-06-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-05-01;2021-05-01.csv</v>
+        <v>2021-06-01;2021-06-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-05-01'; SET @perioddate=str_to_date('2021-05-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-01'; SET @perioddate=str_to_date('2021-06-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-01;2021-05-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-01;2021-06-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-05-02</v>
+        <v>2021-06-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-05-02;2021-05-02.csv</v>
+        <v>2021-06-02;2021-06-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-05-02'; SET @perioddate=str_to_date('2021-05-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-02'; SET @perioddate=str_to_date('2021-06-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-02;2021-05-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-02;2021-06-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-03</v>
+        <v>2021-06-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-03;2021-05-03.csv</v>
+        <v>2021-06-03;2021-06-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-03'; SET @perioddate=str_to_date('2021-05-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-03'; SET @perioddate=str_to_date('2021-06-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-03;2021-05-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-03;2021-06-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-04</v>
+        <v>2021-06-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-04;2021-05-04.csv</v>
+        <v>2021-06-04;2021-06-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-04'; SET @perioddate=str_to_date('2021-05-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-04'; SET @perioddate=str_to_date('2021-06-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-04;2021-05-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-04;2021-06-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-05</v>
+        <v>2021-06-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-05;2021-05-05.csv</v>
+        <v>2021-06-05;2021-06-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-05'; SET @perioddate=str_to_date('2021-05-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-05'; SET @perioddate=str_to_date('2021-06-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-05;2021-05-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-05;2021-06-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-06</v>
+        <v>2021-06-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-06;2021-05-06.csv</v>
+        <v>2021-06-06;2021-06-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-06'; SET @perioddate=str_to_date('2021-05-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-06'; SET @perioddate=str_to_date('2021-06-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-06;2021-05-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-06;2021-06-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-07</v>
+        <v>2021-06-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-07;2021-05-07.csv</v>
+        <v>2021-06-07;2021-06-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-07'; SET @perioddate=str_to_date('2021-05-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-07'; SET @perioddate=str_to_date('2021-06-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-07;2021-05-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-07;2021-06-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-08</v>
+        <v>2021-06-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-08;2021-05-08.csv</v>
+        <v>2021-06-08;2021-06-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-08'; SET @perioddate=str_to_date('2021-05-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-08'; SET @perioddate=str_to_date('2021-06-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-08;2021-05-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-08;2021-06-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-09</v>
+        <v>2021-06-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-09;2021-05-09.csv</v>
+        <v>2021-06-09;2021-06-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-09'; SET @perioddate=str_to_date('2021-05-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-09'; SET @perioddate=str_to_date('2021-06-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-09;2021-05-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-09;2021-06-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-10</v>
+        <v>2021-06-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-10;2021-05-10.csv</v>
+        <v>2021-06-10;2021-06-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-10'; SET @perioddate=str_to_date('2021-05-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-10'; SET @perioddate=str_to_date('2021-06-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-10;2021-05-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-10;2021-06-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-11</v>
+        <v>2021-06-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-11;2021-05-11.csv</v>
+        <v>2021-06-11;2021-06-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-11'; SET @perioddate=str_to_date('2021-05-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-11'; SET @perioddate=str_to_date('2021-06-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-11;2021-05-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-11;2021-06-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-12</v>
+        <v>2021-06-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-12;2021-05-12.csv</v>
+        <v>2021-06-12;2021-06-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-12'; SET @perioddate=str_to_date('2021-05-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-12'; SET @perioddate=str_to_date('2021-06-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-12;2021-05-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-12;2021-06-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-13</v>
+        <v>2021-06-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-13;2021-05-13.csv</v>
+        <v>2021-06-13;2021-06-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-13'; SET @perioddate=str_to_date('2021-05-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-13'; SET @perioddate=str_to_date('2021-06-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-13;2021-05-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-13;2021-06-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-14</v>
+        <v>2021-06-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-14;2021-05-14.csv</v>
+        <v>2021-06-14;2021-06-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-14'; SET @perioddate=str_to_date('2021-05-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-14'; SET @perioddate=str_to_date('2021-06-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-14;2021-05-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-14;2021-06-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-15</v>
+        <v>2021-06-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-15;2021-05-15.csv</v>
+        <v>2021-06-15;2021-06-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-15'; SET @perioddate=str_to_date('2021-05-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-15'; SET @perioddate=str_to_date('2021-06-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-15;2021-05-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-15;2021-06-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-16</v>
+        <v>2021-06-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-16;2021-05-16.csv</v>
+        <v>2021-06-16;2021-06-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-16'; SET @perioddate=str_to_date('2021-05-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-16'; SET @perioddate=str_to_date('2021-06-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-16;2021-05-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-16;2021-06-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-17</v>
+        <v>2021-06-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-17;2021-05-17.csv</v>
+        <v>2021-06-17;2021-06-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-17'; SET @perioddate=str_to_date('2021-05-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-17'; SET @perioddate=str_to_date('2021-06-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-17;2021-05-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-17;2021-06-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-18</v>
+        <v>2021-06-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-18;2021-05-18.csv</v>
+        <v>2021-06-18;2021-06-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-18'; SET @perioddate=str_to_date('2021-05-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-18'; SET @perioddate=str_to_date('2021-06-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-18;2021-05-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-18;2021-06-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-19</v>
+        <v>2021-06-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-19;2021-05-19.csv</v>
+        <v>2021-06-19;2021-06-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-19'; SET @perioddate=str_to_date('2021-05-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-19'; SET @perioddate=str_to_date('2021-06-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-19;2021-05-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-19;2021-06-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-20</v>
+        <v>2021-06-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-20;2021-05-20.csv</v>
+        <v>2021-06-20;2021-06-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-20'; SET @perioddate=str_to_date('2021-05-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-20'; SET @perioddate=str_to_date('2021-06-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-20;2021-05-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-20;2021-06-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-21</v>
+        <v>2021-06-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-21;2021-05-21.csv</v>
+        <v>2021-06-21;2021-06-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-21'; SET @perioddate=str_to_date('2021-05-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-21'; SET @perioddate=str_to_date('2021-06-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-21;2021-05-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-21;2021-06-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-22</v>
+        <v>2021-06-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-22;2021-05-22.csv</v>
+        <v>2021-06-22;2021-06-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-22'; SET @perioddate=str_to_date('2021-05-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-22'; SET @perioddate=str_to_date('2021-06-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-22;2021-05-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-22;2021-06-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-23</v>
+        <v>2021-06-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-23;2021-05-23.csv</v>
+        <v>2021-06-23;2021-06-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-23'; SET @perioddate=str_to_date('2021-05-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-23'; SET @perioddate=str_to_date('2021-06-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-23;2021-05-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-23;2021-06-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-24</v>
+        <v>2021-06-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-24;2021-05-24.csv</v>
+        <v>2021-06-24;2021-06-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-24'; SET @perioddate=str_to_date('2021-05-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-24'; SET @perioddate=str_to_date('2021-06-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-24;2021-05-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-24;2021-06-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-25</v>
+        <v>2021-06-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-25;2021-05-25.csv</v>
+        <v>2021-06-25;2021-06-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-25'; SET @perioddate=str_to_date('2021-05-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-25'; SET @perioddate=str_to_date('2021-06-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-25;2021-05-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-25;2021-06-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-26</v>
+        <v>2021-06-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-26;2021-05-26.csv</v>
+        <v>2021-06-26;2021-06-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-26'; SET @perioddate=str_to_date('2021-05-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-26'; SET @perioddate=str_to_date('2021-06-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-26;2021-05-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-26;2021-06-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-27</v>
+        <v>2021-06-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-27;2021-05-27.csv</v>
+        <v>2021-06-27;2021-06-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-27'; SET @perioddate=str_to_date('2021-05-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-27'; SET @perioddate=str_to_date('2021-06-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-27;2021-05-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-27;2021-06-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-28</v>
+        <v>2021-06-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-28;2021-05-28.csv</v>
+        <v>2021-06-28;2021-06-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-28'; SET @perioddate=str_to_date('2021-05-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-28'; SET @perioddate=str_to_date('2021-06-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-28;2021-05-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-28;2021-06-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-29</v>
+        <v>2021-06-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-29;2021-05-29.csv</v>
+        <v>2021-06-29;2021-06-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-29'; SET @perioddate=str_to_date('2021-05-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-29'; SET @perioddate=str_to_date('2021-06-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-29;2021-05-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-29;2021-06-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-30</v>
+        <v>2021-06-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-30;2021-05-30.csv</v>
+        <v>2021-06-30;2021-06-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-30'; SET @perioddate=str_to_date('2021-05-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-30'; SET @perioddate=str_to_date('2021-06-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-30;2021-05-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-30;2021-06-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-05-31</v>
+        <v>2021-06-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-05-31;2021-05-31.csv</v>
+        <v>2021-06-31;2021-06-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-05-31'; SET @perioddate=str_to_date('2021-05-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-06-31'; SET @perioddate=str_to_date('2021-06-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-05-31;2021-05-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-31;2021-06-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892593B1-823E-4AE7-B6DA-0E8FA93D30DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A2348-10A2-47D5-8BBC-1AC6AA428733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-06-01</v>
+        <v>2021-08-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-06-01;2021-06-01.csv</v>
+        <v>2021-08-01;2021-08-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-06-01'; SET @perioddate=str_to_date('2021-06-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-01'; SET @perioddate=str_to_date('2021-08-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-01;2021-06-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-01;2021-08-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-06-02</v>
+        <v>2021-08-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-06-02;2021-06-02.csv</v>
+        <v>2021-08-02;2021-08-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-06-02'; SET @perioddate=str_to_date('2021-06-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-02'; SET @perioddate=str_to_date('2021-08-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-02;2021-06-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-02;2021-08-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-03</v>
+        <v>2021-08-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-03;2021-06-03.csv</v>
+        <v>2021-08-03;2021-08-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-03'; SET @perioddate=str_to_date('2021-06-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-03'; SET @perioddate=str_to_date('2021-08-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-03;2021-06-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-03;2021-08-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-04</v>
+        <v>2021-08-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-04;2021-06-04.csv</v>
+        <v>2021-08-04;2021-08-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-04'; SET @perioddate=str_to_date('2021-06-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-04'; SET @perioddate=str_to_date('2021-08-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-04;2021-06-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-04;2021-08-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-05</v>
+        <v>2021-08-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-05;2021-06-05.csv</v>
+        <v>2021-08-05;2021-08-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-05'; SET @perioddate=str_to_date('2021-06-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-05'; SET @perioddate=str_to_date('2021-08-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-05;2021-06-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-05;2021-08-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-06</v>
+        <v>2021-08-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-06;2021-06-06.csv</v>
+        <v>2021-08-06;2021-08-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-06'; SET @perioddate=str_to_date('2021-06-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-06'; SET @perioddate=str_to_date('2021-08-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-06;2021-06-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-06;2021-08-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-07</v>
+        <v>2021-08-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-07;2021-06-07.csv</v>
+        <v>2021-08-07;2021-08-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-07'; SET @perioddate=str_to_date('2021-06-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-07'; SET @perioddate=str_to_date('2021-08-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-07;2021-06-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-07;2021-08-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-08</v>
+        <v>2021-08-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-08;2021-06-08.csv</v>
+        <v>2021-08-08;2021-08-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-08'; SET @perioddate=str_to_date('2021-06-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-08'; SET @perioddate=str_to_date('2021-08-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-08;2021-06-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-08;2021-08-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-09</v>
+        <v>2021-08-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-09;2021-06-09.csv</v>
+        <v>2021-08-09;2021-08-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-09'; SET @perioddate=str_to_date('2021-06-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-09'; SET @perioddate=str_to_date('2021-08-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-09;2021-06-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-09;2021-08-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-10</v>
+        <v>2021-08-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-10;2021-06-10.csv</v>
+        <v>2021-08-10;2021-08-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-10'; SET @perioddate=str_to_date('2021-06-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-10'; SET @perioddate=str_to_date('2021-08-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-10;2021-06-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-10;2021-08-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-11</v>
+        <v>2021-08-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-11;2021-06-11.csv</v>
+        <v>2021-08-11;2021-08-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-11'; SET @perioddate=str_to_date('2021-06-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-11'; SET @perioddate=str_to_date('2021-08-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-11;2021-06-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-11;2021-08-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-12</v>
+        <v>2021-08-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-12;2021-06-12.csv</v>
+        <v>2021-08-12;2021-08-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-12'; SET @perioddate=str_to_date('2021-06-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-12'; SET @perioddate=str_to_date('2021-08-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-12;2021-06-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-12;2021-08-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-13</v>
+        <v>2021-08-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-13;2021-06-13.csv</v>
+        <v>2021-08-13;2021-08-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-13'; SET @perioddate=str_to_date('2021-06-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-13'; SET @perioddate=str_to_date('2021-08-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-13;2021-06-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-13;2021-08-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-14</v>
+        <v>2021-08-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-14;2021-06-14.csv</v>
+        <v>2021-08-14;2021-08-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-14'; SET @perioddate=str_to_date('2021-06-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-14'; SET @perioddate=str_to_date('2021-08-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-14;2021-06-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-14;2021-08-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-15</v>
+        <v>2021-08-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-15;2021-06-15.csv</v>
+        <v>2021-08-15;2021-08-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-15'; SET @perioddate=str_to_date('2021-06-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-15'; SET @perioddate=str_to_date('2021-08-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-15;2021-06-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-15;2021-08-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-16</v>
+        <v>2021-08-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-16;2021-06-16.csv</v>
+        <v>2021-08-16;2021-08-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-16'; SET @perioddate=str_to_date('2021-06-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-16'; SET @perioddate=str_to_date('2021-08-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-16;2021-06-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-16;2021-08-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-17</v>
+        <v>2021-08-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-17;2021-06-17.csv</v>
+        <v>2021-08-17;2021-08-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-17'; SET @perioddate=str_to_date('2021-06-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-17'; SET @perioddate=str_to_date('2021-08-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-17;2021-06-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-17;2021-08-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-18</v>
+        <v>2021-08-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-18;2021-06-18.csv</v>
+        <v>2021-08-18;2021-08-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-18'; SET @perioddate=str_to_date('2021-06-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-18'; SET @perioddate=str_to_date('2021-08-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-18;2021-06-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-18;2021-08-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-19</v>
+        <v>2021-08-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-19;2021-06-19.csv</v>
+        <v>2021-08-19;2021-08-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-19'; SET @perioddate=str_to_date('2021-06-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-19'; SET @perioddate=str_to_date('2021-08-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-19;2021-06-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-19;2021-08-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-20</v>
+        <v>2021-08-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-20;2021-06-20.csv</v>
+        <v>2021-08-20;2021-08-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-20'; SET @perioddate=str_to_date('2021-06-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-20'; SET @perioddate=str_to_date('2021-08-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-20;2021-06-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-20;2021-08-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-21</v>
+        <v>2021-08-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-21;2021-06-21.csv</v>
+        <v>2021-08-21;2021-08-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-21'; SET @perioddate=str_to_date('2021-06-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-21'; SET @perioddate=str_to_date('2021-08-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-21;2021-06-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-21;2021-08-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-22</v>
+        <v>2021-08-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-22;2021-06-22.csv</v>
+        <v>2021-08-22;2021-08-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-22'; SET @perioddate=str_to_date('2021-06-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-22'; SET @perioddate=str_to_date('2021-08-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-22;2021-06-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-22;2021-08-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-23</v>
+        <v>2021-08-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-23;2021-06-23.csv</v>
+        <v>2021-08-23;2021-08-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-23'; SET @perioddate=str_to_date('2021-06-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-23'; SET @perioddate=str_to_date('2021-08-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-23;2021-06-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-23;2021-08-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-24</v>
+        <v>2021-08-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-24;2021-06-24.csv</v>
+        <v>2021-08-24;2021-08-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-24'; SET @perioddate=str_to_date('2021-06-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-24'; SET @perioddate=str_to_date('2021-08-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-24;2021-06-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-24;2021-08-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-25</v>
+        <v>2021-08-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-25;2021-06-25.csv</v>
+        <v>2021-08-25;2021-08-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-25'; SET @perioddate=str_to_date('2021-06-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-25'; SET @perioddate=str_to_date('2021-08-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-25;2021-06-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-25;2021-08-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-26</v>
+        <v>2021-08-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-26;2021-06-26.csv</v>
+        <v>2021-08-26;2021-08-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-26'; SET @perioddate=str_to_date('2021-06-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-26'; SET @perioddate=str_to_date('2021-08-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-26;2021-06-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-26;2021-08-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-27</v>
+        <v>2021-08-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-27;2021-06-27.csv</v>
+        <v>2021-08-27;2021-08-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-27'; SET @perioddate=str_to_date('2021-06-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-27'; SET @perioddate=str_to_date('2021-08-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-27;2021-06-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-27;2021-08-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-28</v>
+        <v>2021-08-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-28;2021-06-28.csv</v>
+        <v>2021-08-28;2021-08-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-28'; SET @perioddate=str_to_date('2021-06-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-28'; SET @perioddate=str_to_date('2021-08-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-28;2021-06-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-28;2021-08-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-29</v>
+        <v>2021-08-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-29;2021-06-29.csv</v>
+        <v>2021-08-29;2021-08-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-29'; SET @perioddate=str_to_date('2021-06-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-29'; SET @perioddate=str_to_date('2021-08-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-29;2021-06-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-29;2021-08-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-30</v>
+        <v>2021-08-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-30;2021-06-30.csv</v>
+        <v>2021-08-30;2021-08-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-30'; SET @perioddate=str_to_date('2021-06-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-30'; SET @perioddate=str_to_date('2021-08-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-30;2021-06-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-30;2021-08-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-06-31</v>
+        <v>2021-08-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-31;2021-06-31.csv</v>
+        <v>2021-08-31;2021-08-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-06-31'; SET @perioddate=str_to_date('2021-06-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-08-31'; SET @perioddate=str_to_date('2021-08-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-06-31;2021-06-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-31;2021-08-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A2348-10A2-47D5-8BBC-1AC6AA428733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EEED6F-B8D8-47B7-8767-1055C4ED920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-08-01</v>
+        <v>2021-09-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-08-01;2021-08-01.csv</v>
+        <v>2021-09-01;2021-09-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-08-01'; SET @perioddate=str_to_date('2021-08-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-01'; SET @perioddate=str_to_date('2021-09-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-01;2021-08-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-01;2021-09-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-08-02</v>
+        <v>2021-09-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-08-02;2021-08-02.csv</v>
+        <v>2021-09-02;2021-09-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-08-02'; SET @perioddate=str_to_date('2021-08-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-02'; SET @perioddate=str_to_date('2021-09-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-02;2021-08-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-02;2021-09-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-03</v>
+        <v>2021-09-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-03;2021-08-03.csv</v>
+        <v>2021-09-03;2021-09-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-03'; SET @perioddate=str_to_date('2021-08-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-03'; SET @perioddate=str_to_date('2021-09-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-03;2021-08-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-03;2021-09-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-04</v>
+        <v>2021-09-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-04;2021-08-04.csv</v>
+        <v>2021-09-04;2021-09-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-04'; SET @perioddate=str_to_date('2021-08-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-04'; SET @perioddate=str_to_date('2021-09-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-04;2021-08-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-04;2021-09-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-05</v>
+        <v>2021-09-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-05;2021-08-05.csv</v>
+        <v>2021-09-05;2021-09-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-05'; SET @perioddate=str_to_date('2021-08-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-05'; SET @perioddate=str_to_date('2021-09-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-05;2021-08-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-05;2021-09-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-06</v>
+        <v>2021-09-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-06;2021-08-06.csv</v>
+        <v>2021-09-06;2021-09-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-06'; SET @perioddate=str_to_date('2021-08-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-06'; SET @perioddate=str_to_date('2021-09-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-06;2021-08-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-06;2021-09-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-07</v>
+        <v>2021-09-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-07;2021-08-07.csv</v>
+        <v>2021-09-07;2021-09-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-07'; SET @perioddate=str_to_date('2021-08-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-07'; SET @perioddate=str_to_date('2021-09-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-07;2021-08-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-07;2021-09-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-08</v>
+        <v>2021-09-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-08;2021-08-08.csv</v>
+        <v>2021-09-08;2021-09-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-08'; SET @perioddate=str_to_date('2021-08-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-08'; SET @perioddate=str_to_date('2021-09-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-08;2021-08-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-08;2021-09-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-09</v>
+        <v>2021-09-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-09;2021-08-09.csv</v>
+        <v>2021-09-09;2021-09-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-09'; SET @perioddate=str_to_date('2021-08-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-09'; SET @perioddate=str_to_date('2021-09-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-09;2021-08-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-09;2021-09-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-10</v>
+        <v>2021-09-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-10;2021-08-10.csv</v>
+        <v>2021-09-10;2021-09-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-10'; SET @perioddate=str_to_date('2021-08-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-10'; SET @perioddate=str_to_date('2021-09-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-10;2021-08-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-10;2021-09-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-11</v>
+        <v>2021-09-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-11;2021-08-11.csv</v>
+        <v>2021-09-11;2021-09-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-11'; SET @perioddate=str_to_date('2021-08-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-11'; SET @perioddate=str_to_date('2021-09-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-11;2021-08-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-11;2021-09-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-12</v>
+        <v>2021-09-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-12;2021-08-12.csv</v>
+        <v>2021-09-12;2021-09-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-12'; SET @perioddate=str_to_date('2021-08-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-12'; SET @perioddate=str_to_date('2021-09-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-12;2021-08-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-12;2021-09-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-13</v>
+        <v>2021-09-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-13;2021-08-13.csv</v>
+        <v>2021-09-13;2021-09-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-13'; SET @perioddate=str_to_date('2021-08-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-13'; SET @perioddate=str_to_date('2021-09-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-13;2021-08-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-13;2021-09-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-14</v>
+        <v>2021-09-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-14;2021-08-14.csv</v>
+        <v>2021-09-14;2021-09-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-14'; SET @perioddate=str_to_date('2021-08-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-14'; SET @perioddate=str_to_date('2021-09-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-14;2021-08-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-14;2021-09-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-15</v>
+        <v>2021-09-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-15;2021-08-15.csv</v>
+        <v>2021-09-15;2021-09-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-15'; SET @perioddate=str_to_date('2021-08-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-15'; SET @perioddate=str_to_date('2021-09-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-15;2021-08-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-15;2021-09-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-16</v>
+        <v>2021-09-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-16;2021-08-16.csv</v>
+        <v>2021-09-16;2021-09-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-16'; SET @perioddate=str_to_date('2021-08-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-16'; SET @perioddate=str_to_date('2021-09-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-16;2021-08-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-16;2021-09-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-17</v>
+        <v>2021-09-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-17;2021-08-17.csv</v>
+        <v>2021-09-17;2021-09-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-17'; SET @perioddate=str_to_date('2021-08-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-17'; SET @perioddate=str_to_date('2021-09-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-17;2021-08-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-17;2021-09-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-18</v>
+        <v>2021-09-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-18;2021-08-18.csv</v>
+        <v>2021-09-18;2021-09-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-18'; SET @perioddate=str_to_date('2021-08-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-18'; SET @perioddate=str_to_date('2021-09-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-18;2021-08-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-18;2021-09-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-19</v>
+        <v>2021-09-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-19;2021-08-19.csv</v>
+        <v>2021-09-19;2021-09-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-19'; SET @perioddate=str_to_date('2021-08-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-19'; SET @perioddate=str_to_date('2021-09-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-19;2021-08-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-19;2021-09-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-20</v>
+        <v>2021-09-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-20;2021-08-20.csv</v>
+        <v>2021-09-20;2021-09-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-20'; SET @perioddate=str_to_date('2021-08-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-20'; SET @perioddate=str_to_date('2021-09-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-20;2021-08-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-20;2021-09-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-21</v>
+        <v>2021-09-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-21;2021-08-21.csv</v>
+        <v>2021-09-21;2021-09-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-21'; SET @perioddate=str_to_date('2021-08-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-21'; SET @perioddate=str_to_date('2021-09-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-21;2021-08-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-21;2021-09-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-22</v>
+        <v>2021-09-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-22;2021-08-22.csv</v>
+        <v>2021-09-22;2021-09-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-22'; SET @perioddate=str_to_date('2021-08-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-22'; SET @perioddate=str_to_date('2021-09-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-22;2021-08-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-22;2021-09-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-23</v>
+        <v>2021-09-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-23;2021-08-23.csv</v>
+        <v>2021-09-23;2021-09-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-23'; SET @perioddate=str_to_date('2021-08-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-23'; SET @perioddate=str_to_date('2021-09-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-23;2021-08-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-23;2021-09-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-24</v>
+        <v>2021-09-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-24;2021-08-24.csv</v>
+        <v>2021-09-24;2021-09-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-24'; SET @perioddate=str_to_date('2021-08-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-24'; SET @perioddate=str_to_date('2021-09-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-24;2021-08-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-24;2021-09-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-25</v>
+        <v>2021-09-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-25;2021-08-25.csv</v>
+        <v>2021-09-25;2021-09-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-25'; SET @perioddate=str_to_date('2021-08-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-25'; SET @perioddate=str_to_date('2021-09-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-25;2021-08-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-25;2021-09-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-26</v>
+        <v>2021-09-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-26;2021-08-26.csv</v>
+        <v>2021-09-26;2021-09-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-26'; SET @perioddate=str_to_date('2021-08-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-26'; SET @perioddate=str_to_date('2021-09-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-26;2021-08-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-26;2021-09-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-27</v>
+        <v>2021-09-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-27;2021-08-27.csv</v>
+        <v>2021-09-27;2021-09-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-27'; SET @perioddate=str_to_date('2021-08-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-27'; SET @perioddate=str_to_date('2021-09-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-27;2021-08-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-27;2021-09-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-28</v>
+        <v>2021-09-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-28;2021-08-28.csv</v>
+        <v>2021-09-28;2021-09-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-28'; SET @perioddate=str_to_date('2021-08-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-28'; SET @perioddate=str_to_date('2021-09-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-28;2021-08-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-28;2021-09-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-29</v>
+        <v>2021-09-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-29;2021-08-29.csv</v>
+        <v>2021-09-29;2021-09-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-29'; SET @perioddate=str_to_date('2021-08-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-29'; SET @perioddate=str_to_date('2021-09-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-29;2021-08-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-29;2021-09-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-30</v>
+        <v>2021-09-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-30;2021-08-30.csv</v>
+        <v>2021-09-30;2021-09-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-30'; SET @perioddate=str_to_date('2021-08-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-30'; SET @perioddate=str_to_date('2021-09-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-30;2021-08-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-30;2021-09-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-08-31</v>
+        <v>2021-09-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-08-31;2021-08-31.csv</v>
+        <v>2021-09-31;2021-09-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-08-31'; SET @perioddate=str_to_date('2021-08-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-09-31'; SET @perioddate=str_to_date('2021-09-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-08-31;2021-08-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-31;2021-09-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EEED6F-B8D8-47B7-8767-1055C4ED920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC524B-D0DF-45FA-AB36-B43F17563527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-09-01</v>
+        <v>2021-11-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-09-01;2021-09-01.csv</v>
+        <v>2021-11-01;2021-11-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-09-01'; SET @perioddate=str_to_date('2021-09-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-01'; SET @perioddate=str_to_date('2021-11-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-01;2021-09-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-01;2021-11-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-09-02</v>
+        <v>2021-11-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-09-02;2021-09-02.csv</v>
+        <v>2021-11-02;2021-11-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-09-02'; SET @perioddate=str_to_date('2021-09-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-02'; SET @perioddate=str_to_date('2021-11-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-02;2021-09-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-02;2021-11-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-03</v>
+        <v>2021-11-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-03;2021-09-03.csv</v>
+        <v>2021-11-03;2021-11-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-03'; SET @perioddate=str_to_date('2021-09-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-03'; SET @perioddate=str_to_date('2021-11-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-03;2021-09-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-03;2021-11-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-04</v>
+        <v>2021-11-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-04;2021-09-04.csv</v>
+        <v>2021-11-04;2021-11-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-04'; SET @perioddate=str_to_date('2021-09-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-04'; SET @perioddate=str_to_date('2021-11-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-04;2021-09-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-04;2021-11-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-05</v>
+        <v>2021-11-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-05;2021-09-05.csv</v>
+        <v>2021-11-05;2021-11-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-05'; SET @perioddate=str_to_date('2021-09-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-05'; SET @perioddate=str_to_date('2021-11-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-05;2021-09-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-05;2021-11-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-06</v>
+        <v>2021-11-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-06;2021-09-06.csv</v>
+        <v>2021-11-06;2021-11-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-06'; SET @perioddate=str_to_date('2021-09-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-06'; SET @perioddate=str_to_date('2021-11-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-06;2021-09-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-06;2021-11-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-07</v>
+        <v>2021-11-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-07;2021-09-07.csv</v>
+        <v>2021-11-07;2021-11-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-07'; SET @perioddate=str_to_date('2021-09-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-07'; SET @perioddate=str_to_date('2021-11-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-07;2021-09-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-07;2021-11-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-08</v>
+        <v>2021-11-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-08;2021-09-08.csv</v>
+        <v>2021-11-08;2021-11-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-08'; SET @perioddate=str_to_date('2021-09-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-08'; SET @perioddate=str_to_date('2021-11-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-08;2021-09-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-08;2021-11-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-09</v>
+        <v>2021-11-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-09;2021-09-09.csv</v>
+        <v>2021-11-09;2021-11-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-09'; SET @perioddate=str_to_date('2021-09-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-09'; SET @perioddate=str_to_date('2021-11-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-09;2021-09-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-09;2021-11-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-10</v>
+        <v>2021-11-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-10;2021-09-10.csv</v>
+        <v>2021-11-10;2021-11-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-10'; SET @perioddate=str_to_date('2021-09-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-10'; SET @perioddate=str_to_date('2021-11-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-10;2021-09-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-10;2021-11-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-11</v>
+        <v>2021-11-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-11;2021-09-11.csv</v>
+        <v>2021-11-11;2021-11-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-11'; SET @perioddate=str_to_date('2021-09-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-11'; SET @perioddate=str_to_date('2021-11-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-11;2021-09-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-11;2021-11-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-12</v>
+        <v>2021-11-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-12;2021-09-12.csv</v>
+        <v>2021-11-12;2021-11-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-12'; SET @perioddate=str_to_date('2021-09-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-12'; SET @perioddate=str_to_date('2021-11-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-12;2021-09-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-12;2021-11-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-13</v>
+        <v>2021-11-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-13;2021-09-13.csv</v>
+        <v>2021-11-13;2021-11-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-13'; SET @perioddate=str_to_date('2021-09-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-13'; SET @perioddate=str_to_date('2021-11-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-13;2021-09-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-13;2021-11-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-14</v>
+        <v>2021-11-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-14;2021-09-14.csv</v>
+        <v>2021-11-14;2021-11-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-14'; SET @perioddate=str_to_date('2021-09-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-14'; SET @perioddate=str_to_date('2021-11-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-14;2021-09-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-14;2021-11-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-15</v>
+        <v>2021-11-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-15;2021-09-15.csv</v>
+        <v>2021-11-15;2021-11-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-15'; SET @perioddate=str_to_date('2021-09-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-15'; SET @perioddate=str_to_date('2021-11-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-15;2021-09-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-15;2021-11-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-16</v>
+        <v>2021-11-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-16;2021-09-16.csv</v>
+        <v>2021-11-16;2021-11-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-16'; SET @perioddate=str_to_date('2021-09-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-16'; SET @perioddate=str_to_date('2021-11-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-16;2021-09-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-16;2021-11-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-17</v>
+        <v>2021-11-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-17;2021-09-17.csv</v>
+        <v>2021-11-17;2021-11-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-17'; SET @perioddate=str_to_date('2021-09-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-17'; SET @perioddate=str_to_date('2021-11-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-17;2021-09-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-17;2021-11-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-18</v>
+        <v>2021-11-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-18;2021-09-18.csv</v>
+        <v>2021-11-18;2021-11-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-18'; SET @perioddate=str_to_date('2021-09-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-18'; SET @perioddate=str_to_date('2021-11-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-18;2021-09-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-18;2021-11-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-19</v>
+        <v>2021-11-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-19;2021-09-19.csv</v>
+        <v>2021-11-19;2021-11-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-19'; SET @perioddate=str_to_date('2021-09-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-19'; SET @perioddate=str_to_date('2021-11-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-19;2021-09-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-19;2021-11-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-20</v>
+        <v>2021-11-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-20;2021-09-20.csv</v>
+        <v>2021-11-20;2021-11-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-20'; SET @perioddate=str_to_date('2021-09-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-20'; SET @perioddate=str_to_date('2021-11-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-20;2021-09-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-20;2021-11-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-21</v>
+        <v>2021-11-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-21;2021-09-21.csv</v>
+        <v>2021-11-21;2021-11-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-21'; SET @perioddate=str_to_date('2021-09-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-21'; SET @perioddate=str_to_date('2021-11-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-21;2021-09-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-21;2021-11-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-22</v>
+        <v>2021-11-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-22;2021-09-22.csv</v>
+        <v>2021-11-22;2021-11-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-22'; SET @perioddate=str_to_date('2021-09-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-22'; SET @perioddate=str_to_date('2021-11-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-22;2021-09-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-22;2021-11-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-23</v>
+        <v>2021-11-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-23;2021-09-23.csv</v>
+        <v>2021-11-23;2021-11-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-23'; SET @perioddate=str_to_date('2021-09-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-23'; SET @perioddate=str_to_date('2021-11-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-23;2021-09-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-23;2021-11-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-24</v>
+        <v>2021-11-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-24;2021-09-24.csv</v>
+        <v>2021-11-24;2021-11-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-24'; SET @perioddate=str_to_date('2021-09-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-24'; SET @perioddate=str_to_date('2021-11-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-24;2021-09-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-24;2021-11-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-25</v>
+        <v>2021-11-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-25;2021-09-25.csv</v>
+        <v>2021-11-25;2021-11-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-25'; SET @perioddate=str_to_date('2021-09-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-25'; SET @perioddate=str_to_date('2021-11-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-25;2021-09-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-25;2021-11-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-26</v>
+        <v>2021-11-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-26;2021-09-26.csv</v>
+        <v>2021-11-26;2021-11-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-26'; SET @perioddate=str_to_date('2021-09-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-26'; SET @perioddate=str_to_date('2021-11-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-26;2021-09-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-26;2021-11-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-27</v>
+        <v>2021-11-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-27;2021-09-27.csv</v>
+        <v>2021-11-27;2021-11-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-27'; SET @perioddate=str_to_date('2021-09-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-27'; SET @perioddate=str_to_date('2021-11-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-27;2021-09-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-27;2021-11-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-28</v>
+        <v>2021-11-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-28;2021-09-28.csv</v>
+        <v>2021-11-28;2021-11-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-28'; SET @perioddate=str_to_date('2021-09-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-28'; SET @perioddate=str_to_date('2021-11-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-28;2021-09-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-28;2021-11-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-29</v>
+        <v>2021-11-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-29;2021-09-29.csv</v>
+        <v>2021-11-29;2021-11-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-29'; SET @perioddate=str_to_date('2021-09-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-29'; SET @perioddate=str_to_date('2021-11-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-29;2021-09-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-29;2021-11-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-30</v>
+        <v>2021-11-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-30;2021-09-30.csv</v>
+        <v>2021-11-30;2021-11-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-30'; SET @perioddate=str_to_date('2021-09-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-30'; SET @perioddate=str_to_date('2021-11-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-30;2021-09-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-30;2021-11-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-09-31</v>
+        <v>2021-11-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-09-31;2021-09-31.csv</v>
+        <v>2021-11-31;2021-11-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-09-31'; SET @perioddate=str_to_date('2021-09-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-11-31'; SET @perioddate=str_to_date('2021-11-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-09-31;2021-09-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-31;2021-11-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC524B-D0DF-45FA-AB36-B43F17563527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31725D4C-32E4-4879-848C-F084D85C72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-11-01</v>
+        <v>2021-12-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-11-01;2021-11-01.csv</v>
+        <v>2021-12-01;2021-12-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-11-01'; SET @perioddate=str_to_date('2021-11-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-01'; SET @perioddate=str_to_date('2021-12-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-01;2021-11-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-01;2021-12-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-11-02</v>
+        <v>2021-12-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-11-02;2021-11-02.csv</v>
+        <v>2021-12-02;2021-12-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-11-02'; SET @perioddate=str_to_date('2021-11-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-02'; SET @perioddate=str_to_date('2021-12-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-02;2021-11-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-02;2021-12-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-03</v>
+        <v>2021-12-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-03;2021-11-03.csv</v>
+        <v>2021-12-03;2021-12-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-03'; SET @perioddate=str_to_date('2021-11-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-03'; SET @perioddate=str_to_date('2021-12-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-03;2021-11-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-03;2021-12-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-04</v>
+        <v>2021-12-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-04;2021-11-04.csv</v>
+        <v>2021-12-04;2021-12-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-04'; SET @perioddate=str_to_date('2021-11-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-04'; SET @perioddate=str_to_date('2021-12-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-04;2021-11-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-04;2021-12-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-05</v>
+        <v>2021-12-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-05;2021-11-05.csv</v>
+        <v>2021-12-05;2021-12-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-05'; SET @perioddate=str_to_date('2021-11-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-05'; SET @perioddate=str_to_date('2021-12-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-05;2021-11-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-05;2021-12-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-06</v>
+        <v>2021-12-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-06;2021-11-06.csv</v>
+        <v>2021-12-06;2021-12-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-06'; SET @perioddate=str_to_date('2021-11-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-06'; SET @perioddate=str_to_date('2021-12-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-06;2021-11-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-06;2021-12-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-07</v>
+        <v>2021-12-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-07;2021-11-07.csv</v>
+        <v>2021-12-07;2021-12-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-07'; SET @perioddate=str_to_date('2021-11-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-07'; SET @perioddate=str_to_date('2021-12-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-07;2021-11-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-07;2021-12-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-08</v>
+        <v>2021-12-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-08;2021-11-08.csv</v>
+        <v>2021-12-08;2021-12-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-08'; SET @perioddate=str_to_date('2021-11-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-08'; SET @perioddate=str_to_date('2021-12-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-08;2021-11-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-08;2021-12-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-09</v>
+        <v>2021-12-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-09;2021-11-09.csv</v>
+        <v>2021-12-09;2021-12-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-09'; SET @perioddate=str_to_date('2021-11-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-09'; SET @perioddate=str_to_date('2021-12-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-09;2021-11-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-09;2021-12-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-10</v>
+        <v>2021-12-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-10;2021-11-10.csv</v>
+        <v>2021-12-10;2021-12-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-10'; SET @perioddate=str_to_date('2021-11-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-10'; SET @perioddate=str_to_date('2021-12-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-10;2021-11-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-10;2021-12-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-11</v>
+        <v>2021-12-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-11;2021-11-11.csv</v>
+        <v>2021-12-11;2021-12-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-11'; SET @perioddate=str_to_date('2021-11-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-11'; SET @perioddate=str_to_date('2021-12-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-11;2021-11-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-11;2021-12-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-12</v>
+        <v>2021-12-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-12;2021-11-12.csv</v>
+        <v>2021-12-12;2021-12-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-12'; SET @perioddate=str_to_date('2021-11-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-12'; SET @perioddate=str_to_date('2021-12-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-12;2021-11-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-12;2021-12-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-13</v>
+        <v>2021-12-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-13;2021-11-13.csv</v>
+        <v>2021-12-13;2021-12-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-13'; SET @perioddate=str_to_date('2021-11-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-13'; SET @perioddate=str_to_date('2021-12-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-13;2021-11-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-13;2021-12-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-14</v>
+        <v>2021-12-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-14;2021-11-14.csv</v>
+        <v>2021-12-14;2021-12-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-14'; SET @perioddate=str_to_date('2021-11-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-14'; SET @perioddate=str_to_date('2021-12-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-14;2021-11-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-14;2021-12-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-15</v>
+        <v>2021-12-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-15;2021-11-15.csv</v>
+        <v>2021-12-15;2021-12-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-15'; SET @perioddate=str_to_date('2021-11-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-15'; SET @perioddate=str_to_date('2021-12-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-15;2021-11-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-15;2021-12-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-16</v>
+        <v>2021-12-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-16;2021-11-16.csv</v>
+        <v>2021-12-16;2021-12-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-16'; SET @perioddate=str_to_date('2021-11-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-16'; SET @perioddate=str_to_date('2021-12-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-16;2021-11-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-16;2021-12-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-17</v>
+        <v>2021-12-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-17;2021-11-17.csv</v>
+        <v>2021-12-17;2021-12-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-17'; SET @perioddate=str_to_date('2021-11-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-17'; SET @perioddate=str_to_date('2021-12-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-17;2021-11-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-17;2021-12-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-18</v>
+        <v>2021-12-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-18;2021-11-18.csv</v>
+        <v>2021-12-18;2021-12-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-18'; SET @perioddate=str_to_date('2021-11-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-18'; SET @perioddate=str_to_date('2021-12-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-18;2021-11-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-18;2021-12-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-19</v>
+        <v>2021-12-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-19;2021-11-19.csv</v>
+        <v>2021-12-19;2021-12-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-19'; SET @perioddate=str_to_date('2021-11-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-19'; SET @perioddate=str_to_date('2021-12-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-19;2021-11-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-19;2021-12-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-20</v>
+        <v>2021-12-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-20;2021-11-20.csv</v>
+        <v>2021-12-20;2021-12-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-20'; SET @perioddate=str_to_date('2021-11-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-20'; SET @perioddate=str_to_date('2021-12-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-20;2021-11-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-20;2021-12-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-21</v>
+        <v>2021-12-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-21;2021-11-21.csv</v>
+        <v>2021-12-21;2021-12-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-21'; SET @perioddate=str_to_date('2021-11-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-21'; SET @perioddate=str_to_date('2021-12-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-21;2021-11-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-21;2021-12-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-22</v>
+        <v>2021-12-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-22;2021-11-22.csv</v>
+        <v>2021-12-22;2021-12-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-22'; SET @perioddate=str_to_date('2021-11-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-22'; SET @perioddate=str_to_date('2021-12-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-22;2021-11-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-22;2021-12-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-23</v>
+        <v>2021-12-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-23;2021-11-23.csv</v>
+        <v>2021-12-23;2021-12-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-23'; SET @perioddate=str_to_date('2021-11-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-23'; SET @perioddate=str_to_date('2021-12-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-23;2021-11-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-23;2021-12-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-24</v>
+        <v>2021-12-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-24;2021-11-24.csv</v>
+        <v>2021-12-24;2021-12-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-24'; SET @perioddate=str_to_date('2021-11-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-24'; SET @perioddate=str_to_date('2021-12-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-24;2021-11-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-24;2021-12-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-25</v>
+        <v>2021-12-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-25;2021-11-25.csv</v>
+        <v>2021-12-25;2021-12-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-25'; SET @perioddate=str_to_date('2021-11-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-25'; SET @perioddate=str_to_date('2021-12-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-25;2021-11-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-25;2021-12-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-26</v>
+        <v>2021-12-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-26;2021-11-26.csv</v>
+        <v>2021-12-26;2021-12-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-26'; SET @perioddate=str_to_date('2021-11-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-26'; SET @perioddate=str_to_date('2021-12-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-26;2021-11-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-26;2021-12-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-27</v>
+        <v>2021-12-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-27;2021-11-27.csv</v>
+        <v>2021-12-27;2021-12-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-27'; SET @perioddate=str_to_date('2021-11-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-27'; SET @perioddate=str_to_date('2021-12-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-27;2021-11-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-27;2021-12-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-28</v>
+        <v>2021-12-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-28;2021-11-28.csv</v>
+        <v>2021-12-28;2021-12-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-28'; SET @perioddate=str_to_date('2021-11-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-28'; SET @perioddate=str_to_date('2021-12-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-28;2021-11-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-28;2021-12-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-29</v>
+        <v>2021-12-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-29;2021-11-29.csv</v>
+        <v>2021-12-29;2021-12-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-29'; SET @perioddate=str_to_date('2021-11-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-29'; SET @perioddate=str_to_date('2021-12-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-29;2021-11-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-29;2021-12-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-30</v>
+        <v>2021-12-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-30;2021-11-30.csv</v>
+        <v>2021-12-30;2021-12-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-30'; SET @perioddate=str_to_date('2021-11-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-30'; SET @perioddate=str_to_date('2021-12-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-30;2021-11-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-30;2021-12-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-11-31</v>
+        <v>2021-12-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-11-31;2021-11-31.csv</v>
+        <v>2021-12-31;2021-12-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-11-31'; SET @perioddate=str_to_date('2021-11-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2021-12-31'; SET @perioddate=str_to_date('2021-12-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-11-31;2021-11-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-31;2021-12-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31725D4C-32E4-4879-848C-F084D85C72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788A22AA-2421-4257-8659-10070248409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -579,7 +579,7 @@
     <t>2019</t>
   </si>
   <si>
-    <t>2021</t>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2021-12-01</v>
+        <v>2022-01-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2021-12-01;2021-12-01.csv</v>
+        <v>2022-01-01;2022-01-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-12-01'; SET @perioddate=str_to_date('2021-12-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-01'; SET @perioddate=str_to_date('2022-01-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-01;2021-12-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-01;2022-01-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2021-12-02</v>
+        <v>2022-01-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2021-12-02;2021-12-02.csv</v>
+        <v>2022-01-02;2022-01-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2021-12-02'; SET @perioddate=str_to_date('2021-12-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-02'; SET @perioddate=str_to_date('2022-01-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-02;2021-12-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-02;2022-01-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-03</v>
+        <v>2022-01-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-03;2021-12-03.csv</v>
+        <v>2022-01-03;2022-01-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-03'; SET @perioddate=str_to_date('2021-12-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-03'; SET @perioddate=str_to_date('2022-01-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-03;2021-12-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-03;2022-01-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-04</v>
+        <v>2022-01-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-04;2021-12-04.csv</v>
+        <v>2022-01-04;2022-01-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-04'; SET @perioddate=str_to_date('2021-12-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-04'; SET @perioddate=str_to_date('2022-01-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-04;2021-12-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-04;2022-01-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-05</v>
+        <v>2022-01-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-05;2021-12-05.csv</v>
+        <v>2022-01-05;2022-01-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-05'; SET @perioddate=str_to_date('2021-12-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-05'; SET @perioddate=str_to_date('2022-01-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-05;2021-12-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-05;2022-01-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-06</v>
+        <v>2022-01-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-06;2021-12-06.csv</v>
+        <v>2022-01-06;2022-01-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-06'; SET @perioddate=str_to_date('2021-12-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-06'; SET @perioddate=str_to_date('2022-01-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-06;2021-12-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-06;2022-01-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-07</v>
+        <v>2022-01-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-07;2021-12-07.csv</v>
+        <v>2022-01-07;2022-01-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-07'; SET @perioddate=str_to_date('2021-12-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-07'; SET @perioddate=str_to_date('2022-01-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-07;2021-12-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-07;2022-01-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-08</v>
+        <v>2022-01-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-08;2021-12-08.csv</v>
+        <v>2022-01-08;2022-01-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-08'; SET @perioddate=str_to_date('2021-12-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-08'; SET @perioddate=str_to_date('2022-01-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-08;2021-12-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-08;2022-01-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-09</v>
+        <v>2022-01-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-09;2021-12-09.csv</v>
+        <v>2022-01-09;2022-01-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-09'; SET @perioddate=str_to_date('2021-12-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-09'; SET @perioddate=str_to_date('2022-01-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-09;2021-12-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-09;2022-01-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-10</v>
+        <v>2022-01-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-10;2021-12-10.csv</v>
+        <v>2022-01-10;2022-01-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-10'; SET @perioddate=str_to_date('2021-12-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-10'; SET @perioddate=str_to_date('2022-01-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-10;2021-12-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-10;2022-01-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-11</v>
+        <v>2022-01-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-11;2021-12-11.csv</v>
+        <v>2022-01-11;2022-01-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-11'; SET @perioddate=str_to_date('2021-12-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-11'; SET @perioddate=str_to_date('2022-01-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-11;2021-12-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-11;2022-01-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-12</v>
+        <v>2022-01-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-12;2021-12-12.csv</v>
+        <v>2022-01-12;2022-01-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-12'; SET @perioddate=str_to_date('2021-12-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-12'; SET @perioddate=str_to_date('2022-01-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-12;2021-12-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-12;2022-01-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-13</v>
+        <v>2022-01-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-13;2021-12-13.csv</v>
+        <v>2022-01-13;2022-01-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-13'; SET @perioddate=str_to_date('2021-12-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-13'; SET @perioddate=str_to_date('2022-01-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-13;2021-12-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-13;2022-01-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-14</v>
+        <v>2022-01-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-14;2021-12-14.csv</v>
+        <v>2022-01-14;2022-01-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-14'; SET @perioddate=str_to_date('2021-12-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-14'; SET @perioddate=str_to_date('2022-01-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-14;2021-12-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-14;2022-01-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-15</v>
+        <v>2022-01-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-15;2021-12-15.csv</v>
+        <v>2022-01-15;2022-01-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-15'; SET @perioddate=str_to_date('2021-12-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-15'; SET @perioddate=str_to_date('2022-01-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-15;2021-12-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-15;2022-01-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-16</v>
+        <v>2022-01-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-16;2021-12-16.csv</v>
+        <v>2022-01-16;2022-01-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-16'; SET @perioddate=str_to_date('2021-12-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-16'; SET @perioddate=str_to_date('2022-01-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-16;2021-12-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-16;2022-01-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-17</v>
+        <v>2022-01-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-17;2021-12-17.csv</v>
+        <v>2022-01-17;2022-01-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-17'; SET @perioddate=str_to_date('2021-12-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-17'; SET @perioddate=str_to_date('2022-01-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-17;2021-12-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-17;2022-01-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-18</v>
+        <v>2022-01-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-18;2021-12-18.csv</v>
+        <v>2022-01-18;2022-01-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-18'; SET @perioddate=str_to_date('2021-12-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-18'; SET @perioddate=str_to_date('2022-01-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-18;2021-12-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-18;2022-01-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-19</v>
+        <v>2022-01-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-19;2021-12-19.csv</v>
+        <v>2022-01-19;2022-01-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-19'; SET @perioddate=str_to_date('2021-12-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-19'; SET @perioddate=str_to_date('2022-01-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-19;2021-12-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-19;2022-01-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-20</v>
+        <v>2022-01-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-20;2021-12-20.csv</v>
+        <v>2022-01-20;2022-01-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-20'; SET @perioddate=str_to_date('2021-12-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-20'; SET @perioddate=str_to_date('2022-01-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-20;2021-12-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-20;2022-01-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-21</v>
+        <v>2022-01-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-21;2021-12-21.csv</v>
+        <v>2022-01-21;2022-01-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-21'; SET @perioddate=str_to_date('2021-12-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-21'; SET @perioddate=str_to_date('2022-01-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-21;2021-12-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-21;2022-01-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-22</v>
+        <v>2022-01-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-22;2021-12-22.csv</v>
+        <v>2022-01-22;2022-01-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-22'; SET @perioddate=str_to_date('2021-12-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-22'; SET @perioddate=str_to_date('2022-01-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-22;2021-12-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-22;2022-01-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-23</v>
+        <v>2022-01-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-23;2021-12-23.csv</v>
+        <v>2022-01-23;2022-01-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-23'; SET @perioddate=str_to_date('2021-12-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-23'; SET @perioddate=str_to_date('2022-01-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-23;2021-12-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-23;2022-01-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-24</v>
+        <v>2022-01-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-24;2021-12-24.csv</v>
+        <v>2022-01-24;2022-01-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-24'; SET @perioddate=str_to_date('2021-12-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-24'; SET @perioddate=str_to_date('2022-01-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-24;2021-12-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-24;2022-01-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-25</v>
+        <v>2022-01-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-25;2021-12-25.csv</v>
+        <v>2022-01-25;2022-01-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-25'; SET @perioddate=str_to_date('2021-12-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-25'; SET @perioddate=str_to_date('2022-01-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-25;2021-12-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-25;2022-01-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-26</v>
+        <v>2022-01-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-26;2021-12-26.csv</v>
+        <v>2022-01-26;2022-01-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-26'; SET @perioddate=str_to_date('2021-12-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-26'; SET @perioddate=str_to_date('2022-01-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-26;2021-12-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-26;2022-01-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-27</v>
+        <v>2022-01-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-27;2021-12-27.csv</v>
+        <v>2022-01-27;2022-01-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-27'; SET @perioddate=str_to_date('2021-12-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-27'; SET @perioddate=str_to_date('2022-01-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-27;2021-12-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-27;2022-01-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-28</v>
+        <v>2022-01-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-28;2021-12-28.csv</v>
+        <v>2022-01-28;2022-01-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-28'; SET @perioddate=str_to_date('2021-12-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-28'; SET @perioddate=str_to_date('2022-01-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-28;2021-12-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-28;2022-01-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-29</v>
+        <v>2022-01-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-29;2021-12-29.csv</v>
+        <v>2022-01-29;2022-01-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-29'; SET @perioddate=str_to_date('2021-12-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-29'; SET @perioddate=str_to_date('2022-01-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-29;2021-12-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-29;2022-01-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-30</v>
+        <v>2022-01-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-30;2021-12-30.csv</v>
+        <v>2022-01-30;2022-01-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-30'; SET @perioddate=str_to_date('2021-12-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-30'; SET @perioddate=str_to_date('2022-01-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-30;2021-12-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-30;2022-01-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2021-12-31</v>
+        <v>2022-01-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2021-12-31;2021-12-31.csv</v>
+        <v>2022-01-31;2022-01-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2021-12-31'; SET @perioddate=str_to_date('2021-12-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-01-31'; SET @perioddate=str_to_date('2022-01-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2021-12-31;2021-12-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-31;2022-01-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788A22AA-2421-4257-8659-10070248409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD30A8-A696-4EBA-A088-F6BF4E0FD282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-01-01</v>
+        <v>2022-02-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-01-01;2022-01-01.csv</v>
+        <v>2022-02-01;2022-02-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-01-01'; SET @perioddate=str_to_date('2022-01-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-01'; SET @perioddate=str_to_date('2022-02-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-01;2022-01-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-01;2022-02-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-01-02</v>
+        <v>2022-02-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-01-02;2022-01-02.csv</v>
+        <v>2022-02-02;2022-02-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-01-02'; SET @perioddate=str_to_date('2022-01-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-02'; SET @perioddate=str_to_date('2022-02-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-02;2022-01-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-02;2022-02-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-03</v>
+        <v>2022-02-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-03;2022-01-03.csv</v>
+        <v>2022-02-03;2022-02-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-03'; SET @perioddate=str_to_date('2022-01-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-03'; SET @perioddate=str_to_date('2022-02-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-03;2022-01-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-03;2022-02-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-04</v>
+        <v>2022-02-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-04;2022-01-04.csv</v>
+        <v>2022-02-04;2022-02-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-04'; SET @perioddate=str_to_date('2022-01-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-04'; SET @perioddate=str_to_date('2022-02-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-04;2022-01-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-04;2022-02-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-05</v>
+        <v>2022-02-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-05;2022-01-05.csv</v>
+        <v>2022-02-05;2022-02-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-05'; SET @perioddate=str_to_date('2022-01-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-05'; SET @perioddate=str_to_date('2022-02-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-05;2022-01-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-05;2022-02-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-06</v>
+        <v>2022-02-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-06;2022-01-06.csv</v>
+        <v>2022-02-06;2022-02-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-06'; SET @perioddate=str_to_date('2022-01-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-06'; SET @perioddate=str_to_date('2022-02-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-06;2022-01-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-06;2022-02-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-07</v>
+        <v>2022-02-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-07;2022-01-07.csv</v>
+        <v>2022-02-07;2022-02-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-07'; SET @perioddate=str_to_date('2022-01-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-07'; SET @perioddate=str_to_date('2022-02-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-07;2022-01-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-07;2022-02-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-08</v>
+        <v>2022-02-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-08;2022-01-08.csv</v>
+        <v>2022-02-08;2022-02-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-08'; SET @perioddate=str_to_date('2022-01-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-08'; SET @perioddate=str_to_date('2022-02-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-08;2022-01-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-08;2022-02-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-09</v>
+        <v>2022-02-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-09;2022-01-09.csv</v>
+        <v>2022-02-09;2022-02-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-09'; SET @perioddate=str_to_date('2022-01-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-09'; SET @perioddate=str_to_date('2022-02-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-09;2022-01-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-09;2022-02-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-10</v>
+        <v>2022-02-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-10;2022-01-10.csv</v>
+        <v>2022-02-10;2022-02-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-10'; SET @perioddate=str_to_date('2022-01-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-10'; SET @perioddate=str_to_date('2022-02-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-10;2022-01-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-10;2022-02-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-11</v>
+        <v>2022-02-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-11;2022-01-11.csv</v>
+        <v>2022-02-11;2022-02-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-11'; SET @perioddate=str_to_date('2022-01-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-11'; SET @perioddate=str_to_date('2022-02-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-11;2022-01-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-11;2022-02-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-12</v>
+        <v>2022-02-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-12;2022-01-12.csv</v>
+        <v>2022-02-12;2022-02-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-12'; SET @perioddate=str_to_date('2022-01-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-12'; SET @perioddate=str_to_date('2022-02-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-12;2022-01-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-12;2022-02-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-13</v>
+        <v>2022-02-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-13;2022-01-13.csv</v>
+        <v>2022-02-13;2022-02-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-13'; SET @perioddate=str_to_date('2022-01-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-13'; SET @perioddate=str_to_date('2022-02-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-13;2022-01-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-13;2022-02-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-14</v>
+        <v>2022-02-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-14;2022-01-14.csv</v>
+        <v>2022-02-14;2022-02-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-14'; SET @perioddate=str_to_date('2022-01-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-14'; SET @perioddate=str_to_date('2022-02-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-14;2022-01-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-14;2022-02-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-15</v>
+        <v>2022-02-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-15;2022-01-15.csv</v>
+        <v>2022-02-15;2022-02-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-15'; SET @perioddate=str_to_date('2022-01-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-15'; SET @perioddate=str_to_date('2022-02-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-15;2022-01-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-15;2022-02-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-16</v>
+        <v>2022-02-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-16;2022-01-16.csv</v>
+        <v>2022-02-16;2022-02-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-16'; SET @perioddate=str_to_date('2022-01-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-16'; SET @perioddate=str_to_date('2022-02-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-16;2022-01-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-16;2022-02-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-17</v>
+        <v>2022-02-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-17;2022-01-17.csv</v>
+        <v>2022-02-17;2022-02-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-17'; SET @perioddate=str_to_date('2022-01-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-17'; SET @perioddate=str_to_date('2022-02-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-17;2022-01-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-17;2022-02-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-18</v>
+        <v>2022-02-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-18;2022-01-18.csv</v>
+        <v>2022-02-18;2022-02-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-18'; SET @perioddate=str_to_date('2022-01-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-18'; SET @perioddate=str_to_date('2022-02-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-18;2022-01-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-18;2022-02-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-19</v>
+        <v>2022-02-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-19;2022-01-19.csv</v>
+        <v>2022-02-19;2022-02-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-19'; SET @perioddate=str_to_date('2022-01-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-19'; SET @perioddate=str_to_date('2022-02-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-19;2022-01-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-19;2022-02-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-20</v>
+        <v>2022-02-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-20;2022-01-20.csv</v>
+        <v>2022-02-20;2022-02-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-20'; SET @perioddate=str_to_date('2022-01-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-20'; SET @perioddate=str_to_date('2022-02-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-20;2022-01-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-20;2022-02-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-21</v>
+        <v>2022-02-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-21;2022-01-21.csv</v>
+        <v>2022-02-21;2022-02-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-21'; SET @perioddate=str_to_date('2022-01-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-21'; SET @perioddate=str_to_date('2022-02-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-21;2022-01-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-21;2022-02-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-22</v>
+        <v>2022-02-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-22;2022-01-22.csv</v>
+        <v>2022-02-22;2022-02-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-22'; SET @perioddate=str_to_date('2022-01-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-22'; SET @perioddate=str_to_date('2022-02-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-22;2022-01-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-22;2022-02-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-23</v>
+        <v>2022-02-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-23;2022-01-23.csv</v>
+        <v>2022-02-23;2022-02-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-23'; SET @perioddate=str_to_date('2022-01-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-23'; SET @perioddate=str_to_date('2022-02-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-23;2022-01-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-23;2022-02-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-24</v>
+        <v>2022-02-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-24;2022-01-24.csv</v>
+        <v>2022-02-24;2022-02-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-24'; SET @perioddate=str_to_date('2022-01-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-24'; SET @perioddate=str_to_date('2022-02-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-24;2022-01-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-24;2022-02-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-25</v>
+        <v>2022-02-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-25;2022-01-25.csv</v>
+        <v>2022-02-25;2022-02-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-25'; SET @perioddate=str_to_date('2022-01-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-25'; SET @perioddate=str_to_date('2022-02-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-25;2022-01-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-25;2022-02-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-26</v>
+        <v>2022-02-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-26;2022-01-26.csv</v>
+        <v>2022-02-26;2022-02-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-26'; SET @perioddate=str_to_date('2022-01-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-26'; SET @perioddate=str_to_date('2022-02-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-26;2022-01-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-26;2022-02-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-27</v>
+        <v>2022-02-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-27;2022-01-27.csv</v>
+        <v>2022-02-27;2022-02-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-27'; SET @perioddate=str_to_date('2022-01-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-27'; SET @perioddate=str_to_date('2022-02-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-27;2022-01-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-27;2022-02-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-28</v>
+        <v>2022-02-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-28;2022-01-28.csv</v>
+        <v>2022-02-28;2022-02-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-28'; SET @perioddate=str_to_date('2022-01-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-28'; SET @perioddate=str_to_date('2022-02-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-28;2022-01-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-28;2022-02-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-29</v>
+        <v>2022-02-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-29;2022-01-29.csv</v>
+        <v>2022-02-29;2022-02-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-29'; SET @perioddate=str_to_date('2022-01-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-29'; SET @perioddate=str_to_date('2022-02-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-29;2022-01-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-29;2022-02-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-30</v>
+        <v>2022-02-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-30;2022-01-30.csv</v>
+        <v>2022-02-30;2022-02-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-30'; SET @perioddate=str_to_date('2022-01-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-30'; SET @perioddate=str_to_date('2022-02-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-30;2022-01-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-30;2022-02-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-01-31</v>
+        <v>2022-02-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-01-31;2022-01-31.csv</v>
+        <v>2022-02-31;2022-02-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-01-31'; SET @perioddate=str_to_date('2022-01-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-02-31'; SET @perioddate=str_to_date('2022-02-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-01-31;2022-01-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-31;2022-02-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD30A8-A696-4EBA-A088-F6BF4E0FD282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB4F3F3-70C6-4B0A-AC42-EBCB4C4E887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1918,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-02-01</v>
+        <v>2022-03-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-02-01;2022-02-01.csv</v>
+        <v>2022-03-01;2022-03-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-02-01'; SET @perioddate=str_to_date('2022-02-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-01'; SET @perioddate=str_to_date('2022-03-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-01;2022-02-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-01;2022-03-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-02-02</v>
+        <v>2022-03-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-02-02;2022-02-02.csv</v>
+        <v>2022-03-02;2022-03-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-02-02'; SET @perioddate=str_to_date('2022-02-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-02'; SET @perioddate=str_to_date('2022-03-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-02;2022-02-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-02;2022-03-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-03</v>
+        <v>2022-03-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-03;2022-02-03.csv</v>
+        <v>2022-03-03;2022-03-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-03'; SET @perioddate=str_to_date('2022-02-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-03'; SET @perioddate=str_to_date('2022-03-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-03;2022-02-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-03;2022-03-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-04</v>
+        <v>2022-03-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-04;2022-02-04.csv</v>
+        <v>2022-03-04;2022-03-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-04'; SET @perioddate=str_to_date('2022-02-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-04'; SET @perioddate=str_to_date('2022-03-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-04;2022-02-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-04;2022-03-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-05</v>
+        <v>2022-03-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-05;2022-02-05.csv</v>
+        <v>2022-03-05;2022-03-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-05'; SET @perioddate=str_to_date('2022-02-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-05'; SET @perioddate=str_to_date('2022-03-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-05;2022-02-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-05;2022-03-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-06</v>
+        <v>2022-03-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-06;2022-02-06.csv</v>
+        <v>2022-03-06;2022-03-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-06'; SET @perioddate=str_to_date('2022-02-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-06'; SET @perioddate=str_to_date('2022-03-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-06;2022-02-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-06;2022-03-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-07</v>
+        <v>2022-03-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-07;2022-02-07.csv</v>
+        <v>2022-03-07;2022-03-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-07'; SET @perioddate=str_to_date('2022-02-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-07'; SET @perioddate=str_to_date('2022-03-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-07;2022-02-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-07;2022-03-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-08</v>
+        <v>2022-03-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-08;2022-02-08.csv</v>
+        <v>2022-03-08;2022-03-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-08'; SET @perioddate=str_to_date('2022-02-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-08'; SET @perioddate=str_to_date('2022-03-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-08;2022-02-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-08;2022-03-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-09</v>
+        <v>2022-03-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-09;2022-02-09.csv</v>
+        <v>2022-03-09;2022-03-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-09'; SET @perioddate=str_to_date('2022-02-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-09'; SET @perioddate=str_to_date('2022-03-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-09;2022-02-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-09;2022-03-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-10</v>
+        <v>2022-03-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-10;2022-02-10.csv</v>
+        <v>2022-03-10;2022-03-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-10'; SET @perioddate=str_to_date('2022-02-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-10'; SET @perioddate=str_to_date('2022-03-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-10;2022-02-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-10;2022-03-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-11</v>
+        <v>2022-03-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-11;2022-02-11.csv</v>
+        <v>2022-03-11;2022-03-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-11'; SET @perioddate=str_to_date('2022-02-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-11'; SET @perioddate=str_to_date('2022-03-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-11;2022-02-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-11;2022-03-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-12</v>
+        <v>2022-03-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-12;2022-02-12.csv</v>
+        <v>2022-03-12;2022-03-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-12'; SET @perioddate=str_to_date('2022-02-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-12'; SET @perioddate=str_to_date('2022-03-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-12;2022-02-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-12;2022-03-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-13</v>
+        <v>2022-03-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-13;2022-02-13.csv</v>
+        <v>2022-03-13;2022-03-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-13'; SET @perioddate=str_to_date('2022-02-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-13'; SET @perioddate=str_to_date('2022-03-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-13;2022-02-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-13;2022-03-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-14</v>
+        <v>2022-03-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-14;2022-02-14.csv</v>
+        <v>2022-03-14;2022-03-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-14'; SET @perioddate=str_to_date('2022-02-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-14'; SET @perioddate=str_to_date('2022-03-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-14;2022-02-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-14;2022-03-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-15</v>
+        <v>2022-03-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-15;2022-02-15.csv</v>
+        <v>2022-03-15;2022-03-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-15'; SET @perioddate=str_to_date('2022-02-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-15'; SET @perioddate=str_to_date('2022-03-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-15;2022-02-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-15;2022-03-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-16</v>
+        <v>2022-03-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-16;2022-02-16.csv</v>
+        <v>2022-03-16;2022-03-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-16'; SET @perioddate=str_to_date('2022-02-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-16'; SET @perioddate=str_to_date('2022-03-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-16;2022-02-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-16;2022-03-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-17</v>
+        <v>2022-03-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-17;2022-02-17.csv</v>
+        <v>2022-03-17;2022-03-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-17'; SET @perioddate=str_to_date('2022-02-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-17'; SET @perioddate=str_to_date('2022-03-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-17;2022-02-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-17;2022-03-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-18</v>
+        <v>2022-03-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-18;2022-02-18.csv</v>
+        <v>2022-03-18;2022-03-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-18'; SET @perioddate=str_to_date('2022-02-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-18'; SET @perioddate=str_to_date('2022-03-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-18;2022-02-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-18;2022-03-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-19</v>
+        <v>2022-03-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-19;2022-02-19.csv</v>
+        <v>2022-03-19;2022-03-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-19'; SET @perioddate=str_to_date('2022-02-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-19'; SET @perioddate=str_to_date('2022-03-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-19;2022-02-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-19;2022-03-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-20</v>
+        <v>2022-03-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-20;2022-02-20.csv</v>
+        <v>2022-03-20;2022-03-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-20'; SET @perioddate=str_to_date('2022-02-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-20'; SET @perioddate=str_to_date('2022-03-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-20;2022-02-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-20;2022-03-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-21</v>
+        <v>2022-03-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-21;2022-02-21.csv</v>
+        <v>2022-03-21;2022-03-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-21'; SET @perioddate=str_to_date('2022-02-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-21'; SET @perioddate=str_to_date('2022-03-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-21;2022-02-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-21;2022-03-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-22</v>
+        <v>2022-03-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-22;2022-02-22.csv</v>
+        <v>2022-03-22;2022-03-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-22'; SET @perioddate=str_to_date('2022-02-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-22'; SET @perioddate=str_to_date('2022-03-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-22;2022-02-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-22;2022-03-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-23</v>
+        <v>2022-03-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-23;2022-02-23.csv</v>
+        <v>2022-03-23;2022-03-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-23'; SET @perioddate=str_to_date('2022-02-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-23'; SET @perioddate=str_to_date('2022-03-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-23;2022-02-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-23;2022-03-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-24</v>
+        <v>2022-03-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-24;2022-02-24.csv</v>
+        <v>2022-03-24;2022-03-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-24'; SET @perioddate=str_to_date('2022-02-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-24'; SET @perioddate=str_to_date('2022-03-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-24;2022-02-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-24;2022-03-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-25</v>
+        <v>2022-03-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-25;2022-02-25.csv</v>
+        <v>2022-03-25;2022-03-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-25'; SET @perioddate=str_to_date('2022-02-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-25'; SET @perioddate=str_to_date('2022-03-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-25;2022-02-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-25;2022-03-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-26</v>
+        <v>2022-03-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-26;2022-02-26.csv</v>
+        <v>2022-03-26;2022-03-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-26'; SET @perioddate=str_to_date('2022-02-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-26'; SET @perioddate=str_to_date('2022-03-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-26;2022-02-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-26;2022-03-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-27</v>
+        <v>2022-03-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-27;2022-02-27.csv</v>
+        <v>2022-03-27;2022-03-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-27'; SET @perioddate=str_to_date('2022-02-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-27'; SET @perioddate=str_to_date('2022-03-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-27;2022-02-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-27;2022-03-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-28</v>
+        <v>2022-03-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-28;2022-02-28.csv</v>
+        <v>2022-03-28;2022-03-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-28'; SET @perioddate=str_to_date('2022-02-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-28'; SET @perioddate=str_to_date('2022-03-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-28;2022-02-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-28;2022-03-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-29</v>
+        <v>2022-03-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-29;2022-02-29.csv</v>
+        <v>2022-03-29;2022-03-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-29'; SET @perioddate=str_to_date('2022-02-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-29'; SET @perioddate=str_to_date('2022-03-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-29;2022-02-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-29;2022-03-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-30</v>
+        <v>2022-03-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-30;2022-02-30.csv</v>
+        <v>2022-03-30;2022-03-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-30'; SET @perioddate=str_to_date('2022-02-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-30'; SET @perioddate=str_to_date('2022-03-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-30;2022-02-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-30;2022-03-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-02-31</v>
+        <v>2022-03-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-02-31;2022-02-31.csv</v>
+        <v>2022-03-31;2022-03-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-02-31'; SET @perioddate=str_to_date('2022-02-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-03-31'; SET @perioddate=str_to_date('2022-03-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-02-31;2022-02-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-31;2022-03-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB4F3F3-70C6-4B0A-AC42-EBCB4C4E887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0010B-1E3D-4A18-A1F8-6BAB0F0FED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1918,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-03-01</v>
+        <v>2022-05-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-03-01;2022-03-01.csv</v>
+        <v>2022-05-01;2022-05-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-03-01'; SET @perioddate=str_to_date('2022-03-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-01'; SET @perioddate=str_to_date('2022-05-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-01;2022-03-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-01;2022-05-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-03-02</v>
+        <v>2022-05-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-03-02;2022-03-02.csv</v>
+        <v>2022-05-02;2022-05-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-03-02'; SET @perioddate=str_to_date('2022-03-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-02'; SET @perioddate=str_to_date('2022-05-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-02;2022-03-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-02;2022-05-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-03</v>
+        <v>2022-05-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-03;2022-03-03.csv</v>
+        <v>2022-05-03;2022-05-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-03'; SET @perioddate=str_to_date('2022-03-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-03'; SET @perioddate=str_to_date('2022-05-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-03;2022-03-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-03;2022-05-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-04</v>
+        <v>2022-05-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-04;2022-03-04.csv</v>
+        <v>2022-05-04;2022-05-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-04'; SET @perioddate=str_to_date('2022-03-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-04'; SET @perioddate=str_to_date('2022-05-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-04;2022-03-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-04;2022-05-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-05</v>
+        <v>2022-05-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-05;2022-03-05.csv</v>
+        <v>2022-05-05;2022-05-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-05'; SET @perioddate=str_to_date('2022-03-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-05'; SET @perioddate=str_to_date('2022-05-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-05;2022-03-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-05;2022-05-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-06</v>
+        <v>2022-05-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-06;2022-03-06.csv</v>
+        <v>2022-05-06;2022-05-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-06'; SET @perioddate=str_to_date('2022-03-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-06'; SET @perioddate=str_to_date('2022-05-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-06;2022-03-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-06;2022-05-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-07</v>
+        <v>2022-05-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-07;2022-03-07.csv</v>
+        <v>2022-05-07;2022-05-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-07'; SET @perioddate=str_to_date('2022-03-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-07'; SET @perioddate=str_to_date('2022-05-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-07;2022-03-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-07;2022-05-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-08</v>
+        <v>2022-05-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-08;2022-03-08.csv</v>
+        <v>2022-05-08;2022-05-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-08'; SET @perioddate=str_to_date('2022-03-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-08'; SET @perioddate=str_to_date('2022-05-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-08;2022-03-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-08;2022-05-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-09</v>
+        <v>2022-05-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-09;2022-03-09.csv</v>
+        <v>2022-05-09;2022-05-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-09'; SET @perioddate=str_to_date('2022-03-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-09'; SET @perioddate=str_to_date('2022-05-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-09;2022-03-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-09;2022-05-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-10</v>
+        <v>2022-05-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-10;2022-03-10.csv</v>
+        <v>2022-05-10;2022-05-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-10'; SET @perioddate=str_to_date('2022-03-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-10'; SET @perioddate=str_to_date('2022-05-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-10;2022-03-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-10;2022-05-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-11</v>
+        <v>2022-05-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-11;2022-03-11.csv</v>
+        <v>2022-05-11;2022-05-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-11'; SET @perioddate=str_to_date('2022-03-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-11'; SET @perioddate=str_to_date('2022-05-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-11;2022-03-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-11;2022-05-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-12</v>
+        <v>2022-05-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-12;2022-03-12.csv</v>
+        <v>2022-05-12;2022-05-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-12'; SET @perioddate=str_to_date('2022-03-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-12'; SET @perioddate=str_to_date('2022-05-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-12;2022-03-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-12;2022-05-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-13</v>
+        <v>2022-05-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-13;2022-03-13.csv</v>
+        <v>2022-05-13;2022-05-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-13'; SET @perioddate=str_to_date('2022-03-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-13'; SET @perioddate=str_to_date('2022-05-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-13;2022-03-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-13;2022-05-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-14</v>
+        <v>2022-05-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-14;2022-03-14.csv</v>
+        <v>2022-05-14;2022-05-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-14'; SET @perioddate=str_to_date('2022-03-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-14'; SET @perioddate=str_to_date('2022-05-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-14;2022-03-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-14;2022-05-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-15</v>
+        <v>2022-05-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-15;2022-03-15.csv</v>
+        <v>2022-05-15;2022-05-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-15'; SET @perioddate=str_to_date('2022-03-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-15'; SET @perioddate=str_to_date('2022-05-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-15;2022-03-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-15;2022-05-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-16</v>
+        <v>2022-05-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-16;2022-03-16.csv</v>
+        <v>2022-05-16;2022-05-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-16'; SET @perioddate=str_to_date('2022-03-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-16'; SET @perioddate=str_to_date('2022-05-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-16;2022-03-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-16;2022-05-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-17</v>
+        <v>2022-05-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-17;2022-03-17.csv</v>
+        <v>2022-05-17;2022-05-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-17'; SET @perioddate=str_to_date('2022-03-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-17'; SET @perioddate=str_to_date('2022-05-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-17;2022-03-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-17;2022-05-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-18</v>
+        <v>2022-05-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-18;2022-03-18.csv</v>
+        <v>2022-05-18;2022-05-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-18'; SET @perioddate=str_to_date('2022-03-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-18'; SET @perioddate=str_to_date('2022-05-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-18;2022-03-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-18;2022-05-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-19</v>
+        <v>2022-05-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-19;2022-03-19.csv</v>
+        <v>2022-05-19;2022-05-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-19'; SET @perioddate=str_to_date('2022-03-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-19'; SET @perioddate=str_to_date('2022-05-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-19;2022-03-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-19;2022-05-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-20</v>
+        <v>2022-05-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-20;2022-03-20.csv</v>
+        <v>2022-05-20;2022-05-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-20'; SET @perioddate=str_to_date('2022-03-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-20'; SET @perioddate=str_to_date('2022-05-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-20;2022-03-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-20;2022-05-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-21</v>
+        <v>2022-05-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-21;2022-03-21.csv</v>
+        <v>2022-05-21;2022-05-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-21'; SET @perioddate=str_to_date('2022-03-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-21'; SET @perioddate=str_to_date('2022-05-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-21;2022-03-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-21;2022-05-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-22</v>
+        <v>2022-05-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-22;2022-03-22.csv</v>
+        <v>2022-05-22;2022-05-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-22'; SET @perioddate=str_to_date('2022-03-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-22'; SET @perioddate=str_to_date('2022-05-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-22;2022-03-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-22;2022-05-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-23</v>
+        <v>2022-05-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-23;2022-03-23.csv</v>
+        <v>2022-05-23;2022-05-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-23'; SET @perioddate=str_to_date('2022-03-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-23'; SET @perioddate=str_to_date('2022-05-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-23;2022-03-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-23;2022-05-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-24</v>
+        <v>2022-05-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-24;2022-03-24.csv</v>
+        <v>2022-05-24;2022-05-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-24'; SET @perioddate=str_to_date('2022-03-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-24'; SET @perioddate=str_to_date('2022-05-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-24;2022-03-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-24;2022-05-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-25</v>
+        <v>2022-05-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-25;2022-03-25.csv</v>
+        <v>2022-05-25;2022-05-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-25'; SET @perioddate=str_to_date('2022-03-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-25'; SET @perioddate=str_to_date('2022-05-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-25;2022-03-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-25;2022-05-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-26</v>
+        <v>2022-05-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-26;2022-03-26.csv</v>
+        <v>2022-05-26;2022-05-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-26'; SET @perioddate=str_to_date('2022-03-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-26'; SET @perioddate=str_to_date('2022-05-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-26;2022-03-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-26;2022-05-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-27</v>
+        <v>2022-05-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-27;2022-03-27.csv</v>
+        <v>2022-05-27;2022-05-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-27'; SET @perioddate=str_to_date('2022-03-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-27'; SET @perioddate=str_to_date('2022-05-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-27;2022-03-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-27;2022-05-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-28</v>
+        <v>2022-05-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-28;2022-03-28.csv</v>
+        <v>2022-05-28;2022-05-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-28'; SET @perioddate=str_to_date('2022-03-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-28'; SET @perioddate=str_to_date('2022-05-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-28;2022-03-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-28;2022-05-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-29</v>
+        <v>2022-05-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-29;2022-03-29.csv</v>
+        <v>2022-05-29;2022-05-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-29'; SET @perioddate=str_to_date('2022-03-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-29'; SET @perioddate=str_to_date('2022-05-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-29;2022-03-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-29;2022-05-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-30</v>
+        <v>2022-05-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-30;2022-03-30.csv</v>
+        <v>2022-05-30;2022-05-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-30'; SET @perioddate=str_to_date('2022-03-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-30'; SET @perioddate=str_to_date('2022-05-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-30;2022-03-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-30;2022-05-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-03-31</v>
+        <v>2022-05-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-03-31;2022-03-31.csv</v>
+        <v>2022-05-31;2022-05-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-03-31'; SET @perioddate=str_to_date('2022-03-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-05-31'; SET @perioddate=str_to_date('2022-05-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-03-31;2022-03-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-31;2022-05-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0010B-1E3D-4A18-A1F8-6BAB0F0FED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990C2D32-0FF2-4FA9-BA5D-F7BEDAD433F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs_loading" sheetId="5" r:id="rId1"/>
@@ -1918,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-05-01</v>
+        <v>2022-06-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-05-01;2022-05-01.csv</v>
+        <v>2022-06-01;2022-06-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-05-01'; SET @perioddate=str_to_date('2022-05-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-01'; SET @perioddate=str_to_date('2022-06-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-01;2022-05-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-01;2022-06-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-05-02</v>
+        <v>2022-06-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-05-02;2022-05-02.csv</v>
+        <v>2022-06-02;2022-06-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-05-02'; SET @perioddate=str_to_date('2022-05-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-02'; SET @perioddate=str_to_date('2022-06-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-02;2022-05-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-02;2022-06-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-03</v>
+        <v>2022-06-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-03;2022-05-03.csv</v>
+        <v>2022-06-03;2022-06-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-03'; SET @perioddate=str_to_date('2022-05-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-03'; SET @perioddate=str_to_date('2022-06-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-03;2022-05-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-03;2022-06-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-04</v>
+        <v>2022-06-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-04;2022-05-04.csv</v>
+        <v>2022-06-04;2022-06-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-04'; SET @perioddate=str_to_date('2022-05-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-04'; SET @perioddate=str_to_date('2022-06-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-04;2022-05-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-04;2022-06-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-05</v>
+        <v>2022-06-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-05;2022-05-05.csv</v>
+        <v>2022-06-05;2022-06-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-05'; SET @perioddate=str_to_date('2022-05-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-05'; SET @perioddate=str_to_date('2022-06-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-05;2022-05-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-05;2022-06-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-06</v>
+        <v>2022-06-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-06;2022-05-06.csv</v>
+        <v>2022-06-06;2022-06-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-06'; SET @perioddate=str_to_date('2022-05-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-06'; SET @perioddate=str_to_date('2022-06-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-06;2022-05-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-06;2022-06-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-07</v>
+        <v>2022-06-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-07;2022-05-07.csv</v>
+        <v>2022-06-07;2022-06-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-07'; SET @perioddate=str_to_date('2022-05-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-07'; SET @perioddate=str_to_date('2022-06-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-07;2022-05-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-07;2022-06-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-08</v>
+        <v>2022-06-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-08;2022-05-08.csv</v>
+        <v>2022-06-08;2022-06-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-08'; SET @perioddate=str_to_date('2022-05-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-08'; SET @perioddate=str_to_date('2022-06-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-08;2022-05-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-08;2022-06-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-09</v>
+        <v>2022-06-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-09;2022-05-09.csv</v>
+        <v>2022-06-09;2022-06-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-09'; SET @perioddate=str_to_date('2022-05-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-09'; SET @perioddate=str_to_date('2022-06-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-09;2022-05-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-09;2022-06-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-10</v>
+        <v>2022-06-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-10;2022-05-10.csv</v>
+        <v>2022-06-10;2022-06-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-10'; SET @perioddate=str_to_date('2022-05-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-10'; SET @perioddate=str_to_date('2022-06-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-10;2022-05-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-10;2022-06-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-11</v>
+        <v>2022-06-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-11;2022-05-11.csv</v>
+        <v>2022-06-11;2022-06-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-11'; SET @perioddate=str_to_date('2022-05-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-11'; SET @perioddate=str_to_date('2022-06-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-11;2022-05-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-11;2022-06-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-12</v>
+        <v>2022-06-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-12;2022-05-12.csv</v>
+        <v>2022-06-12;2022-06-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-12'; SET @perioddate=str_to_date('2022-05-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-12'; SET @perioddate=str_to_date('2022-06-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-12;2022-05-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-12;2022-06-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-13</v>
+        <v>2022-06-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-13;2022-05-13.csv</v>
+        <v>2022-06-13;2022-06-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-13'; SET @perioddate=str_to_date('2022-05-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-13'; SET @perioddate=str_to_date('2022-06-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-13;2022-05-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-13;2022-06-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-14</v>
+        <v>2022-06-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-14;2022-05-14.csv</v>
+        <v>2022-06-14;2022-06-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-14'; SET @perioddate=str_to_date('2022-05-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-14'; SET @perioddate=str_to_date('2022-06-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-14;2022-05-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-14;2022-06-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-15</v>
+        <v>2022-06-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-15;2022-05-15.csv</v>
+        <v>2022-06-15;2022-06-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-15'; SET @perioddate=str_to_date('2022-05-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-15'; SET @perioddate=str_to_date('2022-06-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-15;2022-05-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-15;2022-06-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-16</v>
+        <v>2022-06-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-16;2022-05-16.csv</v>
+        <v>2022-06-16;2022-06-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-16'; SET @perioddate=str_to_date('2022-05-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-16'; SET @perioddate=str_to_date('2022-06-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-16;2022-05-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-16;2022-06-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-17</v>
+        <v>2022-06-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-17;2022-05-17.csv</v>
+        <v>2022-06-17;2022-06-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-17'; SET @perioddate=str_to_date('2022-05-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-17'; SET @perioddate=str_to_date('2022-06-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-17;2022-05-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-17;2022-06-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-18</v>
+        <v>2022-06-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-18;2022-05-18.csv</v>
+        <v>2022-06-18;2022-06-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-18'; SET @perioddate=str_to_date('2022-05-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-18'; SET @perioddate=str_to_date('2022-06-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-18;2022-05-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-18;2022-06-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-19</v>
+        <v>2022-06-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-19;2022-05-19.csv</v>
+        <v>2022-06-19;2022-06-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-19'; SET @perioddate=str_to_date('2022-05-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-19'; SET @perioddate=str_to_date('2022-06-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-19;2022-05-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-19;2022-06-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-20</v>
+        <v>2022-06-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-20;2022-05-20.csv</v>
+        <v>2022-06-20;2022-06-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-20'; SET @perioddate=str_to_date('2022-05-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-20'; SET @perioddate=str_to_date('2022-06-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-20;2022-05-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-20;2022-06-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-21</v>
+        <v>2022-06-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-21;2022-05-21.csv</v>
+        <v>2022-06-21;2022-06-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-21'; SET @perioddate=str_to_date('2022-05-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-21'; SET @perioddate=str_to_date('2022-06-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-21;2022-05-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-21;2022-06-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-22</v>
+        <v>2022-06-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-22;2022-05-22.csv</v>
+        <v>2022-06-22;2022-06-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-22'; SET @perioddate=str_to_date('2022-05-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-22'; SET @perioddate=str_to_date('2022-06-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-22;2022-05-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-22;2022-06-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-23</v>
+        <v>2022-06-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-23;2022-05-23.csv</v>
+        <v>2022-06-23;2022-06-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-23'; SET @perioddate=str_to_date('2022-05-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-23'; SET @perioddate=str_to_date('2022-06-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-23;2022-05-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-23;2022-06-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-24</v>
+        <v>2022-06-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-24;2022-05-24.csv</v>
+        <v>2022-06-24;2022-06-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-24'; SET @perioddate=str_to_date('2022-05-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-24'; SET @perioddate=str_to_date('2022-06-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-24;2022-05-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-24;2022-06-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-25</v>
+        <v>2022-06-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-25;2022-05-25.csv</v>
+        <v>2022-06-25;2022-06-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-25'; SET @perioddate=str_to_date('2022-05-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-25'; SET @perioddate=str_to_date('2022-06-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-25;2022-05-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-25;2022-06-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-26</v>
+        <v>2022-06-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-26;2022-05-26.csv</v>
+        <v>2022-06-26;2022-06-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-26'; SET @perioddate=str_to_date('2022-05-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-26'; SET @perioddate=str_to_date('2022-06-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-26;2022-05-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-26;2022-06-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-27</v>
+        <v>2022-06-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-27;2022-05-27.csv</v>
+        <v>2022-06-27;2022-06-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-27'; SET @perioddate=str_to_date('2022-05-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-27'; SET @perioddate=str_to_date('2022-06-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-27;2022-05-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-27;2022-06-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-28</v>
+        <v>2022-06-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-28;2022-05-28.csv</v>
+        <v>2022-06-28;2022-06-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-28'; SET @perioddate=str_to_date('2022-05-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-28'; SET @perioddate=str_to_date('2022-06-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-28;2022-05-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-28;2022-06-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-29</v>
+        <v>2022-06-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-29;2022-05-29.csv</v>
+        <v>2022-06-29;2022-06-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-29'; SET @perioddate=str_to_date('2022-05-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-29'; SET @perioddate=str_to_date('2022-06-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-29;2022-05-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-29;2022-06-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-30</v>
+        <v>2022-06-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-30;2022-05-30.csv</v>
+        <v>2022-06-30;2022-06-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-30'; SET @perioddate=str_to_date('2022-05-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-30'; SET @perioddate=str_to_date('2022-06-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-30;2022-05-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-30;2022-06-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-05-31</v>
+        <v>2022-06-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-05-31;2022-05-31.csv</v>
+        <v>2022-06-31;2022-06-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-05-31'; SET @perioddate=str_to_date('2022-05-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-06-31'; SET @perioddate=str_to_date('2022-06-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-05-31;2022-05-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-31;2022-06-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990C2D32-0FF2-4FA9-BA5D-F7BEDAD433F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71CAC1-7F57-4F3D-99DD-443C4138CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I32"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-06-01</v>
+        <v>2022-07-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-06-01;2022-06-01.csv</v>
+        <v>2022-07-01;2022-07-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-06-01'; SET @perioddate=str_to_date('2022-06-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-01'; SET @perioddate=str_to_date('2022-07-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-01;2022-06-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-01;2022-07-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-06-02</v>
+        <v>2022-07-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-06-02;2022-06-02.csv</v>
+        <v>2022-07-02;2022-07-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-06-02'; SET @perioddate=str_to_date('2022-06-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-02'; SET @perioddate=str_to_date('2022-07-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-02;2022-06-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-02;2022-07-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-03</v>
+        <v>2022-07-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-03;2022-06-03.csv</v>
+        <v>2022-07-03;2022-07-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-03'; SET @perioddate=str_to_date('2022-06-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-03'; SET @perioddate=str_to_date('2022-07-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-03;2022-06-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-03;2022-07-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-04</v>
+        <v>2022-07-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-04;2022-06-04.csv</v>
+        <v>2022-07-04;2022-07-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-04'; SET @perioddate=str_to_date('2022-06-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-04'; SET @perioddate=str_to_date('2022-07-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-04;2022-06-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-04;2022-07-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-05</v>
+        <v>2022-07-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-05;2022-06-05.csv</v>
+        <v>2022-07-05;2022-07-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-05'; SET @perioddate=str_to_date('2022-06-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-05'; SET @perioddate=str_to_date('2022-07-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-05;2022-06-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-05;2022-07-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-06</v>
+        <v>2022-07-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-06;2022-06-06.csv</v>
+        <v>2022-07-06;2022-07-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-06'; SET @perioddate=str_to_date('2022-06-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-06'; SET @perioddate=str_to_date('2022-07-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-06;2022-06-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-06;2022-07-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-07</v>
+        <v>2022-07-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-07;2022-06-07.csv</v>
+        <v>2022-07-07;2022-07-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-07'; SET @perioddate=str_to_date('2022-06-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-07'; SET @perioddate=str_to_date('2022-07-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-07;2022-06-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-07;2022-07-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-08</v>
+        <v>2022-07-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-08;2022-06-08.csv</v>
+        <v>2022-07-08;2022-07-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-08'; SET @perioddate=str_to_date('2022-06-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-08'; SET @perioddate=str_to_date('2022-07-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-08;2022-06-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-08;2022-07-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-09</v>
+        <v>2022-07-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-09;2022-06-09.csv</v>
+        <v>2022-07-09;2022-07-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-09'; SET @perioddate=str_to_date('2022-06-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-09'; SET @perioddate=str_to_date('2022-07-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-09;2022-06-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-09;2022-07-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-10</v>
+        <v>2022-07-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-10;2022-06-10.csv</v>
+        <v>2022-07-10;2022-07-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-10'; SET @perioddate=str_to_date('2022-06-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-10'; SET @perioddate=str_to_date('2022-07-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-10;2022-06-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-10;2022-07-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-11</v>
+        <v>2022-07-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-11;2022-06-11.csv</v>
+        <v>2022-07-11;2022-07-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-11'; SET @perioddate=str_to_date('2022-06-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-11'; SET @perioddate=str_to_date('2022-07-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-11;2022-06-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-11;2022-07-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-12</v>
+        <v>2022-07-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-12;2022-06-12.csv</v>
+        <v>2022-07-12;2022-07-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-12'; SET @perioddate=str_to_date('2022-06-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-12'; SET @perioddate=str_to_date('2022-07-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-12;2022-06-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-12;2022-07-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-13</v>
+        <v>2022-07-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-13;2022-06-13.csv</v>
+        <v>2022-07-13;2022-07-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-13'; SET @perioddate=str_to_date('2022-06-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-13'; SET @perioddate=str_to_date('2022-07-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-13;2022-06-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-13;2022-07-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-14</v>
+        <v>2022-07-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-14;2022-06-14.csv</v>
+        <v>2022-07-14;2022-07-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-14'; SET @perioddate=str_to_date('2022-06-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-14'; SET @perioddate=str_to_date('2022-07-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-14;2022-06-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-14;2022-07-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-15</v>
+        <v>2022-07-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-15;2022-06-15.csv</v>
+        <v>2022-07-15;2022-07-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-15'; SET @perioddate=str_to_date('2022-06-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-15'; SET @perioddate=str_to_date('2022-07-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-15;2022-06-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-15;2022-07-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-16</v>
+        <v>2022-07-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-16;2022-06-16.csv</v>
+        <v>2022-07-16;2022-07-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-16'; SET @perioddate=str_to_date('2022-06-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-16'; SET @perioddate=str_to_date('2022-07-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-16;2022-06-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-16;2022-07-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-17</v>
+        <v>2022-07-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-17;2022-06-17.csv</v>
+        <v>2022-07-17;2022-07-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-17'; SET @perioddate=str_to_date('2022-06-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-17'; SET @perioddate=str_to_date('2022-07-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-17;2022-06-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-17;2022-07-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-18</v>
+        <v>2022-07-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-18;2022-06-18.csv</v>
+        <v>2022-07-18;2022-07-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-18'; SET @perioddate=str_to_date('2022-06-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-18'; SET @perioddate=str_to_date('2022-07-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-18;2022-06-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-18;2022-07-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-19</v>
+        <v>2022-07-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-19;2022-06-19.csv</v>
+        <v>2022-07-19;2022-07-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-19'; SET @perioddate=str_to_date('2022-06-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-19'; SET @perioddate=str_to_date('2022-07-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-19;2022-06-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-19;2022-07-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-20</v>
+        <v>2022-07-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-20;2022-06-20.csv</v>
+        <v>2022-07-20;2022-07-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-20'; SET @perioddate=str_to_date('2022-06-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-20'; SET @perioddate=str_to_date('2022-07-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-20;2022-06-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-20;2022-07-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-21</v>
+        <v>2022-07-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-21;2022-06-21.csv</v>
+        <v>2022-07-21;2022-07-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-21'; SET @perioddate=str_to_date('2022-06-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-21'; SET @perioddate=str_to_date('2022-07-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-21;2022-06-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-21;2022-07-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-22</v>
+        <v>2022-07-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-22;2022-06-22.csv</v>
+        <v>2022-07-22;2022-07-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-22'; SET @perioddate=str_to_date('2022-06-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-22'; SET @perioddate=str_to_date('2022-07-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-22;2022-06-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-22;2022-07-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-23</v>
+        <v>2022-07-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-23;2022-06-23.csv</v>
+        <v>2022-07-23;2022-07-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-23'; SET @perioddate=str_to_date('2022-06-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-23'; SET @perioddate=str_to_date('2022-07-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-23;2022-06-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-23;2022-07-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-24</v>
+        <v>2022-07-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-24;2022-06-24.csv</v>
+        <v>2022-07-24;2022-07-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-24'; SET @perioddate=str_to_date('2022-06-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-24'; SET @perioddate=str_to_date('2022-07-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-24;2022-06-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-24;2022-07-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-25</v>
+        <v>2022-07-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-25;2022-06-25.csv</v>
+        <v>2022-07-25;2022-07-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-25'; SET @perioddate=str_to_date('2022-06-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-25'; SET @perioddate=str_to_date('2022-07-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-25;2022-06-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-25;2022-07-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-26</v>
+        <v>2022-07-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-26;2022-06-26.csv</v>
+        <v>2022-07-26;2022-07-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-26'; SET @perioddate=str_to_date('2022-06-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-26'; SET @perioddate=str_to_date('2022-07-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-26;2022-06-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-26;2022-07-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-27</v>
+        <v>2022-07-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-27;2022-06-27.csv</v>
+        <v>2022-07-27;2022-07-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-27'; SET @perioddate=str_to_date('2022-06-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-27'; SET @perioddate=str_to_date('2022-07-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-27;2022-06-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-27;2022-07-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-28</v>
+        <v>2022-07-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-28;2022-06-28.csv</v>
+        <v>2022-07-28;2022-07-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-28'; SET @perioddate=str_to_date('2022-06-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-28'; SET @perioddate=str_to_date('2022-07-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-28;2022-06-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-28;2022-07-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-29</v>
+        <v>2022-07-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-29;2022-06-29.csv</v>
+        <v>2022-07-29;2022-07-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-29'; SET @perioddate=str_to_date('2022-06-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-29'; SET @perioddate=str_to_date('2022-07-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-29;2022-06-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-29;2022-07-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-30</v>
+        <v>2022-07-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-30;2022-06-30.csv</v>
+        <v>2022-07-30;2022-07-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-30'; SET @perioddate=str_to_date('2022-06-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-30'; SET @perioddate=str_to_date('2022-07-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-30;2022-06-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-30;2022-07-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-06-31</v>
+        <v>2022-07-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-06-31;2022-06-31.csv</v>
+        <v>2022-07-31;2022-07-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-06-31'; SET @perioddate=str_to_date('2022-06-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-07-31'; SET @perioddate=str_to_date('2022-07-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-06-31;2022-06-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-31;2022-07-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71CAC1-7F57-4F3D-99DD-443C4138CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0CF9C-F23A-40D5-A206-2249835BF17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-07-01</v>
+        <v>2022-08-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-07-01;2022-07-01.csv</v>
+        <v>2022-08-01;2022-08-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-07-01'; SET @perioddate=str_to_date('2022-07-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-01'; SET @perioddate=str_to_date('2022-08-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-01;2022-07-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-01;2022-08-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-07-02</v>
+        <v>2022-08-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-07-02;2022-07-02.csv</v>
+        <v>2022-08-02;2022-08-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-07-02'; SET @perioddate=str_to_date('2022-07-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-02'; SET @perioddate=str_to_date('2022-08-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-02;2022-07-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-02;2022-08-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-03</v>
+        <v>2022-08-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-03;2022-07-03.csv</v>
+        <v>2022-08-03;2022-08-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-03'; SET @perioddate=str_to_date('2022-07-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-03'; SET @perioddate=str_to_date('2022-08-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-03;2022-07-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-03;2022-08-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-04</v>
+        <v>2022-08-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-04;2022-07-04.csv</v>
+        <v>2022-08-04;2022-08-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-04'; SET @perioddate=str_to_date('2022-07-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-04'; SET @perioddate=str_to_date('2022-08-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-04;2022-07-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-04;2022-08-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-05</v>
+        <v>2022-08-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-05;2022-07-05.csv</v>
+        <v>2022-08-05;2022-08-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-05'; SET @perioddate=str_to_date('2022-07-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-05'; SET @perioddate=str_to_date('2022-08-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-05;2022-07-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-05;2022-08-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-06</v>
+        <v>2022-08-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-06;2022-07-06.csv</v>
+        <v>2022-08-06;2022-08-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-06'; SET @perioddate=str_to_date('2022-07-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-06'; SET @perioddate=str_to_date('2022-08-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-06;2022-07-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-06;2022-08-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-07</v>
+        <v>2022-08-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-07;2022-07-07.csv</v>
+        <v>2022-08-07;2022-08-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-07'; SET @perioddate=str_to_date('2022-07-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-07'; SET @perioddate=str_to_date('2022-08-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-07;2022-07-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-07;2022-08-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-08</v>
+        <v>2022-08-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-08;2022-07-08.csv</v>
+        <v>2022-08-08;2022-08-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-08'; SET @perioddate=str_to_date('2022-07-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-08'; SET @perioddate=str_to_date('2022-08-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-08;2022-07-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-08;2022-08-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-09</v>
+        <v>2022-08-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-09;2022-07-09.csv</v>
+        <v>2022-08-09;2022-08-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-09'; SET @perioddate=str_to_date('2022-07-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-09'; SET @perioddate=str_to_date('2022-08-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-09;2022-07-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-09;2022-08-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-10</v>
+        <v>2022-08-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-10;2022-07-10.csv</v>
+        <v>2022-08-10;2022-08-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-10'; SET @perioddate=str_to_date('2022-07-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-10'; SET @perioddate=str_to_date('2022-08-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-10;2022-07-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-10;2022-08-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-11</v>
+        <v>2022-08-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-11;2022-07-11.csv</v>
+        <v>2022-08-11;2022-08-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-11'; SET @perioddate=str_to_date('2022-07-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-11'; SET @perioddate=str_to_date('2022-08-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-11;2022-07-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-11;2022-08-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-12</v>
+        <v>2022-08-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-12;2022-07-12.csv</v>
+        <v>2022-08-12;2022-08-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-12'; SET @perioddate=str_to_date('2022-07-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-12'; SET @perioddate=str_to_date('2022-08-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-12;2022-07-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-12;2022-08-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-13</v>
+        <v>2022-08-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-13;2022-07-13.csv</v>
+        <v>2022-08-13;2022-08-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-13'; SET @perioddate=str_to_date('2022-07-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-13'; SET @perioddate=str_to_date('2022-08-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-13;2022-07-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-13;2022-08-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-14</v>
+        <v>2022-08-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-14;2022-07-14.csv</v>
+        <v>2022-08-14;2022-08-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-14'; SET @perioddate=str_to_date('2022-07-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-14'; SET @perioddate=str_to_date('2022-08-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-14;2022-07-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-14;2022-08-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-15</v>
+        <v>2022-08-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-15;2022-07-15.csv</v>
+        <v>2022-08-15;2022-08-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-15'; SET @perioddate=str_to_date('2022-07-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-15'; SET @perioddate=str_to_date('2022-08-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-15;2022-07-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-15;2022-08-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-16</v>
+        <v>2022-08-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-16;2022-07-16.csv</v>
+        <v>2022-08-16;2022-08-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-16'; SET @perioddate=str_to_date('2022-07-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-16'; SET @perioddate=str_to_date('2022-08-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-16;2022-07-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-16;2022-08-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-17</v>
+        <v>2022-08-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-17;2022-07-17.csv</v>
+        <v>2022-08-17;2022-08-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-17'; SET @perioddate=str_to_date('2022-07-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-17'; SET @perioddate=str_to_date('2022-08-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-17;2022-07-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-17;2022-08-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-18</v>
+        <v>2022-08-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-18;2022-07-18.csv</v>
+        <v>2022-08-18;2022-08-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-18'; SET @perioddate=str_to_date('2022-07-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-18'; SET @perioddate=str_to_date('2022-08-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-18;2022-07-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-18;2022-08-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-19</v>
+        <v>2022-08-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-19;2022-07-19.csv</v>
+        <v>2022-08-19;2022-08-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-19'; SET @perioddate=str_to_date('2022-07-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-19'; SET @perioddate=str_to_date('2022-08-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-19;2022-07-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-19;2022-08-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-20</v>
+        <v>2022-08-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-20;2022-07-20.csv</v>
+        <v>2022-08-20;2022-08-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-20'; SET @perioddate=str_to_date('2022-07-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-20'; SET @perioddate=str_to_date('2022-08-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-20;2022-07-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-20;2022-08-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-21</v>
+        <v>2022-08-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-21;2022-07-21.csv</v>
+        <v>2022-08-21;2022-08-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-21'; SET @perioddate=str_to_date('2022-07-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-21'; SET @perioddate=str_to_date('2022-08-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-21;2022-07-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-21;2022-08-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-22</v>
+        <v>2022-08-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-22;2022-07-22.csv</v>
+        <v>2022-08-22;2022-08-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-22'; SET @perioddate=str_to_date('2022-07-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-22'; SET @perioddate=str_to_date('2022-08-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-22;2022-07-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-22;2022-08-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-23</v>
+        <v>2022-08-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-23;2022-07-23.csv</v>
+        <v>2022-08-23;2022-08-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-23'; SET @perioddate=str_to_date('2022-07-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-23'; SET @perioddate=str_to_date('2022-08-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-23;2022-07-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-23;2022-08-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-24</v>
+        <v>2022-08-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-24;2022-07-24.csv</v>
+        <v>2022-08-24;2022-08-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-24'; SET @perioddate=str_to_date('2022-07-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-24'; SET @perioddate=str_to_date('2022-08-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-24;2022-07-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-24;2022-08-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-25</v>
+        <v>2022-08-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-25;2022-07-25.csv</v>
+        <v>2022-08-25;2022-08-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-25'; SET @perioddate=str_to_date('2022-07-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-25'; SET @perioddate=str_to_date('2022-08-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-25;2022-07-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-25;2022-08-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-26</v>
+        <v>2022-08-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-26;2022-07-26.csv</v>
+        <v>2022-08-26;2022-08-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-26'; SET @perioddate=str_to_date('2022-07-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-26'; SET @perioddate=str_to_date('2022-08-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-26;2022-07-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-26;2022-08-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-27</v>
+        <v>2022-08-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-27;2022-07-27.csv</v>
+        <v>2022-08-27;2022-08-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-27'; SET @perioddate=str_to_date('2022-07-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-27'; SET @perioddate=str_to_date('2022-08-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-27;2022-07-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-27;2022-08-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-28</v>
+        <v>2022-08-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-28;2022-07-28.csv</v>
+        <v>2022-08-28;2022-08-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-28'; SET @perioddate=str_to_date('2022-07-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-28'; SET @perioddate=str_to_date('2022-08-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-28;2022-07-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-28;2022-08-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-29</v>
+        <v>2022-08-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-29;2022-07-29.csv</v>
+        <v>2022-08-29;2022-08-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-29'; SET @perioddate=str_to_date('2022-07-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-29'; SET @perioddate=str_to_date('2022-08-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-29;2022-07-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-29;2022-08-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-30</v>
+        <v>2022-08-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-30;2022-07-30.csv</v>
+        <v>2022-08-30;2022-08-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-30'; SET @perioddate=str_to_date('2022-07-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-30'; SET @perioddate=str_to_date('2022-08-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-30;2022-07-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-30;2022-08-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-07-31</v>
+        <v>2022-08-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-07-31;2022-07-31.csv</v>
+        <v>2022-08-31;2022-08-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-07-31'; SET @perioddate=str_to_date('2022-07-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-08-31'; SET @perioddate=str_to_date('2022-08-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-07-31;2022-07-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-31;2022-08-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0CF9C-F23A-40D5-A206-2249835BF17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF087FC5-F507-41A1-87E1-3F602344E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="G2" sqref="G2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-08-01</v>
+        <v>2022-09-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-08-01;2022-08-01.csv</v>
+        <v>2022-09-01;2022-09-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-08-01'; SET @perioddate=str_to_date('2022-08-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-01'; SET @perioddate=str_to_date('2022-09-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-01;2022-08-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-01;2022-09-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-08-02</v>
+        <v>2022-09-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-08-02;2022-08-02.csv</v>
+        <v>2022-09-02;2022-09-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-08-02'; SET @perioddate=str_to_date('2022-08-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-02'; SET @perioddate=str_to_date('2022-09-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-02;2022-08-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-02;2022-09-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-03</v>
+        <v>2022-09-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-03;2022-08-03.csv</v>
+        <v>2022-09-03;2022-09-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-03'; SET @perioddate=str_to_date('2022-08-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-03'; SET @perioddate=str_to_date('2022-09-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-03;2022-08-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-03;2022-09-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-04</v>
+        <v>2022-09-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-04;2022-08-04.csv</v>
+        <v>2022-09-04;2022-09-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-04'; SET @perioddate=str_to_date('2022-08-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-04'; SET @perioddate=str_to_date('2022-09-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-04;2022-08-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-04;2022-09-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-05</v>
+        <v>2022-09-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-05;2022-08-05.csv</v>
+        <v>2022-09-05;2022-09-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-05'; SET @perioddate=str_to_date('2022-08-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-05'; SET @perioddate=str_to_date('2022-09-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-05;2022-08-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-05;2022-09-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-06</v>
+        <v>2022-09-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-06;2022-08-06.csv</v>
+        <v>2022-09-06;2022-09-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-06'; SET @perioddate=str_to_date('2022-08-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-06'; SET @perioddate=str_to_date('2022-09-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-06;2022-08-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-06;2022-09-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-07</v>
+        <v>2022-09-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-07;2022-08-07.csv</v>
+        <v>2022-09-07;2022-09-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-07'; SET @perioddate=str_to_date('2022-08-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-07'; SET @perioddate=str_to_date('2022-09-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-07;2022-08-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-07;2022-09-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-08</v>
+        <v>2022-09-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-08;2022-08-08.csv</v>
+        <v>2022-09-08;2022-09-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-08'; SET @perioddate=str_to_date('2022-08-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-08'; SET @perioddate=str_to_date('2022-09-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-08;2022-08-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-08;2022-09-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-09</v>
+        <v>2022-09-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-09;2022-08-09.csv</v>
+        <v>2022-09-09;2022-09-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-09'; SET @perioddate=str_to_date('2022-08-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-09'; SET @perioddate=str_to_date('2022-09-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-09;2022-08-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-09;2022-09-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-10</v>
+        <v>2022-09-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-10;2022-08-10.csv</v>
+        <v>2022-09-10;2022-09-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-10'; SET @perioddate=str_to_date('2022-08-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-10'; SET @perioddate=str_to_date('2022-09-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-10;2022-08-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-10;2022-09-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-11</v>
+        <v>2022-09-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-11;2022-08-11.csv</v>
+        <v>2022-09-11;2022-09-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-11'; SET @perioddate=str_to_date('2022-08-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-11'; SET @perioddate=str_to_date('2022-09-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-11;2022-08-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-11;2022-09-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-12</v>
+        <v>2022-09-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-12;2022-08-12.csv</v>
+        <v>2022-09-12;2022-09-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-12'; SET @perioddate=str_to_date('2022-08-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-12'; SET @perioddate=str_to_date('2022-09-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-12;2022-08-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-12;2022-09-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-13</v>
+        <v>2022-09-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-13;2022-08-13.csv</v>
+        <v>2022-09-13;2022-09-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-13'; SET @perioddate=str_to_date('2022-08-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-13'; SET @perioddate=str_to_date('2022-09-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-13;2022-08-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-13;2022-09-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-14</v>
+        <v>2022-09-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-14;2022-08-14.csv</v>
+        <v>2022-09-14;2022-09-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-14'; SET @perioddate=str_to_date('2022-08-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-14'; SET @perioddate=str_to_date('2022-09-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-14;2022-08-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-14;2022-09-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-15</v>
+        <v>2022-09-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-15;2022-08-15.csv</v>
+        <v>2022-09-15;2022-09-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-15'; SET @perioddate=str_to_date('2022-08-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-15'; SET @perioddate=str_to_date('2022-09-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-15;2022-08-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-15;2022-09-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-16</v>
+        <v>2022-09-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-16;2022-08-16.csv</v>
+        <v>2022-09-16;2022-09-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-16'; SET @perioddate=str_to_date('2022-08-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-16'; SET @perioddate=str_to_date('2022-09-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-16;2022-08-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-16;2022-09-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-17</v>
+        <v>2022-09-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-17;2022-08-17.csv</v>
+        <v>2022-09-17;2022-09-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-17'; SET @perioddate=str_to_date('2022-08-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-17'; SET @perioddate=str_to_date('2022-09-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-17;2022-08-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-17;2022-09-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-18</v>
+        <v>2022-09-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-18;2022-08-18.csv</v>
+        <v>2022-09-18;2022-09-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-18'; SET @perioddate=str_to_date('2022-08-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-18'; SET @perioddate=str_to_date('2022-09-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-18;2022-08-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-18;2022-09-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-19</v>
+        <v>2022-09-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-19;2022-08-19.csv</v>
+        <v>2022-09-19;2022-09-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-19'; SET @perioddate=str_to_date('2022-08-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-19'; SET @perioddate=str_to_date('2022-09-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-19;2022-08-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-19;2022-09-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-20</v>
+        <v>2022-09-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-20;2022-08-20.csv</v>
+        <v>2022-09-20;2022-09-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-20'; SET @perioddate=str_to_date('2022-08-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-20'; SET @perioddate=str_to_date('2022-09-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-20;2022-08-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-20;2022-09-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-21</v>
+        <v>2022-09-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-21;2022-08-21.csv</v>
+        <v>2022-09-21;2022-09-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-21'; SET @perioddate=str_to_date('2022-08-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-21'; SET @perioddate=str_to_date('2022-09-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-21;2022-08-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-21;2022-09-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-22</v>
+        <v>2022-09-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-22;2022-08-22.csv</v>
+        <v>2022-09-22;2022-09-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-22'; SET @perioddate=str_to_date('2022-08-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-22'; SET @perioddate=str_to_date('2022-09-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-22;2022-08-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-22;2022-09-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-23</v>
+        <v>2022-09-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-23;2022-08-23.csv</v>
+        <v>2022-09-23;2022-09-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-23'; SET @perioddate=str_to_date('2022-08-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-23'; SET @perioddate=str_to_date('2022-09-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-23;2022-08-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-23;2022-09-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-24</v>
+        <v>2022-09-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-24;2022-08-24.csv</v>
+        <v>2022-09-24;2022-09-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-24'; SET @perioddate=str_to_date('2022-08-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-24'; SET @perioddate=str_to_date('2022-09-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-24;2022-08-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-24;2022-09-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-25</v>
+        <v>2022-09-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-25;2022-08-25.csv</v>
+        <v>2022-09-25;2022-09-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-25'; SET @perioddate=str_to_date('2022-08-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-25'; SET @perioddate=str_to_date('2022-09-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-25;2022-08-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-25;2022-09-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-26</v>
+        <v>2022-09-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-26;2022-08-26.csv</v>
+        <v>2022-09-26;2022-09-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-26'; SET @perioddate=str_to_date('2022-08-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-26'; SET @perioddate=str_to_date('2022-09-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-26;2022-08-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-26;2022-09-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-27</v>
+        <v>2022-09-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-27;2022-08-27.csv</v>
+        <v>2022-09-27;2022-09-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-27'; SET @perioddate=str_to_date('2022-08-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-27'; SET @perioddate=str_to_date('2022-09-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-27;2022-08-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-27;2022-09-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-28</v>
+        <v>2022-09-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-28;2022-08-28.csv</v>
+        <v>2022-09-28;2022-09-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-28'; SET @perioddate=str_to_date('2022-08-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-28'; SET @perioddate=str_to_date('2022-09-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-28;2022-08-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-28;2022-09-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-29</v>
+        <v>2022-09-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-29;2022-08-29.csv</v>
+        <v>2022-09-29;2022-09-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-29'; SET @perioddate=str_to_date('2022-08-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-29'; SET @perioddate=str_to_date('2022-09-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-29;2022-08-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-29;2022-09-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-30</v>
+        <v>2022-09-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-30;2022-08-30.csv</v>
+        <v>2022-09-30;2022-09-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-30'; SET @perioddate=str_to_date('2022-08-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-30'; SET @perioddate=str_to_date('2022-09-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-30;2022-08-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-30;2022-09-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-08-31</v>
+        <v>2022-09-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-08-31;2022-08-31.csv</v>
+        <v>2022-09-31;2022-09-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-08-31'; SET @perioddate=str_to_date('2022-08-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-09-31'; SET @perioddate=str_to_date('2022-09-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-08-31;2022-08-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-31;2022-09-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF087FC5-F507-41A1-87E1-3F602344E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC594F-F705-4F84-852A-4859078726F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-09-01</v>
+        <v>2022-10-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-09-01;2022-09-01.csv</v>
+        <v>2022-10-01;2022-10-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-09-01'; SET @perioddate=str_to_date('2022-09-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-01'; SET @perioddate=str_to_date('2022-10-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-01;2022-09-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-01;2022-10-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-09-02</v>
+        <v>2022-10-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-09-02;2022-09-02.csv</v>
+        <v>2022-10-02;2022-10-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-09-02'; SET @perioddate=str_to_date('2022-09-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-02'; SET @perioddate=str_to_date('2022-10-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-02;2022-09-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-02;2022-10-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-03</v>
+        <v>2022-10-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-03;2022-09-03.csv</v>
+        <v>2022-10-03;2022-10-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-03'; SET @perioddate=str_to_date('2022-09-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-03'; SET @perioddate=str_to_date('2022-10-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-03;2022-09-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-03;2022-10-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-04</v>
+        <v>2022-10-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-04;2022-09-04.csv</v>
+        <v>2022-10-04;2022-10-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-04'; SET @perioddate=str_to_date('2022-09-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-04'; SET @perioddate=str_to_date('2022-10-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-04;2022-09-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-04;2022-10-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-05</v>
+        <v>2022-10-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-05;2022-09-05.csv</v>
+        <v>2022-10-05;2022-10-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-05'; SET @perioddate=str_to_date('2022-09-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-05'; SET @perioddate=str_to_date('2022-10-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-05;2022-09-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-05;2022-10-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-06</v>
+        <v>2022-10-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-06;2022-09-06.csv</v>
+        <v>2022-10-06;2022-10-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-06'; SET @perioddate=str_to_date('2022-09-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-06'; SET @perioddate=str_to_date('2022-10-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-06;2022-09-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-06;2022-10-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-07</v>
+        <v>2022-10-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-07;2022-09-07.csv</v>
+        <v>2022-10-07;2022-10-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-07'; SET @perioddate=str_to_date('2022-09-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-07'; SET @perioddate=str_to_date('2022-10-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-07;2022-09-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-07;2022-10-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-08</v>
+        <v>2022-10-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-08;2022-09-08.csv</v>
+        <v>2022-10-08;2022-10-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-08'; SET @perioddate=str_to_date('2022-09-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-08'; SET @perioddate=str_to_date('2022-10-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-08;2022-09-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-08;2022-10-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-09</v>
+        <v>2022-10-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-09;2022-09-09.csv</v>
+        <v>2022-10-09;2022-10-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-09'; SET @perioddate=str_to_date('2022-09-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-09'; SET @perioddate=str_to_date('2022-10-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-09;2022-09-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-09;2022-10-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-10</v>
+        <v>2022-10-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-10;2022-09-10.csv</v>
+        <v>2022-10-10;2022-10-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-10'; SET @perioddate=str_to_date('2022-09-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-10'; SET @perioddate=str_to_date('2022-10-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-10;2022-09-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-10;2022-10-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-11</v>
+        <v>2022-10-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-11;2022-09-11.csv</v>
+        <v>2022-10-11;2022-10-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-11'; SET @perioddate=str_to_date('2022-09-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-11'; SET @perioddate=str_to_date('2022-10-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-11;2022-09-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-11;2022-10-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-12</v>
+        <v>2022-10-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-12;2022-09-12.csv</v>
+        <v>2022-10-12;2022-10-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-12'; SET @perioddate=str_to_date('2022-09-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-12'; SET @perioddate=str_to_date('2022-10-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-12;2022-09-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-12;2022-10-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-13</v>
+        <v>2022-10-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-13;2022-09-13.csv</v>
+        <v>2022-10-13;2022-10-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-13'; SET @perioddate=str_to_date('2022-09-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-13'; SET @perioddate=str_to_date('2022-10-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-13;2022-09-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-13;2022-10-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-14</v>
+        <v>2022-10-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-14;2022-09-14.csv</v>
+        <v>2022-10-14;2022-10-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-14'; SET @perioddate=str_to_date('2022-09-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-14'; SET @perioddate=str_to_date('2022-10-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-14;2022-09-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-14;2022-10-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-15</v>
+        <v>2022-10-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-15;2022-09-15.csv</v>
+        <v>2022-10-15;2022-10-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-15'; SET @perioddate=str_to_date('2022-09-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-15'; SET @perioddate=str_to_date('2022-10-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-15;2022-09-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-15;2022-10-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-16</v>
+        <v>2022-10-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-16;2022-09-16.csv</v>
+        <v>2022-10-16;2022-10-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-16'; SET @perioddate=str_to_date('2022-09-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-16'; SET @perioddate=str_to_date('2022-10-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-16;2022-09-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-16;2022-10-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-17</v>
+        <v>2022-10-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-17;2022-09-17.csv</v>
+        <v>2022-10-17;2022-10-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-17'; SET @perioddate=str_to_date('2022-09-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-17'; SET @perioddate=str_to_date('2022-10-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-17;2022-09-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-17;2022-10-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-18</v>
+        <v>2022-10-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-18;2022-09-18.csv</v>
+        <v>2022-10-18;2022-10-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-18'; SET @perioddate=str_to_date('2022-09-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-18'; SET @perioddate=str_to_date('2022-10-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-18;2022-09-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-18;2022-10-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-19</v>
+        <v>2022-10-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-19;2022-09-19.csv</v>
+        <v>2022-10-19;2022-10-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-19'; SET @perioddate=str_to_date('2022-09-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-19'; SET @perioddate=str_to_date('2022-10-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-19;2022-09-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-19;2022-10-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-20</v>
+        <v>2022-10-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-20;2022-09-20.csv</v>
+        <v>2022-10-20;2022-10-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-20'; SET @perioddate=str_to_date('2022-09-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-20'; SET @perioddate=str_to_date('2022-10-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-20;2022-09-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-20;2022-10-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-21</v>
+        <v>2022-10-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-21;2022-09-21.csv</v>
+        <v>2022-10-21;2022-10-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-21'; SET @perioddate=str_to_date('2022-09-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-21'; SET @perioddate=str_to_date('2022-10-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-21;2022-09-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-21;2022-10-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-22</v>
+        <v>2022-10-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-22;2022-09-22.csv</v>
+        <v>2022-10-22;2022-10-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-22'; SET @perioddate=str_to_date('2022-09-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-22'; SET @perioddate=str_to_date('2022-10-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-22;2022-09-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-22;2022-10-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-23</v>
+        <v>2022-10-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-23;2022-09-23.csv</v>
+        <v>2022-10-23;2022-10-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-23'; SET @perioddate=str_to_date('2022-09-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-23'; SET @perioddate=str_to_date('2022-10-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-23;2022-09-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-23;2022-10-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-24</v>
+        <v>2022-10-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-24;2022-09-24.csv</v>
+        <v>2022-10-24;2022-10-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-24'; SET @perioddate=str_to_date('2022-09-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-24'; SET @perioddate=str_to_date('2022-10-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-24;2022-09-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-24;2022-10-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-25</v>
+        <v>2022-10-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-25;2022-09-25.csv</v>
+        <v>2022-10-25;2022-10-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-25'; SET @perioddate=str_to_date('2022-09-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-25'; SET @perioddate=str_to_date('2022-10-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-25;2022-09-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-25;2022-10-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-26</v>
+        <v>2022-10-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-26;2022-09-26.csv</v>
+        <v>2022-10-26;2022-10-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-26'; SET @perioddate=str_to_date('2022-09-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-26'; SET @perioddate=str_to_date('2022-10-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-26;2022-09-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-26;2022-10-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-27</v>
+        <v>2022-10-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-27;2022-09-27.csv</v>
+        <v>2022-10-27;2022-10-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-27'; SET @perioddate=str_to_date('2022-09-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-27'; SET @perioddate=str_to_date('2022-10-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-27;2022-09-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-27;2022-10-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-28</v>
+        <v>2022-10-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-28;2022-09-28.csv</v>
+        <v>2022-10-28;2022-10-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-28'; SET @perioddate=str_to_date('2022-09-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-28'; SET @perioddate=str_to_date('2022-10-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-28;2022-09-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-28;2022-10-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-29</v>
+        <v>2022-10-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-29;2022-09-29.csv</v>
+        <v>2022-10-29;2022-10-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-29'; SET @perioddate=str_to_date('2022-09-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-29'; SET @perioddate=str_to_date('2022-10-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-29;2022-09-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-29;2022-10-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-30</v>
+        <v>2022-10-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-30;2022-09-30.csv</v>
+        <v>2022-10-30;2022-10-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-30'; SET @perioddate=str_to_date('2022-09-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-30'; SET @perioddate=str_to_date('2022-10-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-30;2022-09-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-30;2022-10-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-09-31</v>
+        <v>2022-10-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-09-31;2022-09-31.csv</v>
+        <v>2022-10-31;2022-10-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-09-31'; SET @perioddate=str_to_date('2022-09-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-10-31'; SET @perioddate=str_to_date('2022-10-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-09-31;2022-09-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-31;2022-10-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC594F-F705-4F84-852A-4859078726F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85229889-2CC1-40CC-A77B-E7CCBAB74C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I32"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1952,18 +1952,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-10-01</v>
+        <v>2022-11-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-10-01;2022-10-01.csv</v>
+        <v>2022-11-01;2022-11-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-10-01'; SET @perioddate=str_to_date('2022-10-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-01'; SET @perioddate=str_to_date('2022-11-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-01;2022-10-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-01;2022-11-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1986,18 +1986,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-10-02</v>
+        <v>2022-11-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-10-02;2022-10-02.csv</v>
+        <v>2022-11-02;2022-11-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-10-02'; SET @perioddate=str_to_date('2022-10-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-02'; SET @perioddate=str_to_date('2022-11-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-02;2022-10-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-02;2022-11-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,18 +2020,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-03</v>
+        <v>2022-11-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-03;2022-10-03.csv</v>
+        <v>2022-11-03;2022-11-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-03'; SET @perioddate=str_to_date('2022-10-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-03'; SET @perioddate=str_to_date('2022-11-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-03;2022-10-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-03;2022-11-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2054,18 +2054,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-04</v>
+        <v>2022-11-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-04;2022-10-04.csv</v>
+        <v>2022-11-04;2022-11-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-04'; SET @perioddate=str_to_date('2022-10-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-04'; SET @perioddate=str_to_date('2022-11-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-04;2022-10-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-04;2022-11-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,18 +2088,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-05</v>
+        <v>2022-11-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-05;2022-10-05.csv</v>
+        <v>2022-11-05;2022-11-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-05'; SET @perioddate=str_to_date('2022-10-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-05'; SET @perioddate=str_to_date('2022-11-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-05;2022-10-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-05;2022-11-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,18 +2122,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-06</v>
+        <v>2022-11-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-06;2022-10-06.csv</v>
+        <v>2022-11-06;2022-11-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-06'; SET @perioddate=str_to_date('2022-10-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-06'; SET @perioddate=str_to_date('2022-11-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-06;2022-10-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-06;2022-11-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-07</v>
+        <v>2022-11-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-07;2022-10-07.csv</v>
+        <v>2022-11-07;2022-11-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-07'; SET @perioddate=str_to_date('2022-10-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-07'; SET @perioddate=str_to_date('2022-11-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-07;2022-10-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-07;2022-11-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,18 +2190,18 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-08</v>
+        <v>2022-11-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-08;2022-10-08.csv</v>
+        <v>2022-11-08;2022-11-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-08'; SET @perioddate=str_to_date('2022-10-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-08'; SET @perioddate=str_to_date('2022-11-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-08;2022-10-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-08;2022-11-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,18 +2224,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-09</v>
+        <v>2022-11-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-09;2022-10-09.csv</v>
+        <v>2022-11-09;2022-11-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-09'; SET @perioddate=str_to_date('2022-10-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-09'; SET @perioddate=str_to_date('2022-11-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-09;2022-10-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-09;2022-11-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,18 +2258,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-10</v>
+        <v>2022-11-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-10;2022-10-10.csv</v>
+        <v>2022-11-10;2022-11-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-10'; SET @perioddate=str_to_date('2022-10-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-10'; SET @perioddate=str_to_date('2022-11-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-10;2022-10-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-10;2022-11-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,18 +2292,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-11</v>
+        <v>2022-11-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-11;2022-10-11.csv</v>
+        <v>2022-11-11;2022-11-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-11'; SET @perioddate=str_to_date('2022-10-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-11'; SET @perioddate=str_to_date('2022-11-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-11;2022-10-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-11;2022-11-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,18 +2326,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-12</v>
+        <v>2022-11-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-12;2022-10-12.csv</v>
+        <v>2022-11-12;2022-11-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-12'; SET @perioddate=str_to_date('2022-10-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-12'; SET @perioddate=str_to_date('2022-11-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-12;2022-10-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-12;2022-11-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,18 +2360,18 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-13</v>
+        <v>2022-11-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-13;2022-10-13.csv</v>
+        <v>2022-11-13;2022-11-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-13'; SET @perioddate=str_to_date('2022-10-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-13'; SET @perioddate=str_to_date('2022-11-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-13;2022-10-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-13;2022-11-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,18 +2394,18 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-14</v>
+        <v>2022-11-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-14;2022-10-14.csv</v>
+        <v>2022-11-14;2022-11-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-14'; SET @perioddate=str_to_date('2022-10-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-14'; SET @perioddate=str_to_date('2022-11-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-14;2022-10-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-14;2022-11-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,18 +2428,18 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-15</v>
+        <v>2022-11-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-15;2022-10-15.csv</v>
+        <v>2022-11-15;2022-11-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-15'; SET @perioddate=str_to_date('2022-10-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-15'; SET @perioddate=str_to_date('2022-11-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-15;2022-10-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-15;2022-11-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,18 +2462,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-16</v>
+        <v>2022-11-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-16;2022-10-16.csv</v>
+        <v>2022-11-16;2022-11-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-16'; SET @perioddate=str_to_date('2022-10-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-16'; SET @perioddate=str_to_date('2022-11-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-16;2022-10-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-16;2022-11-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,18 +2496,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-17</v>
+        <v>2022-11-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-17;2022-10-17.csv</v>
+        <v>2022-11-17;2022-11-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-17'; SET @perioddate=str_to_date('2022-10-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-17'; SET @perioddate=str_to_date('2022-11-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-17;2022-10-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-17;2022-11-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-18</v>
+        <v>2022-11-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-18;2022-10-18.csv</v>
+        <v>2022-11-18;2022-11-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-18'; SET @perioddate=str_to_date('2022-10-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-18'; SET @perioddate=str_to_date('2022-11-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-18;2022-10-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-18;2022-11-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2564,18 +2564,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-19</v>
+        <v>2022-11-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-19;2022-10-19.csv</v>
+        <v>2022-11-19;2022-11-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-19'; SET @perioddate=str_to_date('2022-10-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-19'; SET @perioddate=str_to_date('2022-11-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-19;2022-10-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-19;2022-11-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2598,18 +2598,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-20</v>
+        <v>2022-11-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-20;2022-10-20.csv</v>
+        <v>2022-11-20;2022-11-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-20'; SET @perioddate=str_to_date('2022-10-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-20'; SET @perioddate=str_to_date('2022-11-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-20;2022-10-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-20;2022-11-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2632,18 +2632,18 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-21</v>
+        <v>2022-11-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-21;2022-10-21.csv</v>
+        <v>2022-11-21;2022-11-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-21'; SET @perioddate=str_to_date('2022-10-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-21'; SET @perioddate=str_to_date('2022-11-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-21;2022-10-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-21;2022-11-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,18 +2666,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-22</v>
+        <v>2022-11-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-22;2022-10-22.csv</v>
+        <v>2022-11-22;2022-11-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-22'; SET @perioddate=str_to_date('2022-10-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-22'; SET @perioddate=str_to_date('2022-11-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-22;2022-10-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-22;2022-11-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,18 +2700,18 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-23</v>
+        <v>2022-11-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-23;2022-10-23.csv</v>
+        <v>2022-11-23;2022-11-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-23'; SET @perioddate=str_to_date('2022-10-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-23'; SET @perioddate=str_to_date('2022-11-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-23;2022-10-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-23;2022-11-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,18 +2734,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-24</v>
+        <v>2022-11-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-24;2022-10-24.csv</v>
+        <v>2022-11-24;2022-11-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-24'; SET @perioddate=str_to_date('2022-10-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-24'; SET @perioddate=str_to_date('2022-11-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-24;2022-10-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-24;2022-11-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,18 +2768,18 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-25</v>
+        <v>2022-11-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-25;2022-10-25.csv</v>
+        <v>2022-11-25;2022-11-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-25'; SET @perioddate=str_to_date('2022-10-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-25'; SET @perioddate=str_to_date('2022-11-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-25;2022-10-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-25;2022-11-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-26</v>
+        <v>2022-11-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-26;2022-10-26.csv</v>
+        <v>2022-11-26;2022-11-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-26'; SET @perioddate=str_to_date('2022-10-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-26'; SET @perioddate=str_to_date('2022-11-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-26;2022-10-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-26;2022-11-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,18 +2836,18 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-27</v>
+        <v>2022-11-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-27;2022-10-27.csv</v>
+        <v>2022-11-27;2022-11-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-27'; SET @perioddate=str_to_date('2022-10-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-27'; SET @perioddate=str_to_date('2022-11-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-27;2022-10-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-27;2022-11-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,18 +2870,18 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-28</v>
+        <v>2022-11-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-28;2022-10-28.csv</v>
+        <v>2022-11-28;2022-11-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-28'; SET @perioddate=str_to_date('2022-10-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-28'; SET @perioddate=str_to_date('2022-11-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-28;2022-10-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-28;2022-11-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,18 +2904,18 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-29</v>
+        <v>2022-11-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-29;2022-10-29.csv</v>
+        <v>2022-11-29;2022-11-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-29'; SET @perioddate=str_to_date('2022-10-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-29'; SET @perioddate=str_to_date('2022-11-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-29;2022-10-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-29;2022-11-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,18 +2938,18 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-30</v>
+        <v>2022-11-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-30;2022-10-30.csv</v>
+        <v>2022-11-30;2022-11-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-30'; SET @perioddate=str_to_date('2022-10-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-30'; SET @perioddate=str_to_date('2022-11-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-30;2022-10-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-30;2022-11-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2972,18 +2972,18 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-10-31</v>
+        <v>2022-11-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-10-31;2022-10-31.csv</v>
+        <v>2022-11-31;2022-11-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2022-10-31'; SET @perioddate=str_to_date('2022-10-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2022-11-31'; SET @perioddate=str_to_date('2022-11-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-10-31;2022-10-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-31;2022-11-31.csv'</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">

--- a/loading2.xlsx
+++ b/loading2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85229889-2CC1-40CC-A77B-E7CCBAB74C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77108099-6007-49AD-9087-EC1AE30264B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
     <t>2019</t>
   </si>
   <si>
-    <t>2022</t>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1916,26 +1916,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770770CC-C489-457A-9EB6-2DA41DEEA3E0}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="122" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="101.140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1946,1066 +1947,1098 @@
         <v>2</v>
       </c>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2022-11-01</v>
+        <v>2023-01-01</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2022-11-01;2022-11-01.csv</v>
+        <v>2023-01-01;2023-01-01.csv</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="4" t="str">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="4" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-11-01'; SET @perioddate=str_to_date('2022-11-01','%Y-%m-%d');</v>
-      </c>
-      <c r="I2" s="3" t="str">
+        <v>SET @rundate='2023-01-01'; SET @perioddate=str_to_date('2023-01-01','%Y-%m-%d');</v>
+      </c>
+      <c r="J2" s="3" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-01;2022-11-01.csv'</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-01;2023-01-01.csv'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2022-11-02</v>
+        <v>2023-01-02</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2022-11-02;2022-11-02.csv</v>
+        <v>2023-01-02;2023-01-02.csv</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/")</f>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2022-11-02'; SET @perioddate=str_to_date('2022-11-02','%Y-%m-%d');</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-02;2022-11-02.csv'</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
+        <v>SET @rundate='2023-01-02'; SET @perioddate=str_to_date('2023-01-02','%Y-%m-%d');</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-02;2023-01-02.csv'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-03</v>
+        <v>2023-01-03</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-03;2022-11-03.csv</v>
+        <v>2023-01-03;2023-01-03.csv</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-03'; SET @perioddate=str_to_date('2022-11-03','%Y-%m-%d');</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-03;2022-11-03.csv'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-03'; SET @perioddate=str_to_date('2023-01-03','%Y-%m-%d');</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-03;2023-01-03.csv'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-04</v>
+        <v>2023-01-04</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-04;2022-11-04.csv</v>
+        <v>2023-01-04;2023-01-04.csv</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-04'; SET @perioddate=str_to_date('2022-11-04','%Y-%m-%d');</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-04;2022-11-04.csv'</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-04'; SET @perioddate=str_to_date('2023-01-04','%Y-%m-%d');</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-04;2023-01-04.csv'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-05</v>
+        <v>2023-01-05</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-05;2022-11-05.csv</v>
+        <v>2023-01-05;2023-01-05.csv</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-05'; SET @perioddate=str_to_date('2022-11-05','%Y-%m-%d');</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-05;2022-11-05.csv'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-05'; SET @perioddate=str_to_date('2023-01-05','%Y-%m-%d');</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-05;2023-01-05.csv'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-06</v>
+        <v>2023-01-06</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-06;2022-11-06.csv</v>
+        <v>2023-01-06;2023-01-06.csv</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-06'; SET @perioddate=str_to_date('2022-11-06','%Y-%m-%d');</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-06;2022-11-06.csv'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-06'; SET @perioddate=str_to_date('2023-01-06','%Y-%m-%d');</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-06;2023-01-06.csv'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-07</v>
+        <v>2023-01-07</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-07;2022-11-07.csv</v>
+        <v>2023-01-07;2023-01-07.csv</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-07'; SET @perioddate=str_to_date('2022-11-07','%Y-%m-%d');</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-07;2022-11-07.csv'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-07'; SET @perioddate=str_to_date('2023-01-07','%Y-%m-%d');</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-07;2023-01-07.csv'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-08</v>
+        <v>2023-01-08</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-08;2022-11-08.csv</v>
+        <v>2023-01-08;2023-01-08.csv</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-08'; SET @perioddate=str_to_date('2022-11-08','%Y-%m-%d');</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-08;2022-11-08.csv'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-08'; SET @perioddate=str_to_date('2023-01-08','%Y-%m-%d');</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-08;2023-01-08.csv'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-09</v>
+        <v>2023-01-09</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-09;2022-11-09.csv</v>
+        <v>2023-01-09;2023-01-09.csv</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-09'; SET @perioddate=str_to_date('2022-11-09','%Y-%m-%d');</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-09;2022-11-09.csv'</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-09'; SET @perioddate=str_to_date('2023-01-09','%Y-%m-%d');</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-09;2023-01-09.csv'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-10</v>
+        <v>2023-01-10</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-10;2022-11-10.csv</v>
+        <v>2023-01-10;2023-01-10.csv</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-10'; SET @perioddate=str_to_date('2022-11-10','%Y-%m-%d');</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-10;2022-11-10.csv'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-10'; SET @perioddate=str_to_date('2023-01-10','%Y-%m-%d');</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-10;2023-01-10.csv'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-11</v>
+        <v>2023-01-11</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-11;2022-11-11.csv</v>
+        <v>2023-01-11;2023-01-11.csv</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-11'; SET @perioddate=str_to_date('2022-11-11','%Y-%m-%d');</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-11;2022-11-11.csv'</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-11'; SET @perioddate=str_to_date('2023-01-11','%Y-%m-%d');</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-11;2023-01-11.csv'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-12</v>
+        <v>2023-01-12</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-12;2022-11-12.csv</v>
+        <v>2023-01-12;2023-01-12.csv</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-12'; SET @perioddate=str_to_date('2022-11-12','%Y-%m-%d');</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-12;2022-11-12.csv'</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-12'; SET @perioddate=str_to_date('2023-01-12','%Y-%m-%d');</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-12;2023-01-12.csv'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-13</v>
+        <v>2023-01-13</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-13;2022-11-13.csv</v>
+        <v>2023-01-13;2023-01-13.csv</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-13'; SET @perioddate=str_to_date('2022-11-13','%Y-%m-%d');</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-13;2022-11-13.csv'</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-13'; SET @perioddate=str_to_date('2023-01-13','%Y-%m-%d');</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-13;2023-01-13.csv'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-14</v>
+        <v>2023-01-14</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-14;2022-11-14.csv</v>
+        <v>2023-01-14;2023-01-14.csv</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-14'; SET @perioddate=str_to_date('2022-11-14','%Y-%m-%d');</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-14;2022-11-14.csv'</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-14'; SET @perioddate=str_to_date('2023-01-14','%Y-%m-%d');</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-14;2023-01-14.csv'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-15</v>
+        <v>2023-01-15</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-15;2022-11-15.csv</v>
+        <v>2023-01-15;2023-01-15.csv</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-15'; SET @perioddate=str_to_date('2022-11-15','%Y-%m-%d');</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-15;2022-11-15.csv'</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-15'; SET @perioddate=str_to_date('2023-01-15','%Y-%m-%d');</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-15;2023-01-15.csv'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-16</v>
+        <v>2023-01-16</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-16;2022-11-16.csv</v>
+        <v>2023-01-16;2023-01-16.csv</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-16'; SET @perioddate=str_to_date('2022-11-16','%Y-%m-%d');</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-16;2022-11-16.csv'</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-16'; SET @perioddate=str_to_date('2023-01-16','%Y-%m-%d');</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-16;2023-01-16.csv'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-17</v>
+        <v>2023-01-17</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-17;2022-11-17.csv</v>
+        <v>2023-01-17;2023-01-17.csv</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-17'; SET @perioddate=str_to_date('2022-11-17','%Y-%m-%d');</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-17;2022-11-17.csv'</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-17'; SET @perioddate=str_to_date('2023-01-17','%Y-%m-%d');</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-17;2023-01-17.csv'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-18</v>
+        <v>2023-01-18</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-18;2022-11-18.csv</v>
+        <v>2023-01-18;2023-01-18.csv</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-18'; SET @perioddate=str_to_date('2022-11-18','%Y-%m-%d');</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-18;2022-11-18.csv'</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-18'; SET @perioddate=str_to_date('2023-01-18','%Y-%m-%d');</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-18;2023-01-18.csv'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-19</v>
+        <v>2023-01-19</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-19;2022-11-19.csv</v>
+        <v>2023-01-19;2023-01-19.csv</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-19'; SET @perioddate=str_to_date('2022-11-19','%Y-%m-%d');</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-19;2022-11-19.csv'</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-19'; SET @perioddate=str_to_date('2023-01-19','%Y-%m-%d');</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-19;2023-01-19.csv'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-20</v>
+        <v>2023-01-20</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-20;2022-11-20.csv</v>
+        <v>2023-01-20;2023-01-20.csv</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-20'; SET @perioddate=str_to_date('2022-11-20','%Y-%m-%d');</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-20;2022-11-20.csv'</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-20'; SET @perioddate=str_to_date('2023-01-20','%Y-%m-%d');</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-20;2023-01-20.csv'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-21</v>
+        <v>2023-01-21</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-21;2022-11-21.csv</v>
+        <v>2023-01-21;2023-01-21.csv</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-21'; SET @perioddate=str_to_date('2022-11-21','%Y-%m-%d');</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-21;2022-11-21.csv'</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-21'; SET @perioddate=str_to_date('2023-01-21','%Y-%m-%d');</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-21;2023-01-21.csv'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-22</v>
+        <v>2023-01-22</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-22;2022-11-22.csv</v>
+        <v>2023-01-22;2023-01-22.csv</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-22'; SET @perioddate=str_to_date('2022-11-22','%Y-%m-%d');</v>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-22;2022-11-22.csv'</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-22'; SET @perioddate=str_to_date('2023-01-22','%Y-%m-%d');</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-22;2023-01-22.csv'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-23</v>
+        <v>2023-01-23</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-23;2022-11-23.csv</v>
+        <v>2023-01-23;2023-01-23.csv</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-23'; SET @perioddate=str_to_date('2022-11-23','%Y-%m-%d');</v>
-      </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-23;2022-11-23.csv'</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-23'; SET @perioddate=str_to_date('2023-01-23','%Y-%m-%d');</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-23;2023-01-23.csv'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-24</v>
+        <v>2023-01-24</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-24;2022-11-24.csv</v>
+        <v>2023-01-24;2023-01-24.csv</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-24'; SET @perioddate=str_to_date('2022-11-24','%Y-%m-%d');</v>
-      </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-24;2022-11-24.csv'</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-24'; SET @perioddate=str_to_date('2023-01-24','%Y-%m-%d');</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-24;2023-01-24.csv'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-25</v>
+        <v>2023-01-25</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-25;2022-11-25.csv</v>
+        <v>2023-01-25;2023-01-25.csv</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-25'; SET @perioddate=str_to_date('2022-11-25','%Y-%m-%d');</v>
-      </c>
-      <c r="I26" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-25;2022-11-25.csv'</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-25'; SET @perioddate=str_to_date('2023-01-25','%Y-%m-%d');</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-25;2023-01-25.csv'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-26</v>
+        <v>2023-01-26</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-26;2022-11-26.csv</v>
+        <v>2023-01-26;2023-01-26.csv</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-26'; SET @perioddate=str_to_date('2022-11-26','%Y-%m-%d');</v>
-      </c>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-26;2022-11-26.csv'</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-26'; SET @perioddate=str_to_date('2023-01-26','%Y-%m-%d');</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-26;2023-01-26.csv'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-27</v>
+        <v>2023-01-27</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-27;2022-11-27.csv</v>
+        <v>2023-01-27;2023-01-27.csv</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-27'; SET @perioddate=str_to_date('2022-11-27','%Y-%m-%d');</v>
-      </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-27;2022-11-27.csv'</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-27'; SET @perioddate=str_to_date('2023-01-27','%Y-%m-%d');</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-27;2023-01-27.csv'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-28</v>
+        <v>2023-01-28</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-28;2022-11-28.csv</v>
+        <v>2023-01-28;2023-01-28.csv</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-28'; SET @perioddate=str_to_date('2022-11-28','%Y-%m-%d');</v>
-      </c>
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-28;2022-11-28.csv'</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-28'; SET @perioddate=str_to_date('2023-01-28','%Y-%m-%d');</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-28;2023-01-28.csv'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-29</v>
+        <v>2023-01-29</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-29;2022-11-29.csv</v>
+        <v>2023-01-29;2023-01-29.csv</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-29'; SET @perioddate=str_to_date('2022-11-29','%Y-%m-%d');</v>
-      </c>
-      <c r="I30" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-29;2022-11-29.csv'</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-29'; SET @perioddate=str_to_date('2023-01-29','%Y-%m-%d');</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-29;2023-01-29.csv'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-30</v>
+        <v>2023-01-30</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-30;2022-11-30.csv</v>
+        <v>2023-01-30;2023-01-30.csv</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-30'; SET @perioddate=str_to_date('2022-11-30','%Y-%m-%d');</v>
-      </c>
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-30;2022-11-30.csv'</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-30'; SET @perioddate=str_to_date('2023-01-30','%Y-%m-%d');</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-30;2023-01-30.csv'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2022-11-31</v>
+        <v>2023-01-31</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>2022-11-31;2022-11-31.csv</v>
+        <v>2023-01-31;2023-01-31.csv</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>SET @rundate='2022-11-31'; SET @perioddate=str_to_date('2022-11-31','%Y-%m-%d');</v>
-      </c>
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2022-11-31;2022-11-31.csv'</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>SET @rundate='2023-01-31'; SET @perioddate=str_to_date('2023-01-31','%Y-%m-%d');</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/_csv/2023-01-31;2023-01-31.csv'</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
